--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\امتحانات الكورس الثاني\امتحانات كورس اول 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66A0BB89-0006-4BCE-A022-693C2738B39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9432B11-9478-43B9-B38A-300883369107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{64B607E4-2FA6-4167-B52D-26625A4C85A0}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$O$366</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$365</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2878,10 +2878,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O366"/>
+  <dimension ref="A1:O365"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2904,63 +2904,94 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10">
+        <f>F2+E2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>388</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>389</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>262</v>
@@ -2968,7 +2999,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10">
-        <f>F3+E3</f>
+        <f t="shared" ref="G3:G66" si="0">F3+E3</f>
         <v>0</v>
       </c>
       <c r="H3" s="11" t="s">
@@ -2986,13 +3017,13 @@
     </row>
     <row r="4" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>262</v>
@@ -3000,7 +3031,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10">
-        <f t="shared" ref="G4:G67" si="0">F4+E4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="11" t="s">
@@ -3018,13 +3049,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>262</v>
@@ -3050,13 +3081,13 @@
     </row>
     <row r="6" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>262</v>
@@ -3082,13 +3113,13 @@
     </row>
     <row r="7" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>262</v>
@@ -3114,13 +3145,13 @@
     </row>
     <row r="8" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>262</v>
@@ -3146,13 +3177,13 @@
     </row>
     <row r="9" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>262</v>
@@ -3178,13 +3209,13 @@
     </row>
     <row r="10" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>262</v>
@@ -3210,13 +3241,13 @@
     </row>
     <row r="11" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>262</v>
@@ -3242,13 +3273,13 @@
     </row>
     <row r="12" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>262</v>
@@ -3274,13 +3305,13 @@
     </row>
     <row r="13" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>262</v>
@@ -3306,13 +3337,13 @@
     </row>
     <row r="14" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>262</v>
@@ -3338,13 +3369,13 @@
     </row>
     <row r="15" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>262</v>
@@ -3370,13 +3401,13 @@
     </row>
     <row r="16" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>262</v>
@@ -3402,13 +3433,13 @@
     </row>
     <row r="17" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>262</v>
@@ -3434,13 +3465,13 @@
     </row>
     <row r="18" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>262</v>
@@ -3466,13 +3497,13 @@
     </row>
     <row r="19" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>262</v>
@@ -3498,13 +3529,13 @@
     </row>
     <row r="20" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>262</v>
@@ -3530,13 +3561,13 @@
     </row>
     <row r="21" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>262</v>
@@ -3562,13 +3593,13 @@
     </row>
     <row r="22" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>262</v>
@@ -3594,13 +3625,13 @@
     </row>
     <row r="23" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>262</v>
@@ -3626,13 +3657,13 @@
     </row>
     <row r="24" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>262</v>
@@ -3658,13 +3689,13 @@
     </row>
     <row r="25" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>262</v>
@@ -3690,13 +3721,13 @@
     </row>
     <row r="26" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>262</v>
@@ -3722,13 +3753,13 @@
     </row>
     <row r="27" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>262</v>
@@ -3754,13 +3785,13 @@
     </row>
     <row r="28" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>262</v>
@@ -3786,13 +3817,13 @@
     </row>
     <row r="29" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>262</v>
@@ -3818,16 +3849,16 @@
     </row>
     <row r="30" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>250</v>
+        <v>129</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>262</v>
+        <v>171</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -3850,13 +3881,13 @@
     </row>
     <row r="31" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>171</v>
@@ -3882,13 +3913,13 @@
     </row>
     <row r="32" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>171</v>
@@ -3914,13 +3945,13 @@
     </row>
     <row r="33" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>131</v>
+        <v>318</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>171</v>
@@ -3946,13 +3977,13 @@
     </row>
     <row r="34" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>318</v>
+        <v>132</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>171</v>
@@ -3978,13 +4009,13 @@
     </row>
     <row r="35" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>171</v>
@@ -4010,13 +4041,13 @@
     </row>
     <row r="36" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>171</v>
@@ -4042,13 +4073,13 @@
     </row>
     <row r="37" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>171</v>
@@ -4074,13 +4105,13 @@
     </row>
     <row r="38" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>171</v>
@@ -4106,13 +4137,13 @@
     </row>
     <row r="39" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>171</v>
@@ -4138,13 +4169,13 @@
     </row>
     <row r="40" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>171</v>
@@ -4170,13 +4201,13 @@
     </row>
     <row r="41" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>171</v>
@@ -4202,13 +4233,13 @@
     </row>
     <row r="42" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>171</v>
@@ -4234,13 +4265,13 @@
     </row>
     <row r="43" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>171</v>
@@ -4266,13 +4297,13 @@
     </row>
     <row r="44" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>171</v>
@@ -4298,13 +4329,13 @@
     </row>
     <row r="45" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>171</v>
@@ -4330,13 +4361,13 @@
     </row>
     <row r="46" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>171</v>
@@ -4362,13 +4393,13 @@
     </row>
     <row r="47" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>171</v>
@@ -4394,13 +4425,13 @@
     </row>
     <row r="48" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>171</v>
@@ -4426,13 +4457,13 @@
     </row>
     <row r="49" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>171</v>
@@ -4458,13 +4489,13 @@
     </row>
     <row r="50" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>171</v>
@@ -4490,13 +4521,13 @@
     </row>
     <row r="51" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>171</v>
@@ -4522,13 +4553,13 @@
     </row>
     <row r="52" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>171</v>
@@ -4554,13 +4585,13 @@
     </row>
     <row r="53" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>171</v>
@@ -4586,13 +4617,13 @@
     </row>
     <row r="54" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>171</v>
@@ -4618,13 +4649,13 @@
     </row>
     <row r="55" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>171</v>
@@ -4650,13 +4681,13 @@
     </row>
     <row r="56" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>171</v>
@@ -4682,13 +4713,13 @@
     </row>
     <row r="57" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>171</v>
@@ -4714,13 +4745,13 @@
     </row>
     <row r="58" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>171</v>
@@ -4746,13 +4777,13 @@
     </row>
     <row r="59" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>171</v>
@@ -4778,13 +4809,13 @@
     </row>
     <row r="60" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>171</v>
@@ -4810,13 +4841,13 @@
     </row>
     <row r="61" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>171</v>
@@ -4842,13 +4873,13 @@
     </row>
     <row r="62" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>171</v>
@@ -4874,13 +4905,13 @@
     </row>
     <row r="63" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>171</v>
@@ -4906,13 +4937,13 @@
     </row>
     <row r="64" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>171</v>
@@ -4938,13 +4969,13 @@
     </row>
     <row r="65" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>171</v>
@@ -4970,13 +5001,13 @@
     </row>
     <row r="66" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>171</v>
@@ -5002,13 +5033,13 @@
     </row>
     <row r="67" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>171</v>
@@ -5016,7 +5047,7 @@
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G67:G130" si="1">F67+E67</f>
         <v>0</v>
       </c>
       <c r="H67" s="11" t="s">
@@ -5034,13 +5065,13 @@
     </row>
     <row r="68" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>171</v>
@@ -5048,7 +5079,7 @@
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
       <c r="G68" s="10">
-        <f t="shared" ref="G68:G131" si="1">F68+E68</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H68" s="11" t="s">
@@ -5066,13 +5097,13 @@
     </row>
     <row r="69" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>171</v>
@@ -5098,13 +5129,13 @@
     </row>
     <row r="70" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>171</v>
@@ -5130,13 +5161,13 @@
     </row>
     <row r="71" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>171</v>
@@ -5162,13 +5193,13 @@
     </row>
     <row r="72" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>171</v>
@@ -5194,16 +5225,16 @@
     </row>
     <row r="73" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
@@ -5212,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I73" s="11" t="s">
         <v>752</v>
@@ -5226,13 +5257,13 @@
     </row>
     <row r="74" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>128</v>
@@ -5258,13 +5289,13 @@
     </row>
     <row r="75" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>128</v>
@@ -5290,13 +5321,13 @@
     </row>
     <row r="76" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>128</v>
@@ -5322,13 +5353,13 @@
     </row>
     <row r="77" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>128</v>
@@ -5354,13 +5385,13 @@
     </row>
     <row r="78" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>128</v>
@@ -5386,13 +5417,13 @@
     </row>
     <row r="79" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>128</v>
@@ -5418,13 +5449,13 @@
     </row>
     <row r="80" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>128</v>
@@ -5450,13 +5481,13 @@
     </row>
     <row r="81" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>128</v>
@@ -5482,13 +5513,13 @@
     </row>
     <row r="82" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>128</v>
@@ -5514,13 +5545,13 @@
     </row>
     <row r="83" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>128</v>
@@ -5546,13 +5577,13 @@
     </row>
     <row r="84" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>128</v>
@@ -5578,13 +5609,13 @@
     </row>
     <row r="85" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>128</v>
@@ -5610,13 +5641,13 @@
     </row>
     <row r="86" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>89</v>
+        <v>251</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>128</v>
@@ -5642,13 +5673,13 @@
     </row>
     <row r="87" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>251</v>
+        <v>90</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>128</v>
@@ -5674,13 +5705,13 @@
     </row>
     <row r="88" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>128</v>
@@ -5706,13 +5737,13 @@
     </row>
     <row r="89" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>128</v>
@@ -5738,13 +5769,13 @@
     </row>
     <row r="90" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>128</v>
@@ -5770,13 +5801,13 @@
     </row>
     <row r="91" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>128</v>
@@ -5802,13 +5833,13 @@
     </row>
     <row r="92" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>128</v>
@@ -5834,13 +5865,13 @@
     </row>
     <row r="93" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>128</v>
@@ -5866,13 +5897,13 @@
     </row>
     <row r="94" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>128</v>
@@ -5898,13 +5929,13 @@
     </row>
     <row r="95" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>97</v>
+        <v>252</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>128</v>
@@ -5930,13 +5961,13 @@
     </row>
     <row r="96" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>252</v>
+        <v>98</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>128</v>
@@ -5962,13 +5993,13 @@
     </row>
     <row r="97" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>128</v>
@@ -5994,13 +6025,13 @@
     </row>
     <row r="98" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>128</v>
@@ -6026,13 +6057,13 @@
     </row>
     <row r="99" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>128</v>
@@ -6058,13 +6089,13 @@
     </row>
     <row r="100" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>128</v>
@@ -6090,13 +6121,13 @@
     </row>
     <row r="101" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>128</v>
@@ -6122,13 +6153,13 @@
     </row>
     <row r="102" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>128</v>
@@ -6154,13 +6185,13 @@
     </row>
     <row r="103" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>128</v>
@@ -6186,13 +6217,13 @@
     </row>
     <row r="104" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>128</v>
@@ -6218,13 +6249,13 @@
     </row>
     <row r="105" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>128</v>
@@ -6250,13 +6281,13 @@
     </row>
     <row r="106" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>128</v>
@@ -6282,13 +6313,13 @@
     </row>
     <row r="107" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>254</v>
+        <v>107</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>128</v>
@@ -6314,13 +6345,13 @@
     </row>
     <row r="108" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>128</v>
@@ -6346,13 +6377,13 @@
     </row>
     <row r="109" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>128</v>
@@ -6378,13 +6409,13 @@
     </row>
     <row r="110" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>128</v>
@@ -6410,13 +6441,13 @@
     </row>
     <row r="111" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>128</v>
@@ -6442,13 +6473,13 @@
     </row>
     <row r="112" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>128</v>
@@ -6474,13 +6505,13 @@
     </row>
     <row r="113" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>112</v>
+        <v>319</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>128</v>
@@ -6506,13 +6537,13 @@
     </row>
     <row r="114" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>319</v>
+        <v>255</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>128</v>
@@ -6538,13 +6569,13 @@
     </row>
     <row r="115" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
+        <v>114</v>
+      </c>
+      <c r="B115" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="15" t="s">
-        <v>255</v>
-      </c>
       <c r="C115" s="17" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>128</v>
@@ -6570,13 +6601,13 @@
     </row>
     <row r="116" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
+        <v>115</v>
+      </c>
+      <c r="B116" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B116" s="15" t="s">
-        <v>113</v>
-      </c>
       <c r="C116" s="17" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>128</v>
@@ -6602,13 +6633,13 @@
     </row>
     <row r="117" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
+        <v>116</v>
+      </c>
+      <c r="B117" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B117" s="15" t="s">
-        <v>114</v>
-      </c>
       <c r="C117" s="17" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>128</v>
@@ -6634,13 +6665,13 @@
     </row>
     <row r="118" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7">
+        <v>117</v>
+      </c>
+      <c r="B118" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B118" s="15" t="s">
-        <v>115</v>
-      </c>
       <c r="C118" s="17" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>128</v>
@@ -6666,13 +6697,13 @@
     </row>
     <row r="119" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
+        <v>118</v>
+      </c>
+      <c r="B119" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B119" s="15" t="s">
-        <v>116</v>
-      </c>
       <c r="C119" s="17" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>128</v>
@@ -6698,13 +6729,13 @@
     </row>
     <row r="120" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="7">
+        <v>119</v>
+      </c>
+      <c r="B120" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B120" s="15" t="s">
-        <v>117</v>
-      </c>
       <c r="C120" s="17" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>128</v>
@@ -6730,13 +6761,13 @@
     </row>
     <row r="121" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
+        <v>120</v>
+      </c>
+      <c r="B121" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B121" s="15" t="s">
-        <v>118</v>
-      </c>
       <c r="C121" s="17" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>128</v>
@@ -6762,13 +6793,13 @@
     </row>
     <row r="122" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="7">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>119</v>
+        <v>256</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>128</v>
@@ -6794,13 +6825,13 @@
     </row>
     <row r="123" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>256</v>
+        <v>120</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>128</v>
@@ -6826,13 +6857,13 @@
     </row>
     <row r="124" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="7">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>128</v>
@@ -6858,13 +6889,13 @@
     </row>
     <row r="125" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="7">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>128</v>
@@ -6890,13 +6921,13 @@
     </row>
     <row r="126" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="7">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D126" s="9" t="s">
         <v>128</v>
@@ -6922,13 +6953,13 @@
     </row>
     <row r="127" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>128</v>
@@ -6954,13 +6985,13 @@
     </row>
     <row r="128" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="7">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D128" s="9" t="s">
         <v>128</v>
@@ -6986,13 +7017,13 @@
     </row>
     <row r="129" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>128</v>
@@ -7018,13 +7049,13 @@
     </row>
     <row r="130" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="7">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>126</v>
+        <v>320</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>128</v>
@@ -7050,13 +7081,13 @@
     </row>
     <row r="131" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="7">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>320</v>
+        <v>127</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>128</v>
@@ -7064,7 +7095,7 @@
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
       <c r="G131" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G131:G194" si="2">F131+E131</f>
         <v>0</v>
       </c>
       <c r="H131" s="11" t="s">
@@ -7082,21 +7113,21 @@
     </row>
     <row r="132" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="7">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
       <c r="G132" s="10">
-        <f t="shared" ref="G132:G195" si="2">F132+E132</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H132" s="11" t="s">
@@ -7114,13 +7145,13 @@
     </row>
     <row r="133" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="7">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>222</v>
@@ -7146,13 +7177,13 @@
     </row>
     <row r="134" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="7">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D134" s="9" t="s">
         <v>222</v>
@@ -7178,13 +7209,13 @@
     </row>
     <row r="135" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="7">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D135" s="9" t="s">
         <v>222</v>
@@ -7210,13 +7241,13 @@
     </row>
     <row r="136" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="7">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D136" s="9" t="s">
         <v>222</v>
@@ -7242,13 +7273,13 @@
     </row>
     <row r="137" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="7">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>176</v>
+        <v>321</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D137" s="9" t="s">
         <v>222</v>
@@ -7274,13 +7305,13 @@
     </row>
     <row r="138" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="7">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>321</v>
+        <v>177</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D138" s="9" t="s">
         <v>222</v>
@@ -7306,13 +7337,13 @@
     </row>
     <row r="139" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="7">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D139" s="9" t="s">
         <v>222</v>
@@ -7338,13 +7369,13 @@
     </row>
     <row r="140" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="7">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D140" s="9" t="s">
         <v>222</v>
@@ -7370,13 +7401,13 @@
     </row>
     <row r="141" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="7">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>179</v>
+        <v>322</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D141" s="9" t="s">
         <v>222</v>
@@ -7402,13 +7433,13 @@
     </row>
     <row r="142" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="7">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>322</v>
+        <v>180</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D142" s="9" t="s">
         <v>222</v>
@@ -7434,13 +7465,13 @@
     </row>
     <row r="143" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="7">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D143" s="9" t="s">
         <v>222</v>
@@ -7466,13 +7497,13 @@
     </row>
     <row r="144" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="7">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D144" s="9" t="s">
         <v>222</v>
@@ -7498,13 +7529,13 @@
     </row>
     <row r="145" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="7">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D145" s="9" t="s">
         <v>222</v>
@@ -7530,13 +7561,13 @@
     </row>
     <row r="146" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="7">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>183</v>
+        <v>257</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>222</v>
@@ -7562,13 +7593,13 @@
     </row>
     <row r="147" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="7">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D147" s="9" t="s">
         <v>222</v>
@@ -7594,13 +7625,13 @@
     </row>
     <row r="148" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="7">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D148" s="9" t="s">
         <v>222</v>
@@ -7626,13 +7657,13 @@
     </row>
     <row r="149" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="7">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D149" s="9" t="s">
         <v>222</v>
@@ -7658,13 +7689,13 @@
     </row>
     <row r="150" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="7">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D150" s="9" t="s">
         <v>222</v>
@@ -7690,13 +7721,13 @@
     </row>
     <row r="151" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="7">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D151" s="9" t="s">
         <v>222</v>
@@ -7722,13 +7753,13 @@
     </row>
     <row r="152" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="7">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D152" s="9" t="s">
         <v>222</v>
@@ -7754,13 +7785,13 @@
     </row>
     <row r="153" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="7">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D153" s="9" t="s">
         <v>222</v>
@@ -7786,13 +7817,13 @@
     </row>
     <row r="154" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="7">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D154" s="9" t="s">
         <v>222</v>
@@ -7818,13 +7849,13 @@
     </row>
     <row r="155" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="7">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D155" s="9" t="s">
         <v>222</v>
@@ -7850,13 +7881,13 @@
     </row>
     <row r="156" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="7">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D156" s="9" t="s">
         <v>222</v>
@@ -7882,13 +7913,13 @@
     </row>
     <row r="157" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="7">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D157" s="9" t="s">
         <v>222</v>
@@ -7914,13 +7945,13 @@
     </row>
     <row r="158" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="7">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D158" s="9" t="s">
         <v>222</v>
@@ -7946,13 +7977,13 @@
     </row>
     <row r="159" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="7">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D159" s="9" t="s">
         <v>222</v>
@@ -7978,13 +8009,13 @@
     </row>
     <row r="160" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="7">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D160" s="9" t="s">
         <v>222</v>
@@ -8010,13 +8041,13 @@
     </row>
     <row r="161" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="7">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>197</v>
+        <v>258</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D161" s="9" t="s">
         <v>222</v>
@@ -8042,13 +8073,13 @@
     </row>
     <row r="162" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="7">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D162" s="9" t="s">
         <v>222</v>
@@ -8074,13 +8105,13 @@
     </row>
     <row r="163" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="7">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>222</v>
@@ -8106,13 +8137,13 @@
     </row>
     <row r="164" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="7">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D164" s="9" t="s">
         <v>222</v>
@@ -8138,13 +8169,13 @@
     </row>
     <row r="165" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="7">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D165" s="9" t="s">
         <v>222</v>
@@ -8170,13 +8201,13 @@
     </row>
     <row r="166" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="7">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D166" s="9" t="s">
         <v>222</v>
@@ -8202,13 +8233,13 @@
     </row>
     <row r="167" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="7">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D167" s="9" t="s">
         <v>222</v>
@@ -8234,13 +8265,13 @@
     </row>
     <row r="168" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="7">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D168" s="9" t="s">
         <v>222</v>
@@ -8266,13 +8297,13 @@
     </row>
     <row r="169" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="7">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D169" s="9" t="s">
         <v>222</v>
@@ -8298,13 +8329,13 @@
     </row>
     <row r="170" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="7">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>259</v>
+        <v>205</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D170" s="9" t="s">
         <v>222</v>
@@ -8330,13 +8361,13 @@
     </row>
     <row r="171" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="7">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D171" s="9" t="s">
         <v>222</v>
@@ -8362,13 +8393,13 @@
     </row>
     <row r="172" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="7">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D172" s="9" t="s">
         <v>222</v>
@@ -8394,13 +8425,13 @@
     </row>
     <row r="173" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="7">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D173" s="9" t="s">
         <v>222</v>
@@ -8426,13 +8457,13 @@
     </row>
     <row r="174" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="7">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D174" s="9" t="s">
         <v>222</v>
@@ -8458,13 +8489,13 @@
     </row>
     <row r="175" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="7">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>208</v>
+        <v>323</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D175" s="9" t="s">
         <v>222</v>
@@ -8490,13 +8521,13 @@
     </row>
     <row r="176" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="7">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>323</v>
+        <v>209</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D176" s="9" t="s">
         <v>222</v>
@@ -8522,13 +8553,13 @@
     </row>
     <row r="177" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="7">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D177" s="9" t="s">
         <v>222</v>
@@ -8554,13 +8585,13 @@
     </row>
     <row r="178" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="7">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D178" s="9" t="s">
         <v>222</v>
@@ -8586,13 +8617,13 @@
     </row>
     <row r="179" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="7">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D179" s="9" t="s">
         <v>222</v>
@@ -8618,13 +8649,13 @@
     </row>
     <row r="180" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="7">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D180" s="9" t="s">
         <v>222</v>
@@ -8650,13 +8681,13 @@
     </row>
     <row r="181" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="7">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D181" s="9" t="s">
         <v>222</v>
@@ -8682,13 +8713,13 @@
     </row>
     <row r="182" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="7">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D182" s="9" t="s">
         <v>222</v>
@@ -8714,13 +8745,13 @@
     </row>
     <row r="183" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="7">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>222</v>
@@ -8746,13 +8777,13 @@
     </row>
     <row r="184" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="7">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D184" s="9" t="s">
         <v>222</v>
@@ -8778,13 +8809,13 @@
     </row>
     <row r="185" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="7">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D185" s="9" t="s">
         <v>222</v>
@@ -8810,13 +8841,13 @@
     </row>
     <row r="186" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="7">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D186" s="9" t="s">
         <v>222</v>
@@ -8842,13 +8873,13 @@
     </row>
     <row r="187" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="7">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D187" s="9" t="s">
         <v>222</v>
@@ -8874,13 +8905,13 @@
     </row>
     <row r="188" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="7">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>219</v>
+        <v>324</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D188" s="9" t="s">
         <v>222</v>
@@ -8906,13 +8937,13 @@
     </row>
     <row r="189" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="7">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>324</v>
+        <v>220</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D189" s="9" t="s">
         <v>222</v>
@@ -8938,13 +8969,13 @@
     </row>
     <row r="190" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="7">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D190" s="9" t="s">
         <v>222</v>
@@ -8970,22 +9001,26 @@
     </row>
     <row r="191" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="7">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>221</v>
+        <v>15</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="E191" s="10"/>
-      <c r="F191" s="10"/>
+        <v>76</v>
+      </c>
+      <c r="E191" s="10">
+        <v>36</v>
+      </c>
+      <c r="F191" s="10">
+        <v>11</v>
+      </c>
       <c r="G191" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H191" s="11" t="s">
         <v>387</v>
@@ -8993,35 +9028,44 @@
       <c r="I191" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J191" s="12"/>
+      <c r="J191" s="12" t="str">
+        <f>IF(G191&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K191" s="8"/>
       <c r="L191" s="8"/>
-      <c r="M191" s="8"/>
-      <c r="N191" s="8"/>
-      <c r="O191" s="13"/>
+      <c r="M191" s="8">
+        <v>2</v>
+      </c>
+      <c r="N191" s="8">
+        <v>61</v>
+      </c>
+      <c r="O191" s="13">
+        <v>3.2800000000000003E-2</v>
+      </c>
     </row>
     <row r="192" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="7">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D192" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E192" s="10">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F192" s="10">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G192" s="10">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="H192" s="11" t="s">
         <v>387</v>
@@ -9030,7 +9074,7 @@
         <v>752</v>
       </c>
       <c r="J192" s="12" t="str">
-        <f>IF(G192&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" ref="J192:J251" si="3">IF(G192&gt;=50,"ناجح","راسب")</f>
         <v>راسب</v>
       </c>
       <c r="K192" s="8"/>
@@ -9047,26 +9091,26 @@
     </row>
     <row r="193" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="7">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D193" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E193" s="10">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F193" s="10">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G193" s="10">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="H193" s="11" t="s">
         <v>387</v>
@@ -9075,7 +9119,7 @@
         <v>752</v>
       </c>
       <c r="J193" s="12" t="str">
-        <f t="shared" ref="J193:J252" si="3">IF(G193&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="3"/>
         <v>راسب</v>
       </c>
       <c r="K193" s="8"/>
@@ -9092,26 +9136,26 @@
     </row>
     <row r="194" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="7">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D194" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E194" s="10">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F194" s="10">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G194" s="10">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H194" s="11" t="s">
         <v>387</v>
@@ -9137,26 +9181,26 @@
     </row>
     <row r="195" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="7">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E195" s="10">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F195" s="10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G195" s="10">
-        <f t="shared" si="2"/>
-        <v>29</v>
+        <f t="shared" ref="G195:G258" si="4">F195+E195</f>
+        <v>0</v>
       </c>
       <c r="H195" s="11" t="s">
         <v>387</v>
@@ -9182,26 +9226,26 @@
     </row>
     <row r="196" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="7">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D196" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E196" s="10">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F196" s="10">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G196" s="10">
-        <f t="shared" ref="G196:G259" si="4">F196+E196</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>39</v>
       </c>
       <c r="H196" s="11" t="s">
         <v>387</v>
@@ -9227,26 +9271,26 @@
     </row>
     <row r="197" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="7">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D197" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E197" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F197" s="10">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G197" s="10">
         <f t="shared" si="4"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H197" s="11" t="s">
         <v>387</v>
@@ -9272,26 +9316,26 @@
     </row>
     <row r="198" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="7">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D198" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E198" s="10">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F198" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G198" s="10">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H198" s="11" t="s">
         <v>387</v>
@@ -9317,26 +9361,26 @@
     </row>
     <row r="199" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="7">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C199" s="17" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D199" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E199" s="10">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F199" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G199" s="10">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H199" s="11" t="s">
         <v>387</v>
@@ -9362,26 +9406,26 @@
     </row>
     <row r="200" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="7">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C200" s="17" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D200" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E200" s="10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F200" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G200" s="10">
         <f t="shared" si="4"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H200" s="11" t="s">
         <v>387</v>
@@ -9407,26 +9451,26 @@
     </row>
     <row r="201" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="7">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C201" s="17" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D201" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E201" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F201" s="10">
         <v>5</v>
       </c>
       <c r="G201" s="10">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H201" s="11" t="s">
         <v>387</v>
@@ -9452,26 +9496,26 @@
     </row>
     <row r="202" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="7">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C202" s="17" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D202" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E202" s="10">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F202" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G202" s="10">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H202" s="11" t="s">
         <v>387</v>
@@ -9497,26 +9541,26 @@
     </row>
     <row r="203" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="7">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B203" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C203" s="17" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D203" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E203" s="10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F203" s="10">
         <v>0</v>
       </c>
       <c r="G203" s="10">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H203" s="11" t="s">
         <v>387</v>
@@ -9542,26 +9586,26 @@
     </row>
     <row r="204" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="7">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B204" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D204" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E204" s="10">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F204" s="10">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G204" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H204" s="11" t="s">
         <v>387</v>
@@ -9587,26 +9631,26 @@
     </row>
     <row r="205" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="7">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B205" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C205" s="17" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D205" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E205" s="10">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F205" s="10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G205" s="10">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H205" s="11" t="s">
         <v>387</v>
@@ -9632,26 +9676,26 @@
     </row>
     <row r="206" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="7">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B206" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C206" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D206" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E206" s="10">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F206" s="10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G206" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H206" s="11" t="s">
         <v>387</v>
@@ -9677,26 +9721,26 @@
     </row>
     <row r="207" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="7">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B207" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C207" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D207" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E207" s="10">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F207" s="10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G207" s="10">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H207" s="11" t="s">
         <v>387</v>
@@ -9722,26 +9766,26 @@
     </row>
     <row r="208" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="7">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C208" s="17" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D208" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E208" s="10">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F208" s="10">
         <v>0</v>
       </c>
       <c r="G208" s="10">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H208" s="11" t="s">
         <v>387</v>
@@ -9767,13 +9811,13 @@
     </row>
     <row r="209" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="7">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C209" s="17" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D209" s="9" t="s">
         <v>76</v>
@@ -9812,26 +9856,26 @@
     </row>
     <row r="210" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="7">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B210" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C210" s="17" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D210" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E210" s="10">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F210" s="10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G210" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H210" s="11" t="s">
         <v>387</v>
@@ -9857,26 +9901,26 @@
     </row>
     <row r="211" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="7">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C211" s="17" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D211" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E211" s="10">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F211" s="10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G211" s="10">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H211" s="11" t="s">
         <v>387</v>
@@ -9902,26 +9946,26 @@
     </row>
     <row r="212" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="7">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B212" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C212" s="17" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D212" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E212" s="10">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F212" s="10">
         <v>0</v>
       </c>
       <c r="G212" s="10">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H212" s="11" t="s">
         <v>387</v>
@@ -9947,13 +9991,13 @@
     </row>
     <row r="213" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="7">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B213" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C213" s="17" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D213" s="9" t="s">
         <v>76</v>
@@ -9992,13 +10036,13 @@
     </row>
     <row r="214" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="7">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C214" s="17" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D214" s="9" t="s">
         <v>76</v>
@@ -10037,13 +10081,13 @@
     </row>
     <row r="215" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="7">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B215" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C215" s="17" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D215" s="9" t="s">
         <v>76</v>
@@ -10082,26 +10126,26 @@
     </row>
     <row r="216" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="7">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B216" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C216" s="17" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D216" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E216" s="10">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F216" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G216" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H216" s="11" t="s">
         <v>387</v>
@@ -10127,26 +10171,26 @@
     </row>
     <row r="217" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="7">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C217" s="17" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D217" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E217" s="10">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F217" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G217" s="10">
         <f t="shared" si="4"/>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H217" s="11" t="s">
         <v>387</v>
@@ -10172,26 +10216,26 @@
     </row>
     <row r="218" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="7">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B218" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C218" s="17" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D218" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E218" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F218" s="10">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G218" s="10">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H218" s="11" t="s">
         <v>387</v>
@@ -10217,26 +10261,26 @@
     </row>
     <row r="219" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="7">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C219" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D219" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E219" s="10">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F219" s="10">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G219" s="10">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="H219" s="11" t="s">
         <v>387</v>
@@ -10262,26 +10306,26 @@
     </row>
     <row r="220" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="7">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B220" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C220" s="17" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D220" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E220" s="10">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F220" s="10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G220" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H220" s="11" t="s">
         <v>387</v>
@@ -10307,26 +10351,26 @@
     </row>
     <row r="221" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="7">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C221" s="17" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D221" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E221" s="10">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F221" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G221" s="10">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H221" s="11" t="s">
         <v>387</v>
@@ -10352,26 +10396,26 @@
     </row>
     <row r="222" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="7">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B222" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C222" s="17" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D222" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E222" s="10">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F222" s="10">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G222" s="10">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H222" s="11" t="s">
         <v>387</v>
@@ -10397,26 +10441,26 @@
     </row>
     <row r="223" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="7">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C223" s="17" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D223" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E223" s="10">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F223" s="10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G223" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H223" s="11" t="s">
         <v>387</v>
@@ -10442,26 +10486,26 @@
     </row>
     <row r="224" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="7">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C224" s="17" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D224" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E224" s="10">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F224" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G224" s="10">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H224" s="11" t="s">
         <v>387</v>
@@ -10487,26 +10531,26 @@
     </row>
     <row r="225" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="7">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C225" s="17" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D225" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E225" s="10">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F225" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G225" s="10">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H225" s="11" t="s">
         <v>387</v>
@@ -10532,26 +10576,26 @@
     </row>
     <row r="226" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="7">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C226" s="17" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D226" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E226" s="10">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F226" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G226" s="10">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H226" s="11" t="s">
         <v>387</v>
@@ -10577,26 +10621,26 @@
     </row>
     <row r="227" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="7">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C227" s="17" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D227" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E227" s="10">
+        <v>29</v>
+      </c>
+      <c r="F227" s="10">
         <v>17</v>
-      </c>
-      <c r="F227" s="10">
-        <v>3</v>
       </c>
       <c r="G227" s="10">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H227" s="11" t="s">
         <v>387</v>
@@ -10622,26 +10666,26 @@
     </row>
     <row r="228" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="7">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B228" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C228" s="17" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D228" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E228" s="10">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F228" s="10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G228" s="10">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H228" s="11" t="s">
         <v>387</v>
@@ -10667,26 +10711,26 @@
     </row>
     <row r="229" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="7">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C229" s="17" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D229" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E229" s="10">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F229" s="10">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G229" s="10">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H229" s="11" t="s">
         <v>387</v>
@@ -10712,26 +10756,26 @@
     </row>
     <row r="230" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="7">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C230" s="17" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E230" s="10">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F230" s="10">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G230" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H230" s="11" t="s">
         <v>387</v>
@@ -10757,26 +10801,26 @@
     </row>
     <row r="231" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="7">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C231" s="17" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E231" s="10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F231" s="10">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G231" s="10">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H231" s="11" t="s">
         <v>387</v>
@@ -10802,26 +10846,26 @@
     </row>
     <row r="232" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="7">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C232" s="17" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E232" s="10">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F232" s="10">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G232" s="10">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="H232" s="11" t="s">
         <v>387</v>
@@ -10847,26 +10891,26 @@
     </row>
     <row r="233" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="7">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C233" s="17" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D233" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E233" s="10">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F233" s="10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G233" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H233" s="11" t="s">
         <v>387</v>
@@ -10892,26 +10936,26 @@
     </row>
     <row r="234" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="7">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C234" s="17" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D234" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E234" s="10">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F234" s="10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G234" s="10">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H234" s="11" t="s">
         <v>387</v>
@@ -10937,13 +10981,13 @@
     </row>
     <row r="235" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="7">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C235" s="17" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>76</v>
@@ -10982,26 +11026,26 @@
     </row>
     <row r="236" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="7">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B236" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C236" s="17" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E236" s="10">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F236" s="10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G236" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="H236" s="11" t="s">
         <v>387</v>
@@ -11027,26 +11071,26 @@
     </row>
     <row r="237" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="7">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C237" s="17" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E237" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F237" s="10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G237" s="10">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H237" s="11" t="s">
         <v>387</v>
@@ -11056,10 +11100,14 @@
       </c>
       <c r="J237" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>راسب</v>
-      </c>
-      <c r="K237" s="8"/>
-      <c r="L237" s="8"/>
+        <v>ناجح</v>
+      </c>
+      <c r="K237" s="8">
+        <v>1</v>
+      </c>
+      <c r="L237" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="M237" s="8">
         <v>2</v>
       </c>
@@ -11072,26 +11120,26 @@
     </row>
     <row r="238" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="7">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C238" s="17" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E238" s="10">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F238" s="10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G238" s="10">
         <f t="shared" si="4"/>
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H238" s="11" t="s">
         <v>387</v>
@@ -11101,14 +11149,10 @@
       </c>
       <c r="J238" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>ناجح</v>
-      </c>
-      <c r="K238" s="8">
-        <v>1</v>
-      </c>
-      <c r="L238" s="8" t="s">
-        <v>7</v>
-      </c>
+        <v>راسب</v>
+      </c>
+      <c r="K238" s="8"/>
+      <c r="L238" s="8"/>
       <c r="M238" s="8">
         <v>2</v>
       </c>
@@ -11121,26 +11165,26 @@
     </row>
     <row r="239" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="7">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C239" s="17" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D239" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E239" s="10">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F239" s="10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G239" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="H239" s="11" t="s">
         <v>387</v>
@@ -11166,26 +11210,26 @@
     </row>
     <row r="240" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="7">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C240" s="17" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D240" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E240" s="10">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F240" s="10">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G240" s="10">
         <f t="shared" si="4"/>
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H240" s="11" t="s">
         <v>387</v>
@@ -11211,26 +11255,26 @@
     </row>
     <row r="241" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="7">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C241" s="17" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E241" s="10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F241" s="10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G241" s="10">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H241" s="11" t="s">
         <v>387</v>
@@ -11256,26 +11300,26 @@
     </row>
     <row r="242" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="7">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C242" s="17" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D242" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E242" s="10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F242" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G242" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H242" s="11" t="s">
         <v>387</v>
@@ -11301,26 +11345,26 @@
     </row>
     <row r="243" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="7">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C243" s="17" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D243" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E243" s="10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F243" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G243" s="10">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H243" s="11" t="s">
         <v>387</v>
@@ -11346,26 +11390,26 @@
     </row>
     <row r="244" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="7">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C244" s="17" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D244" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E244" s="10">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F244" s="10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G244" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H244" s="11" t="s">
         <v>387</v>
@@ -11391,26 +11435,26 @@
     </row>
     <row r="245" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="7">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C245" s="17" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D245" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E245" s="10">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F245" s="10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G245" s="10">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H245" s="11" t="s">
         <v>387</v>
@@ -11436,26 +11480,26 @@
     </row>
     <row r="246" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="7">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C246" s="17" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E246" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F246" s="10">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G246" s="10">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H246" s="11" t="s">
         <v>387</v>
@@ -11481,26 +11525,26 @@
     </row>
     <row r="247" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="7">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C247" s="17" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D247" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E247" s="10">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F247" s="10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G247" s="10">
         <f t="shared" si="4"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H247" s="11" t="s">
         <v>387</v>
@@ -11526,26 +11570,26 @@
     </row>
     <row r="248" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="7">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C248" s="17" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D248" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E248" s="10">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F248" s="10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G248" s="10">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H248" s="11" t="s">
         <v>387</v>
@@ -11571,26 +11615,26 @@
     </row>
     <row r="249" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="7">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C249" s="17" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D249" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E249" s="10">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F249" s="10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G249" s="10">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H249" s="11" t="s">
         <v>387</v>
@@ -11600,10 +11644,14 @@
       </c>
       <c r="J249" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>راسب</v>
-      </c>
-      <c r="K249" s="8"/>
-      <c r="L249" s="8"/>
+        <v>ناجح</v>
+      </c>
+      <c r="K249" s="8">
+        <v>1</v>
+      </c>
+      <c r="L249" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="M249" s="8">
         <v>2</v>
       </c>
@@ -11616,26 +11664,26 @@
     </row>
     <row r="250" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="7">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C250" s="17" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D250" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E250" s="10">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F250" s="10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G250" s="10">
         <f t="shared" si="4"/>
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H250" s="11" t="s">
         <v>387</v>
@@ -11645,14 +11693,10 @@
       </c>
       <c r="J250" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>ناجح</v>
-      </c>
-      <c r="K250" s="8">
-        <v>1</v>
-      </c>
-      <c r="L250" s="8" t="s">
-        <v>7</v>
-      </c>
+        <v>راسب</v>
+      </c>
+      <c r="K250" s="8"/>
+      <c r="L250" s="8"/>
       <c r="M250" s="8">
         <v>2</v>
       </c>
@@ -11665,13 +11709,13 @@
     </row>
     <row r="251" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="7">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C251" s="17" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D251" s="9" t="s">
         <v>76</v>
@@ -11710,23 +11754,19 @@
     </row>
     <row r="252" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="7">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B252" s="15" t="s">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="C252" s="17" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E252" s="10">
-        <v>0</v>
-      </c>
-      <c r="F252" s="10">
-        <v>0</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="E252" s="10"/>
+      <c r="F252" s="10"/>
       <c r="G252" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11737,31 +11777,22 @@
       <c r="I252" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J252" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>راسب</v>
-      </c>
+      <c r="J252" s="12"/>
       <c r="K252" s="8"/>
       <c r="L252" s="8"/>
-      <c r="M252" s="8">
-        <v>2</v>
-      </c>
-      <c r="N252" s="8">
-        <v>61</v>
-      </c>
-      <c r="O252" s="13">
-        <v>3.2800000000000003E-2</v>
-      </c>
+      <c r="M252" s="8"/>
+      <c r="N252" s="8"/>
+      <c r="O252" s="13"/>
     </row>
     <row r="253" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="7">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C253" s="17" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D253" s="9" t="s">
         <v>316</v>
@@ -11787,13 +11818,13 @@
     </row>
     <row r="254" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="7">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C254" s="17" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D254" s="9" t="s">
         <v>316</v>
@@ -11819,13 +11850,13 @@
     </row>
     <row r="255" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="7">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C255" s="17" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D255" s="9" t="s">
         <v>316</v>
@@ -11851,13 +11882,13 @@
     </row>
     <row r="256" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="7">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C256" s="17" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D256" s="9" t="s">
         <v>316</v>
@@ -11883,13 +11914,13 @@
     </row>
     <row r="257" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="7">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C257" s="17" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D257" s="9" t="s">
         <v>316</v>
@@ -11915,13 +11946,13 @@
     </row>
     <row r="258" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="7">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C258" s="17" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D258" s="9" t="s">
         <v>316</v>
@@ -11947,13 +11978,13 @@
     </row>
     <row r="259" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="7">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B259" s="15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C259" s="17" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D259" s="9" t="s">
         <v>316</v>
@@ -11961,7 +11992,7 @@
       <c r="E259" s="10"/>
       <c r="F259" s="10"/>
       <c r="G259" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G259:G322" si="5">F259+E259</f>
         <v>0</v>
       </c>
       <c r="H259" s="11" t="s">
@@ -11979,13 +12010,13 @@
     </row>
     <row r="260" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="7">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C260" s="17" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D260" s="9" t="s">
         <v>316</v>
@@ -11993,7 +12024,7 @@
       <c r="E260" s="10"/>
       <c r="F260" s="10"/>
       <c r="G260" s="10">
-        <f t="shared" ref="G260:G323" si="5">F260+E260</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H260" s="11" t="s">
@@ -12011,13 +12042,13 @@
     </row>
     <row r="261" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="7">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C261" s="17" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D261" s="9" t="s">
         <v>316</v>
@@ -12043,13 +12074,13 @@
     </row>
     <row r="262" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="7">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B262" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C262" s="17" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D262" s="9" t="s">
         <v>316</v>
@@ -12075,13 +12106,13 @@
     </row>
     <row r="263" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="7">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C263" s="17" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D263" s="9" t="s">
         <v>316</v>
@@ -12107,13 +12138,13 @@
     </row>
     <row r="264" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="7">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C264" s="17" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D264" s="9" t="s">
         <v>316</v>
@@ -12139,13 +12170,13 @@
     </row>
     <row r="265" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="7">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B265" s="15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C265" s="17" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D265" s="9" t="s">
         <v>316</v>
@@ -12171,13 +12202,13 @@
     </row>
     <row r="266" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="7">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C266" s="17" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D266" s="9" t="s">
         <v>316</v>
@@ -12203,13 +12234,13 @@
     </row>
     <row r="267" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="7">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C267" s="17" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D267" s="9" t="s">
         <v>316</v>
@@ -12235,13 +12266,13 @@
     </row>
     <row r="268" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="7">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B268" s="15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C268" s="17" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D268" s="9" t="s">
         <v>316</v>
@@ -12267,13 +12298,13 @@
     </row>
     <row r="269" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="7">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C269" s="17" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D269" s="9" t="s">
         <v>316</v>
@@ -12299,13 +12330,13 @@
     </row>
     <row r="270" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="7">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C270" s="17" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D270" s="9" t="s">
         <v>316</v>
@@ -12331,13 +12362,13 @@
     </row>
     <row r="271" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="7">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C271" s="17" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D271" s="9" t="s">
         <v>316</v>
@@ -12363,13 +12394,13 @@
     </row>
     <row r="272" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="7">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C272" s="17" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D272" s="9" t="s">
         <v>316</v>
@@ -12395,13 +12426,13 @@
     </row>
     <row r="273" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="7">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C273" s="17" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D273" s="9" t="s">
         <v>316</v>
@@ -12427,13 +12458,13 @@
     </row>
     <row r="274" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="7">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C274" s="17" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D274" s="9" t="s">
         <v>316</v>
@@ -12459,13 +12490,13 @@
     </row>
     <row r="275" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="7">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C275" s="17" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D275" s="9" t="s">
         <v>316</v>
@@ -12491,13 +12522,13 @@
     </row>
     <row r="276" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="7">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B276" s="15" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C276" s="17" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D276" s="9" t="s">
         <v>316</v>
@@ -12523,13 +12554,13 @@
     </row>
     <row r="277" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="7">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C277" s="17" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D277" s="9" t="s">
         <v>316</v>
@@ -12555,13 +12586,13 @@
     </row>
     <row r="278" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="7">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C278" s="17" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D278" s="9" t="s">
         <v>316</v>
@@ -12587,13 +12618,13 @@
     </row>
     <row r="279" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="7">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C279" s="17" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D279" s="9" t="s">
         <v>316</v>
@@ -12619,13 +12650,13 @@
     </row>
     <row r="280" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="7">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C280" s="17" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D280" s="9" t="s">
         <v>316</v>
@@ -12651,13 +12682,13 @@
     </row>
     <row r="281" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="7">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C281" s="17" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D281" s="9" t="s">
         <v>316</v>
@@ -12683,13 +12714,13 @@
     </row>
     <row r="282" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="7">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C282" s="17" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D282" s="9" t="s">
         <v>316</v>
@@ -12715,13 +12746,13 @@
     </row>
     <row r="283" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="7">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B283" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C283" s="17" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D283" s="9" t="s">
         <v>316</v>
@@ -12747,13 +12778,13 @@
     </row>
     <row r="284" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="7">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B284" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C284" s="17" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D284" s="9" t="s">
         <v>316</v>
@@ -12779,13 +12810,13 @@
     </row>
     <row r="285" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="7">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B285" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C285" s="17" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D285" s="9" t="s">
         <v>316</v>
@@ -12811,13 +12842,13 @@
     </row>
     <row r="286" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="7">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B286" s="15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C286" s="17" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D286" s="9" t="s">
         <v>316</v>
@@ -12843,13 +12874,13 @@
     </row>
     <row r="287" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="7">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B287" s="15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C287" s="17" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D287" s="9" t="s">
         <v>316</v>
@@ -12875,13 +12906,13 @@
     </row>
     <row r="288" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="7">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B288" s="15" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C288" s="17" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D288" s="9" t="s">
         <v>316</v>
@@ -12907,13 +12938,13 @@
     </row>
     <row r="289" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="7">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B289" s="15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C289" s="17" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D289" s="9" t="s">
         <v>316</v>
@@ -12939,13 +12970,13 @@
     </row>
     <row r="290" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="7">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B290" s="15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C290" s="17" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D290" s="9" t="s">
         <v>316</v>
@@ -12971,13 +13002,13 @@
     </row>
     <row r="291" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="7">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B291" s="15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C291" s="17" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D291" s="9" t="s">
         <v>316</v>
@@ -13003,13 +13034,13 @@
     </row>
     <row r="292" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="7">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B292" s="15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C292" s="17" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D292" s="9" t="s">
         <v>316</v>
@@ -13035,13 +13066,13 @@
     </row>
     <row r="293" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="7">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B293" s="15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C293" s="17" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D293" s="9" t="s">
         <v>316</v>
@@ -13067,13 +13098,13 @@
     </row>
     <row r="294" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="7">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B294" s="15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C294" s="17" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D294" s="9" t="s">
         <v>316</v>
@@ -13099,13 +13130,13 @@
     </row>
     <row r="295" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="7">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B295" s="15" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C295" s="17" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D295" s="9" t="s">
         <v>316</v>
@@ -13131,13 +13162,13 @@
     </row>
     <row r="296" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="7">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B296" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C296" s="17" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D296" s="9" t="s">
         <v>316</v>
@@ -13163,13 +13194,13 @@
     </row>
     <row r="297" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="7">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B297" s="15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C297" s="17" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D297" s="9" t="s">
         <v>316</v>
@@ -13195,13 +13226,13 @@
     </row>
     <row r="298" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="7">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B298" s="15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C298" s="17" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D298" s="9" t="s">
         <v>316</v>
@@ -13227,13 +13258,13 @@
     </row>
     <row r="299" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="7">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B299" s="15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C299" s="17" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D299" s="9" t="s">
         <v>316</v>
@@ -13259,13 +13290,13 @@
     </row>
     <row r="300" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="7">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B300" s="15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C300" s="17" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D300" s="9" t="s">
         <v>316</v>
@@ -13291,13 +13322,13 @@
     </row>
     <row r="301" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="7">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B301" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C301" s="17" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D301" s="9" t="s">
         <v>316</v>
@@ -13323,13 +13354,13 @@
     </row>
     <row r="302" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="7">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C302" s="17" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D302" s="9" t="s">
         <v>316</v>
@@ -13355,13 +13386,13 @@
     </row>
     <row r="303" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="7">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B303" s="15" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C303" s="17" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D303" s="9" t="s">
         <v>316</v>
@@ -13387,13 +13418,13 @@
     </row>
     <row r="304" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="7">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C304" s="17" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D304" s="9" t="s">
         <v>316</v>
@@ -13419,16 +13450,16 @@
     </row>
     <row r="305" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="7">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B305" s="15" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C305" s="17" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D305" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E305" s="10"/>
       <c r="F305" s="10"/>
@@ -13451,13 +13482,13 @@
     </row>
     <row r="306" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="7">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C306" s="17" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D306" s="9" t="s">
         <v>317</v>
@@ -13483,13 +13514,13 @@
     </row>
     <row r="307" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="7">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B307" s="15" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C307" s="17" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D307" s="9" t="s">
         <v>317</v>
@@ -13515,13 +13546,13 @@
     </row>
     <row r="308" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="7">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B308" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C308" s="17" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D308" s="9" t="s">
         <v>317</v>
@@ -13547,13 +13578,13 @@
     </row>
     <row r="309" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="7">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B309" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C309" s="17" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D309" s="9" t="s">
         <v>317</v>
@@ -13579,13 +13610,13 @@
     </row>
     <row r="310" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="7">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B310" s="15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C310" s="17" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D310" s="9" t="s">
         <v>317</v>
@@ -13611,13 +13642,13 @@
     </row>
     <row r="311" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="7">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B311" s="15" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C311" s="17" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D311" s="9" t="s">
         <v>317</v>
@@ -13643,13 +13674,13 @@
     </row>
     <row r="312" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="7">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C312" s="17" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D312" s="9" t="s">
         <v>317</v>
@@ -13675,13 +13706,13 @@
     </row>
     <row r="313" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="7">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B313" s="15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C313" s="17" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D313" s="9" t="s">
         <v>317</v>
@@ -13707,13 +13738,13 @@
     </row>
     <row r="314" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="7">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C314" s="17" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D314" s="9" t="s">
         <v>317</v>
@@ -13739,13 +13770,13 @@
     </row>
     <row r="315" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="7">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B315" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C315" s="17" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D315" s="9" t="s">
         <v>317</v>
@@ -13771,13 +13802,13 @@
     </row>
     <row r="316" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="7">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B316" s="15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C316" s="17" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D316" s="9" t="s">
         <v>317</v>
@@ -13803,13 +13834,13 @@
     </row>
     <row r="317" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="7">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B317" s="15" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C317" s="17" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D317" s="9" t="s">
         <v>317</v>
@@ -13835,13 +13866,13 @@
     </row>
     <row r="318" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="7">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B318" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C318" s="17" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D318" s="9" t="s">
         <v>317</v>
@@ -13867,13 +13898,13 @@
     </row>
     <row r="319" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="7">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B319" s="15" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C319" s="17" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D319" s="9" t="s">
         <v>317</v>
@@ -13899,13 +13930,13 @@
     </row>
     <row r="320" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="7">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C320" s="17" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D320" s="9" t="s">
         <v>317</v>
@@ -13931,13 +13962,13 @@
     </row>
     <row r="321" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="7">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B321" s="15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C321" s="17" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D321" s="9" t="s">
         <v>317</v>
@@ -13963,13 +13994,13 @@
     </row>
     <row r="322" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="7">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B322" s="15" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C322" s="17" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D322" s="9" t="s">
         <v>317</v>
@@ -13995,13 +14026,13 @@
     </row>
     <row r="323" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="7">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B323" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C323" s="17" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D323" s="9" t="s">
         <v>317</v>
@@ -14009,7 +14040,7 @@
       <c r="E323" s="10"/>
       <c r="F323" s="10"/>
       <c r="G323" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G323:G365" si="6">F323+E323</f>
         <v>0</v>
       </c>
       <c r="H323" s="11" t="s">
@@ -14027,13 +14058,13 @@
     </row>
     <row r="324" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="7">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B324" s="15" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C324" s="17" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D324" s="9" t="s">
         <v>317</v>
@@ -14041,7 +14072,7 @@
       <c r="E324" s="10"/>
       <c r="F324" s="10"/>
       <c r="G324" s="10">
-        <f t="shared" ref="G324:G366" si="6">F324+E324</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H324" s="11" t="s">
@@ -14059,13 +14090,13 @@
     </row>
     <row r="325" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="7">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B325" s="15" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C325" s="17" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D325" s="9" t="s">
         <v>317</v>
@@ -14091,13 +14122,13 @@
     </row>
     <row r="326" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="7">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B326" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C326" s="17" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D326" s="9" t="s">
         <v>317</v>
@@ -14121,15 +14152,15 @@
       <c r="N326" s="8"/>
       <c r="O326" s="13"/>
     </row>
-    <row r="327" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="7">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B327" s="15" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C327" s="17" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D327" s="9" t="s">
         <v>317</v>
@@ -14155,13 +14186,13 @@
     </row>
     <row r="328" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="7">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B328" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C328" s="17" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D328" s="9" t="s">
         <v>317</v>
@@ -14187,13 +14218,13 @@
     </row>
     <row r="329" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="7">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B329" s="15" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C329" s="17" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D329" s="9" t="s">
         <v>317</v>
@@ -14219,13 +14250,13 @@
     </row>
     <row r="330" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="7">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B330" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C330" s="17" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D330" s="9" t="s">
         <v>317</v>
@@ -14251,13 +14282,13 @@
     </row>
     <row r="331" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="7">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B331" s="15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C331" s="17" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D331" s="9" t="s">
         <v>317</v>
@@ -14283,13 +14314,13 @@
     </row>
     <row r="332" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="7">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B332" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C332" s="17" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D332" s="9" t="s">
         <v>317</v>
@@ -14315,13 +14346,13 @@
     </row>
     <row r="333" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="7">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B333" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C333" s="17" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D333" s="9" t="s">
         <v>317</v>
@@ -14347,13 +14378,13 @@
     </row>
     <row r="334" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="7">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B334" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C334" s="17" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D334" s="9" t="s">
         <v>317</v>
@@ -14379,13 +14410,13 @@
     </row>
     <row r="335" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="7">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B335" s="15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C335" s="17" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D335" s="9" t="s">
         <v>317</v>
@@ -14411,13 +14442,13 @@
     </row>
     <row r="336" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="7">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B336" s="15" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C336" s="17" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D336" s="9" t="s">
         <v>317</v>
@@ -14443,13 +14474,13 @@
     </row>
     <row r="337" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="7">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B337" s="15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C337" s="17" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D337" s="9" t="s">
         <v>317</v>
@@ -14475,13 +14506,13 @@
     </row>
     <row r="338" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="7">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B338" s="15" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C338" s="17" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D338" s="9" t="s">
         <v>317</v>
@@ -14507,13 +14538,13 @@
     </row>
     <row r="339" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="7">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B339" s="15" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C339" s="17" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D339" s="9" t="s">
         <v>317</v>
@@ -14539,13 +14570,13 @@
     </row>
     <row r="340" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="7">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B340" s="15" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C340" s="17" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D340" s="9" t="s">
         <v>317</v>
@@ -14571,13 +14602,13 @@
     </row>
     <row r="341" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="7">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B341" s="15" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C341" s="17" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D341" s="9" t="s">
         <v>317</v>
@@ -14603,13 +14634,13 @@
     </row>
     <row r="342" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="7">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B342" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C342" s="17" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D342" s="9" t="s">
         <v>317</v>
@@ -14635,13 +14666,13 @@
     </row>
     <row r="343" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="7">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B343" s="15" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C343" s="17" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D343" s="9" t="s">
         <v>317</v>
@@ -14667,13 +14698,13 @@
     </row>
     <row r="344" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="7">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B344" s="15" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C344" s="17" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D344" s="9" t="s">
         <v>317</v>
@@ -14699,13 +14730,13 @@
     </row>
     <row r="345" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="7">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B345" s="15" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C345" s="17" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D345" s="9" t="s">
         <v>317</v>
@@ -14731,13 +14762,13 @@
     </row>
     <row r="346" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="7">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B346" s="15" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C346" s="17" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D346" s="9" t="s">
         <v>317</v>
@@ -14763,13 +14794,13 @@
     </row>
     <row r="347" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="7">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C347" s="17" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D347" s="9" t="s">
         <v>317</v>
@@ -14795,13 +14826,13 @@
     </row>
     <row r="348" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="7">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B348" s="15" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C348" s="17" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D348" s="9" t="s">
         <v>317</v>
@@ -14827,13 +14858,13 @@
     </row>
     <row r="349" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="7">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B349" s="15" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C349" s="17" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D349" s="9" t="s">
         <v>317</v>
@@ -14859,13 +14890,13 @@
     </row>
     <row r="350" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="7">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B350" s="15" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C350" s="17" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D350" s="9" t="s">
         <v>317</v>
@@ -14891,13 +14922,13 @@
     </row>
     <row r="351" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="7">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B351" s="15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C351" s="17" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D351" s="9" t="s">
         <v>317</v>
@@ -14923,13 +14954,13 @@
     </row>
     <row r="352" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="7">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B352" s="15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C352" s="17" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D352" s="9" t="s">
         <v>317</v>
@@ -14955,13 +14986,13 @@
     </row>
     <row r="353" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="7">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B353" s="15" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C353" s="17" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D353" s="9" t="s">
         <v>317</v>
@@ -14987,13 +15018,13 @@
     </row>
     <row r="354" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="7">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B354" s="15" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C354" s="17" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D354" s="9" t="s">
         <v>317</v>
@@ -15019,13 +15050,13 @@
     </row>
     <row r="355" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="7">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B355" s="15" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C355" s="17" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D355" s="9" t="s">
         <v>317</v>
@@ -15051,13 +15082,13 @@
     </row>
     <row r="356" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="7">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B356" s="15" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C356" s="17" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D356" s="9" t="s">
         <v>317</v>
@@ -15083,13 +15114,13 @@
     </row>
     <row r="357" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="7">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B357" s="15" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C357" s="17" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D357" s="9" t="s">
         <v>317</v>
@@ -15115,13 +15146,13 @@
     </row>
     <row r="358" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="7">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B358" s="15" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C358" s="17" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D358" s="9" t="s">
         <v>317</v>
@@ -15147,13 +15178,13 @@
     </row>
     <row r="359" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="7">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B359" s="15" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C359" s="17" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D359" s="9" t="s">
         <v>317</v>
@@ -15179,13 +15210,13 @@
     </row>
     <row r="360" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="7">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B360" s="15" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C360" s="17" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D360" s="9" t="s">
         <v>317</v>
@@ -15211,13 +15242,13 @@
     </row>
     <row r="361" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="7">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B361" s="15" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C361" s="17" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D361" s="9" t="s">
         <v>317</v>
@@ -15243,13 +15274,13 @@
     </row>
     <row r="362" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="7">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B362" s="15" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C362" s="17" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D362" s="9" t="s">
         <v>317</v>
@@ -15275,13 +15306,13 @@
     </row>
     <row r="363" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="7">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B363" s="15" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C363" s="17" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D363" s="9" t="s">
         <v>317</v>
@@ -15307,13 +15338,13 @@
     </row>
     <row r="364" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="7">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B364" s="15" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C364" s="17" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D364" s="9" t="s">
         <v>317</v>
@@ -15339,13 +15370,13 @@
     </row>
     <row r="365" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="7">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B365" s="15" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C365" s="17" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D365" s="9" t="s">
         <v>317</v>
@@ -15369,41 +15400,9 @@
       <c r="N365" s="8"/>
       <c r="O365" s="13"/>
     </row>
-    <row r="366" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="7">
-        <v>364</v>
-      </c>
-      <c r="B366" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="C366" s="17" t="s">
-        <v>751</v>
-      </c>
-      <c r="D366" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="E366" s="10"/>
-      <c r="F366" s="10"/>
-      <c r="G366" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H366" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="I366" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="J366" s="12"/>
-      <c r="K366" s="8"/>
-      <c r="L366" s="8"/>
-      <c r="M366" s="8"/>
-      <c r="N366" s="8"/>
-      <c r="O366" s="13"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A275:O323">
-    <sortCondition descending="1" ref="G3:G323"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A274:O322">
+    <sortCondition descending="1" ref="G2:G322"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\امتحانات الكورس الثاني\امتحانات كورس اول 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9432B11-9478-43B9-B38A-300883369107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806B969D-8507-4111-BEF4-804D09BB9C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{64B607E4-2FA6-4167-B52D-26625A4C85A0}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="753">
   <si>
     <t>الاسم الكامل</t>
   </si>
@@ -2502,7 +2502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2550,6 +2550,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2881,7 +2884,7 @@
   <dimension ref="A1:O365"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J377" sqref="J377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2976,7 +2979,10 @@
       <c r="I2" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J2" s="12"/>
+      <c r="J2" s="12" t="str">
+        <f>IF(G2&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -3008,7 +3014,10 @@
       <c r="I3" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J3" s="12"/>
+      <c r="J3" s="12" t="str">
+        <f t="shared" ref="J3:J66" si="1">IF(G3&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -3040,7 +3049,10 @@
       <c r="I4" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -3072,7 +3084,10 @@
       <c r="I5" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J5" s="12"/>
+      <c r="J5" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -3104,7 +3119,10 @@
       <c r="I6" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J6" s="12"/>
+      <c r="J6" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -3136,7 +3154,10 @@
       <c r="I7" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J7" s="12"/>
+      <c r="J7" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -3168,7 +3189,10 @@
       <c r="I8" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J8" s="12"/>
+      <c r="J8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -3200,7 +3224,10 @@
       <c r="I9" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J9" s="12"/>
+      <c r="J9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -3232,7 +3259,10 @@
       <c r="I10" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J10" s="12"/>
+      <c r="J10" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -3264,7 +3294,10 @@
       <c r="I11" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J11" s="12"/>
+      <c r="J11" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -3296,7 +3329,10 @@
       <c r="I12" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J12" s="12"/>
+      <c r="J12" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -3328,7 +3364,10 @@
       <c r="I13" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J13" s="12"/>
+      <c r="J13" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
@@ -3360,7 +3399,10 @@
       <c r="I14" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J14" s="12"/>
+      <c r="J14" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
@@ -3392,7 +3434,10 @@
       <c r="I15" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J15" s="12"/>
+      <c r="J15" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
@@ -3424,7 +3469,10 @@
       <c r="I16" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J16" s="12"/>
+      <c r="J16" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
@@ -3456,7 +3504,10 @@
       <c r="I17" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J17" s="12"/>
+      <c r="J17" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
@@ -3488,7 +3539,10 @@
       <c r="I18" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J18" s="12"/>
+      <c r="J18" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -3520,7 +3574,10 @@
       <c r="I19" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J19" s="12"/>
+      <c r="J19" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -3552,7 +3609,10 @@
       <c r="I20" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J20" s="12"/>
+      <c r="J20" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -3584,7 +3644,10 @@
       <c r="I21" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J21" s="12"/>
+      <c r="J21" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
@@ -3616,7 +3679,10 @@
       <c r="I22" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J22" s="12"/>
+      <c r="J22" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
@@ -3648,7 +3714,10 @@
       <c r="I23" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J23" s="12"/>
+      <c r="J23" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -3680,7 +3749,10 @@
       <c r="I24" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J24" s="12"/>
+      <c r="J24" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
@@ -3712,7 +3784,10 @@
       <c r="I25" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J25" s="12"/>
+      <c r="J25" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -3744,7 +3819,10 @@
       <c r="I26" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J26" s="12"/>
+      <c r="J26" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -3776,7 +3854,10 @@
       <c r="I27" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J27" s="12"/>
+      <c r="J27" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -3808,7 +3889,10 @@
       <c r="I28" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J28" s="12"/>
+      <c r="J28" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
@@ -3840,7 +3924,10 @@
       <c r="I29" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J29" s="12"/>
+      <c r="J29" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -3872,7 +3959,10 @@
       <c r="I30" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J30" s="12"/>
+      <c r="J30" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
@@ -3904,7 +3994,10 @@
       <c r="I31" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J31" s="12"/>
+      <c r="J31" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
@@ -3936,7 +4029,10 @@
       <c r="I32" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J32" s="12"/>
+      <c r="J32" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
@@ -3968,7 +4064,10 @@
       <c r="I33" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J33" s="12"/>
+      <c r="J33" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
@@ -4000,7 +4099,10 @@
       <c r="I34" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J34" s="12"/>
+      <c r="J34" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
@@ -4032,7 +4134,10 @@
       <c r="I35" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J35" s="12"/>
+      <c r="J35" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
@@ -4064,7 +4169,10 @@
       <c r="I36" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J36" s="12"/>
+      <c r="J36" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
@@ -4096,7 +4204,10 @@
       <c r="I37" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J37" s="12"/>
+      <c r="J37" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
@@ -4128,7 +4239,10 @@
       <c r="I38" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J38" s="12"/>
+      <c r="J38" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
@@ -4160,7 +4274,10 @@
       <c r="I39" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J39" s="12"/>
+      <c r="J39" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
@@ -4192,7 +4309,10 @@
       <c r="I40" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J40" s="12"/>
+      <c r="J40" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
@@ -4224,7 +4344,10 @@
       <c r="I41" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J41" s="12"/>
+      <c r="J41" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
@@ -4256,7 +4379,10 @@
       <c r="I42" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J42" s="12"/>
+      <c r="J42" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
@@ -4288,7 +4414,10 @@
       <c r="I43" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J43" s="12"/>
+      <c r="J43" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
@@ -4320,7 +4449,10 @@
       <c r="I44" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J44" s="12"/>
+      <c r="J44" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
@@ -4352,7 +4484,10 @@
       <c r="I45" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J45" s="12"/>
+      <c r="J45" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
@@ -4384,7 +4519,10 @@
       <c r="I46" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J46" s="12"/>
+      <c r="J46" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
@@ -4416,7 +4554,10 @@
       <c r="I47" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J47" s="12"/>
+      <c r="J47" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
@@ -4448,7 +4589,10 @@
       <c r="I48" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J48" s="12"/>
+      <c r="J48" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
@@ -4480,7 +4624,10 @@
       <c r="I49" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J49" s="12"/>
+      <c r="J49" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
@@ -4512,7 +4659,10 @@
       <c r="I50" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J50" s="12"/>
+      <c r="J50" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
@@ -4544,7 +4694,10 @@
       <c r="I51" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J51" s="12"/>
+      <c r="J51" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
@@ -4576,7 +4729,10 @@
       <c r="I52" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J52" s="12"/>
+      <c r="J52" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
@@ -4608,7 +4764,10 @@
       <c r="I53" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J53" s="12"/>
+      <c r="J53" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
@@ -4640,7 +4799,10 @@
       <c r="I54" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J54" s="12"/>
+      <c r="J54" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
@@ -4672,7 +4834,10 @@
       <c r="I55" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J55" s="12"/>
+      <c r="J55" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
@@ -4704,7 +4869,10 @@
       <c r="I56" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J56" s="12"/>
+      <c r="J56" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
@@ -4736,7 +4904,10 @@
       <c r="I57" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J57" s="12"/>
+      <c r="J57" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
@@ -4768,7 +4939,10 @@
       <c r="I58" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J58" s="12"/>
+      <c r="J58" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
@@ -4800,7 +4974,10 @@
       <c r="I59" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J59" s="12"/>
+      <c r="J59" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
@@ -4832,7 +5009,10 @@
       <c r="I60" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J60" s="12"/>
+      <c r="J60" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
@@ -4864,7 +5044,10 @@
       <c r="I61" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J61" s="12"/>
+      <c r="J61" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
@@ -4896,7 +5079,10 @@
       <c r="I62" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J62" s="12"/>
+      <c r="J62" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
@@ -4928,7 +5114,10 @@
       <c r="I63" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J63" s="12"/>
+      <c r="J63" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
@@ -4960,7 +5149,10 @@
       <c r="I64" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J64" s="12"/>
+      <c r="J64" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
@@ -4992,7 +5184,10 @@
       <c r="I65" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J65" s="12"/>
+      <c r="J65" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
@@ -5024,7 +5219,10 @@
       <c r="I66" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J66" s="12"/>
+      <c r="J66" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>راسب</v>
+      </c>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
@@ -5047,7 +5245,7 @@
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10">
-        <f t="shared" ref="G67:G130" si="1">F67+E67</f>
+        <f t="shared" ref="G67:G130" si="2">F67+E67</f>
         <v>0</v>
       </c>
       <c r="H67" s="11" t="s">
@@ -5056,7 +5254,10 @@
       <c r="I67" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J67" s="12"/>
+      <c r="J67" s="12" t="str">
+        <f t="shared" ref="J67:J130" si="3">IF(G67&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
       <c r="M67" s="8"/>
@@ -5079,7 +5280,7 @@
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
       <c r="G68" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H68" s="11" t="s">
@@ -5088,7 +5289,10 @@
       <c r="I68" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J68" s="12"/>
+      <c r="J68" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>راسب</v>
+      </c>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
@@ -5111,7 +5315,7 @@
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
       <c r="G69" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H69" s="11" t="s">
@@ -5120,7 +5324,10 @@
       <c r="I69" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J69" s="12"/>
+      <c r="J69" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>راسب</v>
+      </c>
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
       <c r="M69" s="8"/>
@@ -5143,7 +5350,7 @@
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
       <c r="G70" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H70" s="11" t="s">
@@ -5152,7 +5359,10 @@
       <c r="I70" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J70" s="12"/>
+      <c r="J70" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>راسب</v>
+      </c>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="M70" s="8"/>
@@ -5175,7 +5385,7 @@
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
       <c r="G71" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H71" s="11" t="s">
@@ -5184,7 +5394,10 @@
       <c r="I71" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J71" s="12"/>
+      <c r="J71" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>راسب</v>
+      </c>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="M71" s="8"/>
@@ -5207,7 +5420,7 @@
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
       <c r="G72" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H72" s="11" t="s">
@@ -5216,7 +5429,10 @@
       <c r="I72" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J72" s="12"/>
+      <c r="J72" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>راسب</v>
+      </c>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="8"/>
@@ -5236,11 +5452,15 @@
       <c r="D73" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
+      <c r="E73" s="10">
+        <v>27</v>
+      </c>
+      <c r="F73" s="10">
+        <v>7</v>
+      </c>
       <c r="G73" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>34</v>
       </c>
       <c r="H73" s="11" t="s">
         <v>387</v>
@@ -5248,12 +5468,21 @@
       <c r="I73" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J73" s="12"/>
+      <c r="J73" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>راسب</v>
+      </c>
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="13"/>
+      <c r="M73" s="8">
+        <v>5</v>
+      </c>
+      <c r="N73" s="8">
+        <v>59</v>
+      </c>
+      <c r="O73" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="74" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
@@ -5268,11 +5497,15 @@
       <c r="D74" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
+      <c r="E74" s="10">
+        <v>27</v>
+      </c>
+      <c r="F74" s="10">
+        <v>11</v>
+      </c>
       <c r="G74" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>38</v>
       </c>
       <c r="H74" s="11" t="s">
         <v>387</v>
@@ -5280,14 +5513,23 @@
       <c r="I74" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J74" s="12"/>
+      <c r="J74" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>راسب</v>
+      </c>
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="13"/>
-    </row>
-    <row r="75" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M74" s="8">
+        <v>5</v>
+      </c>
+      <c r="N74" s="8">
+        <v>59</v>
+      </c>
+      <c r="O74" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7">
         <v>74</v>
       </c>
@@ -5300,11 +5542,15 @@
       <c r="D75" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
+      <c r="E75" s="10">
+        <v>39</v>
+      </c>
+      <c r="F75" s="10">
+        <v>12</v>
+      </c>
       <c r="G75" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F75+E75</f>
+        <v>51</v>
       </c>
       <c r="H75" s="11" t="s">
         <v>387</v>
@@ -5312,12 +5558,25 @@
       <c r="I75" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J75" s="12"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="13"/>
+      <c r="J75" s="12" t="str">
+        <f>IF(G75&gt;=50,"ناجح","راسب")</f>
+        <v>ناجح</v>
+      </c>
+      <c r="K75" s="8">
+        <v>1</v>
+      </c>
+      <c r="L75" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M75" s="8">
+        <v>5</v>
+      </c>
+      <c r="N75" s="8">
+        <v>59</v>
+      </c>
+      <c r="O75" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="76" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
@@ -5332,11 +5591,15 @@
       <c r="D76" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
+      <c r="E76" s="10">
+        <v>24</v>
+      </c>
+      <c r="F76" s="10">
+        <v>14</v>
+      </c>
       <c r="G76" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F76+E76</f>
+        <v>38</v>
       </c>
       <c r="H76" s="11" t="s">
         <v>387</v>
@@ -5344,31 +5607,44 @@
       <c r="I76" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J76" s="12"/>
+      <c r="J76" s="12" t="str">
+        <f>IF(G76&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="13"/>
-    </row>
-    <row r="77" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M76" s="8">
+        <v>5</v>
+      </c>
+      <c r="N76" s="8">
+        <v>59</v>
+      </c>
+      <c r="O76" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="7">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
+      <c r="E77" s="10">
+        <v>40</v>
+      </c>
+      <c r="F77" s="10">
+        <v>11</v>
+      </c>
       <c r="G77" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F77+E77</f>
+        <v>51</v>
       </c>
       <c r="H77" s="11" t="s">
         <v>387</v>
@@ -5376,12 +5652,25 @@
       <c r="I77" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J77" s="12"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="13"/>
+      <c r="J77" s="12" t="str">
+        <f>IF(G77&gt;=50,"ناجح","راسب")</f>
+        <v>ناجح</v>
+      </c>
+      <c r="K77" s="8">
+        <v>1</v>
+      </c>
+      <c r="L77" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M77" s="8">
+        <v>5</v>
+      </c>
+      <c r="N77" s="8">
+        <v>59</v>
+      </c>
+      <c r="O77" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="78" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
@@ -5396,11 +5685,15 @@
       <c r="D78" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
+      <c r="E78" s="10">
+        <v>29</v>
+      </c>
+      <c r="F78" s="10">
+        <v>20</v>
+      </c>
       <c r="G78" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F78+E78</f>
+        <v>49</v>
       </c>
       <c r="H78" s="11" t="s">
         <v>387</v>
@@ -5408,12 +5701,21 @@
       <c r="I78" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J78" s="12"/>
+      <c r="J78" s="12" t="str">
+        <f>IF(G78&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="13"/>
+      <c r="M78" s="8">
+        <v>5</v>
+      </c>
+      <c r="N78" s="8">
+        <v>59</v>
+      </c>
+      <c r="O78" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="79" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
@@ -5428,11 +5730,15 @@
       <c r="D79" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
+      <c r="E79" s="10">
+        <v>31</v>
+      </c>
+      <c r="F79" s="10">
+        <v>12</v>
+      </c>
       <c r="G79" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F79+E79</f>
+        <v>43</v>
       </c>
       <c r="H79" s="11" t="s">
         <v>387</v>
@@ -5440,12 +5746,21 @@
       <c r="I79" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J79" s="12"/>
+      <c r="J79" s="12" t="str">
+        <f>IF(G79&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="13"/>
+      <c r="M79" s="8">
+        <v>5</v>
+      </c>
+      <c r="N79" s="8">
+        <v>59</v>
+      </c>
+      <c r="O79" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="80" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
@@ -5460,11 +5775,15 @@
       <c r="D80" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
+      <c r="E80" s="10">
+        <v>21</v>
+      </c>
+      <c r="F80" s="10">
+        <v>9</v>
+      </c>
       <c r="G80" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F80+E80</f>
+        <v>30</v>
       </c>
       <c r="H80" s="11" t="s">
         <v>387</v>
@@ -5472,12 +5791,21 @@
       <c r="I80" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J80" s="12"/>
+      <c r="J80" s="12" t="str">
+        <f>IF(G80&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
-      <c r="O80" s="13"/>
+      <c r="M80" s="8">
+        <v>5</v>
+      </c>
+      <c r="N80" s="8">
+        <v>59</v>
+      </c>
+      <c r="O80" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="81" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
@@ -5492,10 +5820,14 @@
       <c r="D81" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
+      <c r="E81" s="10">
+        <v>0</v>
+      </c>
+      <c r="F81" s="10">
+        <v>0</v>
+      </c>
       <c r="G81" s="10">
-        <f t="shared" si="1"/>
+        <f>F81+E81</f>
         <v>0</v>
       </c>
       <c r="H81" s="11" t="s">
@@ -5504,12 +5836,21 @@
       <c r="I81" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J81" s="12"/>
+      <c r="J81" s="12" t="str">
+        <f>IF(G81&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="13"/>
+      <c r="M81" s="8">
+        <v>5</v>
+      </c>
+      <c r="N81" s="8">
+        <v>59</v>
+      </c>
+      <c r="O81" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="82" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
@@ -5524,11 +5865,15 @@
       <c r="D82" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
+      <c r="E82" s="10">
+        <v>28</v>
+      </c>
+      <c r="F82" s="10">
+        <v>4</v>
+      </c>
       <c r="G82" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F82+E82</f>
+        <v>32</v>
       </c>
       <c r="H82" s="11" t="s">
         <v>387</v>
@@ -5536,12 +5881,21 @@
       <c r="I82" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J82" s="12"/>
+      <c r="J82" s="12" t="str">
+        <f>IF(G82&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
-      <c r="O82" s="13"/>
+      <c r="M82" s="8">
+        <v>5</v>
+      </c>
+      <c r="N82" s="8">
+        <v>59</v>
+      </c>
+      <c r="O82" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="83" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
@@ -5556,10 +5910,14 @@
       <c r="D83" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
+      <c r="E83" s="10">
+        <v>0</v>
+      </c>
+      <c r="F83" s="10">
+        <v>0</v>
+      </c>
       <c r="G83" s="10">
-        <f t="shared" si="1"/>
+        <f>F83+E83</f>
         <v>0</v>
       </c>
       <c r="H83" s="11" t="s">
@@ -5568,12 +5926,21 @@
       <c r="I83" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J83" s="12"/>
+      <c r="J83" s="12" t="str">
+        <f>IF(G83&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
-      <c r="O83" s="13"/>
+      <c r="M83" s="8">
+        <v>5</v>
+      </c>
+      <c r="N83" s="8">
+        <v>59</v>
+      </c>
+      <c r="O83" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="84" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
@@ -5588,10 +5955,14 @@
       <c r="D84" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
+      <c r="E84" s="10">
+        <v>0</v>
+      </c>
+      <c r="F84" s="10">
+        <v>0</v>
+      </c>
       <c r="G84" s="10">
-        <f t="shared" si="1"/>
+        <f>F84+E84</f>
         <v>0</v>
       </c>
       <c r="H84" s="11" t="s">
@@ -5600,12 +5971,21 @@
       <c r="I84" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J84" s="12"/>
+      <c r="J84" s="12" t="str">
+        <f>IF(G84&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
-      <c r="O84" s="13"/>
+      <c r="M84" s="8">
+        <v>5</v>
+      </c>
+      <c r="N84" s="8">
+        <v>59</v>
+      </c>
+      <c r="O84" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="85" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
@@ -5620,10 +6000,14 @@
       <c r="D85" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
+      <c r="E85" s="10">
+        <v>0</v>
+      </c>
+      <c r="F85" s="10">
+        <v>0</v>
+      </c>
       <c r="G85" s="10">
-        <f t="shared" si="1"/>
+        <f>F85+E85</f>
         <v>0</v>
       </c>
       <c r="H85" s="11" t="s">
@@ -5632,12 +6016,21 @@
       <c r="I85" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J85" s="12"/>
+      <c r="J85" s="12" t="str">
+        <f>IF(G85&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
-      <c r="O85" s="13"/>
+      <c r="M85" s="8">
+        <v>5</v>
+      </c>
+      <c r="N85" s="8">
+        <v>59</v>
+      </c>
+      <c r="O85" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="86" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
@@ -5652,10 +6045,14 @@
       <c r="D86" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
+      <c r="E86" s="10">
+        <v>0</v>
+      </c>
+      <c r="F86" s="10">
+        <v>0</v>
+      </c>
       <c r="G86" s="10">
-        <f t="shared" si="1"/>
+        <f>F86+E86</f>
         <v>0</v>
       </c>
       <c r="H86" s="11" t="s">
@@ -5664,12 +6061,21 @@
       <c r="I86" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J86" s="12"/>
+      <c r="J86" s="12" t="str">
+        <f>IF(G86&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8"/>
-      <c r="O86" s="13"/>
+      <c r="M86" s="8">
+        <v>5</v>
+      </c>
+      <c r="N86" s="8">
+        <v>59</v>
+      </c>
+      <c r="O86" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="87" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
@@ -5684,11 +6090,15 @@
       <c r="D87" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
+      <c r="E87" s="10">
+        <v>17</v>
+      </c>
+      <c r="F87" s="10">
+        <v>0</v>
+      </c>
       <c r="G87" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F87+E87</f>
+        <v>17</v>
       </c>
       <c r="H87" s="11" t="s">
         <v>387</v>
@@ -5696,12 +6106,21 @@
       <c r="I87" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J87" s="12"/>
+      <c r="J87" s="12" t="str">
+        <f>IF(G87&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
-      <c r="M87" s="8"/>
-      <c r="N87" s="8"/>
-      <c r="O87" s="13"/>
+      <c r="M87" s="8">
+        <v>5</v>
+      </c>
+      <c r="N87" s="8">
+        <v>59</v>
+      </c>
+      <c r="O87" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="88" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
@@ -5716,11 +6135,15 @@
       <c r="D88" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
+      <c r="E88" s="10">
+        <v>24</v>
+      </c>
+      <c r="F88" s="10">
+        <v>11</v>
+      </c>
       <c r="G88" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F88+E88</f>
+        <v>35</v>
       </c>
       <c r="H88" s="11" t="s">
         <v>387</v>
@@ -5728,12 +6151,21 @@
       <c r="I88" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J88" s="12"/>
+      <c r="J88" s="12" t="str">
+        <f>IF(G88&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8"/>
-      <c r="O88" s="13"/>
+      <c r="M88" s="8">
+        <v>5</v>
+      </c>
+      <c r="N88" s="8">
+        <v>59</v>
+      </c>
+      <c r="O88" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="89" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
@@ -5748,11 +6180,15 @@
       <c r="D89" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
+      <c r="E89" s="10">
+        <v>29</v>
+      </c>
+      <c r="F89" s="10">
+        <v>5</v>
+      </c>
       <c r="G89" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F89+E89</f>
+        <v>34</v>
       </c>
       <c r="H89" s="11" t="s">
         <v>387</v>
@@ -5760,12 +6196,21 @@
       <c r="I89" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J89" s="12"/>
+      <c r="J89" s="12" t="str">
+        <f>IF(G89&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
-      <c r="O89" s="13"/>
+      <c r="M89" s="8">
+        <v>5</v>
+      </c>
+      <c r="N89" s="8">
+        <v>59</v>
+      </c>
+      <c r="O89" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="90" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
@@ -5780,10 +6225,14 @@
       <c r="D90" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
+      <c r="E90" s="10">
+        <v>0</v>
+      </c>
+      <c r="F90" s="10">
+        <v>0</v>
+      </c>
       <c r="G90" s="10">
-        <f t="shared" si="1"/>
+        <f>F90+E90</f>
         <v>0</v>
       </c>
       <c r="H90" s="11" t="s">
@@ -5792,12 +6241,21 @@
       <c r="I90" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J90" s="12"/>
+      <c r="J90" s="12" t="str">
+        <f>IF(G90&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="13"/>
+      <c r="M90" s="8">
+        <v>5</v>
+      </c>
+      <c r="N90" s="8">
+        <v>59</v>
+      </c>
+      <c r="O90" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="91" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
@@ -5812,11 +6270,15 @@
       <c r="D91" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
+      <c r="E91" s="10">
+        <v>35</v>
+      </c>
+      <c r="F91" s="10">
+        <v>5</v>
+      </c>
       <c r="G91" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F91+E91</f>
+        <v>40</v>
       </c>
       <c r="H91" s="11" t="s">
         <v>387</v>
@@ -5824,31 +6286,44 @@
       <c r="I91" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J91" s="12"/>
+      <c r="J91" s="12" t="str">
+        <f>IF(G91&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
-      <c r="O91" s="13"/>
-    </row>
-    <row r="92" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M91" s="8">
+        <v>5</v>
+      </c>
+      <c r="N91" s="8">
+        <v>59</v>
+      </c>
+      <c r="O91" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="7">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
+      <c r="E92" s="10">
+        <v>40</v>
+      </c>
+      <c r="F92" s="10">
+        <v>10</v>
+      </c>
       <c r="G92" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F92+E92</f>
+        <v>50</v>
       </c>
       <c r="H92" s="11" t="s">
         <v>387</v>
@@ -5856,12 +6331,25 @@
       <c r="I92" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J92" s="12"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8"/>
-      <c r="O92" s="13"/>
+      <c r="J92" s="12" t="str">
+        <f>IF(G92&gt;=50,"ناجح","راسب")</f>
+        <v>ناجح</v>
+      </c>
+      <c r="K92" s="8">
+        <v>2</v>
+      </c>
+      <c r="L92" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M92" s="8">
+        <v>5</v>
+      </c>
+      <c r="N92" s="8">
+        <v>59</v>
+      </c>
+      <c r="O92" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="93" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
@@ -5876,11 +6364,15 @@
       <c r="D93" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
+      <c r="E93" s="10">
+        <v>31</v>
+      </c>
+      <c r="F93" s="10">
+        <v>7</v>
+      </c>
       <c r="G93" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F93+E93</f>
+        <v>38</v>
       </c>
       <c r="H93" s="11" t="s">
         <v>387</v>
@@ -5888,12 +6380,21 @@
       <c r="I93" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J93" s="12"/>
+      <c r="J93" s="12" t="str">
+        <f>IF(G93&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K93" s="8"/>
       <c r="L93" s="8"/>
-      <c r="M93" s="8"/>
-      <c r="N93" s="8"/>
-      <c r="O93" s="13"/>
+      <c r="M93" s="8">
+        <v>5</v>
+      </c>
+      <c r="N93" s="8">
+        <v>59</v>
+      </c>
+      <c r="O93" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="94" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
@@ -5908,11 +6409,15 @@
       <c r="D94" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
+      <c r="E94" s="10">
+        <v>31</v>
+      </c>
+      <c r="F94" s="10">
+        <v>0</v>
+      </c>
       <c r="G94" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F94+E94</f>
+        <v>31</v>
       </c>
       <c r="H94" s="11" t="s">
         <v>387</v>
@@ -5920,12 +6425,21 @@
       <c r="I94" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J94" s="12"/>
+      <c r="J94" s="12" t="str">
+        <f>IF(G94&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
-      <c r="M94" s="8"/>
-      <c r="N94" s="8"/>
-      <c r="O94" s="13"/>
+      <c r="M94" s="8">
+        <v>5</v>
+      </c>
+      <c r="N94" s="8">
+        <v>59</v>
+      </c>
+      <c r="O94" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="95" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
@@ -5940,10 +6454,14 @@
       <c r="D95" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
+      <c r="E95" s="10">
+        <v>0</v>
+      </c>
+      <c r="F95" s="10">
+        <v>0</v>
+      </c>
       <c r="G95" s="10">
-        <f t="shared" si="1"/>
+        <f>F95+E95</f>
         <v>0</v>
       </c>
       <c r="H95" s="11" t="s">
@@ -5952,31 +6470,44 @@
       <c r="I95" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J95" s="12"/>
+      <c r="J95" s="12" t="str">
+        <f>IF(G95&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
-      <c r="O95" s="13"/>
-    </row>
-    <row r="96" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M95" s="8">
+        <v>5</v>
+      </c>
+      <c r="N95" s="8">
+        <v>59</v>
+      </c>
+      <c r="O95" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="7">
+        <v>91</v>
+      </c>
+      <c r="B96" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="15" t="s">
-        <v>98</v>
-      </c>
       <c r="C96" s="17" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
+      <c r="E96" s="10">
+        <v>39</v>
+      </c>
+      <c r="F96" s="10">
+        <v>11</v>
+      </c>
       <c r="G96" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F96+E96</f>
+        <v>50</v>
       </c>
       <c r="H96" s="11" t="s">
         <v>387</v>
@@ -5984,12 +6515,25 @@
       <c r="I96" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J96" s="12"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
-      <c r="M96" s="8"/>
-      <c r="N96" s="8"/>
-      <c r="O96" s="13"/>
+      <c r="J96" s="12" t="str">
+        <f>IF(G96&gt;=50,"ناجح","راسب")</f>
+        <v>ناجح</v>
+      </c>
+      <c r="K96" s="8">
+        <v>2</v>
+      </c>
+      <c r="L96" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M96" s="8">
+        <v>5</v>
+      </c>
+      <c r="N96" s="8">
+        <v>59</v>
+      </c>
+      <c r="O96" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="97" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
@@ -6004,11 +6548,15 @@
       <c r="D97" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
+      <c r="E97" s="10">
+        <v>29</v>
+      </c>
+      <c r="F97" s="10">
+        <v>3</v>
+      </c>
       <c r="G97" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F97+E97</f>
+        <v>32</v>
       </c>
       <c r="H97" s="11" t="s">
         <v>387</v>
@@ -6016,12 +6564,21 @@
       <c r="I97" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J97" s="12"/>
+      <c r="J97" s="12" t="str">
+        <f>IF(G97&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
-      <c r="M97" s="8"/>
-      <c r="N97" s="8"/>
-      <c r="O97" s="13"/>
+      <c r="M97" s="8">
+        <v>5</v>
+      </c>
+      <c r="N97" s="8">
+        <v>59</v>
+      </c>
+      <c r="O97" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="98" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
@@ -6036,10 +6593,14 @@
       <c r="D98" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
+      <c r="E98" s="10">
+        <v>0</v>
+      </c>
+      <c r="F98" s="10">
+        <v>0</v>
+      </c>
       <c r="G98" s="10">
-        <f t="shared" si="1"/>
+        <f>F98+E98</f>
         <v>0</v>
       </c>
       <c r="H98" s="11" t="s">
@@ -6048,12 +6609,21 @@
       <c r="I98" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J98" s="12"/>
+      <c r="J98" s="12" t="str">
+        <f>IF(G98&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K98" s="8"/>
       <c r="L98" s="8"/>
-      <c r="M98" s="8"/>
-      <c r="N98" s="8"/>
-      <c r="O98" s="13"/>
+      <c r="M98" s="8">
+        <v>5</v>
+      </c>
+      <c r="N98" s="8">
+        <v>59</v>
+      </c>
+      <c r="O98" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="99" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
@@ -6068,11 +6638,15 @@
       <c r="D99" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
+      <c r="E99" s="10">
+        <v>29</v>
+      </c>
+      <c r="F99" s="10">
+        <v>13</v>
+      </c>
       <c r="G99" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F99+E99</f>
+        <v>42</v>
       </c>
       <c r="H99" s="11" t="s">
         <v>387</v>
@@ -6080,12 +6654,21 @@
       <c r="I99" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J99" s="12"/>
+      <c r="J99" s="12" t="str">
+        <f>IF(G99&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K99" s="8"/>
       <c r="L99" s="8"/>
-      <c r="M99" s="8"/>
-      <c r="N99" s="8"/>
-      <c r="O99" s="13"/>
+      <c r="M99" s="8">
+        <v>5</v>
+      </c>
+      <c r="N99" s="8">
+        <v>59</v>
+      </c>
+      <c r="O99" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="100" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
@@ -6100,11 +6683,15 @@
       <c r="D100" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
+      <c r="E100" s="10">
+        <v>24</v>
+      </c>
+      <c r="F100" s="10">
+        <v>4</v>
+      </c>
       <c r="G100" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F100+E100</f>
+        <v>28</v>
       </c>
       <c r="H100" s="11" t="s">
         <v>387</v>
@@ -6112,12 +6699,21 @@
       <c r="I100" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J100" s="12"/>
+      <c r="J100" s="12" t="str">
+        <f>IF(G100&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K100" s="8"/>
       <c r="L100" s="8"/>
-      <c r="M100" s="8"/>
-      <c r="N100" s="8"/>
-      <c r="O100" s="13"/>
+      <c r="M100" s="8">
+        <v>5</v>
+      </c>
+      <c r="N100" s="8">
+        <v>59</v>
+      </c>
+      <c r="O100" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="101" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
@@ -6132,11 +6728,15 @@
       <c r="D101" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
+      <c r="E101" s="10">
+        <v>28</v>
+      </c>
+      <c r="F101" s="10">
+        <v>10</v>
+      </c>
       <c r="G101" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F101+E101</f>
+        <v>38</v>
       </c>
       <c r="H101" s="11" t="s">
         <v>387</v>
@@ -6144,12 +6744,21 @@
       <c r="I101" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J101" s="12"/>
+      <c r="J101" s="12" t="str">
+        <f>IF(G101&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K101" s="8"/>
       <c r="L101" s="8"/>
-      <c r="M101" s="8"/>
-      <c r="N101" s="8"/>
-      <c r="O101" s="13"/>
+      <c r="M101" s="8">
+        <v>5</v>
+      </c>
+      <c r="N101" s="8">
+        <v>59</v>
+      </c>
+      <c r="O101" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="102" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
@@ -6164,11 +6773,15 @@
       <c r="D102" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
+      <c r="E102" s="10">
+        <v>28</v>
+      </c>
+      <c r="F102" s="10">
+        <v>4</v>
+      </c>
       <c r="G102" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F102+E102</f>
+        <v>32</v>
       </c>
       <c r="H102" s="11" t="s">
         <v>387</v>
@@ -6176,12 +6789,21 @@
       <c r="I102" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J102" s="12"/>
+      <c r="J102" s="12" t="str">
+        <f>IF(G102&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K102" s="8"/>
       <c r="L102" s="8"/>
-      <c r="M102" s="8"/>
-      <c r="N102" s="8"/>
-      <c r="O102" s="13"/>
+      <c r="M102" s="8">
+        <v>5</v>
+      </c>
+      <c r="N102" s="8">
+        <v>59</v>
+      </c>
+      <c r="O102" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="103" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
@@ -6196,11 +6818,15 @@
       <c r="D103" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
+      <c r="E103" s="10">
+        <v>25</v>
+      </c>
+      <c r="F103" s="10">
+        <v>5</v>
+      </c>
       <c r="G103" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F103+E103</f>
+        <v>30</v>
       </c>
       <c r="H103" s="11" t="s">
         <v>387</v>
@@ -6208,12 +6834,21 @@
       <c r="I103" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J103" s="12"/>
+      <c r="J103" s="12" t="str">
+        <f>IF(G103&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K103" s="8"/>
       <c r="L103" s="8"/>
-      <c r="M103" s="8"/>
-      <c r="N103" s="8"/>
-      <c r="O103" s="13"/>
+      <c r="M103" s="8">
+        <v>5</v>
+      </c>
+      <c r="N103" s="8">
+        <v>59</v>
+      </c>
+      <c r="O103" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="104" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
@@ -6228,11 +6863,15 @@
       <c r="D104" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
+      <c r="E104" s="10">
+        <v>21</v>
+      </c>
+      <c r="F104" s="10">
+        <v>6</v>
+      </c>
       <c r="G104" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F104+E104</f>
+        <v>27</v>
       </c>
       <c r="H104" s="11" t="s">
         <v>387</v>
@@ -6240,12 +6879,21 @@
       <c r="I104" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J104" s="12"/>
+      <c r="J104" s="12" t="str">
+        <f>IF(G104&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K104" s="8"/>
       <c r="L104" s="8"/>
-      <c r="M104" s="8"/>
-      <c r="N104" s="8"/>
-      <c r="O104" s="13"/>
+      <c r="M104" s="8">
+        <v>5</v>
+      </c>
+      <c r="N104" s="8">
+        <v>59</v>
+      </c>
+      <c r="O104" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="105" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
@@ -6260,10 +6908,14 @@
       <c r="D105" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
+      <c r="E105" s="10">
+        <v>0</v>
+      </c>
+      <c r="F105" s="10">
+        <v>0</v>
+      </c>
       <c r="G105" s="10">
-        <f t="shared" si="1"/>
+        <f>F105+E105</f>
         <v>0</v>
       </c>
       <c r="H105" s="11" t="s">
@@ -6272,12 +6924,21 @@
       <c r="I105" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J105" s="12"/>
+      <c r="J105" s="12" t="str">
+        <f>IF(G105&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K105" s="8"/>
       <c r="L105" s="8"/>
-      <c r="M105" s="8"/>
-      <c r="N105" s="8"/>
-      <c r="O105" s="13"/>
+      <c r="M105" s="8">
+        <v>5</v>
+      </c>
+      <c r="N105" s="8">
+        <v>59</v>
+      </c>
+      <c r="O105" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="106" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
@@ -6292,10 +6953,14 @@
       <c r="D106" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
+      <c r="E106" s="10">
+        <v>0</v>
+      </c>
+      <c r="F106" s="10">
+        <v>0</v>
+      </c>
       <c r="G106" s="10">
-        <f t="shared" si="1"/>
+        <f>F106+E106</f>
         <v>0</v>
       </c>
       <c r="H106" s="11" t="s">
@@ -6304,12 +6969,21 @@
       <c r="I106" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J106" s="12"/>
+      <c r="J106" s="12" t="str">
+        <f>IF(G106&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K106" s="8"/>
       <c r="L106" s="8"/>
-      <c r="M106" s="8"/>
-      <c r="N106" s="8"/>
-      <c r="O106" s="13"/>
+      <c r="M106" s="8">
+        <v>5</v>
+      </c>
+      <c r="N106" s="8">
+        <v>59</v>
+      </c>
+      <c r="O106" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="107" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
@@ -6324,11 +6998,15 @@
       <c r="D107" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
+      <c r="E107" s="10">
+        <v>31</v>
+      </c>
+      <c r="F107" s="10">
+        <v>15</v>
+      </c>
       <c r="G107" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F107+E107</f>
+        <v>46</v>
       </c>
       <c r="H107" s="11" t="s">
         <v>387</v>
@@ -6336,12 +7014,21 @@
       <c r="I107" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J107" s="12"/>
+      <c r="J107" s="12" t="str">
+        <f>IF(G107&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K107" s="8"/>
       <c r="L107" s="8"/>
-      <c r="M107" s="8"/>
-      <c r="N107" s="8"/>
-      <c r="O107" s="13"/>
+      <c r="M107" s="8">
+        <v>5</v>
+      </c>
+      <c r="N107" s="8">
+        <v>59</v>
+      </c>
+      <c r="O107" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="108" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
@@ -6356,10 +7043,14 @@
       <c r="D108" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
+      <c r="E108" s="10">
+        <v>0</v>
+      </c>
+      <c r="F108" s="10">
+        <v>0</v>
+      </c>
       <c r="G108" s="10">
-        <f t="shared" si="1"/>
+        <f>F108+E108</f>
         <v>0</v>
       </c>
       <c r="H108" s="11" t="s">
@@ -6368,12 +7059,21 @@
       <c r="I108" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J108" s="12"/>
+      <c r="J108" s="12" t="str">
+        <f>IF(G108&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K108" s="8"/>
       <c r="L108" s="8"/>
-      <c r="M108" s="8"/>
-      <c r="N108" s="8"/>
-      <c r="O108" s="13"/>
+      <c r="M108" s="8">
+        <v>5</v>
+      </c>
+      <c r="N108" s="8">
+        <v>59</v>
+      </c>
+      <c r="O108" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="109" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
@@ -6388,11 +7088,15 @@
       <c r="D109" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
+      <c r="E109" s="10">
+        <v>19</v>
+      </c>
+      <c r="F109" s="10">
+        <v>6</v>
+      </c>
       <c r="G109" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F109+E109</f>
+        <v>25</v>
       </c>
       <c r="H109" s="11" t="s">
         <v>387</v>
@@ -6400,12 +7104,21 @@
       <c r="I109" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J109" s="12"/>
+      <c r="J109" s="12" t="str">
+        <f>IF(G109&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K109" s="8"/>
       <c r="L109" s="8"/>
-      <c r="M109" s="8"/>
-      <c r="N109" s="8"/>
-      <c r="O109" s="13"/>
+      <c r="M109" s="8">
+        <v>5</v>
+      </c>
+      <c r="N109" s="8">
+        <v>59</v>
+      </c>
+      <c r="O109" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="110" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
@@ -6420,11 +7133,15 @@
       <c r="D110" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
+      <c r="E110" s="10">
+        <v>24</v>
+      </c>
+      <c r="F110" s="10">
+        <v>15</v>
+      </c>
       <c r="G110" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F110+E110</f>
+        <v>39</v>
       </c>
       <c r="H110" s="11" t="s">
         <v>387</v>
@@ -6432,12 +7149,21 @@
       <c r="I110" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J110" s="12"/>
+      <c r="J110" s="12" t="str">
+        <f>IF(G110&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K110" s="8"/>
       <c r="L110" s="8"/>
-      <c r="M110" s="8"/>
-      <c r="N110" s="8"/>
-      <c r="O110" s="13"/>
+      <c r="M110" s="8">
+        <v>5</v>
+      </c>
+      <c r="N110" s="8">
+        <v>59</v>
+      </c>
+      <c r="O110" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="111" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
@@ -6452,11 +7178,15 @@
       <c r="D111" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
+      <c r="E111" s="10">
+        <v>20</v>
+      </c>
+      <c r="F111" s="10">
+        <v>2</v>
+      </c>
       <c r="G111" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F111+E111</f>
+        <v>22</v>
       </c>
       <c r="H111" s="11" t="s">
         <v>387</v>
@@ -6464,12 +7194,21 @@
       <c r="I111" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J111" s="12"/>
+      <c r="J111" s="12" t="str">
+        <f>IF(G111&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
-      <c r="M111" s="8"/>
-      <c r="N111" s="8"/>
-      <c r="O111" s="13"/>
+      <c r="M111" s="8">
+        <v>5</v>
+      </c>
+      <c r="N111" s="8">
+        <v>59</v>
+      </c>
+      <c r="O111" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="112" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
@@ -6484,11 +7223,15 @@
       <c r="D112" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
+      <c r="E112" s="10">
+        <v>31</v>
+      </c>
+      <c r="F112" s="10">
+        <v>3</v>
+      </c>
       <c r="G112" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F112+E112</f>
+        <v>34</v>
       </c>
       <c r="H112" s="11" t="s">
         <v>387</v>
@@ -6496,12 +7239,21 @@
       <c r="I112" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J112" s="12"/>
+      <c r="J112" s="12" t="str">
+        <f>IF(G112&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
-      <c r="M112" s="8"/>
-      <c r="N112" s="8"/>
-      <c r="O112" s="13"/>
+      <c r="M112" s="8">
+        <v>5</v>
+      </c>
+      <c r="N112" s="8">
+        <v>59</v>
+      </c>
+      <c r="O112" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="113" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
@@ -6516,10 +7268,14 @@
       <c r="D113" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
+      <c r="E113" s="10">
+        <v>0</v>
+      </c>
+      <c r="F113" s="10">
+        <v>0</v>
+      </c>
       <c r="G113" s="10">
-        <f t="shared" si="1"/>
+        <f>F113+E113</f>
         <v>0</v>
       </c>
       <c r="H113" s="11" t="s">
@@ -6528,12 +7284,21 @@
       <c r="I113" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J113" s="12"/>
+      <c r="J113" s="12" t="str">
+        <f>IF(G113&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
-      <c r="M113" s="8"/>
-      <c r="N113" s="8"/>
-      <c r="O113" s="13"/>
+      <c r="M113" s="8">
+        <v>5</v>
+      </c>
+      <c r="N113" s="8">
+        <v>59</v>
+      </c>
+      <c r="O113" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="114" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7">
@@ -6548,10 +7313,14 @@
       <c r="D114" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
+      <c r="E114" s="10">
+        <v>0</v>
+      </c>
+      <c r="F114" s="10">
+        <v>0</v>
+      </c>
       <c r="G114" s="10">
-        <f t="shared" si="1"/>
+        <f>F114+E114</f>
         <v>0</v>
       </c>
       <c r="H114" s="11" t="s">
@@ -6560,12 +7329,21 @@
       <c r="I114" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J114" s="12"/>
+      <c r="J114" s="12" t="str">
+        <f>IF(G114&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K114" s="8"/>
       <c r="L114" s="8"/>
-      <c r="M114" s="8"/>
-      <c r="N114" s="8"/>
-      <c r="O114" s="13"/>
+      <c r="M114" s="8">
+        <v>5</v>
+      </c>
+      <c r="N114" s="8">
+        <v>59</v>
+      </c>
+      <c r="O114" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="115" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
@@ -6580,11 +7358,15 @@
       <c r="D115" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
+      <c r="E115" s="10">
+        <v>20</v>
+      </c>
+      <c r="F115" s="10">
+        <v>0</v>
+      </c>
       <c r="G115" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F115+E115</f>
+        <v>20</v>
       </c>
       <c r="H115" s="11" t="s">
         <v>387</v>
@@ -6592,12 +7374,21 @@
       <c r="I115" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J115" s="12"/>
+      <c r="J115" s="12" t="str">
+        <f>IF(G115&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
-      <c r="M115" s="8"/>
-      <c r="N115" s="8"/>
-      <c r="O115" s="13"/>
+      <c r="M115" s="8">
+        <v>5</v>
+      </c>
+      <c r="N115" s="8">
+        <v>59</v>
+      </c>
+      <c r="O115" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="116" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
@@ -6612,11 +7403,15 @@
       <c r="D116" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
+      <c r="E116" s="10">
+        <v>25</v>
+      </c>
+      <c r="F116" s="10">
+        <v>12</v>
+      </c>
       <c r="G116" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F116+E116</f>
+        <v>37</v>
       </c>
       <c r="H116" s="11" t="s">
         <v>387</v>
@@ -6624,12 +7419,21 @@
       <c r="I116" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J116" s="12"/>
+      <c r="J116" s="12" t="str">
+        <f>IF(G116&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K116" s="8"/>
       <c r="L116" s="8"/>
-      <c r="M116" s="8"/>
-      <c r="N116" s="8"/>
-      <c r="O116" s="13"/>
+      <c r="M116" s="8">
+        <v>5</v>
+      </c>
+      <c r="N116" s="8">
+        <v>59</v>
+      </c>
+      <c r="O116" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="117" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
@@ -6644,11 +7448,15 @@
       <c r="D117" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
+      <c r="E117" s="10">
+        <v>25</v>
+      </c>
+      <c r="F117" s="10">
+        <v>0</v>
+      </c>
       <c r="G117" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F117+E117</f>
+        <v>25</v>
       </c>
       <c r="H117" s="11" t="s">
         <v>387</v>
@@ -6656,14 +7464,23 @@
       <c r="I117" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J117" s="12"/>
+      <c r="J117" s="12" t="str">
+        <f>IF(G117&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
-      <c r="M117" s="8"/>
-      <c r="N117" s="8"/>
-      <c r="O117" s="13"/>
-    </row>
-    <row r="118" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M117" s="8">
+        <v>5</v>
+      </c>
+      <c r="N117" s="8">
+        <v>59</v>
+      </c>
+      <c r="O117" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="7">
         <v>117</v>
       </c>
@@ -6676,11 +7493,15 @@
       <c r="D118" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
+      <c r="E118" s="10">
+        <v>33</v>
+      </c>
+      <c r="F118" s="10">
+        <v>17</v>
+      </c>
       <c r="G118" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F118+E118</f>
+        <v>50</v>
       </c>
       <c r="H118" s="11" t="s">
         <v>387</v>
@@ -6688,12 +7509,25 @@
       <c r="I118" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J118" s="12"/>
-      <c r="K118" s="8"/>
-      <c r="L118" s="8"/>
-      <c r="M118" s="8"/>
-      <c r="N118" s="8"/>
-      <c r="O118" s="13"/>
+      <c r="J118" s="12" t="str">
+        <f>IF(G118&gt;=50,"ناجح","راسب")</f>
+        <v>ناجح</v>
+      </c>
+      <c r="K118" s="8">
+        <v>2</v>
+      </c>
+      <c r="L118" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M118" s="8">
+        <v>5</v>
+      </c>
+      <c r="N118" s="8">
+        <v>59</v>
+      </c>
+      <c r="O118" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="119" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
@@ -6708,11 +7542,15 @@
       <c r="D119" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
+      <c r="E119" s="10">
+        <v>31</v>
+      </c>
+      <c r="F119" s="10">
+        <v>0</v>
+      </c>
       <c r="G119" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>31</v>
       </c>
       <c r="H119" s="11" t="s">
         <v>387</v>
@@ -6720,12 +7558,21 @@
       <c r="I119" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J119" s="12"/>
+      <c r="J119" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>راسب</v>
+      </c>
       <c r="K119" s="8"/>
       <c r="L119" s="8"/>
-      <c r="M119" s="8"/>
-      <c r="N119" s="8"/>
-      <c r="O119" s="13"/>
+      <c r="M119" s="8">
+        <v>5</v>
+      </c>
+      <c r="N119" s="8">
+        <v>59</v>
+      </c>
+      <c r="O119" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="120" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="7">
@@ -6740,11 +7587,15 @@
       <c r="D120" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
+      <c r="E120" s="10">
+        <v>31</v>
+      </c>
+      <c r="F120" s="10">
+        <v>10</v>
+      </c>
       <c r="G120" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>41</v>
       </c>
       <c r="H120" s="11" t="s">
         <v>387</v>
@@ -6752,12 +7603,21 @@
       <c r="I120" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J120" s="12"/>
+      <c r="J120" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>راسب</v>
+      </c>
       <c r="K120" s="8"/>
       <c r="L120" s="8"/>
-      <c r="M120" s="8"/>
-      <c r="N120" s="8"/>
-      <c r="O120" s="13"/>
+      <c r="M120" s="8">
+        <v>5</v>
+      </c>
+      <c r="N120" s="8">
+        <v>59</v>
+      </c>
+      <c r="O120" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="121" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
@@ -6772,11 +7632,15 @@
       <c r="D121" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
+      <c r="E121" s="10">
+        <v>27</v>
+      </c>
+      <c r="F121" s="10">
+        <v>5</v>
+      </c>
       <c r="G121" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
       <c r="H121" s="11" t="s">
         <v>387</v>
@@ -6784,12 +7648,21 @@
       <c r="I121" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J121" s="12"/>
+      <c r="J121" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>راسب</v>
+      </c>
       <c r="K121" s="8"/>
       <c r="L121" s="8"/>
-      <c r="M121" s="8"/>
-      <c r="N121" s="8"/>
-      <c r="O121" s="13"/>
+      <c r="M121" s="8">
+        <v>5</v>
+      </c>
+      <c r="N121" s="8">
+        <v>59</v>
+      </c>
+      <c r="O121" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="122" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="7">
@@ -6804,10 +7677,14 @@
       <c r="D122" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
+      <c r="E122" s="10">
+        <v>0</v>
+      </c>
+      <c r="F122" s="10">
+        <v>0</v>
+      </c>
       <c r="G122" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H122" s="11" t="s">
@@ -6816,12 +7693,21 @@
       <c r="I122" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J122" s="12"/>
+      <c r="J122" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>راسب</v>
+      </c>
       <c r="K122" s="8"/>
       <c r="L122" s="8"/>
-      <c r="M122" s="8"/>
-      <c r="N122" s="8"/>
-      <c r="O122" s="13"/>
+      <c r="M122" s="8">
+        <v>5</v>
+      </c>
+      <c r="N122" s="8">
+        <v>59</v>
+      </c>
+      <c r="O122" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="123" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7">
@@ -6836,11 +7722,15 @@
       <c r="D123" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
+      <c r="E123" s="10">
+        <v>21</v>
+      </c>
+      <c r="F123" s="10">
+        <v>2</v>
+      </c>
       <c r="G123" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
       <c r="H123" s="11" t="s">
         <v>387</v>
@@ -6848,12 +7738,21 @@
       <c r="I123" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J123" s="12"/>
+      <c r="J123" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>راسب</v>
+      </c>
       <c r="K123" s="8"/>
       <c r="L123" s="8"/>
-      <c r="M123" s="8"/>
-      <c r="N123" s="8"/>
-      <c r="O123" s="13"/>
+      <c r="M123" s="8">
+        <v>5</v>
+      </c>
+      <c r="N123" s="8">
+        <v>59</v>
+      </c>
+      <c r="O123" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="124" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="7">
@@ -6868,11 +7767,15 @@
       <c r="D124" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
+      <c r="E124" s="10">
+        <v>28</v>
+      </c>
+      <c r="F124" s="10">
+        <v>2</v>
+      </c>
       <c r="G124" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="H124" s="11" t="s">
         <v>387</v>
@@ -6880,12 +7783,21 @@
       <c r="I124" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J124" s="12"/>
+      <c r="J124" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>راسب</v>
+      </c>
       <c r="K124" s="8"/>
       <c r="L124" s="8"/>
-      <c r="M124" s="8"/>
-      <c r="N124" s="8"/>
-      <c r="O124" s="13"/>
+      <c r="M124" s="8">
+        <v>5</v>
+      </c>
+      <c r="N124" s="8">
+        <v>59</v>
+      </c>
+      <c r="O124" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="125" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="7">
@@ -6900,11 +7812,15 @@
       <c r="D125" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
+      <c r="E125" s="10">
+        <v>32</v>
+      </c>
+      <c r="F125" s="10">
+        <v>10</v>
+      </c>
       <c r="G125" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>42</v>
       </c>
       <c r="H125" s="11" t="s">
         <v>387</v>
@@ -6912,12 +7828,21 @@
       <c r="I125" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J125" s="12"/>
+      <c r="J125" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>راسب</v>
+      </c>
       <c r="K125" s="8"/>
       <c r="L125" s="8"/>
-      <c r="M125" s="8"/>
-      <c r="N125" s="8"/>
-      <c r="O125" s="13"/>
+      <c r="M125" s="8">
+        <v>5</v>
+      </c>
+      <c r="N125" s="8">
+        <v>59</v>
+      </c>
+      <c r="O125" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="126" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="7">
@@ -6932,10 +7857,14 @@
       <c r="D126" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
+      <c r="E126" s="10">
+        <v>0</v>
+      </c>
+      <c r="F126" s="10">
+        <v>0</v>
+      </c>
       <c r="G126" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H126" s="11" t="s">
@@ -6944,12 +7873,21 @@
       <c r="I126" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J126" s="12"/>
+      <c r="J126" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>راسب</v>
+      </c>
       <c r="K126" s="8"/>
       <c r="L126" s="8"/>
-      <c r="M126" s="8"/>
-      <c r="N126" s="8"/>
-      <c r="O126" s="13"/>
+      <c r="M126" s="8">
+        <v>5</v>
+      </c>
+      <c r="N126" s="8">
+        <v>59</v>
+      </c>
+      <c r="O126" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="127" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
@@ -6964,11 +7902,15 @@
       <c r="D127" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
+      <c r="E127" s="10">
+        <v>24</v>
+      </c>
+      <c r="F127" s="10">
+        <v>7</v>
+      </c>
       <c r="G127" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>31</v>
       </c>
       <c r="H127" s="11" t="s">
         <v>387</v>
@@ -6976,12 +7918,21 @@
       <c r="I127" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J127" s="12"/>
+      <c r="J127" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>راسب</v>
+      </c>
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
-      <c r="M127" s="8"/>
-      <c r="N127" s="8"/>
-      <c r="O127" s="13"/>
+      <c r="M127" s="8">
+        <v>5</v>
+      </c>
+      <c r="N127" s="8">
+        <v>59</v>
+      </c>
+      <c r="O127" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="128" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="7">
@@ -6996,10 +7947,14 @@
       <c r="D128" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
+      <c r="E128" s="10">
+        <v>0</v>
+      </c>
+      <c r="F128" s="10">
+        <v>0</v>
+      </c>
       <c r="G128" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H128" s="11" t="s">
@@ -7008,12 +7963,21 @@
       <c r="I128" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J128" s="12"/>
+      <c r="J128" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>راسب</v>
+      </c>
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
-      <c r="M128" s="8"/>
-      <c r="N128" s="8"/>
-      <c r="O128" s="13"/>
+      <c r="M128" s="8">
+        <v>5</v>
+      </c>
+      <c r="N128" s="8">
+        <v>59</v>
+      </c>
+      <c r="O128" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="129" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="7">
@@ -7028,11 +7992,15 @@
       <c r="D129" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
+      <c r="E129" s="10">
+        <v>33</v>
+      </c>
+      <c r="F129" s="10">
+        <v>14</v>
+      </c>
       <c r="G129" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>47</v>
       </c>
       <c r="H129" s="11" t="s">
         <v>387</v>
@@ -7040,12 +8008,21 @@
       <c r="I129" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J129" s="12"/>
+      <c r="J129" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>راسب</v>
+      </c>
       <c r="K129" s="8"/>
       <c r="L129" s="8"/>
-      <c r="M129" s="8"/>
-      <c r="N129" s="8"/>
-      <c r="O129" s="13"/>
+      <c r="M129" s="8">
+        <v>5</v>
+      </c>
+      <c r="N129" s="8">
+        <v>59</v>
+      </c>
+      <c r="O129" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="130" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="7">
@@ -7060,10 +8037,14 @@
       <c r="D130" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
+      <c r="E130" s="10">
+        <v>0</v>
+      </c>
+      <c r="F130" s="10">
+        <v>0</v>
+      </c>
       <c r="G130" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H130" s="11" t="s">
@@ -7072,12 +8053,21 @@
       <c r="I130" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J130" s="12"/>
+      <c r="J130" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>راسب</v>
+      </c>
       <c r="K130" s="8"/>
       <c r="L130" s="8"/>
-      <c r="M130" s="8"/>
-      <c r="N130" s="8"/>
-      <c r="O130" s="13"/>
+      <c r="M130" s="8">
+        <v>5</v>
+      </c>
+      <c r="N130" s="8">
+        <v>59</v>
+      </c>
+      <c r="O130" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="131" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="7">
@@ -7092,11 +8082,15 @@
       <c r="D131" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
+      <c r="E131" s="10">
+        <v>19</v>
+      </c>
+      <c r="F131" s="10">
+        <v>7</v>
+      </c>
       <c r="G131" s="10">
-        <f t="shared" ref="G131:G194" si="2">F131+E131</f>
-        <v>0</v>
+        <f t="shared" ref="G131:G194" si="4">F131+E131</f>
+        <v>26</v>
       </c>
       <c r="H131" s="11" t="s">
         <v>387</v>
@@ -7104,12 +8098,21 @@
       <c r="I131" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J131" s="12"/>
+      <c r="J131" s="12" t="str">
+        <f t="shared" ref="J131:J190" si="5">IF(G131&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K131" s="8"/>
       <c r="L131" s="8"/>
-      <c r="M131" s="8"/>
-      <c r="N131" s="8"/>
-      <c r="O131" s="13"/>
+      <c r="M131" s="8">
+        <v>5</v>
+      </c>
+      <c r="N131" s="8">
+        <v>59</v>
+      </c>
+      <c r="O131" s="13">
+        <v>8.4699999999999998E-2</v>
+      </c>
     </row>
     <row r="132" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="7">
@@ -7127,7 +8130,7 @@
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
       <c r="G132" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H132" s="11" t="s">
@@ -7136,7 +8139,10 @@
       <c r="I132" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J132" s="12"/>
+      <c r="J132" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K132" s="8"/>
       <c r="L132" s="8"/>
       <c r="M132" s="8"/>
@@ -7159,7 +8165,7 @@
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
       <c r="G133" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H133" s="11" t="s">
@@ -7168,7 +8174,10 @@
       <c r="I133" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J133" s="12"/>
+      <c r="J133" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
       <c r="M133" s="8"/>
@@ -7191,7 +8200,7 @@
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
       <c r="G134" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H134" s="11" t="s">
@@ -7200,7 +8209,10 @@
       <c r="I134" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J134" s="12"/>
+      <c r="J134" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
       <c r="M134" s="8"/>
@@ -7223,7 +8235,7 @@
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
       <c r="G135" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H135" s="11" t="s">
@@ -7232,7 +8244,10 @@
       <c r="I135" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J135" s="12"/>
+      <c r="J135" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K135" s="8"/>
       <c r="L135" s="8"/>
       <c r="M135" s="8"/>
@@ -7255,7 +8270,7 @@
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
       <c r="G136" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H136" s="11" t="s">
@@ -7264,7 +8279,10 @@
       <c r="I136" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J136" s="12"/>
+      <c r="J136" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K136" s="8"/>
       <c r="L136" s="8"/>
       <c r="M136" s="8"/>
@@ -7287,7 +8305,7 @@
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
       <c r="G137" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H137" s="11" t="s">
@@ -7296,7 +8314,10 @@
       <c r="I137" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J137" s="12"/>
+      <c r="J137" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K137" s="8"/>
       <c r="L137" s="8"/>
       <c r="M137" s="8"/>
@@ -7319,7 +8340,7 @@
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
       <c r="G138" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H138" s="11" t="s">
@@ -7328,7 +8349,10 @@
       <c r="I138" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J138" s="12"/>
+      <c r="J138" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K138" s="8"/>
       <c r="L138" s="8"/>
       <c r="M138" s="8"/>
@@ -7351,7 +8375,7 @@
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
       <c r="G139" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H139" s="11" t="s">
@@ -7360,7 +8384,10 @@
       <c r="I139" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J139" s="12"/>
+      <c r="J139" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K139" s="8"/>
       <c r="L139" s="8"/>
       <c r="M139" s="8"/>
@@ -7383,7 +8410,7 @@
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
       <c r="G140" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H140" s="11" t="s">
@@ -7392,7 +8419,10 @@
       <c r="I140" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J140" s="12"/>
+      <c r="J140" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K140" s="8"/>
       <c r="L140" s="8"/>
       <c r="M140" s="8"/>
@@ -7415,7 +8445,7 @@
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
       <c r="G141" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H141" s="11" t="s">
@@ -7424,7 +8454,10 @@
       <c r="I141" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J141" s="12"/>
+      <c r="J141" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K141" s="8"/>
       <c r="L141" s="8"/>
       <c r="M141" s="8"/>
@@ -7447,7 +8480,7 @@
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
       <c r="G142" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H142" s="11" t="s">
@@ -7456,7 +8489,10 @@
       <c r="I142" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J142" s="12"/>
+      <c r="J142" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K142" s="8"/>
       <c r="L142" s="8"/>
       <c r="M142" s="8"/>
@@ -7479,7 +8515,7 @@
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
       <c r="G143" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H143" s="11" t="s">
@@ -7488,7 +8524,10 @@
       <c r="I143" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J143" s="12"/>
+      <c r="J143" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
       <c r="M143" s="8"/>
@@ -7511,7 +8550,7 @@
       <c r="E144" s="10"/>
       <c r="F144" s="10"/>
       <c r="G144" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H144" s="11" t="s">
@@ -7520,7 +8559,10 @@
       <c r="I144" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J144" s="12"/>
+      <c r="J144" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K144" s="8"/>
       <c r="L144" s="8"/>
       <c r="M144" s="8"/>
@@ -7543,7 +8585,7 @@
       <c r="E145" s="10"/>
       <c r="F145" s="10"/>
       <c r="G145" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H145" s="11" t="s">
@@ -7552,7 +8594,10 @@
       <c r="I145" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J145" s="12"/>
+      <c r="J145" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K145" s="8"/>
       <c r="L145" s="8"/>
       <c r="M145" s="8"/>
@@ -7575,7 +8620,7 @@
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
       <c r="G146" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H146" s="11" t="s">
@@ -7584,7 +8629,10 @@
       <c r="I146" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J146" s="12"/>
+      <c r="J146" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K146" s="8"/>
       <c r="L146" s="8"/>
       <c r="M146" s="8"/>
@@ -7607,7 +8655,7 @@
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
       <c r="G147" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H147" s="11" t="s">
@@ -7616,7 +8664,10 @@
       <c r="I147" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J147" s="12"/>
+      <c r="J147" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K147" s="8"/>
       <c r="L147" s="8"/>
       <c r="M147" s="8"/>
@@ -7639,7 +8690,7 @@
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
       <c r="G148" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H148" s="11" t="s">
@@ -7648,7 +8699,10 @@
       <c r="I148" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J148" s="12"/>
+      <c r="J148" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K148" s="8"/>
       <c r="L148" s="8"/>
       <c r="M148" s="8"/>
@@ -7671,7 +8725,7 @@
       <c r="E149" s="10"/>
       <c r="F149" s="10"/>
       <c r="G149" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H149" s="11" t="s">
@@ -7680,7 +8734,10 @@
       <c r="I149" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J149" s="12"/>
+      <c r="J149" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K149" s="8"/>
       <c r="L149" s="8"/>
       <c r="M149" s="8"/>
@@ -7703,7 +8760,7 @@
       <c r="E150" s="10"/>
       <c r="F150" s="10"/>
       <c r="G150" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H150" s="11" t="s">
@@ -7712,7 +8769,10 @@
       <c r="I150" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J150" s="12"/>
+      <c r="J150" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K150" s="8"/>
       <c r="L150" s="8"/>
       <c r="M150" s="8"/>
@@ -7735,7 +8795,7 @@
       <c r="E151" s="10"/>
       <c r="F151" s="10"/>
       <c r="G151" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H151" s="11" t="s">
@@ -7744,7 +8804,10 @@
       <c r="I151" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J151" s="12"/>
+      <c r="J151" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K151" s="8"/>
       <c r="L151" s="8"/>
       <c r="M151" s="8"/>
@@ -7767,7 +8830,7 @@
       <c r="E152" s="10"/>
       <c r="F152" s="10"/>
       <c r="G152" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H152" s="11" t="s">
@@ -7776,7 +8839,10 @@
       <c r="I152" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J152" s="12"/>
+      <c r="J152" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K152" s="8"/>
       <c r="L152" s="8"/>
       <c r="M152" s="8"/>
@@ -7799,7 +8865,7 @@
       <c r="E153" s="10"/>
       <c r="F153" s="10"/>
       <c r="G153" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H153" s="11" t="s">
@@ -7808,7 +8874,10 @@
       <c r="I153" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J153" s="12"/>
+      <c r="J153" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K153" s="8"/>
       <c r="L153" s="8"/>
       <c r="M153" s="8"/>
@@ -7831,7 +8900,7 @@
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
       <c r="G154" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H154" s="11" t="s">
@@ -7840,7 +8909,10 @@
       <c r="I154" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J154" s="12"/>
+      <c r="J154" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K154" s="8"/>
       <c r="L154" s="8"/>
       <c r="M154" s="8"/>
@@ -7863,7 +8935,7 @@
       <c r="E155" s="10"/>
       <c r="F155" s="10"/>
       <c r="G155" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H155" s="11" t="s">
@@ -7872,7 +8944,10 @@
       <c r="I155" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J155" s="12"/>
+      <c r="J155" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K155" s="8"/>
       <c r="L155" s="8"/>
       <c r="M155" s="8"/>
@@ -7895,7 +8970,7 @@
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
       <c r="G156" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H156" s="11" t="s">
@@ -7904,7 +8979,10 @@
       <c r="I156" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J156" s="12"/>
+      <c r="J156" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K156" s="8"/>
       <c r="L156" s="8"/>
       <c r="M156" s="8"/>
@@ -7927,7 +9005,7 @@
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
       <c r="G157" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H157" s="11" t="s">
@@ -7936,7 +9014,10 @@
       <c r="I157" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J157" s="12"/>
+      <c r="J157" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K157" s="8"/>
       <c r="L157" s="8"/>
       <c r="M157" s="8"/>
@@ -7959,7 +9040,7 @@
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
       <c r="G158" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H158" s="11" t="s">
@@ -7968,7 +9049,10 @@
       <c r="I158" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J158" s="12"/>
+      <c r="J158" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K158" s="8"/>
       <c r="L158" s="8"/>
       <c r="M158" s="8"/>
@@ -7991,7 +9075,7 @@
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
       <c r="G159" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H159" s="11" t="s">
@@ -8000,7 +9084,10 @@
       <c r="I159" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J159" s="12"/>
+      <c r="J159" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
       <c r="M159" s="8"/>
@@ -8023,7 +9110,7 @@
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
       <c r="G160" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H160" s="11" t="s">
@@ -8032,7 +9119,10 @@
       <c r="I160" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J160" s="12"/>
+      <c r="J160" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
       <c r="M160" s="8"/>
@@ -8055,7 +9145,7 @@
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
       <c r="G161" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H161" s="11" t="s">
@@ -8064,7 +9154,10 @@
       <c r="I161" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J161" s="12"/>
+      <c r="J161" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K161" s="8"/>
       <c r="L161" s="8"/>
       <c r="M161" s="8"/>
@@ -8087,7 +9180,7 @@
       <c r="E162" s="10"/>
       <c r="F162" s="10"/>
       <c r="G162" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H162" s="11" t="s">
@@ -8096,7 +9189,10 @@
       <c r="I162" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J162" s="12"/>
+      <c r="J162" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K162" s="8"/>
       <c r="L162" s="8"/>
       <c r="M162" s="8"/>
@@ -8119,7 +9215,7 @@
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
       <c r="G163" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H163" s="11" t="s">
@@ -8128,7 +9224,10 @@
       <c r="I163" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J163" s="12"/>
+      <c r="J163" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K163" s="8"/>
       <c r="L163" s="8"/>
       <c r="M163" s="8"/>
@@ -8151,7 +9250,7 @@
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
       <c r="G164" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H164" s="11" t="s">
@@ -8160,7 +9259,10 @@
       <c r="I164" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J164" s="12"/>
+      <c r="J164" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K164" s="8"/>
       <c r="L164" s="8"/>
       <c r="M164" s="8"/>
@@ -8183,7 +9285,7 @@
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
       <c r="G165" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H165" s="11" t="s">
@@ -8192,7 +9294,10 @@
       <c r="I165" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J165" s="12"/>
+      <c r="J165" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
       <c r="M165" s="8"/>
@@ -8215,7 +9320,7 @@
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
       <c r="G166" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H166" s="11" t="s">
@@ -8224,7 +9329,10 @@
       <c r="I166" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J166" s="12"/>
+      <c r="J166" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K166" s="8"/>
       <c r="L166" s="8"/>
       <c r="M166" s="8"/>
@@ -8247,7 +9355,7 @@
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
       <c r="G167" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H167" s="11" t="s">
@@ -8256,7 +9364,10 @@
       <c r="I167" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J167" s="12"/>
+      <c r="J167" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K167" s="8"/>
       <c r="L167" s="8"/>
       <c r="M167" s="8"/>
@@ -8279,7 +9390,7 @@
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
       <c r="G168" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H168" s="11" t="s">
@@ -8288,7 +9399,10 @@
       <c r="I168" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J168" s="12"/>
+      <c r="J168" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K168" s="8"/>
       <c r="L168" s="8"/>
       <c r="M168" s="8"/>
@@ -8311,7 +9425,7 @@
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
       <c r="G169" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H169" s="11" t="s">
@@ -8320,7 +9434,10 @@
       <c r="I169" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J169" s="12"/>
+      <c r="J169" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K169" s="8"/>
       <c r="L169" s="8"/>
       <c r="M169" s="8"/>
@@ -8343,7 +9460,7 @@
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
       <c r="G170" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H170" s="11" t="s">
@@ -8352,7 +9469,10 @@
       <c r="I170" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J170" s="12"/>
+      <c r="J170" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K170" s="8"/>
       <c r="L170" s="8"/>
       <c r="M170" s="8"/>
@@ -8375,7 +9495,7 @@
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
       <c r="G171" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H171" s="11" t="s">
@@ -8384,7 +9504,10 @@
       <c r="I171" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J171" s="12"/>
+      <c r="J171" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K171" s="8"/>
       <c r="L171" s="8"/>
       <c r="M171" s="8"/>
@@ -8407,7 +9530,7 @@
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
       <c r="G172" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H172" s="11" t="s">
@@ -8416,7 +9539,10 @@
       <c r="I172" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J172" s="12"/>
+      <c r="J172" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K172" s="8"/>
       <c r="L172" s="8"/>
       <c r="M172" s="8"/>
@@ -8439,7 +9565,7 @@
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
       <c r="G173" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H173" s="11" t="s">
@@ -8448,7 +9574,10 @@
       <c r="I173" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J173" s="12"/>
+      <c r="J173" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K173" s="8"/>
       <c r="L173" s="8"/>
       <c r="M173" s="8"/>
@@ -8471,7 +9600,7 @@
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
       <c r="G174" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H174" s="11" t="s">
@@ -8480,7 +9609,10 @@
       <c r="I174" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J174" s="12"/>
+      <c r="J174" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K174" s="8"/>
       <c r="L174" s="8"/>
       <c r="M174" s="8"/>
@@ -8503,7 +9635,7 @@
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
       <c r="G175" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H175" s="11" t="s">
@@ -8512,7 +9644,10 @@
       <c r="I175" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J175" s="12"/>
+      <c r="J175" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
       <c r="M175" s="8"/>
@@ -8535,7 +9670,7 @@
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
       <c r="G176" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H176" s="11" t="s">
@@ -8544,7 +9679,10 @@
       <c r="I176" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J176" s="12"/>
+      <c r="J176" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K176" s="8"/>
       <c r="L176" s="8"/>
       <c r="M176" s="8"/>
@@ -8567,7 +9705,7 @@
       <c r="E177" s="10"/>
       <c r="F177" s="10"/>
       <c r="G177" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H177" s="11" t="s">
@@ -8576,7 +9714,10 @@
       <c r="I177" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J177" s="12"/>
+      <c r="J177" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K177" s="8"/>
       <c r="L177" s="8"/>
       <c r="M177" s="8"/>
@@ -8599,7 +9740,7 @@
       <c r="E178" s="10"/>
       <c r="F178" s="10"/>
       <c r="G178" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H178" s="11" t="s">
@@ -8608,7 +9749,10 @@
       <c r="I178" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J178" s="12"/>
+      <c r="J178" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K178" s="8"/>
       <c r="L178" s="8"/>
       <c r="M178" s="8"/>
@@ -8631,7 +9775,7 @@
       <c r="E179" s="10"/>
       <c r="F179" s="10"/>
       <c r="G179" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H179" s="11" t="s">
@@ -8640,7 +9784,10 @@
       <c r="I179" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J179" s="12"/>
+      <c r="J179" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K179" s="8"/>
       <c r="L179" s="8"/>
       <c r="M179" s="8"/>
@@ -8663,7 +9810,7 @@
       <c r="E180" s="10"/>
       <c r="F180" s="10"/>
       <c r="G180" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H180" s="11" t="s">
@@ -8672,7 +9819,10 @@
       <c r="I180" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J180" s="12"/>
+      <c r="J180" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K180" s="8"/>
       <c r="L180" s="8"/>
       <c r="M180" s="8"/>
@@ -8695,7 +9845,7 @@
       <c r="E181" s="10"/>
       <c r="F181" s="10"/>
       <c r="G181" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H181" s="11" t="s">
@@ -8704,7 +9854,10 @@
       <c r="I181" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J181" s="12"/>
+      <c r="J181" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K181" s="8"/>
       <c r="L181" s="8"/>
       <c r="M181" s="8"/>
@@ -8727,7 +9880,7 @@
       <c r="E182" s="10"/>
       <c r="F182" s="10"/>
       <c r="G182" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H182" s="11" t="s">
@@ -8736,7 +9889,10 @@
       <c r="I182" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J182" s="12"/>
+      <c r="J182" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K182" s="8"/>
       <c r="L182" s="8"/>
       <c r="M182" s="8"/>
@@ -8759,7 +9915,7 @@
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
       <c r="G183" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H183" s="11" t="s">
@@ -8768,7 +9924,10 @@
       <c r="I183" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J183" s="12"/>
+      <c r="J183" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K183" s="8"/>
       <c r="L183" s="8"/>
       <c r="M183" s="8"/>
@@ -8791,7 +9950,7 @@
       <c r="E184" s="10"/>
       <c r="F184" s="10"/>
       <c r="G184" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H184" s="11" t="s">
@@ -8800,7 +9959,10 @@
       <c r="I184" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J184" s="12"/>
+      <c r="J184" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K184" s="8"/>
       <c r="L184" s="8"/>
       <c r="M184" s="8"/>
@@ -8823,7 +9985,7 @@
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
       <c r="G185" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H185" s="11" t="s">
@@ -8832,7 +9994,10 @@
       <c r="I185" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J185" s="12"/>
+      <c r="J185" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K185" s="8"/>
       <c r="L185" s="8"/>
       <c r="M185" s="8"/>
@@ -8855,7 +10020,7 @@
       <c r="E186" s="10"/>
       <c r="F186" s="10"/>
       <c r="G186" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H186" s="11" t="s">
@@ -8864,7 +10029,10 @@
       <c r="I186" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J186" s="12"/>
+      <c r="J186" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K186" s="8"/>
       <c r="L186" s="8"/>
       <c r="M186" s="8"/>
@@ -8887,7 +10055,7 @@
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
       <c r="G187" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H187" s="11" t="s">
@@ -8896,7 +10064,10 @@
       <c r="I187" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J187" s="12"/>
+      <c r="J187" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K187" s="8"/>
       <c r="L187" s="8"/>
       <c r="M187" s="8"/>
@@ -8919,7 +10090,7 @@
       <c r="E188" s="10"/>
       <c r="F188" s="10"/>
       <c r="G188" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H188" s="11" t="s">
@@ -8928,7 +10099,10 @@
       <c r="I188" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J188" s="12"/>
+      <c r="J188" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K188" s="8"/>
       <c r="L188" s="8"/>
       <c r="M188" s="8"/>
@@ -8951,7 +10125,7 @@
       <c r="E189" s="10"/>
       <c r="F189" s="10"/>
       <c r="G189" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H189" s="11" t="s">
@@ -8960,7 +10134,10 @@
       <c r="I189" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J189" s="12"/>
+      <c r="J189" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K189" s="8"/>
       <c r="L189" s="8"/>
       <c r="M189" s="8"/>
@@ -8983,7 +10160,7 @@
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
       <c r="G190" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H190" s="11" t="s">
@@ -8992,7 +10169,10 @@
       <c r="I190" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J190" s="12"/>
+      <c r="J190" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>راسب</v>
+      </c>
       <c r="K190" s="8"/>
       <c r="L190" s="8"/>
       <c r="M190" s="8"/>
@@ -9019,7 +10199,7 @@
         <v>11</v>
       </c>
       <c r="G191" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="H191" s="11" t="s">
@@ -9064,7 +10244,7 @@
         <v>0</v>
       </c>
       <c r="G192" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="H192" s="11" t="s">
@@ -9074,7 +10254,7 @@
         <v>752</v>
       </c>
       <c r="J192" s="12" t="str">
-        <f t="shared" ref="J192:J251" si="3">IF(G192&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" ref="J192:J255" si="6">IF(G192&gt;=50,"ناجح","راسب")</f>
         <v>راسب</v>
       </c>
       <c r="K192" s="8"/>
@@ -9109,7 +10289,7 @@
         <v>18</v>
       </c>
       <c r="G193" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="H193" s="11" t="s">
@@ -9119,7 +10299,7 @@
         <v>752</v>
       </c>
       <c r="J193" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K193" s="8"/>
@@ -9154,7 +10334,7 @@
         <v>8</v>
       </c>
       <c r="G194" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="H194" s="11" t="s">
@@ -9164,7 +10344,7 @@
         <v>752</v>
       </c>
       <c r="J194" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K194" s="8"/>
@@ -9199,7 +10379,7 @@
         <v>0</v>
       </c>
       <c r="G195" s="10">
-        <f t="shared" ref="G195:G258" si="4">F195+E195</f>
+        <f t="shared" ref="G195:G258" si="7">F195+E195</f>
         <v>0</v>
       </c>
       <c r="H195" s="11" t="s">
@@ -9209,7 +10389,7 @@
         <v>752</v>
       </c>
       <c r="J195" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K195" s="8"/>
@@ -9244,7 +10424,7 @@
         <v>11</v>
       </c>
       <c r="G196" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="H196" s="11" t="s">
@@ -9254,7 +10434,7 @@
         <v>752</v>
       </c>
       <c r="J196" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K196" s="8"/>
@@ -9289,7 +10469,7 @@
         <v>8</v>
       </c>
       <c r="G197" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="H197" s="11" t="s">
@@ -9299,7 +10479,7 @@
         <v>752</v>
       </c>
       <c r="J197" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K197" s="8"/>
@@ -9334,7 +10514,7 @@
         <v>6</v>
       </c>
       <c r="G198" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="H198" s="11" t="s">
@@ -9344,7 +10524,7 @@
         <v>752</v>
       </c>
       <c r="J198" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K198" s="8"/>
@@ -9379,7 +10559,7 @@
         <v>4</v>
       </c>
       <c r="G199" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="H199" s="11" t="s">
@@ -9389,7 +10569,7 @@
         <v>752</v>
       </c>
       <c r="J199" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K199" s="8"/>
@@ -9424,7 +10604,7 @@
         <v>5</v>
       </c>
       <c r="G200" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="H200" s="11" t="s">
@@ -9434,7 +10614,7 @@
         <v>752</v>
       </c>
       <c r="J200" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K200" s="8"/>
@@ -9469,7 +10649,7 @@
         <v>5</v>
       </c>
       <c r="G201" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="H201" s="11" t="s">
@@ -9479,7 +10659,7 @@
         <v>752</v>
       </c>
       <c r="J201" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K201" s="8"/>
@@ -9514,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="G202" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="H202" s="11" t="s">
@@ -9524,7 +10704,7 @@
         <v>752</v>
       </c>
       <c r="J202" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K202" s="8"/>
@@ -9559,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="G203" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H203" s="11" t="s">
@@ -9569,7 +10749,7 @@
         <v>752</v>
       </c>
       <c r="J203" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K203" s="8"/>
@@ -9604,7 +10784,7 @@
         <v>15</v>
       </c>
       <c r="G204" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="H204" s="11" t="s">
@@ -9614,7 +10794,7 @@
         <v>752</v>
       </c>
       <c r="J204" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K204" s="8"/>
@@ -9649,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="G205" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H205" s="11" t="s">
@@ -9659,7 +10839,7 @@
         <v>752</v>
       </c>
       <c r="J205" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K205" s="8"/>
@@ -9694,7 +10874,7 @@
         <v>8</v>
       </c>
       <c r="G206" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="H206" s="11" t="s">
@@ -9704,7 +10884,7 @@
         <v>752</v>
       </c>
       <c r="J206" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K206" s="8"/>
@@ -9739,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="G207" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="H207" s="11" t="s">
@@ -9749,7 +10929,7 @@
         <v>752</v>
       </c>
       <c r="J207" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K207" s="8"/>
@@ -9784,7 +10964,7 @@
         <v>0</v>
       </c>
       <c r="G208" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H208" s="11" t="s">
@@ -9794,7 +10974,7 @@
         <v>752</v>
       </c>
       <c r="J208" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K208" s="8"/>
@@ -9829,7 +11009,7 @@
         <v>0</v>
       </c>
       <c r="G209" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H209" s="11" t="s">
@@ -9839,7 +11019,7 @@
         <v>752</v>
       </c>
       <c r="J209" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K209" s="8"/>
@@ -9874,7 +11054,7 @@
         <v>9</v>
       </c>
       <c r="G210" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="H210" s="11" t="s">
@@ -9884,7 +11064,7 @@
         <v>752</v>
       </c>
       <c r="J210" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K210" s="8"/>
@@ -9919,7 +11099,7 @@
         <v>0</v>
       </c>
       <c r="G211" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="H211" s="11" t="s">
@@ -9929,7 +11109,7 @@
         <v>752</v>
       </c>
       <c r="J211" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K211" s="8"/>
@@ -9964,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="G212" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H212" s="11" t="s">
@@ -9974,7 +11154,7 @@
         <v>752</v>
       </c>
       <c r="J212" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K212" s="8"/>
@@ -10009,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="G213" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H213" s="11" t="s">
@@ -10019,7 +11199,7 @@
         <v>752</v>
       </c>
       <c r="J213" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K213" s="8"/>
@@ -10054,7 +11234,7 @@
         <v>0</v>
       </c>
       <c r="G214" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H214" s="11" t="s">
@@ -10064,7 +11244,7 @@
         <v>752</v>
       </c>
       <c r="J214" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K214" s="8"/>
@@ -10099,7 +11279,7 @@
         <v>0</v>
       </c>
       <c r="G215" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H215" s="11" t="s">
@@ -10109,7 +11289,7 @@
         <v>752</v>
       </c>
       <c r="J215" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K215" s="8"/>
@@ -10144,7 +11324,7 @@
         <v>5</v>
       </c>
       <c r="G216" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="H216" s="11" t="s">
@@ -10154,7 +11334,7 @@
         <v>752</v>
       </c>
       <c r="J216" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K216" s="8"/>
@@ -10189,7 +11369,7 @@
         <v>6</v>
       </c>
       <c r="G217" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="H217" s="11" t="s">
@@ -10199,7 +11379,7 @@
         <v>752</v>
       </c>
       <c r="J217" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K217" s="8"/>
@@ -10234,7 +11414,7 @@
         <v>13</v>
       </c>
       <c r="G218" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="H218" s="11" t="s">
@@ -10244,7 +11424,7 @@
         <v>752</v>
       </c>
       <c r="J218" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K218" s="8"/>
@@ -10279,7 +11459,7 @@
         <v>0</v>
       </c>
       <c r="G219" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H219" s="11" t="s">
@@ -10289,7 +11469,7 @@
         <v>752</v>
       </c>
       <c r="J219" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K219" s="8"/>
@@ -10324,7 +11504,7 @@
         <v>12</v>
       </c>
       <c r="G220" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
       <c r="H220" s="11" t="s">
@@ -10334,7 +11514,7 @@
         <v>752</v>
       </c>
       <c r="J220" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K220" s="8"/>
@@ -10369,7 +11549,7 @@
         <v>11</v>
       </c>
       <c r="G221" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="H221" s="11" t="s">
@@ -10379,7 +11559,7 @@
         <v>752</v>
       </c>
       <c r="J221" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K221" s="8"/>
@@ -10414,7 +11594,7 @@
         <v>0</v>
       </c>
       <c r="G222" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H222" s="11" t="s">
@@ -10424,7 +11604,7 @@
         <v>752</v>
       </c>
       <c r="J222" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K222" s="8"/>
@@ -10459,7 +11639,7 @@
         <v>9</v>
       </c>
       <c r="G223" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="H223" s="11" t="s">
@@ -10469,7 +11649,7 @@
         <v>752</v>
       </c>
       <c r="J223" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K223" s="8"/>
@@ -10504,7 +11684,7 @@
         <v>3</v>
       </c>
       <c r="G224" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="H224" s="11" t="s">
@@ -10514,7 +11694,7 @@
         <v>752</v>
       </c>
       <c r="J224" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K224" s="8"/>
@@ -10549,7 +11729,7 @@
         <v>0</v>
       </c>
       <c r="G225" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="H225" s="11" t="s">
@@ -10559,7 +11739,7 @@
         <v>752</v>
       </c>
       <c r="J225" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K225" s="8"/>
@@ -10594,7 +11774,7 @@
         <v>3</v>
       </c>
       <c r="G226" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="H226" s="11" t="s">
@@ -10604,7 +11784,7 @@
         <v>752</v>
       </c>
       <c r="J226" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K226" s="8"/>
@@ -10639,7 +11819,7 @@
         <v>17</v>
       </c>
       <c r="G227" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="H227" s="11" t="s">
@@ -10649,7 +11829,7 @@
         <v>752</v>
       </c>
       <c r="J227" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K227" s="8"/>
@@ -10684,7 +11864,7 @@
         <v>16</v>
       </c>
       <c r="G228" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="H228" s="11" t="s">
@@ -10694,7 +11874,7 @@
         <v>752</v>
       </c>
       <c r="J228" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K228" s="8"/>
@@ -10729,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="G229" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H229" s="11" t="s">
@@ -10739,7 +11919,7 @@
         <v>752</v>
       </c>
       <c r="J229" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K229" s="8"/>
@@ -10774,7 +11954,7 @@
         <v>15</v>
       </c>
       <c r="G230" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
       <c r="H230" s="11" t="s">
@@ -10784,7 +11964,7 @@
         <v>752</v>
       </c>
       <c r="J230" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K230" s="8"/>
@@ -10819,7 +11999,7 @@
         <v>17</v>
       </c>
       <c r="G231" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>49</v>
       </c>
       <c r="H231" s="11" t="s">
@@ -10829,7 +12009,7 @@
         <v>752</v>
       </c>
       <c r="J231" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K231" s="8"/>
@@ -10864,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="G232" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H232" s="11" t="s">
@@ -10874,7 +12054,7 @@
         <v>752</v>
       </c>
       <c r="J232" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K232" s="8"/>
@@ -10909,7 +12089,7 @@
         <v>9</v>
       </c>
       <c r="G233" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="H233" s="11" t="s">
@@ -10919,7 +12099,7 @@
         <v>752</v>
       </c>
       <c r="J233" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K233" s="8"/>
@@ -10954,7 +12134,7 @@
         <v>0</v>
       </c>
       <c r="G234" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H234" s="11" t="s">
@@ -10964,7 +12144,7 @@
         <v>752</v>
       </c>
       <c r="J234" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K234" s="8"/>
@@ -10999,7 +12179,7 @@
         <v>0</v>
       </c>
       <c r="G235" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H235" s="11" t="s">
@@ -11009,7 +12189,7 @@
         <v>752</v>
       </c>
       <c r="J235" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K235" s="8"/>
@@ -11044,7 +12224,7 @@
         <v>16</v>
       </c>
       <c r="G236" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>49</v>
       </c>
       <c r="H236" s="11" t="s">
@@ -11054,7 +12234,7 @@
         <v>752</v>
       </c>
       <c r="J236" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K236" s="8"/>
@@ -11089,7 +12269,7 @@
         <v>15</v>
       </c>
       <c r="G237" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
       <c r="H237" s="11" t="s">
@@ -11099,7 +12279,7 @@
         <v>752</v>
       </c>
       <c r="J237" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>ناجح</v>
       </c>
       <c r="K237" s="8">
@@ -11138,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="G238" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H238" s="11" t="s">
@@ -11148,7 +12328,7 @@
         <v>752</v>
       </c>
       <c r="J238" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K238" s="8"/>
@@ -11183,7 +12363,7 @@
         <v>12</v>
       </c>
       <c r="G239" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="H239" s="11" t="s">
@@ -11193,7 +12373,7 @@
         <v>752</v>
       </c>
       <c r="J239" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K239" s="8"/>
@@ -11228,7 +12408,7 @@
         <v>7</v>
       </c>
       <c r="G240" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="H240" s="11" t="s">
@@ -11238,7 +12418,7 @@
         <v>752</v>
       </c>
       <c r="J240" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K240" s="8"/>
@@ -11273,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="G241" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H241" s="11" t="s">
@@ -11283,7 +12463,7 @@
         <v>752</v>
       </c>
       <c r="J241" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K241" s="8"/>
@@ -11318,7 +12498,7 @@
         <v>2</v>
       </c>
       <c r="G242" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="H242" s="11" t="s">
@@ -11328,7 +12508,7 @@
         <v>752</v>
       </c>
       <c r="J242" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K242" s="8"/>
@@ -11363,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="G243" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H243" s="11" t="s">
@@ -11373,7 +12553,7 @@
         <v>752</v>
       </c>
       <c r="J243" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K243" s="8"/>
@@ -11408,7 +12588,7 @@
         <v>16</v>
       </c>
       <c r="G244" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="H244" s="11" t="s">
@@ -11418,7 +12598,7 @@
         <v>752</v>
       </c>
       <c r="J244" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K244" s="8"/>
@@ -11453,7 +12633,7 @@
         <v>14</v>
       </c>
       <c r="G245" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="H245" s="11" t="s">
@@ -11463,7 +12643,7 @@
         <v>752</v>
       </c>
       <c r="J245" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K245" s="8"/>
@@ -11498,7 +12678,7 @@
         <v>8</v>
       </c>
       <c r="G246" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="H246" s="11" t="s">
@@ -11508,7 +12688,7 @@
         <v>752</v>
       </c>
       <c r="J246" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K246" s="8"/>
@@ -11543,7 +12723,7 @@
         <v>10</v>
       </c>
       <c r="G247" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="H247" s="11" t="s">
@@ -11553,7 +12733,7 @@
         <v>752</v>
       </c>
       <c r="J247" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K247" s="8"/>
@@ -11588,7 +12768,7 @@
         <v>16</v>
       </c>
       <c r="G248" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
       <c r="H248" s="11" t="s">
@@ -11598,7 +12778,7 @@
         <v>752</v>
       </c>
       <c r="J248" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K248" s="8"/>
@@ -11633,7 +12813,7 @@
         <v>15</v>
       </c>
       <c r="G249" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
       <c r="H249" s="11" t="s">
@@ -11643,7 +12823,7 @@
         <v>752</v>
       </c>
       <c r="J249" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>ناجح</v>
       </c>
       <c r="K249" s="8">
@@ -11682,7 +12862,7 @@
         <v>0</v>
       </c>
       <c r="G250" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H250" s="11" t="s">
@@ -11692,7 +12872,7 @@
         <v>752</v>
       </c>
       <c r="J250" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K250" s="8"/>
@@ -11727,7 +12907,7 @@
         <v>0</v>
       </c>
       <c r="G251" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H251" s="11" t="s">
@@ -11737,7 +12917,7 @@
         <v>752</v>
       </c>
       <c r="J251" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>راسب</v>
       </c>
       <c r="K251" s="8"/>
@@ -11768,7 +12948,7 @@
       <c r="E252" s="10"/>
       <c r="F252" s="10"/>
       <c r="G252" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H252" s="11" t="s">
@@ -11777,7 +12957,10 @@
       <c r="I252" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J252" s="12"/>
+      <c r="J252" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>راسب</v>
+      </c>
       <c r="K252" s="8"/>
       <c r="L252" s="8"/>
       <c r="M252" s="8"/>
@@ -11800,7 +12983,7 @@
       <c r="E253" s="10"/>
       <c r="F253" s="10"/>
       <c r="G253" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H253" s="11" t="s">
@@ -11809,7 +12992,10 @@
       <c r="I253" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J253" s="12"/>
+      <c r="J253" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>راسب</v>
+      </c>
       <c r="K253" s="8"/>
       <c r="L253" s="8"/>
       <c r="M253" s="8"/>
@@ -11832,7 +13018,7 @@
       <c r="E254" s="10"/>
       <c r="F254" s="10"/>
       <c r="G254" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H254" s="11" t="s">
@@ -11841,7 +13027,10 @@
       <c r="I254" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J254" s="12"/>
+      <c r="J254" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>راسب</v>
+      </c>
       <c r="K254" s="8"/>
       <c r="L254" s="8"/>
       <c r="M254" s="8"/>
@@ -11864,7 +13053,7 @@
       <c r="E255" s="10"/>
       <c r="F255" s="10"/>
       <c r="G255" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H255" s="11" t="s">
@@ -11873,7 +13062,10 @@
       <c r="I255" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J255" s="12"/>
+      <c r="J255" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>راسب</v>
+      </c>
       <c r="K255" s="8"/>
       <c r="L255" s="8"/>
       <c r="M255" s="8"/>
@@ -11896,7 +13088,7 @@
       <c r="E256" s="10"/>
       <c r="F256" s="10"/>
       <c r="G256" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H256" s="11" t="s">
@@ -11905,7 +13097,10 @@
       <c r="I256" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J256" s="12"/>
+      <c r="J256" s="12" t="str">
+        <f t="shared" ref="J256:J319" si="8">IF(G256&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K256" s="8"/>
       <c r="L256" s="8"/>
       <c r="M256" s="8"/>
@@ -11928,7 +13123,7 @@
       <c r="E257" s="10"/>
       <c r="F257" s="10"/>
       <c r="G257" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H257" s="11" t="s">
@@ -11937,7 +13132,10 @@
       <c r="I257" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J257" s="12"/>
+      <c r="J257" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K257" s="8"/>
       <c r="L257" s="8"/>
       <c r="M257" s="8"/>
@@ -11960,7 +13158,7 @@
       <c r="E258" s="10"/>
       <c r="F258" s="10"/>
       <c r="G258" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H258" s="11" t="s">
@@ -11969,7 +13167,10 @@
       <c r="I258" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J258" s="12"/>
+      <c r="J258" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K258" s="8"/>
       <c r="L258" s="8"/>
       <c r="M258" s="8"/>
@@ -11992,7 +13193,7 @@
       <c r="E259" s="10"/>
       <c r="F259" s="10"/>
       <c r="G259" s="10">
-        <f t="shared" ref="G259:G322" si="5">F259+E259</f>
+        <f t="shared" ref="G259:G322" si="9">F259+E259</f>
         <v>0</v>
       </c>
       <c r="H259" s="11" t="s">
@@ -12001,7 +13202,10 @@
       <c r="I259" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J259" s="12"/>
+      <c r="J259" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K259" s="8"/>
       <c r="L259" s="8"/>
       <c r="M259" s="8"/>
@@ -12024,7 +13228,7 @@
       <c r="E260" s="10"/>
       <c r="F260" s="10"/>
       <c r="G260" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H260" s="11" t="s">
@@ -12033,7 +13237,10 @@
       <c r="I260" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J260" s="12"/>
+      <c r="J260" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K260" s="8"/>
       <c r="L260" s="8"/>
       <c r="M260" s="8"/>
@@ -12056,7 +13263,7 @@
       <c r="E261" s="10"/>
       <c r="F261" s="10"/>
       <c r="G261" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H261" s="11" t="s">
@@ -12065,7 +13272,10 @@
       <c r="I261" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J261" s="12"/>
+      <c r="J261" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K261" s="8"/>
       <c r="L261" s="8"/>
       <c r="M261" s="8"/>
@@ -12088,7 +13298,7 @@
       <c r="E262" s="10"/>
       <c r="F262" s="10"/>
       <c r="G262" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H262" s="11" t="s">
@@ -12097,7 +13307,10 @@
       <c r="I262" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J262" s="12"/>
+      <c r="J262" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K262" s="8"/>
       <c r="L262" s="8"/>
       <c r="M262" s="8"/>
@@ -12120,7 +13333,7 @@
       <c r="E263" s="10"/>
       <c r="F263" s="10"/>
       <c r="G263" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H263" s="11" t="s">
@@ -12129,7 +13342,10 @@
       <c r="I263" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J263" s="12"/>
+      <c r="J263" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K263" s="8"/>
       <c r="L263" s="8"/>
       <c r="M263" s="8"/>
@@ -12152,7 +13368,7 @@
       <c r="E264" s="10"/>
       <c r="F264" s="10"/>
       <c r="G264" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H264" s="11" t="s">
@@ -12161,7 +13377,10 @@
       <c r="I264" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J264" s="12"/>
+      <c r="J264" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K264" s="8"/>
       <c r="L264" s="8"/>
       <c r="M264" s="8"/>
@@ -12184,7 +13403,7 @@
       <c r="E265" s="10"/>
       <c r="F265" s="10"/>
       <c r="G265" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H265" s="11" t="s">
@@ -12193,7 +13412,10 @@
       <c r="I265" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J265" s="12"/>
+      <c r="J265" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K265" s="8"/>
       <c r="L265" s="8"/>
       <c r="M265" s="8"/>
@@ -12216,7 +13438,7 @@
       <c r="E266" s="10"/>
       <c r="F266" s="10"/>
       <c r="G266" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H266" s="11" t="s">
@@ -12225,7 +13447,10 @@
       <c r="I266" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J266" s="12"/>
+      <c r="J266" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K266" s="8"/>
       <c r="L266" s="8"/>
       <c r="M266" s="8"/>
@@ -12248,7 +13473,7 @@
       <c r="E267" s="10"/>
       <c r="F267" s="10"/>
       <c r="G267" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H267" s="11" t="s">
@@ -12257,7 +13482,10 @@
       <c r="I267" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J267" s="12"/>
+      <c r="J267" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K267" s="8"/>
       <c r="L267" s="8"/>
       <c r="M267" s="8"/>
@@ -12280,7 +13508,7 @@
       <c r="E268" s="10"/>
       <c r="F268" s="10"/>
       <c r="G268" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H268" s="11" t="s">
@@ -12289,7 +13517,10 @@
       <c r="I268" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J268" s="12"/>
+      <c r="J268" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K268" s="8"/>
       <c r="L268" s="8"/>
       <c r="M268" s="8"/>
@@ -12312,7 +13543,7 @@
       <c r="E269" s="10"/>
       <c r="F269" s="10"/>
       <c r="G269" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H269" s="11" t="s">
@@ -12321,7 +13552,10 @@
       <c r="I269" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J269" s="12"/>
+      <c r="J269" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K269" s="8"/>
       <c r="L269" s="8"/>
       <c r="M269" s="8"/>
@@ -12344,7 +13578,7 @@
       <c r="E270" s="10"/>
       <c r="F270" s="10"/>
       <c r="G270" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H270" s="11" t="s">
@@ -12353,7 +13587,10 @@
       <c r="I270" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J270" s="12"/>
+      <c r="J270" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K270" s="8"/>
       <c r="L270" s="8"/>
       <c r="M270" s="8"/>
@@ -12376,7 +13613,7 @@
       <c r="E271" s="10"/>
       <c r="F271" s="10"/>
       <c r="G271" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H271" s="11" t="s">
@@ -12385,7 +13622,10 @@
       <c r="I271" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J271" s="12"/>
+      <c r="J271" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K271" s="8"/>
       <c r="L271" s="8"/>
       <c r="M271" s="8"/>
@@ -12408,7 +13648,7 @@
       <c r="E272" s="10"/>
       <c r="F272" s="10"/>
       <c r="G272" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H272" s="11" t="s">
@@ -12417,7 +13657,10 @@
       <c r="I272" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J272" s="12"/>
+      <c r="J272" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K272" s="8"/>
       <c r="L272" s="8"/>
       <c r="M272" s="8"/>
@@ -12440,7 +13683,7 @@
       <c r="E273" s="10"/>
       <c r="F273" s="10"/>
       <c r="G273" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H273" s="11" t="s">
@@ -12449,7 +13692,10 @@
       <c r="I273" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J273" s="12"/>
+      <c r="J273" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K273" s="8"/>
       <c r="L273" s="8"/>
       <c r="M273" s="8"/>
@@ -12472,7 +13718,7 @@
       <c r="E274" s="10"/>
       <c r="F274" s="10"/>
       <c r="G274" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H274" s="11" t="s">
@@ -12481,7 +13727,10 @@
       <c r="I274" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J274" s="12"/>
+      <c r="J274" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K274" s="8"/>
       <c r="L274" s="8"/>
       <c r="M274" s="8"/>
@@ -12504,7 +13753,7 @@
       <c r="E275" s="10"/>
       <c r="F275" s="10"/>
       <c r="G275" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H275" s="11" t="s">
@@ -12513,7 +13762,10 @@
       <c r="I275" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J275" s="12"/>
+      <c r="J275" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K275" s="8"/>
       <c r="L275" s="8"/>
       <c r="M275" s="8"/>
@@ -12536,7 +13788,7 @@
       <c r="E276" s="10"/>
       <c r="F276" s="10"/>
       <c r="G276" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H276" s="11" t="s">
@@ -12545,7 +13797,10 @@
       <c r="I276" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J276" s="12"/>
+      <c r="J276" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K276" s="8"/>
       <c r="L276" s="8"/>
       <c r="M276" s="8"/>
@@ -12568,7 +13823,7 @@
       <c r="E277" s="10"/>
       <c r="F277" s="10"/>
       <c r="G277" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H277" s="11" t="s">
@@ -12577,7 +13832,10 @@
       <c r="I277" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J277" s="12"/>
+      <c r="J277" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K277" s="8"/>
       <c r="L277" s="8"/>
       <c r="M277" s="8"/>
@@ -12600,7 +13858,7 @@
       <c r="E278" s="10"/>
       <c r="F278" s="10"/>
       <c r="G278" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H278" s="11" t="s">
@@ -12609,7 +13867,10 @@
       <c r="I278" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J278" s="12"/>
+      <c r="J278" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K278" s="8"/>
       <c r="L278" s="8"/>
       <c r="M278" s="8"/>
@@ -12632,7 +13893,7 @@
       <c r="E279" s="10"/>
       <c r="F279" s="10"/>
       <c r="G279" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H279" s="11" t="s">
@@ -12641,7 +13902,10 @@
       <c r="I279" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J279" s="12"/>
+      <c r="J279" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K279" s="8"/>
       <c r="L279" s="8"/>
       <c r="M279" s="8"/>
@@ -12664,7 +13928,7 @@
       <c r="E280" s="10"/>
       <c r="F280" s="10"/>
       <c r="G280" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H280" s="11" t="s">
@@ -12673,7 +13937,10 @@
       <c r="I280" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J280" s="12"/>
+      <c r="J280" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K280" s="8"/>
       <c r="L280" s="8"/>
       <c r="M280" s="8"/>
@@ -12696,7 +13963,7 @@
       <c r="E281" s="10"/>
       <c r="F281" s="10"/>
       <c r="G281" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H281" s="11" t="s">
@@ -12705,7 +13972,10 @@
       <c r="I281" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J281" s="12"/>
+      <c r="J281" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K281" s="8"/>
       <c r="L281" s="8"/>
       <c r="M281" s="8"/>
@@ -12728,7 +13998,7 @@
       <c r="E282" s="10"/>
       <c r="F282" s="10"/>
       <c r="G282" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H282" s="11" t="s">
@@ -12737,7 +14007,10 @@
       <c r="I282" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J282" s="12"/>
+      <c r="J282" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K282" s="8"/>
       <c r="L282" s="8"/>
       <c r="M282" s="8"/>
@@ -12760,7 +14033,7 @@
       <c r="E283" s="10"/>
       <c r="F283" s="10"/>
       <c r="G283" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H283" s="11" t="s">
@@ -12769,7 +14042,10 @@
       <c r="I283" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J283" s="12"/>
+      <c r="J283" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K283" s="8"/>
       <c r="L283" s="8"/>
       <c r="M283" s="8"/>
@@ -12792,7 +14068,7 @@
       <c r="E284" s="10"/>
       <c r="F284" s="10"/>
       <c r="G284" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H284" s="11" t="s">
@@ -12801,7 +14077,10 @@
       <c r="I284" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J284" s="12"/>
+      <c r="J284" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K284" s="8"/>
       <c r="L284" s="8"/>
       <c r="M284" s="8"/>
@@ -12824,7 +14103,7 @@
       <c r="E285" s="10"/>
       <c r="F285" s="10"/>
       <c r="G285" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H285" s="11" t="s">
@@ -12833,7 +14112,10 @@
       <c r="I285" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J285" s="12"/>
+      <c r="J285" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K285" s="8"/>
       <c r="L285" s="8"/>
       <c r="M285" s="8"/>
@@ -12856,7 +14138,7 @@
       <c r="E286" s="10"/>
       <c r="F286" s="10"/>
       <c r="G286" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H286" s="11" t="s">
@@ -12865,7 +14147,10 @@
       <c r="I286" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J286" s="12"/>
+      <c r="J286" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K286" s="8"/>
       <c r="L286" s="8"/>
       <c r="M286" s="8"/>
@@ -12888,7 +14173,7 @@
       <c r="E287" s="10"/>
       <c r="F287" s="10"/>
       <c r="G287" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H287" s="11" t="s">
@@ -12897,7 +14182,10 @@
       <c r="I287" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J287" s="12"/>
+      <c r="J287" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K287" s="8"/>
       <c r="L287" s="8"/>
       <c r="M287" s="8"/>
@@ -12920,7 +14208,7 @@
       <c r="E288" s="10"/>
       <c r="F288" s="10"/>
       <c r="G288" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H288" s="11" t="s">
@@ -12929,7 +14217,10 @@
       <c r="I288" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J288" s="12"/>
+      <c r="J288" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K288" s="8"/>
       <c r="L288" s="8"/>
       <c r="M288" s="8"/>
@@ -12952,7 +14243,7 @@
       <c r="E289" s="10"/>
       <c r="F289" s="10"/>
       <c r="G289" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H289" s="11" t="s">
@@ -12961,7 +14252,10 @@
       <c r="I289" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J289" s="12"/>
+      <c r="J289" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K289" s="8"/>
       <c r="L289" s="8"/>
       <c r="M289" s="8"/>
@@ -12984,7 +14278,7 @@
       <c r="E290" s="10"/>
       <c r="F290" s="10"/>
       <c r="G290" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H290" s="11" t="s">
@@ -12993,7 +14287,10 @@
       <c r="I290" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J290" s="12"/>
+      <c r="J290" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K290" s="8"/>
       <c r="L290" s="8"/>
       <c r="M290" s="8"/>
@@ -13016,7 +14313,7 @@
       <c r="E291" s="10"/>
       <c r="F291" s="10"/>
       <c r="G291" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H291" s="11" t="s">
@@ -13025,7 +14322,10 @@
       <c r="I291" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J291" s="12"/>
+      <c r="J291" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K291" s="8"/>
       <c r="L291" s="8"/>
       <c r="M291" s="8"/>
@@ -13048,7 +14348,7 @@
       <c r="E292" s="10"/>
       <c r="F292" s="10"/>
       <c r="G292" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H292" s="11" t="s">
@@ -13057,7 +14357,10 @@
       <c r="I292" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J292" s="12"/>
+      <c r="J292" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K292" s="8"/>
       <c r="L292" s="8"/>
       <c r="M292" s="8"/>
@@ -13080,7 +14383,7 @@
       <c r="E293" s="10"/>
       <c r="F293" s="10"/>
       <c r="G293" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H293" s="11" t="s">
@@ -13089,7 +14392,10 @@
       <c r="I293" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J293" s="12"/>
+      <c r="J293" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K293" s="8"/>
       <c r="L293" s="8"/>
       <c r="M293" s="8"/>
@@ -13112,7 +14418,7 @@
       <c r="E294" s="10"/>
       <c r="F294" s="10"/>
       <c r="G294" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H294" s="11" t="s">
@@ -13121,7 +14427,10 @@
       <c r="I294" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J294" s="12"/>
+      <c r="J294" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K294" s="8"/>
       <c r="L294" s="8"/>
       <c r="M294" s="8"/>
@@ -13144,7 +14453,7 @@
       <c r="E295" s="10"/>
       <c r="F295" s="10"/>
       <c r="G295" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H295" s="11" t="s">
@@ -13153,7 +14462,10 @@
       <c r="I295" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J295" s="12"/>
+      <c r="J295" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K295" s="8"/>
       <c r="L295" s="8"/>
       <c r="M295" s="8"/>
@@ -13176,7 +14488,7 @@
       <c r="E296" s="10"/>
       <c r="F296" s="10"/>
       <c r="G296" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H296" s="11" t="s">
@@ -13185,7 +14497,10 @@
       <c r="I296" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J296" s="12"/>
+      <c r="J296" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K296" s="8"/>
       <c r="L296" s="8"/>
       <c r="M296" s="8"/>
@@ -13208,7 +14523,7 @@
       <c r="E297" s="10"/>
       <c r="F297" s="10"/>
       <c r="G297" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H297" s="11" t="s">
@@ -13217,7 +14532,10 @@
       <c r="I297" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J297" s="12"/>
+      <c r="J297" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K297" s="8"/>
       <c r="L297" s="8"/>
       <c r="M297" s="8"/>
@@ -13240,7 +14558,7 @@
       <c r="E298" s="10"/>
       <c r="F298" s="10"/>
       <c r="G298" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H298" s="11" t="s">
@@ -13249,7 +14567,10 @@
       <c r="I298" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J298" s="12"/>
+      <c r="J298" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K298" s="8"/>
       <c r="L298" s="8"/>
       <c r="M298" s="8"/>
@@ -13272,7 +14593,7 @@
       <c r="E299" s="10"/>
       <c r="F299" s="10"/>
       <c r="G299" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H299" s="11" t="s">
@@ -13281,7 +14602,10 @@
       <c r="I299" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J299" s="12"/>
+      <c r="J299" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K299" s="8"/>
       <c r="L299" s="8"/>
       <c r="M299" s="8"/>
@@ -13304,7 +14628,7 @@
       <c r="E300" s="10"/>
       <c r="F300" s="10"/>
       <c r="G300" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H300" s="11" t="s">
@@ -13313,7 +14637,10 @@
       <c r="I300" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J300" s="12"/>
+      <c r="J300" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K300" s="8"/>
       <c r="L300" s="8"/>
       <c r="M300" s="8"/>
@@ -13336,7 +14663,7 @@
       <c r="E301" s="10"/>
       <c r="F301" s="10"/>
       <c r="G301" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H301" s="11" t="s">
@@ -13345,7 +14672,10 @@
       <c r="I301" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J301" s="12"/>
+      <c r="J301" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K301" s="8"/>
       <c r="L301" s="8"/>
       <c r="M301" s="8"/>
@@ -13368,7 +14698,7 @@
       <c r="E302" s="10"/>
       <c r="F302" s="10"/>
       <c r="G302" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H302" s="11" t="s">
@@ -13377,7 +14707,10 @@
       <c r="I302" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J302" s="12"/>
+      <c r="J302" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K302" s="8"/>
       <c r="L302" s="8"/>
       <c r="M302" s="8"/>
@@ -13400,7 +14733,7 @@
       <c r="E303" s="10"/>
       <c r="F303" s="10"/>
       <c r="G303" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H303" s="11" t="s">
@@ -13409,7 +14742,10 @@
       <c r="I303" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J303" s="12"/>
+      <c r="J303" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K303" s="8"/>
       <c r="L303" s="8"/>
       <c r="M303" s="8"/>
@@ -13432,7 +14768,7 @@
       <c r="E304" s="10"/>
       <c r="F304" s="10"/>
       <c r="G304" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H304" s="11" t="s">
@@ -13441,7 +14777,10 @@
       <c r="I304" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J304" s="12"/>
+      <c r="J304" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K304" s="8"/>
       <c r="L304" s="8"/>
       <c r="M304" s="8"/>
@@ -13464,7 +14803,7 @@
       <c r="E305" s="10"/>
       <c r="F305" s="10"/>
       <c r="G305" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H305" s="11" t="s">
@@ -13473,7 +14812,10 @@
       <c r="I305" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J305" s="12"/>
+      <c r="J305" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K305" s="8"/>
       <c r="L305" s="8"/>
       <c r="M305" s="8"/>
@@ -13496,7 +14838,7 @@
       <c r="E306" s="10"/>
       <c r="F306" s="10"/>
       <c r="G306" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H306" s="11" t="s">
@@ -13505,7 +14847,10 @@
       <c r="I306" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J306" s="12"/>
+      <c r="J306" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K306" s="8"/>
       <c r="L306" s="8"/>
       <c r="M306" s="8"/>
@@ -13528,7 +14873,7 @@
       <c r="E307" s="10"/>
       <c r="F307" s="10"/>
       <c r="G307" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H307" s="11" t="s">
@@ -13537,7 +14882,10 @@
       <c r="I307" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J307" s="12"/>
+      <c r="J307" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K307" s="8"/>
       <c r="L307" s="8"/>
       <c r="M307" s="8"/>
@@ -13560,7 +14908,7 @@
       <c r="E308" s="10"/>
       <c r="F308" s="10"/>
       <c r="G308" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H308" s="11" t="s">
@@ -13569,7 +14917,10 @@
       <c r="I308" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J308" s="12"/>
+      <c r="J308" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K308" s="8"/>
       <c r="L308" s="8"/>
       <c r="M308" s="8"/>
@@ -13592,7 +14943,7 @@
       <c r="E309" s="10"/>
       <c r="F309" s="10"/>
       <c r="G309" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H309" s="11" t="s">
@@ -13601,7 +14952,10 @@
       <c r="I309" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J309" s="12"/>
+      <c r="J309" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K309" s="8"/>
       <c r="L309" s="8"/>
       <c r="M309" s="8"/>
@@ -13624,7 +14978,7 @@
       <c r="E310" s="10"/>
       <c r="F310" s="10"/>
       <c r="G310" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H310" s="11" t="s">
@@ -13633,7 +14987,10 @@
       <c r="I310" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J310" s="12"/>
+      <c r="J310" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K310" s="8"/>
       <c r="L310" s="8"/>
       <c r="M310" s="8"/>
@@ -13656,7 +15013,7 @@
       <c r="E311" s="10"/>
       <c r="F311" s="10"/>
       <c r="G311" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H311" s="11" t="s">
@@ -13665,7 +15022,10 @@
       <c r="I311" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J311" s="12"/>
+      <c r="J311" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K311" s="8"/>
       <c r="L311" s="8"/>
       <c r="M311" s="8"/>
@@ -13688,7 +15048,7 @@
       <c r="E312" s="10"/>
       <c r="F312" s="10"/>
       <c r="G312" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H312" s="11" t="s">
@@ -13697,7 +15057,10 @@
       <c r="I312" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J312" s="12"/>
+      <c r="J312" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K312" s="8"/>
       <c r="L312" s="8"/>
       <c r="M312" s="8"/>
@@ -13720,7 +15083,7 @@
       <c r="E313" s="10"/>
       <c r="F313" s="10"/>
       <c r="G313" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H313" s="11" t="s">
@@ -13729,7 +15092,10 @@
       <c r="I313" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J313" s="12"/>
+      <c r="J313" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K313" s="8"/>
       <c r="L313" s="8"/>
       <c r="M313" s="8"/>
@@ -13752,7 +15118,7 @@
       <c r="E314" s="10"/>
       <c r="F314" s="10"/>
       <c r="G314" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H314" s="11" t="s">
@@ -13761,7 +15127,10 @@
       <c r="I314" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J314" s="12"/>
+      <c r="J314" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K314" s="8"/>
       <c r="L314" s="8"/>
       <c r="M314" s="8"/>
@@ -13784,7 +15153,7 @@
       <c r="E315" s="10"/>
       <c r="F315" s="10"/>
       <c r="G315" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H315" s="11" t="s">
@@ -13793,7 +15162,10 @@
       <c r="I315" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J315" s="12"/>
+      <c r="J315" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K315" s="8"/>
       <c r="L315" s="8"/>
       <c r="M315" s="8"/>
@@ -13816,7 +15188,7 @@
       <c r="E316" s="10"/>
       <c r="F316" s="10"/>
       <c r="G316" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H316" s="11" t="s">
@@ -13825,7 +15197,10 @@
       <c r="I316" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J316" s="12"/>
+      <c r="J316" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K316" s="8"/>
       <c r="L316" s="8"/>
       <c r="M316" s="8"/>
@@ -13848,7 +15223,7 @@
       <c r="E317" s="10"/>
       <c r="F317" s="10"/>
       <c r="G317" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H317" s="11" t="s">
@@ -13857,7 +15232,10 @@
       <c r="I317" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J317" s="12"/>
+      <c r="J317" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K317" s="8"/>
       <c r="L317" s="8"/>
       <c r="M317" s="8"/>
@@ -13880,7 +15258,7 @@
       <c r="E318" s="10"/>
       <c r="F318" s="10"/>
       <c r="G318" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H318" s="11" t="s">
@@ -13889,7 +15267,10 @@
       <c r="I318" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J318" s="12"/>
+      <c r="J318" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K318" s="8"/>
       <c r="L318" s="8"/>
       <c r="M318" s="8"/>
@@ -13912,7 +15293,7 @@
       <c r="E319" s="10"/>
       <c r="F319" s="10"/>
       <c r="G319" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H319" s="11" t="s">
@@ -13921,7 +15302,10 @@
       <c r="I319" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J319" s="12"/>
+      <c r="J319" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>راسب</v>
+      </c>
       <c r="K319" s="8"/>
       <c r="L319" s="8"/>
       <c r="M319" s="8"/>
@@ -13944,7 +15328,7 @@
       <c r="E320" s="10"/>
       <c r="F320" s="10"/>
       <c r="G320" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H320" s="11" t="s">
@@ -13953,7 +15337,10 @@
       <c r="I320" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J320" s="12"/>
+      <c r="J320" s="12" t="str">
+        <f t="shared" ref="J320:J365" si="10">IF(G320&gt;=50,"ناجح","راسب")</f>
+        <v>راسب</v>
+      </c>
       <c r="K320" s="8"/>
       <c r="L320" s="8"/>
       <c r="M320" s="8"/>
@@ -13976,7 +15363,7 @@
       <c r="E321" s="10"/>
       <c r="F321" s="10"/>
       <c r="G321" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H321" s="11" t="s">
@@ -13985,7 +15372,10 @@
       <c r="I321" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J321" s="12"/>
+      <c r="J321" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K321" s="8"/>
       <c r="L321" s="8"/>
       <c r="M321" s="8"/>
@@ -14008,7 +15398,7 @@
       <c r="E322" s="10"/>
       <c r="F322" s="10"/>
       <c r="G322" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H322" s="11" t="s">
@@ -14017,7 +15407,10 @@
       <c r="I322" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J322" s="12"/>
+      <c r="J322" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K322" s="8"/>
       <c r="L322" s="8"/>
       <c r="M322" s="8"/>
@@ -14040,7 +15433,7 @@
       <c r="E323" s="10"/>
       <c r="F323" s="10"/>
       <c r="G323" s="10">
-        <f t="shared" ref="G323:G365" si="6">F323+E323</f>
+        <f t="shared" ref="G323:G365" si="11">F323+E323</f>
         <v>0</v>
       </c>
       <c r="H323" s="11" t="s">
@@ -14049,7 +15442,10 @@
       <c r="I323" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J323" s="12"/>
+      <c r="J323" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K323" s="8"/>
       <c r="L323" s="8"/>
       <c r="M323" s="8"/>
@@ -14072,7 +15468,7 @@
       <c r="E324" s="10"/>
       <c r="F324" s="10"/>
       <c r="G324" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H324" s="11" t="s">
@@ -14081,7 +15477,10 @@
       <c r="I324" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J324" s="12"/>
+      <c r="J324" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K324" s="8"/>
       <c r="L324" s="8"/>
       <c r="M324" s="8"/>
@@ -14104,7 +15503,7 @@
       <c r="E325" s="10"/>
       <c r="F325" s="10"/>
       <c r="G325" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H325" s="11" t="s">
@@ -14113,7 +15512,10 @@
       <c r="I325" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J325" s="12"/>
+      <c r="J325" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K325" s="8"/>
       <c r="L325" s="8"/>
       <c r="M325" s="8"/>
@@ -14136,7 +15538,7 @@
       <c r="E326" s="10"/>
       <c r="F326" s="10"/>
       <c r="G326" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H326" s="11" t="s">
@@ -14145,7 +15547,10 @@
       <c r="I326" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J326" s="12"/>
+      <c r="J326" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K326" s="8"/>
       <c r="L326" s="8"/>
       <c r="M326" s="8"/>
@@ -14168,7 +15573,7 @@
       <c r="E327" s="10"/>
       <c r="F327" s="10"/>
       <c r="G327" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H327" s="11" t="s">
@@ -14177,7 +15582,10 @@
       <c r="I327" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J327" s="12"/>
+      <c r="J327" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K327" s="8"/>
       <c r="L327" s="8"/>
       <c r="M327" s="8"/>
@@ -14200,7 +15608,7 @@
       <c r="E328" s="10"/>
       <c r="F328" s="10"/>
       <c r="G328" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H328" s="11" t="s">
@@ -14209,7 +15617,10 @@
       <c r="I328" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J328" s="12"/>
+      <c r="J328" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K328" s="8"/>
       <c r="L328" s="8"/>
       <c r="M328" s="8"/>
@@ -14232,7 +15643,7 @@
       <c r="E329" s="10"/>
       <c r="F329" s="10"/>
       <c r="G329" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H329" s="11" t="s">
@@ -14241,7 +15652,10 @@
       <c r="I329" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J329" s="12"/>
+      <c r="J329" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K329" s="8"/>
       <c r="L329" s="8"/>
       <c r="M329" s="8"/>
@@ -14264,7 +15678,7 @@
       <c r="E330" s="10"/>
       <c r="F330" s="10"/>
       <c r="G330" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H330" s="11" t="s">
@@ -14273,7 +15687,10 @@
       <c r="I330" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J330" s="12"/>
+      <c r="J330" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K330" s="8"/>
       <c r="L330" s="8"/>
       <c r="M330" s="8"/>
@@ -14296,7 +15713,7 @@
       <c r="E331" s="10"/>
       <c r="F331" s="10"/>
       <c r="G331" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H331" s="11" t="s">
@@ -14305,7 +15722,10 @@
       <c r="I331" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J331" s="12"/>
+      <c r="J331" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K331" s="8"/>
       <c r="L331" s="8"/>
       <c r="M331" s="8"/>
@@ -14328,7 +15748,7 @@
       <c r="E332" s="10"/>
       <c r="F332" s="10"/>
       <c r="G332" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H332" s="11" t="s">
@@ -14337,7 +15757,10 @@
       <c r="I332" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J332" s="12"/>
+      <c r="J332" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K332" s="8"/>
       <c r="L332" s="8"/>
       <c r="M332" s="8"/>
@@ -14360,7 +15783,7 @@
       <c r="E333" s="10"/>
       <c r="F333" s="10"/>
       <c r="G333" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H333" s="11" t="s">
@@ -14369,7 +15792,10 @@
       <c r="I333" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J333" s="12"/>
+      <c r="J333" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K333" s="8"/>
       <c r="L333" s="8"/>
       <c r="M333" s="8"/>
@@ -14392,7 +15818,7 @@
       <c r="E334" s="10"/>
       <c r="F334" s="10"/>
       <c r="G334" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H334" s="11" t="s">
@@ -14401,7 +15827,10 @@
       <c r="I334" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J334" s="12"/>
+      <c r="J334" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K334" s="8"/>
       <c r="L334" s="8"/>
       <c r="M334" s="8"/>
@@ -14424,7 +15853,7 @@
       <c r="E335" s="10"/>
       <c r="F335" s="10"/>
       <c r="G335" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H335" s="11" t="s">
@@ -14433,7 +15862,10 @@
       <c r="I335" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J335" s="12"/>
+      <c r="J335" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K335" s="8"/>
       <c r="L335" s="8"/>
       <c r="M335" s="8"/>
@@ -14456,7 +15888,7 @@
       <c r="E336" s="10"/>
       <c r="F336" s="10"/>
       <c r="G336" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H336" s="11" t="s">
@@ -14465,7 +15897,10 @@
       <c r="I336" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J336" s="12"/>
+      <c r="J336" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K336" s="8"/>
       <c r="L336" s="8"/>
       <c r="M336" s="8"/>
@@ -14488,7 +15923,7 @@
       <c r="E337" s="10"/>
       <c r="F337" s="10"/>
       <c r="G337" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H337" s="11" t="s">
@@ -14497,7 +15932,10 @@
       <c r="I337" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J337" s="12"/>
+      <c r="J337" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K337" s="8"/>
       <c r="L337" s="8"/>
       <c r="M337" s="8"/>
@@ -14520,7 +15958,7 @@
       <c r="E338" s="10"/>
       <c r="F338" s="10"/>
       <c r="G338" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H338" s="11" t="s">
@@ -14529,7 +15967,10 @@
       <c r="I338" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J338" s="12"/>
+      <c r="J338" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K338" s="8"/>
       <c r="L338" s="8"/>
       <c r="M338" s="8"/>
@@ -14552,7 +15993,7 @@
       <c r="E339" s="10"/>
       <c r="F339" s="10"/>
       <c r="G339" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H339" s="11" t="s">
@@ -14561,7 +16002,10 @@
       <c r="I339" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J339" s="12"/>
+      <c r="J339" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K339" s="8"/>
       <c r="L339" s="8"/>
       <c r="M339" s="8"/>
@@ -14584,7 +16028,7 @@
       <c r="E340" s="10"/>
       <c r="F340" s="10"/>
       <c r="G340" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H340" s="11" t="s">
@@ -14593,7 +16037,10 @@
       <c r="I340" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J340" s="12"/>
+      <c r="J340" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K340" s="8"/>
       <c r="L340" s="8"/>
       <c r="M340" s="8"/>
@@ -14616,7 +16063,7 @@
       <c r="E341" s="10"/>
       <c r="F341" s="10"/>
       <c r="G341" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H341" s="11" t="s">
@@ -14625,7 +16072,10 @@
       <c r="I341" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J341" s="12"/>
+      <c r="J341" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K341" s="8"/>
       <c r="L341" s="8"/>
       <c r="M341" s="8"/>
@@ -14648,7 +16098,7 @@
       <c r="E342" s="10"/>
       <c r="F342" s="10"/>
       <c r="G342" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H342" s="11" t="s">
@@ -14657,7 +16107,10 @@
       <c r="I342" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J342" s="12"/>
+      <c r="J342" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K342" s="8"/>
       <c r="L342" s="8"/>
       <c r="M342" s="8"/>
@@ -14680,7 +16133,7 @@
       <c r="E343" s="10"/>
       <c r="F343" s="10"/>
       <c r="G343" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H343" s="11" t="s">
@@ -14689,7 +16142,10 @@
       <c r="I343" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J343" s="12"/>
+      <c r="J343" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K343" s="8"/>
       <c r="L343" s="8"/>
       <c r="M343" s="8"/>
@@ -14712,7 +16168,7 @@
       <c r="E344" s="10"/>
       <c r="F344" s="10"/>
       <c r="G344" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H344" s="11" t="s">
@@ -14721,7 +16177,10 @@
       <c r="I344" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J344" s="12"/>
+      <c r="J344" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K344" s="8"/>
       <c r="L344" s="8"/>
       <c r="M344" s="8"/>
@@ -14744,7 +16203,7 @@
       <c r="E345" s="10"/>
       <c r="F345" s="10"/>
       <c r="G345" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H345" s="11" t="s">
@@ -14753,7 +16212,10 @@
       <c r="I345" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J345" s="12"/>
+      <c r="J345" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K345" s="8"/>
       <c r="L345" s="8"/>
       <c r="M345" s="8"/>
@@ -14776,7 +16238,7 @@
       <c r="E346" s="10"/>
       <c r="F346" s="10"/>
       <c r="G346" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H346" s="11" t="s">
@@ -14785,7 +16247,10 @@
       <c r="I346" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J346" s="12"/>
+      <c r="J346" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K346" s="8"/>
       <c r="L346" s="8"/>
       <c r="M346" s="8"/>
@@ -14808,7 +16273,7 @@
       <c r="E347" s="10"/>
       <c r="F347" s="10"/>
       <c r="G347" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H347" s="11" t="s">
@@ -14817,7 +16282,10 @@
       <c r="I347" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J347" s="12"/>
+      <c r="J347" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K347" s="8"/>
       <c r="L347" s="8"/>
       <c r="M347" s="8"/>
@@ -14840,7 +16308,7 @@
       <c r="E348" s="10"/>
       <c r="F348" s="10"/>
       <c r="G348" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H348" s="11" t="s">
@@ -14849,7 +16317,10 @@
       <c r="I348" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J348" s="12"/>
+      <c r="J348" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K348" s="8"/>
       <c r="L348" s="8"/>
       <c r="M348" s="8"/>
@@ -14872,7 +16343,7 @@
       <c r="E349" s="10"/>
       <c r="F349" s="10"/>
       <c r="G349" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H349" s="11" t="s">
@@ -14881,7 +16352,10 @@
       <c r="I349" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J349" s="12"/>
+      <c r="J349" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K349" s="8"/>
       <c r="L349" s="8"/>
       <c r="M349" s="8"/>
@@ -14904,7 +16378,7 @@
       <c r="E350" s="10"/>
       <c r="F350" s="10"/>
       <c r="G350" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H350" s="11" t="s">
@@ -14913,7 +16387,10 @@
       <c r="I350" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J350" s="12"/>
+      <c r="J350" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K350" s="8"/>
       <c r="L350" s="8"/>
       <c r="M350" s="8"/>
@@ -14936,7 +16413,7 @@
       <c r="E351" s="10"/>
       <c r="F351" s="10"/>
       <c r="G351" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H351" s="11" t="s">
@@ -14945,7 +16422,10 @@
       <c r="I351" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J351" s="12"/>
+      <c r="J351" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K351" s="8"/>
       <c r="L351" s="8"/>
       <c r="M351" s="8"/>
@@ -14968,7 +16448,7 @@
       <c r="E352" s="10"/>
       <c r="F352" s="10"/>
       <c r="G352" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H352" s="11" t="s">
@@ -14977,7 +16457,10 @@
       <c r="I352" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J352" s="12"/>
+      <c r="J352" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K352" s="8"/>
       <c r="L352" s="8"/>
       <c r="M352" s="8"/>
@@ -15000,7 +16483,7 @@
       <c r="E353" s="10"/>
       <c r="F353" s="10"/>
       <c r="G353" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H353" s="11" t="s">
@@ -15009,7 +16492,10 @@
       <c r="I353" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J353" s="12"/>
+      <c r="J353" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K353" s="8"/>
       <c r="L353" s="8"/>
       <c r="M353" s="8"/>
@@ -15032,7 +16518,7 @@
       <c r="E354" s="10"/>
       <c r="F354" s="10"/>
       <c r="G354" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H354" s="11" t="s">
@@ -15041,7 +16527,10 @@
       <c r="I354" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J354" s="12"/>
+      <c r="J354" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K354" s="8"/>
       <c r="L354" s="8"/>
       <c r="M354" s="8"/>
@@ -15064,7 +16553,7 @@
       <c r="E355" s="10"/>
       <c r="F355" s="10"/>
       <c r="G355" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H355" s="11" t="s">
@@ -15073,7 +16562,10 @@
       <c r="I355" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J355" s="12"/>
+      <c r="J355" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K355" s="8"/>
       <c r="L355" s="8"/>
       <c r="M355" s="8"/>
@@ -15096,7 +16588,7 @@
       <c r="E356" s="10"/>
       <c r="F356" s="10"/>
       <c r="G356" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H356" s="11" t="s">
@@ -15105,7 +16597,10 @@
       <c r="I356" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J356" s="12"/>
+      <c r="J356" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K356" s="8"/>
       <c r="L356" s="8"/>
       <c r="M356" s="8"/>
@@ -15128,7 +16623,7 @@
       <c r="E357" s="10"/>
       <c r="F357" s="10"/>
       <c r="G357" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H357" s="11" t="s">
@@ -15137,7 +16632,10 @@
       <c r="I357" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J357" s="12"/>
+      <c r="J357" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K357" s="8"/>
       <c r="L357" s="8"/>
       <c r="M357" s="8"/>
@@ -15160,7 +16658,7 @@
       <c r="E358" s="10"/>
       <c r="F358" s="10"/>
       <c r="G358" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H358" s="11" t="s">
@@ -15169,7 +16667,10 @@
       <c r="I358" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J358" s="12"/>
+      <c r="J358" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K358" s="8"/>
       <c r="L358" s="8"/>
       <c r="M358" s="8"/>
@@ -15192,7 +16693,7 @@
       <c r="E359" s="10"/>
       <c r="F359" s="10"/>
       <c r="G359" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H359" s="11" t="s">
@@ -15201,7 +16702,10 @@
       <c r="I359" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J359" s="12"/>
+      <c r="J359" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K359" s="8"/>
       <c r="L359" s="8"/>
       <c r="M359" s="8"/>
@@ -15224,7 +16728,7 @@
       <c r="E360" s="10"/>
       <c r="F360" s="10"/>
       <c r="G360" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H360" s="11" t="s">
@@ -15233,7 +16737,10 @@
       <c r="I360" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J360" s="12"/>
+      <c r="J360" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K360" s="8"/>
       <c r="L360" s="8"/>
       <c r="M360" s="8"/>
@@ -15256,7 +16763,7 @@
       <c r="E361" s="10"/>
       <c r="F361" s="10"/>
       <c r="G361" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H361" s="11" t="s">
@@ -15265,7 +16772,10 @@
       <c r="I361" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J361" s="12"/>
+      <c r="J361" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K361" s="8"/>
       <c r="L361" s="8"/>
       <c r="M361" s="8"/>
@@ -15288,7 +16798,7 @@
       <c r="E362" s="10"/>
       <c r="F362" s="10"/>
       <c r="G362" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H362" s="11" t="s">
@@ -15297,7 +16807,10 @@
       <c r="I362" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J362" s="12"/>
+      <c r="J362" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K362" s="8"/>
       <c r="L362" s="8"/>
       <c r="M362" s="8"/>
@@ -15320,7 +16833,7 @@
       <c r="E363" s="10"/>
       <c r="F363" s="10"/>
       <c r="G363" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H363" s="11" t="s">
@@ -15329,7 +16842,10 @@
       <c r="I363" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J363" s="12"/>
+      <c r="J363" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K363" s="8"/>
       <c r="L363" s="8"/>
       <c r="M363" s="8"/>
@@ -15352,7 +16868,7 @@
       <c r="E364" s="10"/>
       <c r="F364" s="10"/>
       <c r="G364" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H364" s="11" t="s">
@@ -15361,7 +16877,10 @@
       <c r="I364" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J364" s="12"/>
+      <c r="J364" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K364" s="8"/>
       <c r="L364" s="8"/>
       <c r="M364" s="8"/>
@@ -15384,7 +16903,7 @@
       <c r="E365" s="10"/>
       <c r="F365" s="10"/>
       <c r="G365" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H365" s="11" t="s">
@@ -15393,7 +16912,10 @@
       <c r="I365" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="J365" s="12"/>
+      <c r="J365" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>راسب</v>
+      </c>
       <c r="K365" s="8"/>
       <c r="L365" s="8"/>
       <c r="M365" s="8"/>
@@ -15401,8 +16923,8 @@
       <c r="O365" s="13"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A274:O322">
-    <sortCondition descending="1" ref="G2:G322"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A75:O118">
+    <sortCondition descending="1" ref="G2:G118"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\امتحانات الكورس الثاني\امتحانات كورس اول 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806B969D-8507-4111-BEF4-804D09BB9C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932A44B8-D50A-4A72-965A-95233E540BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{64B607E4-2FA6-4167-B52D-26625A4C85A0}"/>
   </bookViews>
@@ -2883,8 +2883,8 @@
   </sheetPr>
   <dimension ref="A1:O365"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J377" sqref="J377"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A70" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\امتحانات الكورس الثاني\امتحانات كورس اول 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932A44B8-D50A-4A72-965A-95233E540BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C10FF8D-CB78-4541-8E86-52B3C062E2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{64B607E4-2FA6-4167-B52D-26625A4C85A0}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="753">
   <si>
     <t>الاسم الكامل</t>
   </si>
@@ -2883,8 +2883,8 @@
   </sheetPr>
   <dimension ref="A1:O365"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A70" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3947,11 +3947,15 @@
       <c r="D30" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="E30" s="10">
+        <v>37</v>
+      </c>
+      <c r="F30" s="10">
+        <v>3</v>
+      </c>
       <c r="G30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>386</v>
@@ -3965,9 +3969,15 @@
       </c>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="13"/>
+      <c r="M30" s="8">
+        <v>4</v>
+      </c>
+      <c r="N30" s="8">
+        <v>43</v>
+      </c>
+      <c r="O30" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
@@ -3982,11 +3992,15 @@
       <c r="D31" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="E31" s="10">
+        <v>39</v>
+      </c>
+      <c r="F31" s="10">
+        <v>16</v>
+      </c>
       <c r="G31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>386</v>
@@ -3996,13 +4010,23 @@
       </c>
       <c r="J31" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>راسب</v>
-      </c>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="13"/>
+        <v>ناجح</v>
+      </c>
+      <c r="K31" s="8">
+        <v>3</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" s="8">
+        <v>4</v>
+      </c>
+      <c r="N31" s="8">
+        <v>43</v>
+      </c>
+      <c r="O31" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
@@ -4017,8 +4041,12 @@
       <c r="D32" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
       <c r="G32" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4035,9 +4063,15 @@
       </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="13"/>
+      <c r="M32" s="8">
+        <v>4</v>
+      </c>
+      <c r="N32" s="8">
+        <v>43</v>
+      </c>
+      <c r="O32" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="33" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
@@ -4052,8 +4086,12 @@
       <c r="D33" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0</v>
+      </c>
       <c r="G33" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4070,9 +4108,15 @@
       </c>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="13"/>
+      <c r="M33" s="8">
+        <v>4</v>
+      </c>
+      <c r="N33" s="8">
+        <v>43</v>
+      </c>
+      <c r="O33" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="34" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
@@ -4087,8 +4131,12 @@
       <c r="D34" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="E34" s="10">
+        <v>0</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0</v>
+      </c>
       <c r="G34" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4105,9 +4153,15 @@
       </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="13"/>
+      <c r="M34" s="8">
+        <v>4</v>
+      </c>
+      <c r="N34" s="8">
+        <v>43</v>
+      </c>
+      <c r="O34" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="35" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
@@ -4122,11 +4176,15 @@
       <c r="D35" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="E35" s="10">
+        <v>23</v>
+      </c>
+      <c r="F35" s="10">
+        <v>9</v>
+      </c>
       <c r="G35" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>386</v>
@@ -4140,9 +4198,15 @@
       </c>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="13"/>
+      <c r="M35" s="8">
+        <v>4</v>
+      </c>
+      <c r="N35" s="8">
+        <v>43</v>
+      </c>
+      <c r="O35" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="36" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
@@ -4157,11 +4221,15 @@
       <c r="D36" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="E36" s="10">
+        <v>39</v>
+      </c>
+      <c r="F36" s="10">
+        <v>8</v>
+      </c>
       <c r="G36" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>386</v>
@@ -4175,9 +4243,15 @@
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="13"/>
+      <c r="M36" s="8">
+        <v>4</v>
+      </c>
+      <c r="N36" s="8">
+        <v>43</v>
+      </c>
+      <c r="O36" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="37" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
@@ -4192,8 +4266,12 @@
       <c r="D37" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="E37" s="10">
+        <v>0</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0</v>
+      </c>
       <c r="G37" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4210,9 +4288,15 @@
       </c>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="13"/>
+      <c r="M37" s="8">
+        <v>4</v>
+      </c>
+      <c r="N37" s="8">
+        <v>43</v>
+      </c>
+      <c r="O37" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="38" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
@@ -4227,8 +4311,12 @@
       <c r="D38" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="E38" s="10">
+        <v>0</v>
+      </c>
+      <c r="F38" s="10">
+        <v>0</v>
+      </c>
       <c r="G38" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4245,9 +4333,15 @@
       </c>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="13"/>
+      <c r="M38" s="8">
+        <v>4</v>
+      </c>
+      <c r="N38" s="8">
+        <v>43</v>
+      </c>
+      <c r="O38" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="39" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
@@ -4262,11 +4356,15 @@
       <c r="D39" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="E39" s="10">
+        <v>44</v>
+      </c>
+      <c r="F39" s="10">
+        <v>18</v>
+      </c>
       <c r="G39" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="H39" s="11" t="s">
         <v>386</v>
@@ -4276,13 +4374,23 @@
       </c>
       <c r="J39" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>راسب</v>
-      </c>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="13"/>
+        <v>ناجح</v>
+      </c>
+      <c r="K39" s="8">
+        <v>1</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M39" s="8">
+        <v>4</v>
+      </c>
+      <c r="N39" s="8">
+        <v>43</v>
+      </c>
+      <c r="O39" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="40" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
@@ -4297,11 +4405,15 @@
       <c r="D40" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="E40" s="10">
+        <v>29</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0</v>
+      </c>
       <c r="G40" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>386</v>
@@ -4315,9 +4427,15 @@
       </c>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="13"/>
+      <c r="M40" s="8">
+        <v>4</v>
+      </c>
+      <c r="N40" s="8">
+        <v>43</v>
+      </c>
+      <c r="O40" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="41" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
@@ -4332,11 +4450,15 @@
       <c r="D41" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="E41" s="10">
+        <v>28</v>
+      </c>
+      <c r="F41" s="10">
+        <v>8</v>
+      </c>
       <c r="G41" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H41" s="11" t="s">
         <v>386</v>
@@ -4350,9 +4472,15 @@
       </c>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="13"/>
+      <c r="M41" s="8">
+        <v>4</v>
+      </c>
+      <c r="N41" s="8">
+        <v>43</v>
+      </c>
+      <c r="O41" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="42" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
@@ -4367,11 +4495,15 @@
       <c r="D42" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
+      <c r="E42" s="10">
+        <v>37</v>
+      </c>
+      <c r="F42" s="10">
+        <v>18</v>
+      </c>
       <c r="G42" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H42" s="11" t="s">
         <v>386</v>
@@ -4381,13 +4513,23 @@
       </c>
       <c r="J42" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>راسب</v>
-      </c>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="13"/>
+        <v>ناجح</v>
+      </c>
+      <c r="K42" s="8">
+        <v>3</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M42" s="8">
+        <v>4</v>
+      </c>
+      <c r="N42" s="8">
+        <v>43</v>
+      </c>
+      <c r="O42" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="43" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
@@ -4402,8 +4544,12 @@
       <c r="D43" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
+      <c r="F43" s="10">
+        <v>0</v>
+      </c>
       <c r="G43" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4420,9 +4566,15 @@
       </c>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="13"/>
+      <c r="M43" s="8">
+        <v>4</v>
+      </c>
+      <c r="N43" s="8">
+        <v>43</v>
+      </c>
+      <c r="O43" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="44" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
@@ -4437,11 +4589,15 @@
       <c r="D44" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
+      <c r="E44" s="10">
+        <v>35</v>
+      </c>
+      <c r="F44" s="10">
+        <v>5</v>
+      </c>
       <c r="G44" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>386</v>
@@ -4455,9 +4611,15 @@
       </c>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="13"/>
+      <c r="M44" s="8">
+        <v>4</v>
+      </c>
+      <c r="N44" s="8">
+        <v>43</v>
+      </c>
+      <c r="O44" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="45" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
@@ -4472,8 +4634,12 @@
       <c r="D45" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="E45" s="10">
+        <v>0</v>
+      </c>
+      <c r="F45" s="10">
+        <v>0</v>
+      </c>
       <c r="G45" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4490,9 +4656,15 @@
       </c>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="13"/>
+      <c r="M45" s="8">
+        <v>4</v>
+      </c>
+      <c r="N45" s="8">
+        <v>43</v>
+      </c>
+      <c r="O45" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="46" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
@@ -4507,11 +4679,15 @@
       <c r="D46" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
+      <c r="E46" s="10">
+        <v>43</v>
+      </c>
+      <c r="F46" s="10">
+        <v>0</v>
+      </c>
       <c r="G46" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="H46" s="11" t="s">
         <v>386</v>
@@ -4525,9 +4701,15 @@
       </c>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="13"/>
+      <c r="M46" s="8">
+        <v>4</v>
+      </c>
+      <c r="N46" s="8">
+        <v>43</v>
+      </c>
+      <c r="O46" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="47" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
@@ -4542,11 +4724,15 @@
       <c r="D47" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
+      <c r="E47" s="10">
+        <v>29</v>
+      </c>
+      <c r="F47" s="10">
+        <v>0</v>
+      </c>
       <c r="G47" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>386</v>
@@ -4560,9 +4746,15 @@
       </c>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="13"/>
+      <c r="M47" s="8">
+        <v>4</v>
+      </c>
+      <c r="N47" s="8">
+        <v>43</v>
+      </c>
+      <c r="O47" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="48" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
@@ -4577,11 +4769,15 @@
       <c r="D48" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
+      <c r="E48" s="10">
+        <v>33</v>
+      </c>
+      <c r="F48" s="10">
+        <v>0</v>
+      </c>
       <c r="G48" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>386</v>
@@ -4595,9 +4791,15 @@
       </c>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="13"/>
+      <c r="M48" s="8">
+        <v>4</v>
+      </c>
+      <c r="N48" s="8">
+        <v>43</v>
+      </c>
+      <c r="O48" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="49" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
@@ -4612,11 +4814,15 @@
       <c r="D49" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
+      <c r="E49" s="10">
+        <v>35</v>
+      </c>
+      <c r="F49" s="10">
+        <v>11</v>
+      </c>
       <c r="G49" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H49" s="11" t="s">
         <v>386</v>
@@ -4630,9 +4836,15 @@
       </c>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="13"/>
+      <c r="M49" s="8">
+        <v>4</v>
+      </c>
+      <c r="N49" s="8">
+        <v>43</v>
+      </c>
+      <c r="O49" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="50" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
@@ -4647,8 +4859,12 @@
       <c r="D50" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
+      <c r="E50" s="10">
+        <v>0</v>
+      </c>
+      <c r="F50" s="10">
+        <v>0</v>
+      </c>
       <c r="G50" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4665,9 +4881,15 @@
       </c>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="13"/>
+      <c r="M50" s="8">
+        <v>4</v>
+      </c>
+      <c r="N50" s="8">
+        <v>43</v>
+      </c>
+      <c r="O50" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="51" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
@@ -4682,8 +4904,12 @@
       <c r="D51" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
+      <c r="E51" s="10">
+        <v>0</v>
+      </c>
+      <c r="F51" s="10">
+        <v>0</v>
+      </c>
       <c r="G51" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4700,9 +4926,15 @@
       </c>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="13"/>
+      <c r="M51" s="8">
+        <v>4</v>
+      </c>
+      <c r="N51" s="8">
+        <v>43</v>
+      </c>
+      <c r="O51" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="52" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
@@ -4717,11 +4949,15 @@
       <c r="D52" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
+      <c r="E52" s="10">
+        <v>33</v>
+      </c>
+      <c r="F52" s="10">
+        <v>15</v>
+      </c>
       <c r="G52" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H52" s="11" t="s">
         <v>386</v>
@@ -4735,9 +4971,15 @@
       </c>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="13"/>
+      <c r="M52" s="8">
+        <v>4</v>
+      </c>
+      <c r="N52" s="8">
+        <v>43</v>
+      </c>
+      <c r="O52" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="53" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
@@ -4752,8 +4994,12 @@
       <c r="D53" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
+      <c r="E53" s="10">
+        <v>0</v>
+      </c>
+      <c r="F53" s="10">
+        <v>0</v>
+      </c>
       <c r="G53" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4770,9 +5016,15 @@
       </c>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="13"/>
+      <c r="M53" s="8">
+        <v>4</v>
+      </c>
+      <c r="N53" s="8">
+        <v>43</v>
+      </c>
+      <c r="O53" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="54" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
@@ -4787,11 +5039,15 @@
       <c r="D54" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
+      <c r="E54" s="10">
+        <v>25</v>
+      </c>
+      <c r="F54" s="10">
+        <v>3</v>
+      </c>
       <c r="G54" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H54" s="11" t="s">
         <v>386</v>
@@ -4805,9 +5061,15 @@
       </c>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="13"/>
+      <c r="M54" s="8">
+        <v>4</v>
+      </c>
+      <c r="N54" s="8">
+        <v>43</v>
+      </c>
+      <c r="O54" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="55" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
@@ -4822,11 +5084,15 @@
       <c r="D55" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
+      <c r="E55" s="10">
+        <v>28</v>
+      </c>
+      <c r="F55" s="10">
+        <v>0</v>
+      </c>
       <c r="G55" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H55" s="11" t="s">
         <v>386</v>
@@ -4840,9 +5106,15 @@
       </c>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="13"/>
+      <c r="M55" s="8">
+        <v>4</v>
+      </c>
+      <c r="N55" s="8">
+        <v>43</v>
+      </c>
+      <c r="O55" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="56" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
@@ -4857,11 +5129,15 @@
       <c r="D56" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
+      <c r="E56" s="10">
+        <v>20</v>
+      </c>
+      <c r="F56" s="10">
+        <v>0</v>
+      </c>
       <c r="G56" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H56" s="11" t="s">
         <v>386</v>
@@ -4875,9 +5151,15 @@
       </c>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="13"/>
+      <c r="M56" s="8">
+        <v>4</v>
+      </c>
+      <c r="N56" s="8">
+        <v>43</v>
+      </c>
+      <c r="O56" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="57" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
@@ -4892,11 +5174,15 @@
       <c r="D57" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
+      <c r="E57" s="10">
+        <v>31</v>
+      </c>
+      <c r="F57" s="10">
+        <v>4</v>
+      </c>
       <c r="G57" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H57" s="11" t="s">
         <v>386</v>
@@ -4910,9 +5196,15 @@
       </c>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="13"/>
+      <c r="M57" s="8">
+        <v>4</v>
+      </c>
+      <c r="N57" s="8">
+        <v>43</v>
+      </c>
+      <c r="O57" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="58" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
@@ -4927,8 +5219,12 @@
       <c r="D58" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
+      <c r="E58" s="10">
+        <v>0</v>
+      </c>
+      <c r="F58" s="10">
+        <v>0</v>
+      </c>
       <c r="G58" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4945,9 +5241,15 @@
       </c>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="13"/>
+      <c r="M58" s="8">
+        <v>4</v>
+      </c>
+      <c r="N58" s="8">
+        <v>43</v>
+      </c>
+      <c r="O58" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="59" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
@@ -4962,11 +5264,15 @@
       <c r="D59" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
+      <c r="E59" s="10">
+        <v>33</v>
+      </c>
+      <c r="F59" s="10">
+        <v>0</v>
+      </c>
       <c r="G59" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H59" s="11" t="s">
         <v>386</v>
@@ -4980,9 +5286,15 @@
       </c>
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="13"/>
+      <c r="M59" s="8">
+        <v>4</v>
+      </c>
+      <c r="N59" s="8">
+        <v>43</v>
+      </c>
+      <c r="O59" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="60" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
@@ -4997,8 +5309,12 @@
       <c r="D60" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
+      <c r="E60" s="10">
+        <v>0</v>
+      </c>
+      <c r="F60" s="10">
+        <v>0</v>
+      </c>
       <c r="G60" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5015,9 +5331,15 @@
       </c>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="13"/>
+      <c r="M60" s="8">
+        <v>4</v>
+      </c>
+      <c r="N60" s="8">
+        <v>43</v>
+      </c>
+      <c r="O60" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="61" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
@@ -5032,11 +5354,15 @@
       <c r="D61" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
+      <c r="E61" s="10">
+        <v>40</v>
+      </c>
+      <c r="F61" s="10">
+        <v>16</v>
+      </c>
       <c r="G61" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H61" s="11" t="s">
         <v>386</v>
@@ -5046,13 +5372,23 @@
       </c>
       <c r="J61" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>راسب</v>
-      </c>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="13"/>
+        <v>ناجح</v>
+      </c>
+      <c r="K61" s="8">
+        <v>2</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M61" s="8">
+        <v>4</v>
+      </c>
+      <c r="N61" s="8">
+        <v>43</v>
+      </c>
+      <c r="O61" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="62" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
@@ -5067,11 +5403,15 @@
       <c r="D62" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
+      <c r="E62" s="10">
+        <v>33</v>
+      </c>
+      <c r="F62" s="10">
+        <v>7</v>
+      </c>
       <c r="G62" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H62" s="11" t="s">
         <v>386</v>
@@ -5085,9 +5425,15 @@
       </c>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="13"/>
+      <c r="M62" s="8">
+        <v>4</v>
+      </c>
+      <c r="N62" s="8">
+        <v>43</v>
+      </c>
+      <c r="O62" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="63" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
@@ -5102,11 +5448,15 @@
       <c r="D63" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
+      <c r="E63" s="10">
+        <v>35</v>
+      </c>
+      <c r="F63" s="10">
+        <v>7</v>
+      </c>
       <c r="G63" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H63" s="11" t="s">
         <v>386</v>
@@ -5120,9 +5470,15 @@
       </c>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="13"/>
+      <c r="M63" s="8">
+        <v>4</v>
+      </c>
+      <c r="N63" s="8">
+        <v>43</v>
+      </c>
+      <c r="O63" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="64" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
@@ -5137,8 +5493,12 @@
       <c r="D64" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
+      <c r="E64" s="10">
+        <v>0</v>
+      </c>
+      <c r="F64" s="10">
+        <v>0</v>
+      </c>
       <c r="G64" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5155,9 +5515,15 @@
       </c>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="13"/>
+      <c r="M64" s="8">
+        <v>4</v>
+      </c>
+      <c r="N64" s="8">
+        <v>43</v>
+      </c>
+      <c r="O64" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="65" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
@@ -5172,11 +5538,15 @@
       <c r="D65" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
+      <c r="E65" s="10">
+        <v>24</v>
+      </c>
+      <c r="F65" s="10">
+        <v>13</v>
+      </c>
       <c r="G65" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H65" s="11" t="s">
         <v>386</v>
@@ -5190,9 +5560,15 @@
       </c>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="13"/>
+      <c r="M65" s="8">
+        <v>4</v>
+      </c>
+      <c r="N65" s="8">
+        <v>43</v>
+      </c>
+      <c r="O65" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="66" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
@@ -5207,11 +5583,15 @@
       <c r="D66" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
+      <c r="E66" s="10">
+        <v>28</v>
+      </c>
+      <c r="F66" s="10">
+        <v>9</v>
+      </c>
       <c r="G66" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H66" s="11" t="s">
         <v>386</v>
@@ -5225,9 +5605,15 @@
       </c>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="13"/>
+      <c r="M66" s="8">
+        <v>4</v>
+      </c>
+      <c r="N66" s="8">
+        <v>43</v>
+      </c>
+      <c r="O66" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="67" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
@@ -5242,11 +5628,15 @@
       <c r="D67" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
+      <c r="E67" s="10">
+        <v>36</v>
+      </c>
+      <c r="F67" s="10">
+        <v>10</v>
+      </c>
       <c r="G67" s="10">
         <f t="shared" ref="G67:G130" si="2">F67+E67</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H67" s="11" t="s">
         <v>386</v>
@@ -5260,9 +5650,15 @@
       </c>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="13"/>
+      <c r="M67" s="8">
+        <v>4</v>
+      </c>
+      <c r="N67" s="8">
+        <v>43</v>
+      </c>
+      <c r="O67" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="68" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
@@ -5277,8 +5673,12 @@
       <c r="D68" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
+      <c r="E68" s="10">
+        <v>0</v>
+      </c>
+      <c r="F68" s="10">
+        <v>0</v>
+      </c>
       <c r="G68" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5295,9 +5695,15 @@
       </c>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="13"/>
+      <c r="M68" s="8">
+        <v>4</v>
+      </c>
+      <c r="N68" s="8">
+        <v>43</v>
+      </c>
+      <c r="O68" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="69" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
@@ -5312,11 +5718,15 @@
       <c r="D69" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
+      <c r="E69" s="10">
+        <v>31</v>
+      </c>
+      <c r="F69" s="10">
+        <v>11</v>
+      </c>
       <c r="G69" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H69" s="11" t="s">
         <v>386</v>
@@ -5330,9 +5740,15 @@
       </c>
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="13"/>
+      <c r="M69" s="8">
+        <v>4</v>
+      </c>
+      <c r="N69" s="8">
+        <v>43</v>
+      </c>
+      <c r="O69" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="70" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
@@ -5347,11 +5763,15 @@
       <c r="D70" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
+      <c r="E70" s="10">
+        <v>32</v>
+      </c>
+      <c r="F70" s="10">
+        <v>0</v>
+      </c>
       <c r="G70" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H70" s="11" t="s">
         <v>386</v>
@@ -5365,9 +5785,15 @@
       </c>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="13"/>
+      <c r="M70" s="8">
+        <v>4</v>
+      </c>
+      <c r="N70" s="8">
+        <v>43</v>
+      </c>
+      <c r="O70" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="71" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
@@ -5382,8 +5808,12 @@
       <c r="D71" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
+      <c r="E71" s="10">
+        <v>0</v>
+      </c>
+      <c r="F71" s="10">
+        <v>0</v>
+      </c>
       <c r="G71" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5400,9 +5830,15 @@
       </c>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="13"/>
+      <c r="M71" s="8">
+        <v>4</v>
+      </c>
+      <c r="N71" s="8">
+        <v>43</v>
+      </c>
+      <c r="O71" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="72" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
@@ -5417,11 +5853,15 @@
       <c r="D72" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
+      <c r="E72" s="10">
+        <v>24</v>
+      </c>
+      <c r="F72" s="10">
+        <v>3</v>
+      </c>
       <c r="G72" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H72" s="11" t="s">
         <v>386</v>
@@ -5435,9 +5875,15 @@
       </c>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="13"/>
+      <c r="M72" s="8">
+        <v>4</v>
+      </c>
+      <c r="N72" s="8">
+        <v>43</v>
+      </c>
+      <c r="O72" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="73" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
@@ -5549,7 +5995,7 @@
         <v>12</v>
       </c>
       <c r="G75" s="10">
-        <f>F75+E75</f>
+        <f t="shared" ref="G75:G118" si="4">F75+E75</f>
         <v>51</v>
       </c>
       <c r="H75" s="11" t="s">
@@ -5559,7 +6005,7 @@
         <v>752</v>
       </c>
       <c r="J75" s="12" t="str">
-        <f>IF(G75&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" ref="J75:J118" si="5">IF(G75&gt;=50,"ناجح","راسب")</f>
         <v>ناجح</v>
       </c>
       <c r="K75" s="8">
@@ -5598,7 +6044,7 @@
         <v>14</v>
       </c>
       <c r="G76" s="10">
-        <f>F76+E76</f>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="H76" s="11" t="s">
@@ -5608,7 +6054,7 @@
         <v>752</v>
       </c>
       <c r="J76" s="12" t="str">
-        <f>IF(G76&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K76" s="8"/>
@@ -5643,7 +6089,7 @@
         <v>11</v>
       </c>
       <c r="G77" s="10">
-        <f>F77+E77</f>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="H77" s="11" t="s">
@@ -5653,7 +6099,7 @@
         <v>752</v>
       </c>
       <c r="J77" s="12" t="str">
-        <f>IF(G77&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>ناجح</v>
       </c>
       <c r="K77" s="8">
@@ -5692,7 +6138,7 @@
         <v>20</v>
       </c>
       <c r="G78" s="10">
-        <f>F78+E78</f>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="H78" s="11" t="s">
@@ -5702,7 +6148,7 @@
         <v>752</v>
       </c>
       <c r="J78" s="12" t="str">
-        <f>IF(G78&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K78" s="8"/>
@@ -5737,7 +6183,7 @@
         <v>12</v>
       </c>
       <c r="G79" s="10">
-        <f>F79+E79</f>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="H79" s="11" t="s">
@@ -5747,7 +6193,7 @@
         <v>752</v>
       </c>
       <c r="J79" s="12" t="str">
-        <f>IF(G79&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K79" s="8"/>
@@ -5782,7 +6228,7 @@
         <v>9</v>
       </c>
       <c r="G80" s="10">
-        <f>F80+E80</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="H80" s="11" t="s">
@@ -5792,7 +6238,7 @@
         <v>752</v>
       </c>
       <c r="J80" s="12" t="str">
-        <f>IF(G80&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K80" s="8"/>
@@ -5827,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="10">
-        <f>F81+E81</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H81" s="11" t="s">
@@ -5837,7 +6283,7 @@
         <v>752</v>
       </c>
       <c r="J81" s="12" t="str">
-        <f>IF(G81&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K81" s="8"/>
@@ -5872,7 +6318,7 @@
         <v>4</v>
       </c>
       <c r="G82" s="10">
-        <f>F82+E82</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="H82" s="11" t="s">
@@ -5882,7 +6328,7 @@
         <v>752</v>
       </c>
       <c r="J82" s="12" t="str">
-        <f>IF(G82&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K82" s="8"/>
@@ -5917,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="10">
-        <f>F83+E83</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H83" s="11" t="s">
@@ -5927,7 +6373,7 @@
         <v>752</v>
       </c>
       <c r="J83" s="12" t="str">
-        <f>IF(G83&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K83" s="8"/>
@@ -5962,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="10">
-        <f>F84+E84</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H84" s="11" t="s">
@@ -5972,7 +6418,7 @@
         <v>752</v>
       </c>
       <c r="J84" s="12" t="str">
-        <f>IF(G84&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K84" s="8"/>
@@ -6007,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="10">
-        <f>F85+E85</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H85" s="11" t="s">
@@ -6017,7 +6463,7 @@
         <v>752</v>
       </c>
       <c r="J85" s="12" t="str">
-        <f>IF(G85&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K85" s="8"/>
@@ -6052,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="10">
-        <f>F86+E86</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H86" s="11" t="s">
@@ -6062,7 +6508,7 @@
         <v>752</v>
       </c>
       <c r="J86" s="12" t="str">
-        <f>IF(G86&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K86" s="8"/>
@@ -6097,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="10">
-        <f>F87+E87</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="H87" s="11" t="s">
@@ -6107,7 +6553,7 @@
         <v>752</v>
       </c>
       <c r="J87" s="12" t="str">
-        <f>IF(G87&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K87" s="8"/>
@@ -6142,7 +6588,7 @@
         <v>11</v>
       </c>
       <c r="G88" s="10">
-        <f>F88+E88</f>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="H88" s="11" t="s">
@@ -6152,7 +6598,7 @@
         <v>752</v>
       </c>
       <c r="J88" s="12" t="str">
-        <f>IF(G88&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K88" s="8"/>
@@ -6187,7 +6633,7 @@
         <v>5</v>
       </c>
       <c r="G89" s="10">
-        <f>F89+E89</f>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="H89" s="11" t="s">
@@ -6197,7 +6643,7 @@
         <v>752</v>
       </c>
       <c r="J89" s="12" t="str">
-        <f>IF(G89&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K89" s="8"/>
@@ -6232,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="10">
-        <f>F90+E90</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H90" s="11" t="s">
@@ -6242,7 +6688,7 @@
         <v>752</v>
       </c>
       <c r="J90" s="12" t="str">
-        <f>IF(G90&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K90" s="8"/>
@@ -6277,7 +6723,7 @@
         <v>5</v>
       </c>
       <c r="G91" s="10">
-        <f>F91+E91</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="H91" s="11" t="s">
@@ -6287,7 +6733,7 @@
         <v>752</v>
       </c>
       <c r="J91" s="12" t="str">
-        <f>IF(G91&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K91" s="8"/>
@@ -6322,7 +6768,7 @@
         <v>10</v>
       </c>
       <c r="G92" s="10">
-        <f>F92+E92</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="H92" s="11" t="s">
@@ -6332,7 +6778,7 @@
         <v>752</v>
       </c>
       <c r="J92" s="12" t="str">
-        <f>IF(G92&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>ناجح</v>
       </c>
       <c r="K92" s="8">
@@ -6371,7 +6817,7 @@
         <v>7</v>
       </c>
       <c r="G93" s="10">
-        <f>F93+E93</f>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="H93" s="11" t="s">
@@ -6381,7 +6827,7 @@
         <v>752</v>
       </c>
       <c r="J93" s="12" t="str">
-        <f>IF(G93&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K93" s="8"/>
@@ -6416,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="G94" s="10">
-        <f>F94+E94</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="H94" s="11" t="s">
@@ -6426,7 +6872,7 @@
         <v>752</v>
       </c>
       <c r="J94" s="12" t="str">
-        <f>IF(G94&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K94" s="8"/>
@@ -6461,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="G95" s="10">
-        <f>F95+E95</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H95" s="11" t="s">
@@ -6471,7 +6917,7 @@
         <v>752</v>
       </c>
       <c r="J95" s="12" t="str">
-        <f>IF(G95&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K95" s="8"/>
@@ -6506,7 +6952,7 @@
         <v>11</v>
       </c>
       <c r="G96" s="10">
-        <f>F96+E96</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="H96" s="11" t="s">
@@ -6516,7 +6962,7 @@
         <v>752</v>
       </c>
       <c r="J96" s="12" t="str">
-        <f>IF(G96&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>ناجح</v>
       </c>
       <c r="K96" s="8">
@@ -6555,7 +7001,7 @@
         <v>3</v>
       </c>
       <c r="G97" s="10">
-        <f>F97+E97</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="H97" s="11" t="s">
@@ -6565,7 +7011,7 @@
         <v>752</v>
       </c>
       <c r="J97" s="12" t="str">
-        <f>IF(G97&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K97" s="8"/>
@@ -6600,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="G98" s="10">
-        <f>F98+E98</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H98" s="11" t="s">
@@ -6610,7 +7056,7 @@
         <v>752</v>
       </c>
       <c r="J98" s="12" t="str">
-        <f>IF(G98&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K98" s="8"/>
@@ -6645,7 +7091,7 @@
         <v>13</v>
       </c>
       <c r="G99" s="10">
-        <f>F99+E99</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="H99" s="11" t="s">
@@ -6655,7 +7101,7 @@
         <v>752</v>
       </c>
       <c r="J99" s="12" t="str">
-        <f>IF(G99&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K99" s="8"/>
@@ -6690,7 +7136,7 @@
         <v>4</v>
       </c>
       <c r="G100" s="10">
-        <f>F100+E100</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="H100" s="11" t="s">
@@ -6700,7 +7146,7 @@
         <v>752</v>
       </c>
       <c r="J100" s="12" t="str">
-        <f>IF(G100&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K100" s="8"/>
@@ -6735,7 +7181,7 @@
         <v>10</v>
       </c>
       <c r="G101" s="10">
-        <f>F101+E101</f>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="H101" s="11" t="s">
@@ -6745,7 +7191,7 @@
         <v>752</v>
       </c>
       <c r="J101" s="12" t="str">
-        <f>IF(G101&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K101" s="8"/>
@@ -6780,7 +7226,7 @@
         <v>4</v>
       </c>
       <c r="G102" s="10">
-        <f>F102+E102</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="H102" s="11" t="s">
@@ -6790,7 +7236,7 @@
         <v>752</v>
       </c>
       <c r="J102" s="12" t="str">
-        <f>IF(G102&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K102" s="8"/>
@@ -6825,7 +7271,7 @@
         <v>5</v>
       </c>
       <c r="G103" s="10">
-        <f>F103+E103</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="H103" s="11" t="s">
@@ -6835,7 +7281,7 @@
         <v>752</v>
       </c>
       <c r="J103" s="12" t="str">
-        <f>IF(G103&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K103" s="8"/>
@@ -6870,7 +7316,7 @@
         <v>6</v>
       </c>
       <c r="G104" s="10">
-        <f>F104+E104</f>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="H104" s="11" t="s">
@@ -6880,7 +7326,7 @@
         <v>752</v>
       </c>
       <c r="J104" s="12" t="str">
-        <f>IF(G104&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K104" s="8"/>
@@ -6915,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="G105" s="10">
-        <f>F105+E105</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H105" s="11" t="s">
@@ -6925,7 +7371,7 @@
         <v>752</v>
       </c>
       <c r="J105" s="12" t="str">
-        <f>IF(G105&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K105" s="8"/>
@@ -6960,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="G106" s="10">
-        <f>F106+E106</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H106" s="11" t="s">
@@ -6970,7 +7416,7 @@
         <v>752</v>
       </c>
       <c r="J106" s="12" t="str">
-        <f>IF(G106&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K106" s="8"/>
@@ -7005,7 +7451,7 @@
         <v>15</v>
       </c>
       <c r="G107" s="10">
-        <f>F107+E107</f>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="H107" s="11" t="s">
@@ -7015,7 +7461,7 @@
         <v>752</v>
       </c>
       <c r="J107" s="12" t="str">
-        <f>IF(G107&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K107" s="8"/>
@@ -7050,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="G108" s="10">
-        <f>F108+E108</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H108" s="11" t="s">
@@ -7060,7 +7506,7 @@
         <v>752</v>
       </c>
       <c r="J108" s="12" t="str">
-        <f>IF(G108&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K108" s="8"/>
@@ -7095,7 +7541,7 @@
         <v>6</v>
       </c>
       <c r="G109" s="10">
-        <f>F109+E109</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="H109" s="11" t="s">
@@ -7105,7 +7551,7 @@
         <v>752</v>
       </c>
       <c r="J109" s="12" t="str">
-        <f>IF(G109&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K109" s="8"/>
@@ -7140,7 +7586,7 @@
         <v>15</v>
       </c>
       <c r="G110" s="10">
-        <f>F110+E110</f>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="H110" s="11" t="s">
@@ -7150,7 +7596,7 @@
         <v>752</v>
       </c>
       <c r="J110" s="12" t="str">
-        <f>IF(G110&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K110" s="8"/>
@@ -7185,7 +7631,7 @@
         <v>2</v>
       </c>
       <c r="G111" s="10">
-        <f>F111+E111</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="H111" s="11" t="s">
@@ -7195,7 +7641,7 @@
         <v>752</v>
       </c>
       <c r="J111" s="12" t="str">
-        <f>IF(G111&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K111" s="8"/>
@@ -7230,7 +7676,7 @@
         <v>3</v>
       </c>
       <c r="G112" s="10">
-        <f>F112+E112</f>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="H112" s="11" t="s">
@@ -7240,7 +7686,7 @@
         <v>752</v>
       </c>
       <c r="J112" s="12" t="str">
-        <f>IF(G112&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K112" s="8"/>
@@ -7275,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="G113" s="10">
-        <f>F113+E113</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H113" s="11" t="s">
@@ -7285,7 +7731,7 @@
         <v>752</v>
       </c>
       <c r="J113" s="12" t="str">
-        <f>IF(G113&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K113" s="8"/>
@@ -7320,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="G114" s="10">
-        <f>F114+E114</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H114" s="11" t="s">
@@ -7330,7 +7776,7 @@
         <v>752</v>
       </c>
       <c r="J114" s="12" t="str">
-        <f>IF(G114&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K114" s="8"/>
@@ -7365,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="G115" s="10">
-        <f>F115+E115</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H115" s="11" t="s">
@@ -7375,7 +7821,7 @@
         <v>752</v>
       </c>
       <c r="J115" s="12" t="str">
-        <f>IF(G115&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K115" s="8"/>
@@ -7410,7 +7856,7 @@
         <v>12</v>
       </c>
       <c r="G116" s="10">
-        <f>F116+E116</f>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="H116" s="11" t="s">
@@ -7420,7 +7866,7 @@
         <v>752</v>
       </c>
       <c r="J116" s="12" t="str">
-        <f>IF(G116&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K116" s="8"/>
@@ -7455,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="G117" s="10">
-        <f>F117+E117</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="H117" s="11" t="s">
@@ -7465,7 +7911,7 @@
         <v>752</v>
       </c>
       <c r="J117" s="12" t="str">
-        <f>IF(G117&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K117" s="8"/>
@@ -7500,7 +7946,7 @@
         <v>17</v>
       </c>
       <c r="G118" s="10">
-        <f>F118+E118</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="H118" s="11" t="s">
@@ -7510,7 +7956,7 @@
         <v>752</v>
       </c>
       <c r="J118" s="12" t="str">
-        <f>IF(G118&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>ناجح</v>
       </c>
       <c r="K118" s="8">
@@ -8089,7 +8535,7 @@
         <v>7</v>
       </c>
       <c r="G131" s="10">
-        <f t="shared" ref="G131:G194" si="4">F131+E131</f>
+        <f t="shared" ref="G131:G194" si="6">F131+E131</f>
         <v>26</v>
       </c>
       <c r="H131" s="11" t="s">
@@ -8099,7 +8545,7 @@
         <v>752</v>
       </c>
       <c r="J131" s="12" t="str">
-        <f t="shared" ref="J131:J190" si="5">IF(G131&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" ref="J131:J190" si="7">IF(G131&gt;=50,"ناجح","راسب")</f>
         <v>راسب</v>
       </c>
       <c r="K131" s="8"/>
@@ -8130,7 +8576,7 @@
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
       <c r="G132" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H132" s="11" t="s">
@@ -8140,7 +8586,7 @@
         <v>752</v>
       </c>
       <c r="J132" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K132" s="8"/>
@@ -8165,7 +8611,7 @@
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
       <c r="G133" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H133" s="11" t="s">
@@ -8175,7 +8621,7 @@
         <v>752</v>
       </c>
       <c r="J133" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K133" s="8"/>
@@ -8200,7 +8646,7 @@
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
       <c r="G134" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H134" s="11" t="s">
@@ -8210,7 +8656,7 @@
         <v>752</v>
       </c>
       <c r="J134" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K134" s="8"/>
@@ -8235,7 +8681,7 @@
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
       <c r="G135" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H135" s="11" t="s">
@@ -8245,7 +8691,7 @@
         <v>752</v>
       </c>
       <c r="J135" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K135" s="8"/>
@@ -8270,7 +8716,7 @@
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
       <c r="G136" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H136" s="11" t="s">
@@ -8280,7 +8726,7 @@
         <v>752</v>
       </c>
       <c r="J136" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K136" s="8"/>
@@ -8305,7 +8751,7 @@
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
       <c r="G137" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H137" s="11" t="s">
@@ -8315,7 +8761,7 @@
         <v>752</v>
       </c>
       <c r="J137" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K137" s="8"/>
@@ -8340,7 +8786,7 @@
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
       <c r="G138" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H138" s="11" t="s">
@@ -8350,7 +8796,7 @@
         <v>752</v>
       </c>
       <c r="J138" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K138" s="8"/>
@@ -8375,7 +8821,7 @@
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
       <c r="G139" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H139" s="11" t="s">
@@ -8385,7 +8831,7 @@
         <v>752</v>
       </c>
       <c r="J139" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K139" s="8"/>
@@ -8410,7 +8856,7 @@
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
       <c r="G140" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H140" s="11" t="s">
@@ -8420,7 +8866,7 @@
         <v>752</v>
       </c>
       <c r="J140" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K140" s="8"/>
@@ -8445,7 +8891,7 @@
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
       <c r="G141" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H141" s="11" t="s">
@@ -8455,7 +8901,7 @@
         <v>752</v>
       </c>
       <c r="J141" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K141" s="8"/>
@@ -8480,7 +8926,7 @@
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
       <c r="G142" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H142" s="11" t="s">
@@ -8490,7 +8936,7 @@
         <v>752</v>
       </c>
       <c r="J142" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K142" s="8"/>
@@ -8515,7 +8961,7 @@
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
       <c r="G143" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H143" s="11" t="s">
@@ -8525,7 +8971,7 @@
         <v>752</v>
       </c>
       <c r="J143" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K143" s="8"/>
@@ -8550,7 +8996,7 @@
       <c r="E144" s="10"/>
       <c r="F144" s="10"/>
       <c r="G144" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H144" s="11" t="s">
@@ -8560,7 +9006,7 @@
         <v>752</v>
       </c>
       <c r="J144" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K144" s="8"/>
@@ -8585,7 +9031,7 @@
       <c r="E145" s="10"/>
       <c r="F145" s="10"/>
       <c r="G145" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H145" s="11" t="s">
@@ -8595,7 +9041,7 @@
         <v>752</v>
       </c>
       <c r="J145" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K145" s="8"/>
@@ -8620,7 +9066,7 @@
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
       <c r="G146" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H146" s="11" t="s">
@@ -8630,7 +9076,7 @@
         <v>752</v>
       </c>
       <c r="J146" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K146" s="8"/>
@@ -8655,7 +9101,7 @@
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
       <c r="G147" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H147" s="11" t="s">
@@ -8665,7 +9111,7 @@
         <v>752</v>
       </c>
       <c r="J147" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K147" s="8"/>
@@ -8690,7 +9136,7 @@
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
       <c r="G148" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H148" s="11" t="s">
@@ -8700,7 +9146,7 @@
         <v>752</v>
       </c>
       <c r="J148" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K148" s="8"/>
@@ -8725,7 +9171,7 @@
       <c r="E149" s="10"/>
       <c r="F149" s="10"/>
       <c r="G149" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H149" s="11" t="s">
@@ -8735,7 +9181,7 @@
         <v>752</v>
       </c>
       <c r="J149" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K149" s="8"/>
@@ -8760,7 +9206,7 @@
       <c r="E150" s="10"/>
       <c r="F150" s="10"/>
       <c r="G150" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H150" s="11" t="s">
@@ -8770,7 +9216,7 @@
         <v>752</v>
       </c>
       <c r="J150" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K150" s="8"/>
@@ -8795,7 +9241,7 @@
       <c r="E151" s="10"/>
       <c r="F151" s="10"/>
       <c r="G151" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H151" s="11" t="s">
@@ -8805,7 +9251,7 @@
         <v>752</v>
       </c>
       <c r="J151" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K151" s="8"/>
@@ -8830,7 +9276,7 @@
       <c r="E152" s="10"/>
       <c r="F152" s="10"/>
       <c r="G152" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H152" s="11" t="s">
@@ -8840,7 +9286,7 @@
         <v>752</v>
       </c>
       <c r="J152" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K152" s="8"/>
@@ -8865,7 +9311,7 @@
       <c r="E153" s="10"/>
       <c r="F153" s="10"/>
       <c r="G153" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H153" s="11" t="s">
@@ -8875,7 +9321,7 @@
         <v>752</v>
       </c>
       <c r="J153" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K153" s="8"/>
@@ -8900,7 +9346,7 @@
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
       <c r="G154" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H154" s="11" t="s">
@@ -8910,7 +9356,7 @@
         <v>752</v>
       </c>
       <c r="J154" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K154" s="8"/>
@@ -8935,7 +9381,7 @@
       <c r="E155" s="10"/>
       <c r="F155" s="10"/>
       <c r="G155" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H155" s="11" t="s">
@@ -8945,7 +9391,7 @@
         <v>752</v>
       </c>
       <c r="J155" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K155" s="8"/>
@@ -8970,7 +9416,7 @@
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
       <c r="G156" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H156" s="11" t="s">
@@ -8980,7 +9426,7 @@
         <v>752</v>
       </c>
       <c r="J156" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K156" s="8"/>
@@ -9005,7 +9451,7 @@
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
       <c r="G157" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H157" s="11" t="s">
@@ -9015,7 +9461,7 @@
         <v>752</v>
       </c>
       <c r="J157" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K157" s="8"/>
@@ -9040,7 +9486,7 @@
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
       <c r="G158" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H158" s="11" t="s">
@@ -9050,7 +9496,7 @@
         <v>752</v>
       </c>
       <c r="J158" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K158" s="8"/>
@@ -9075,7 +9521,7 @@
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
       <c r="G159" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H159" s="11" t="s">
@@ -9085,7 +9531,7 @@
         <v>752</v>
       </c>
       <c r="J159" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K159" s="8"/>
@@ -9110,7 +9556,7 @@
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
       <c r="G160" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H160" s="11" t="s">
@@ -9120,7 +9566,7 @@
         <v>752</v>
       </c>
       <c r="J160" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K160" s="8"/>
@@ -9145,7 +9591,7 @@
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
       <c r="G161" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H161" s="11" t="s">
@@ -9155,7 +9601,7 @@
         <v>752</v>
       </c>
       <c r="J161" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K161" s="8"/>
@@ -9180,7 +9626,7 @@
       <c r="E162" s="10"/>
       <c r="F162" s="10"/>
       <c r="G162" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H162" s="11" t="s">
@@ -9190,7 +9636,7 @@
         <v>752</v>
       </c>
       <c r="J162" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K162" s="8"/>
@@ -9215,7 +9661,7 @@
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
       <c r="G163" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H163" s="11" t="s">
@@ -9225,7 +9671,7 @@
         <v>752</v>
       </c>
       <c r="J163" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K163" s="8"/>
@@ -9250,7 +9696,7 @@
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
       <c r="G164" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H164" s="11" t="s">
@@ -9260,7 +9706,7 @@
         <v>752</v>
       </c>
       <c r="J164" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K164" s="8"/>
@@ -9285,7 +9731,7 @@
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
       <c r="G165" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H165" s="11" t="s">
@@ -9295,7 +9741,7 @@
         <v>752</v>
       </c>
       <c r="J165" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K165" s="8"/>
@@ -9320,7 +9766,7 @@
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
       <c r="G166" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H166" s="11" t="s">
@@ -9330,7 +9776,7 @@
         <v>752</v>
       </c>
       <c r="J166" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K166" s="8"/>
@@ -9355,7 +9801,7 @@
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
       <c r="G167" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H167" s="11" t="s">
@@ -9365,7 +9811,7 @@
         <v>752</v>
       </c>
       <c r="J167" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K167" s="8"/>
@@ -9390,7 +9836,7 @@
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
       <c r="G168" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H168" s="11" t="s">
@@ -9400,7 +9846,7 @@
         <v>752</v>
       </c>
       <c r="J168" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K168" s="8"/>
@@ -9425,7 +9871,7 @@
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
       <c r="G169" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H169" s="11" t="s">
@@ -9435,7 +9881,7 @@
         <v>752</v>
       </c>
       <c r="J169" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K169" s="8"/>
@@ -9460,7 +9906,7 @@
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
       <c r="G170" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H170" s="11" t="s">
@@ -9470,7 +9916,7 @@
         <v>752</v>
       </c>
       <c r="J170" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K170" s="8"/>
@@ -9495,7 +9941,7 @@
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
       <c r="G171" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H171" s="11" t="s">
@@ -9505,7 +9951,7 @@
         <v>752</v>
       </c>
       <c r="J171" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K171" s="8"/>
@@ -9530,7 +9976,7 @@
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
       <c r="G172" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H172" s="11" t="s">
@@ -9540,7 +9986,7 @@
         <v>752</v>
       </c>
       <c r="J172" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K172" s="8"/>
@@ -9565,7 +10011,7 @@
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
       <c r="G173" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H173" s="11" t="s">
@@ -9575,7 +10021,7 @@
         <v>752</v>
       </c>
       <c r="J173" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K173" s="8"/>
@@ -9600,7 +10046,7 @@
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
       <c r="G174" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H174" s="11" t="s">
@@ -9610,7 +10056,7 @@
         <v>752</v>
       </c>
       <c r="J174" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K174" s="8"/>
@@ -9635,7 +10081,7 @@
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
       <c r="G175" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H175" s="11" t="s">
@@ -9645,7 +10091,7 @@
         <v>752</v>
       </c>
       <c r="J175" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K175" s="8"/>
@@ -9670,7 +10116,7 @@
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
       <c r="G176" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H176" s="11" t="s">
@@ -9680,7 +10126,7 @@
         <v>752</v>
       </c>
       <c r="J176" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K176" s="8"/>
@@ -9705,7 +10151,7 @@
       <c r="E177" s="10"/>
       <c r="F177" s="10"/>
       <c r="G177" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H177" s="11" t="s">
@@ -9715,7 +10161,7 @@
         <v>752</v>
       </c>
       <c r="J177" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K177" s="8"/>
@@ -9740,7 +10186,7 @@
       <c r="E178" s="10"/>
       <c r="F178" s="10"/>
       <c r="G178" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H178" s="11" t="s">
@@ -9750,7 +10196,7 @@
         <v>752</v>
       </c>
       <c r="J178" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K178" s="8"/>
@@ -9775,7 +10221,7 @@
       <c r="E179" s="10"/>
       <c r="F179" s="10"/>
       <c r="G179" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H179" s="11" t="s">
@@ -9785,7 +10231,7 @@
         <v>752</v>
       </c>
       <c r="J179" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K179" s="8"/>
@@ -9810,7 +10256,7 @@
       <c r="E180" s="10"/>
       <c r="F180" s="10"/>
       <c r="G180" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H180" s="11" t="s">
@@ -9820,7 +10266,7 @@
         <v>752</v>
       </c>
       <c r="J180" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K180" s="8"/>
@@ -9845,7 +10291,7 @@
       <c r="E181" s="10"/>
       <c r="F181" s="10"/>
       <c r="G181" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H181" s="11" t="s">
@@ -9855,7 +10301,7 @@
         <v>752</v>
       </c>
       <c r="J181" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K181" s="8"/>
@@ -9880,7 +10326,7 @@
       <c r="E182" s="10"/>
       <c r="F182" s="10"/>
       <c r="G182" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H182" s="11" t="s">
@@ -9890,7 +10336,7 @@
         <v>752</v>
       </c>
       <c r="J182" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K182" s="8"/>
@@ -9915,7 +10361,7 @@
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
       <c r="G183" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H183" s="11" t="s">
@@ -9925,7 +10371,7 @@
         <v>752</v>
       </c>
       <c r="J183" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K183" s="8"/>
@@ -9950,7 +10396,7 @@
       <c r="E184" s="10"/>
       <c r="F184" s="10"/>
       <c r="G184" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H184" s="11" t="s">
@@ -9960,7 +10406,7 @@
         <v>752</v>
       </c>
       <c r="J184" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K184" s="8"/>
@@ -9985,7 +10431,7 @@
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
       <c r="G185" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H185" s="11" t="s">
@@ -9995,7 +10441,7 @@
         <v>752</v>
       </c>
       <c r="J185" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K185" s="8"/>
@@ -10020,7 +10466,7 @@
       <c r="E186" s="10"/>
       <c r="F186" s="10"/>
       <c r="G186" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H186" s="11" t="s">
@@ -10030,7 +10476,7 @@
         <v>752</v>
       </c>
       <c r="J186" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K186" s="8"/>
@@ -10055,7 +10501,7 @@
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
       <c r="G187" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H187" s="11" t="s">
@@ -10065,7 +10511,7 @@
         <v>752</v>
       </c>
       <c r="J187" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K187" s="8"/>
@@ -10090,7 +10536,7 @@
       <c r="E188" s="10"/>
       <c r="F188" s="10"/>
       <c r="G188" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H188" s="11" t="s">
@@ -10100,7 +10546,7 @@
         <v>752</v>
       </c>
       <c r="J188" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K188" s="8"/>
@@ -10125,7 +10571,7 @@
       <c r="E189" s="10"/>
       <c r="F189" s="10"/>
       <c r="G189" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H189" s="11" t="s">
@@ -10135,7 +10581,7 @@
         <v>752</v>
       </c>
       <c r="J189" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K189" s="8"/>
@@ -10160,7 +10606,7 @@
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
       <c r="G190" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H190" s="11" t="s">
@@ -10170,7 +10616,7 @@
         <v>752</v>
       </c>
       <c r="J190" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K190" s="8"/>
@@ -10199,7 +10645,7 @@
         <v>11</v>
       </c>
       <c r="G191" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="H191" s="11" t="s">
@@ -10244,7 +10690,7 @@
         <v>0</v>
       </c>
       <c r="G192" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="H192" s="11" t="s">
@@ -10254,7 +10700,7 @@
         <v>752</v>
       </c>
       <c r="J192" s="12" t="str">
-        <f t="shared" ref="J192:J255" si="6">IF(G192&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" ref="J192:J255" si="8">IF(G192&gt;=50,"ناجح","راسب")</f>
         <v>راسب</v>
       </c>
       <c r="K192" s="8"/>
@@ -10289,7 +10735,7 @@
         <v>18</v>
       </c>
       <c r="G193" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="H193" s="11" t="s">
@@ -10299,7 +10745,7 @@
         <v>752</v>
       </c>
       <c r="J193" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K193" s="8"/>
@@ -10334,7 +10780,7 @@
         <v>8</v>
       </c>
       <c r="G194" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="H194" s="11" t="s">
@@ -10344,7 +10790,7 @@
         <v>752</v>
       </c>
       <c r="J194" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K194" s="8"/>
@@ -10379,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="G195" s="10">
-        <f t="shared" ref="G195:G258" si="7">F195+E195</f>
+        <f t="shared" ref="G195:G258" si="9">F195+E195</f>
         <v>0</v>
       </c>
       <c r="H195" s="11" t="s">
@@ -10389,7 +10835,7 @@
         <v>752</v>
       </c>
       <c r="J195" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K195" s="8"/>
@@ -10424,7 +10870,7 @@
         <v>11</v>
       </c>
       <c r="G196" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="H196" s="11" t="s">
@@ -10434,7 +10880,7 @@
         <v>752</v>
       </c>
       <c r="J196" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K196" s="8"/>
@@ -10469,7 +10915,7 @@
         <v>8</v>
       </c>
       <c r="G197" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="H197" s="11" t="s">
@@ -10479,7 +10925,7 @@
         <v>752</v>
       </c>
       <c r="J197" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K197" s="8"/>
@@ -10514,7 +10960,7 @@
         <v>6</v>
       </c>
       <c r="G198" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="H198" s="11" t="s">
@@ -10524,7 +10970,7 @@
         <v>752</v>
       </c>
       <c r="J198" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K198" s="8"/>
@@ -10559,7 +11005,7 @@
         <v>4</v>
       </c>
       <c r="G199" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="H199" s="11" t="s">
@@ -10569,7 +11015,7 @@
         <v>752</v>
       </c>
       <c r="J199" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K199" s="8"/>
@@ -10604,7 +11050,7 @@
         <v>5</v>
       </c>
       <c r="G200" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="H200" s="11" t="s">
@@ -10614,7 +11060,7 @@
         <v>752</v>
       </c>
       <c r="J200" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K200" s="8"/>
@@ -10649,7 +11095,7 @@
         <v>5</v>
       </c>
       <c r="G201" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="H201" s="11" t="s">
@@ -10659,7 +11105,7 @@
         <v>752</v>
       </c>
       <c r="J201" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K201" s="8"/>
@@ -10694,7 +11140,7 @@
         <v>0</v>
       </c>
       <c r="G202" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="H202" s="11" t="s">
@@ -10704,7 +11150,7 @@
         <v>752</v>
       </c>
       <c r="J202" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K202" s="8"/>
@@ -10739,7 +11185,7 @@
         <v>0</v>
       </c>
       <c r="G203" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H203" s="11" t="s">
@@ -10749,7 +11195,7 @@
         <v>752</v>
       </c>
       <c r="J203" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K203" s="8"/>
@@ -10784,7 +11230,7 @@
         <v>15</v>
       </c>
       <c r="G204" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="H204" s="11" t="s">
@@ -10794,7 +11240,7 @@
         <v>752</v>
       </c>
       <c r="J204" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K204" s="8"/>
@@ -10829,7 +11275,7 @@
         <v>0</v>
       </c>
       <c r="G205" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H205" s="11" t="s">
@@ -10839,7 +11285,7 @@
         <v>752</v>
       </c>
       <c r="J205" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K205" s="8"/>
@@ -10874,7 +11320,7 @@
         <v>8</v>
       </c>
       <c r="G206" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="H206" s="11" t="s">
@@ -10884,7 +11330,7 @@
         <v>752</v>
       </c>
       <c r="J206" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K206" s="8"/>
@@ -10919,7 +11365,7 @@
         <v>0</v>
       </c>
       <c r="G207" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="H207" s="11" t="s">
@@ -10929,7 +11375,7 @@
         <v>752</v>
       </c>
       <c r="J207" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K207" s="8"/>
@@ -10964,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="G208" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H208" s="11" t="s">
@@ -10974,7 +11420,7 @@
         <v>752</v>
       </c>
       <c r="J208" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K208" s="8"/>
@@ -11009,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="G209" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H209" s="11" t="s">
@@ -11019,7 +11465,7 @@
         <v>752</v>
       </c>
       <c r="J209" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K209" s="8"/>
@@ -11054,7 +11500,7 @@
         <v>9</v>
       </c>
       <c r="G210" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="H210" s="11" t="s">
@@ -11064,7 +11510,7 @@
         <v>752</v>
       </c>
       <c r="J210" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K210" s="8"/>
@@ -11099,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="G211" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="H211" s="11" t="s">
@@ -11109,7 +11555,7 @@
         <v>752</v>
       </c>
       <c r="J211" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K211" s="8"/>
@@ -11144,7 +11590,7 @@
         <v>0</v>
       </c>
       <c r="G212" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H212" s="11" t="s">
@@ -11154,7 +11600,7 @@
         <v>752</v>
       </c>
       <c r="J212" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K212" s="8"/>
@@ -11189,7 +11635,7 @@
         <v>0</v>
       </c>
       <c r="G213" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H213" s="11" t="s">
@@ -11199,7 +11645,7 @@
         <v>752</v>
       </c>
       <c r="J213" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K213" s="8"/>
@@ -11234,7 +11680,7 @@
         <v>0</v>
       </c>
       <c r="G214" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H214" s="11" t="s">
@@ -11244,7 +11690,7 @@
         <v>752</v>
       </c>
       <c r="J214" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K214" s="8"/>
@@ -11279,7 +11725,7 @@
         <v>0</v>
       </c>
       <c r="G215" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H215" s="11" t="s">
@@ -11289,7 +11735,7 @@
         <v>752</v>
       </c>
       <c r="J215" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K215" s="8"/>
@@ -11324,7 +11770,7 @@
         <v>5</v>
       </c>
       <c r="G216" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="H216" s="11" t="s">
@@ -11334,7 +11780,7 @@
         <v>752</v>
       </c>
       <c r="J216" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K216" s="8"/>
@@ -11369,7 +11815,7 @@
         <v>6</v>
       </c>
       <c r="G217" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="H217" s="11" t="s">
@@ -11379,7 +11825,7 @@
         <v>752</v>
       </c>
       <c r="J217" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K217" s="8"/>
@@ -11414,7 +11860,7 @@
         <v>13</v>
       </c>
       <c r="G218" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="H218" s="11" t="s">
@@ -11424,7 +11870,7 @@
         <v>752</v>
       </c>
       <c r="J218" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K218" s="8"/>
@@ -11459,7 +11905,7 @@
         <v>0</v>
       </c>
       <c r="G219" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H219" s="11" t="s">
@@ -11469,7 +11915,7 @@
         <v>752</v>
       </c>
       <c r="J219" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K219" s="8"/>
@@ -11504,7 +11950,7 @@
         <v>12</v>
       </c>
       <c r="G220" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="H220" s="11" t="s">
@@ -11514,7 +11960,7 @@
         <v>752</v>
       </c>
       <c r="J220" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K220" s="8"/>
@@ -11549,7 +11995,7 @@
         <v>11</v>
       </c>
       <c r="G221" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="H221" s="11" t="s">
@@ -11559,7 +12005,7 @@
         <v>752</v>
       </c>
       <c r="J221" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K221" s="8"/>
@@ -11594,7 +12040,7 @@
         <v>0</v>
       </c>
       <c r="G222" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H222" s="11" t="s">
@@ -11604,7 +12050,7 @@
         <v>752</v>
       </c>
       <c r="J222" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K222" s="8"/>
@@ -11639,7 +12085,7 @@
         <v>9</v>
       </c>
       <c r="G223" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="H223" s="11" t="s">
@@ -11649,7 +12095,7 @@
         <v>752</v>
       </c>
       <c r="J223" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K223" s="8"/>
@@ -11684,7 +12130,7 @@
         <v>3</v>
       </c>
       <c r="G224" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="H224" s="11" t="s">
@@ -11694,7 +12140,7 @@
         <v>752</v>
       </c>
       <c r="J224" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K224" s="8"/>
@@ -11729,7 +12175,7 @@
         <v>0</v>
       </c>
       <c r="G225" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="H225" s="11" t="s">
@@ -11739,7 +12185,7 @@
         <v>752</v>
       </c>
       <c r="J225" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K225" s="8"/>
@@ -11774,7 +12220,7 @@
         <v>3</v>
       </c>
       <c r="G226" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="H226" s="11" t="s">
@@ -11784,7 +12230,7 @@
         <v>752</v>
       </c>
       <c r="J226" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K226" s="8"/>
@@ -11819,7 +12265,7 @@
         <v>17</v>
       </c>
       <c r="G227" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="H227" s="11" t="s">
@@ -11829,7 +12275,7 @@
         <v>752</v>
       </c>
       <c r="J227" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K227" s="8"/>
@@ -11864,7 +12310,7 @@
         <v>16</v>
       </c>
       <c r="G228" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="H228" s="11" t="s">
@@ -11874,7 +12320,7 @@
         <v>752</v>
       </c>
       <c r="J228" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K228" s="8"/>
@@ -11909,7 +12355,7 @@
         <v>0</v>
       </c>
       <c r="G229" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H229" s="11" t="s">
@@ -11919,7 +12365,7 @@
         <v>752</v>
       </c>
       <c r="J229" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K229" s="8"/>
@@ -11954,7 +12400,7 @@
         <v>15</v>
       </c>
       <c r="G230" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="H230" s="11" t="s">
@@ -11964,7 +12410,7 @@
         <v>752</v>
       </c>
       <c r="J230" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K230" s="8"/>
@@ -11999,7 +12445,7 @@
         <v>17</v>
       </c>
       <c r="G231" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="H231" s="11" t="s">
@@ -12009,7 +12455,7 @@
         <v>752</v>
       </c>
       <c r="J231" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K231" s="8"/>
@@ -12044,7 +12490,7 @@
         <v>0</v>
       </c>
       <c r="G232" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H232" s="11" t="s">
@@ -12054,7 +12500,7 @@
         <v>752</v>
       </c>
       <c r="J232" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K232" s="8"/>
@@ -12089,7 +12535,7 @@
         <v>9</v>
       </c>
       <c r="G233" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="H233" s="11" t="s">
@@ -12099,7 +12545,7 @@
         <v>752</v>
       </c>
       <c r="J233" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K233" s="8"/>
@@ -12134,7 +12580,7 @@
         <v>0</v>
       </c>
       <c r="G234" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H234" s="11" t="s">
@@ -12144,7 +12590,7 @@
         <v>752</v>
       </c>
       <c r="J234" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K234" s="8"/>
@@ -12179,7 +12625,7 @@
         <v>0</v>
       </c>
       <c r="G235" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H235" s="11" t="s">
@@ -12189,7 +12635,7 @@
         <v>752</v>
       </c>
       <c r="J235" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K235" s="8"/>
@@ -12224,7 +12670,7 @@
         <v>16</v>
       </c>
       <c r="G236" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="H236" s="11" t="s">
@@ -12234,7 +12680,7 @@
         <v>752</v>
       </c>
       <c r="J236" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K236" s="8"/>
@@ -12269,7 +12715,7 @@
         <v>15</v>
       </c>
       <c r="G237" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="H237" s="11" t="s">
@@ -12279,7 +12725,7 @@
         <v>752</v>
       </c>
       <c r="J237" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ناجح</v>
       </c>
       <c r="K237" s="8">
@@ -12318,7 +12764,7 @@
         <v>0</v>
       </c>
       <c r="G238" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H238" s="11" t="s">
@@ -12328,7 +12774,7 @@
         <v>752</v>
       </c>
       <c r="J238" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K238" s="8"/>
@@ -12363,7 +12809,7 @@
         <v>12</v>
       </c>
       <c r="G239" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="H239" s="11" t="s">
@@ -12373,7 +12819,7 @@
         <v>752</v>
       </c>
       <c r="J239" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K239" s="8"/>
@@ -12408,7 +12854,7 @@
         <v>7</v>
       </c>
       <c r="G240" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="H240" s="11" t="s">
@@ -12418,7 +12864,7 @@
         <v>752</v>
       </c>
       <c r="J240" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K240" s="8"/>
@@ -12453,7 +12899,7 @@
         <v>0</v>
       </c>
       <c r="G241" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H241" s="11" t="s">
@@ -12463,7 +12909,7 @@
         <v>752</v>
       </c>
       <c r="J241" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K241" s="8"/>
@@ -12498,7 +12944,7 @@
         <v>2</v>
       </c>
       <c r="G242" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="H242" s="11" t="s">
@@ -12508,7 +12954,7 @@
         <v>752</v>
       </c>
       <c r="J242" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K242" s="8"/>
@@ -12543,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="G243" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H243" s="11" t="s">
@@ -12553,7 +12999,7 @@
         <v>752</v>
       </c>
       <c r="J243" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K243" s="8"/>
@@ -12588,7 +13034,7 @@
         <v>16</v>
       </c>
       <c r="G244" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>47</v>
       </c>
       <c r="H244" s="11" t="s">
@@ -12598,7 +13044,7 @@
         <v>752</v>
       </c>
       <c r="J244" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K244" s="8"/>
@@ -12633,7 +13079,7 @@
         <v>14</v>
       </c>
       <c r="G245" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="H245" s="11" t="s">
@@ -12643,7 +13089,7 @@
         <v>752</v>
       </c>
       <c r="J245" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K245" s="8"/>
@@ -12678,7 +13124,7 @@
         <v>8</v>
       </c>
       <c r="G246" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="H246" s="11" t="s">
@@ -12688,7 +13134,7 @@
         <v>752</v>
       </c>
       <c r="J246" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K246" s="8"/>
@@ -12723,7 +13169,7 @@
         <v>10</v>
       </c>
       <c r="G247" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="H247" s="11" t="s">
@@ -12733,7 +13179,7 @@
         <v>752</v>
       </c>
       <c r="J247" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K247" s="8"/>
@@ -12768,7 +13214,7 @@
         <v>16</v>
       </c>
       <c r="G248" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="H248" s="11" t="s">
@@ -12778,7 +13224,7 @@
         <v>752</v>
       </c>
       <c r="J248" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K248" s="8"/>
@@ -12813,7 +13259,7 @@
         <v>15</v>
       </c>
       <c r="G249" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="H249" s="11" t="s">
@@ -12823,7 +13269,7 @@
         <v>752</v>
       </c>
       <c r="J249" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ناجح</v>
       </c>
       <c r="K249" s="8">
@@ -12862,7 +13308,7 @@
         <v>0</v>
       </c>
       <c r="G250" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H250" s="11" t="s">
@@ -12872,7 +13318,7 @@
         <v>752</v>
       </c>
       <c r="J250" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K250" s="8"/>
@@ -12907,7 +13353,7 @@
         <v>0</v>
       </c>
       <c r="G251" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H251" s="11" t="s">
@@ -12917,7 +13363,7 @@
         <v>752</v>
       </c>
       <c r="J251" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K251" s="8"/>
@@ -12948,7 +13394,7 @@
       <c r="E252" s="10"/>
       <c r="F252" s="10"/>
       <c r="G252" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H252" s="11" t="s">
@@ -12958,7 +13404,7 @@
         <v>752</v>
       </c>
       <c r="J252" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K252" s="8"/>
@@ -12983,7 +13429,7 @@
       <c r="E253" s="10"/>
       <c r="F253" s="10"/>
       <c r="G253" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H253" s="11" t="s">
@@ -12993,7 +13439,7 @@
         <v>752</v>
       </c>
       <c r="J253" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K253" s="8"/>
@@ -13018,7 +13464,7 @@
       <c r="E254" s="10"/>
       <c r="F254" s="10"/>
       <c r="G254" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H254" s="11" t="s">
@@ -13028,7 +13474,7 @@
         <v>752</v>
       </c>
       <c r="J254" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K254" s="8"/>
@@ -13053,7 +13499,7 @@
       <c r="E255" s="10"/>
       <c r="F255" s="10"/>
       <c r="G255" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H255" s="11" t="s">
@@ -13063,7 +13509,7 @@
         <v>752</v>
       </c>
       <c r="J255" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K255" s="8"/>
@@ -13088,7 +13534,7 @@
       <c r="E256" s="10"/>
       <c r="F256" s="10"/>
       <c r="G256" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H256" s="11" t="s">
@@ -13098,7 +13544,7 @@
         <v>752</v>
       </c>
       <c r="J256" s="12" t="str">
-        <f t="shared" ref="J256:J319" si="8">IF(G256&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" ref="J256:J319" si="10">IF(G256&gt;=50,"ناجح","راسب")</f>
         <v>راسب</v>
       </c>
       <c r="K256" s="8"/>
@@ -13123,7 +13569,7 @@
       <c r="E257" s="10"/>
       <c r="F257" s="10"/>
       <c r="G257" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H257" s="11" t="s">
@@ -13133,7 +13579,7 @@
         <v>752</v>
       </c>
       <c r="J257" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K257" s="8"/>
@@ -13158,7 +13604,7 @@
       <c r="E258" s="10"/>
       <c r="F258" s="10"/>
       <c r="G258" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H258" s="11" t="s">
@@ -13168,7 +13614,7 @@
         <v>752</v>
       </c>
       <c r="J258" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K258" s="8"/>
@@ -13193,7 +13639,7 @@
       <c r="E259" s="10"/>
       <c r="F259" s="10"/>
       <c r="G259" s="10">
-        <f t="shared" ref="G259:G322" si="9">F259+E259</f>
+        <f t="shared" ref="G259:G322" si="11">F259+E259</f>
         <v>0</v>
       </c>
       <c r="H259" s="11" t="s">
@@ -13203,7 +13649,7 @@
         <v>752</v>
       </c>
       <c r="J259" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K259" s="8"/>
@@ -13228,7 +13674,7 @@
       <c r="E260" s="10"/>
       <c r="F260" s="10"/>
       <c r="G260" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H260" s="11" t="s">
@@ -13238,7 +13684,7 @@
         <v>752</v>
       </c>
       <c r="J260" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K260" s="8"/>
@@ -13263,7 +13709,7 @@
       <c r="E261" s="10"/>
       <c r="F261" s="10"/>
       <c r="G261" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H261" s="11" t="s">
@@ -13273,7 +13719,7 @@
         <v>752</v>
       </c>
       <c r="J261" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K261" s="8"/>
@@ -13298,7 +13744,7 @@
       <c r="E262" s="10"/>
       <c r="F262" s="10"/>
       <c r="G262" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H262" s="11" t="s">
@@ -13308,7 +13754,7 @@
         <v>752</v>
       </c>
       <c r="J262" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K262" s="8"/>
@@ -13333,7 +13779,7 @@
       <c r="E263" s="10"/>
       <c r="F263" s="10"/>
       <c r="G263" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H263" s="11" t="s">
@@ -13343,7 +13789,7 @@
         <v>752</v>
       </c>
       <c r="J263" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K263" s="8"/>
@@ -13368,7 +13814,7 @@
       <c r="E264" s="10"/>
       <c r="F264" s="10"/>
       <c r="G264" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H264" s="11" t="s">
@@ -13378,7 +13824,7 @@
         <v>752</v>
       </c>
       <c r="J264" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K264" s="8"/>
@@ -13403,7 +13849,7 @@
       <c r="E265" s="10"/>
       <c r="F265" s="10"/>
       <c r="G265" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H265" s="11" t="s">
@@ -13413,7 +13859,7 @@
         <v>752</v>
       </c>
       <c r="J265" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K265" s="8"/>
@@ -13438,7 +13884,7 @@
       <c r="E266" s="10"/>
       <c r="F266" s="10"/>
       <c r="G266" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H266" s="11" t="s">
@@ -13448,7 +13894,7 @@
         <v>752</v>
       </c>
       <c r="J266" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K266" s="8"/>
@@ -13473,7 +13919,7 @@
       <c r="E267" s="10"/>
       <c r="F267" s="10"/>
       <c r="G267" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H267" s="11" t="s">
@@ -13483,7 +13929,7 @@
         <v>752</v>
       </c>
       <c r="J267" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K267" s="8"/>
@@ -13508,7 +13954,7 @@
       <c r="E268" s="10"/>
       <c r="F268" s="10"/>
       <c r="G268" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H268" s="11" t="s">
@@ -13518,7 +13964,7 @@
         <v>752</v>
       </c>
       <c r="J268" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K268" s="8"/>
@@ -13543,7 +13989,7 @@
       <c r="E269" s="10"/>
       <c r="F269" s="10"/>
       <c r="G269" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H269" s="11" t="s">
@@ -13553,7 +13999,7 @@
         <v>752</v>
       </c>
       <c r="J269" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K269" s="8"/>
@@ -13578,7 +14024,7 @@
       <c r="E270" s="10"/>
       <c r="F270" s="10"/>
       <c r="G270" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H270" s="11" t="s">
@@ -13588,7 +14034,7 @@
         <v>752</v>
       </c>
       <c r="J270" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K270" s="8"/>
@@ -13613,7 +14059,7 @@
       <c r="E271" s="10"/>
       <c r="F271" s="10"/>
       <c r="G271" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H271" s="11" t="s">
@@ -13623,7 +14069,7 @@
         <v>752</v>
       </c>
       <c r="J271" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K271" s="8"/>
@@ -13648,7 +14094,7 @@
       <c r="E272" s="10"/>
       <c r="F272" s="10"/>
       <c r="G272" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H272" s="11" t="s">
@@ -13658,7 +14104,7 @@
         <v>752</v>
       </c>
       <c r="J272" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K272" s="8"/>
@@ -13683,7 +14129,7 @@
       <c r="E273" s="10"/>
       <c r="F273" s="10"/>
       <c r="G273" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H273" s="11" t="s">
@@ -13693,7 +14139,7 @@
         <v>752</v>
       </c>
       <c r="J273" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K273" s="8"/>
@@ -13718,7 +14164,7 @@
       <c r="E274" s="10"/>
       <c r="F274" s="10"/>
       <c r="G274" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H274" s="11" t="s">
@@ -13728,7 +14174,7 @@
         <v>752</v>
       </c>
       <c r="J274" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K274" s="8"/>
@@ -13753,7 +14199,7 @@
       <c r="E275" s="10"/>
       <c r="F275" s="10"/>
       <c r="G275" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H275" s="11" t="s">
@@ -13763,7 +14209,7 @@
         <v>752</v>
       </c>
       <c r="J275" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K275" s="8"/>
@@ -13788,7 +14234,7 @@
       <c r="E276" s="10"/>
       <c r="F276" s="10"/>
       <c r="G276" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H276" s="11" t="s">
@@ -13798,7 +14244,7 @@
         <v>752</v>
       </c>
       <c r="J276" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K276" s="8"/>
@@ -13823,7 +14269,7 @@
       <c r="E277" s="10"/>
       <c r="F277" s="10"/>
       <c r="G277" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H277" s="11" t="s">
@@ -13833,7 +14279,7 @@
         <v>752</v>
       </c>
       <c r="J277" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K277" s="8"/>
@@ -13858,7 +14304,7 @@
       <c r="E278" s="10"/>
       <c r="F278" s="10"/>
       <c r="G278" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H278" s="11" t="s">
@@ -13868,7 +14314,7 @@
         <v>752</v>
       </c>
       <c r="J278" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K278" s="8"/>
@@ -13893,7 +14339,7 @@
       <c r="E279" s="10"/>
       <c r="F279" s="10"/>
       <c r="G279" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H279" s="11" t="s">
@@ -13903,7 +14349,7 @@
         <v>752</v>
       </c>
       <c r="J279" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K279" s="8"/>
@@ -13928,7 +14374,7 @@
       <c r="E280" s="10"/>
       <c r="F280" s="10"/>
       <c r="G280" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H280" s="11" t="s">
@@ -13938,7 +14384,7 @@
         <v>752</v>
       </c>
       <c r="J280" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K280" s="8"/>
@@ -13963,7 +14409,7 @@
       <c r="E281" s="10"/>
       <c r="F281" s="10"/>
       <c r="G281" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H281" s="11" t="s">
@@ -13973,7 +14419,7 @@
         <v>752</v>
       </c>
       <c r="J281" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K281" s="8"/>
@@ -13998,7 +14444,7 @@
       <c r="E282" s="10"/>
       <c r="F282" s="10"/>
       <c r="G282" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H282" s="11" t="s">
@@ -14008,7 +14454,7 @@
         <v>752</v>
       </c>
       <c r="J282" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K282" s="8"/>
@@ -14033,7 +14479,7 @@
       <c r="E283" s="10"/>
       <c r="F283" s="10"/>
       <c r="G283" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H283" s="11" t="s">
@@ -14043,7 +14489,7 @@
         <v>752</v>
       </c>
       <c r="J283" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K283" s="8"/>
@@ -14068,7 +14514,7 @@
       <c r="E284" s="10"/>
       <c r="F284" s="10"/>
       <c r="G284" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H284" s="11" t="s">
@@ -14078,7 +14524,7 @@
         <v>752</v>
       </c>
       <c r="J284" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K284" s="8"/>
@@ -14103,7 +14549,7 @@
       <c r="E285" s="10"/>
       <c r="F285" s="10"/>
       <c r="G285" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H285" s="11" t="s">
@@ -14113,7 +14559,7 @@
         <v>752</v>
       </c>
       <c r="J285" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K285" s="8"/>
@@ -14138,7 +14584,7 @@
       <c r="E286" s="10"/>
       <c r="F286" s="10"/>
       <c r="G286" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H286" s="11" t="s">
@@ -14148,7 +14594,7 @@
         <v>752</v>
       </c>
       <c r="J286" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K286" s="8"/>
@@ -14173,7 +14619,7 @@
       <c r="E287" s="10"/>
       <c r="F287" s="10"/>
       <c r="G287" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H287" s="11" t="s">
@@ -14183,7 +14629,7 @@
         <v>752</v>
       </c>
       <c r="J287" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K287" s="8"/>
@@ -14208,7 +14654,7 @@
       <c r="E288" s="10"/>
       <c r="F288" s="10"/>
       <c r="G288" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H288" s="11" t="s">
@@ -14218,7 +14664,7 @@
         <v>752</v>
       </c>
       <c r="J288" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K288" s="8"/>
@@ -14243,7 +14689,7 @@
       <c r="E289" s="10"/>
       <c r="F289" s="10"/>
       <c r="G289" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H289" s="11" t="s">
@@ -14253,7 +14699,7 @@
         <v>752</v>
       </c>
       <c r="J289" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K289" s="8"/>
@@ -14278,7 +14724,7 @@
       <c r="E290" s="10"/>
       <c r="F290" s="10"/>
       <c r="G290" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H290" s="11" t="s">
@@ -14288,7 +14734,7 @@
         <v>752</v>
       </c>
       <c r="J290" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K290" s="8"/>
@@ -14313,7 +14759,7 @@
       <c r="E291" s="10"/>
       <c r="F291" s="10"/>
       <c r="G291" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H291" s="11" t="s">
@@ -14323,7 +14769,7 @@
         <v>752</v>
       </c>
       <c r="J291" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K291" s="8"/>
@@ -14348,7 +14794,7 @@
       <c r="E292" s="10"/>
       <c r="F292" s="10"/>
       <c r="G292" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H292" s="11" t="s">
@@ -14358,7 +14804,7 @@
         <v>752</v>
       </c>
       <c r="J292" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K292" s="8"/>
@@ -14383,7 +14829,7 @@
       <c r="E293" s="10"/>
       <c r="F293" s="10"/>
       <c r="G293" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H293" s="11" t="s">
@@ -14393,7 +14839,7 @@
         <v>752</v>
       </c>
       <c r="J293" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K293" s="8"/>
@@ -14418,7 +14864,7 @@
       <c r="E294" s="10"/>
       <c r="F294" s="10"/>
       <c r="G294" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H294" s="11" t="s">
@@ -14428,7 +14874,7 @@
         <v>752</v>
       </c>
       <c r="J294" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K294" s="8"/>
@@ -14453,7 +14899,7 @@
       <c r="E295" s="10"/>
       <c r="F295" s="10"/>
       <c r="G295" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H295" s="11" t="s">
@@ -14463,7 +14909,7 @@
         <v>752</v>
       </c>
       <c r="J295" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K295" s="8"/>
@@ -14488,7 +14934,7 @@
       <c r="E296" s="10"/>
       <c r="F296" s="10"/>
       <c r="G296" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H296" s="11" t="s">
@@ -14498,7 +14944,7 @@
         <v>752</v>
       </c>
       <c r="J296" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K296" s="8"/>
@@ -14523,7 +14969,7 @@
       <c r="E297" s="10"/>
       <c r="F297" s="10"/>
       <c r="G297" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H297" s="11" t="s">
@@ -14533,7 +14979,7 @@
         <v>752</v>
       </c>
       <c r="J297" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K297" s="8"/>
@@ -14558,7 +15004,7 @@
       <c r="E298" s="10"/>
       <c r="F298" s="10"/>
       <c r="G298" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H298" s="11" t="s">
@@ -14568,7 +15014,7 @@
         <v>752</v>
       </c>
       <c r="J298" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K298" s="8"/>
@@ -14593,7 +15039,7 @@
       <c r="E299" s="10"/>
       <c r="F299" s="10"/>
       <c r="G299" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H299" s="11" t="s">
@@ -14603,7 +15049,7 @@
         <v>752</v>
       </c>
       <c r="J299" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K299" s="8"/>
@@ -14628,7 +15074,7 @@
       <c r="E300" s="10"/>
       <c r="F300" s="10"/>
       <c r="G300" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H300" s="11" t="s">
@@ -14638,7 +15084,7 @@
         <v>752</v>
       </c>
       <c r="J300" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K300" s="8"/>
@@ -14663,7 +15109,7 @@
       <c r="E301" s="10"/>
       <c r="F301" s="10"/>
       <c r="G301" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H301" s="11" t="s">
@@ -14673,7 +15119,7 @@
         <v>752</v>
       </c>
       <c r="J301" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K301" s="8"/>
@@ -14698,7 +15144,7 @@
       <c r="E302" s="10"/>
       <c r="F302" s="10"/>
       <c r="G302" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H302" s="11" t="s">
@@ -14708,7 +15154,7 @@
         <v>752</v>
       </c>
       <c r="J302" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K302" s="8"/>
@@ -14733,7 +15179,7 @@
       <c r="E303" s="10"/>
       <c r="F303" s="10"/>
       <c r="G303" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H303" s="11" t="s">
@@ -14743,7 +15189,7 @@
         <v>752</v>
       </c>
       <c r="J303" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K303" s="8"/>
@@ -14768,7 +15214,7 @@
       <c r="E304" s="10"/>
       <c r="F304" s="10"/>
       <c r="G304" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H304" s="11" t="s">
@@ -14778,7 +15224,7 @@
         <v>752</v>
       </c>
       <c r="J304" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K304" s="8"/>
@@ -14803,7 +15249,7 @@
       <c r="E305" s="10"/>
       <c r="F305" s="10"/>
       <c r="G305" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H305" s="11" t="s">
@@ -14813,7 +15259,7 @@
         <v>752</v>
       </c>
       <c r="J305" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K305" s="8"/>
@@ -14838,7 +15284,7 @@
       <c r="E306" s="10"/>
       <c r="F306" s="10"/>
       <c r="G306" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H306" s="11" t="s">
@@ -14848,7 +15294,7 @@
         <v>752</v>
       </c>
       <c r="J306" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K306" s="8"/>
@@ -14873,7 +15319,7 @@
       <c r="E307" s="10"/>
       <c r="F307" s="10"/>
       <c r="G307" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H307" s="11" t="s">
@@ -14883,7 +15329,7 @@
         <v>752</v>
       </c>
       <c r="J307" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K307" s="8"/>
@@ -14908,7 +15354,7 @@
       <c r="E308" s="10"/>
       <c r="F308" s="10"/>
       <c r="G308" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H308" s="11" t="s">
@@ -14918,7 +15364,7 @@
         <v>752</v>
       </c>
       <c r="J308" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K308" s="8"/>
@@ -14943,7 +15389,7 @@
       <c r="E309" s="10"/>
       <c r="F309" s="10"/>
       <c r="G309" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H309" s="11" t="s">
@@ -14953,7 +15399,7 @@
         <v>752</v>
       </c>
       <c r="J309" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K309" s="8"/>
@@ -14978,7 +15424,7 @@
       <c r="E310" s="10"/>
       <c r="F310" s="10"/>
       <c r="G310" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H310" s="11" t="s">
@@ -14988,7 +15434,7 @@
         <v>752</v>
       </c>
       <c r="J310" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K310" s="8"/>
@@ -15013,7 +15459,7 @@
       <c r="E311" s="10"/>
       <c r="F311" s="10"/>
       <c r="G311" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H311" s="11" t="s">
@@ -15023,7 +15469,7 @@
         <v>752</v>
       </c>
       <c r="J311" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K311" s="8"/>
@@ -15048,7 +15494,7 @@
       <c r="E312" s="10"/>
       <c r="F312" s="10"/>
       <c r="G312" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H312" s="11" t="s">
@@ -15058,7 +15504,7 @@
         <v>752</v>
       </c>
       <c r="J312" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K312" s="8"/>
@@ -15083,7 +15529,7 @@
       <c r="E313" s="10"/>
       <c r="F313" s="10"/>
       <c r="G313" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H313" s="11" t="s">
@@ -15093,7 +15539,7 @@
         <v>752</v>
       </c>
       <c r="J313" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K313" s="8"/>
@@ -15118,7 +15564,7 @@
       <c r="E314" s="10"/>
       <c r="F314" s="10"/>
       <c r="G314" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H314" s="11" t="s">
@@ -15128,7 +15574,7 @@
         <v>752</v>
       </c>
       <c r="J314" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K314" s="8"/>
@@ -15153,7 +15599,7 @@
       <c r="E315" s="10"/>
       <c r="F315" s="10"/>
       <c r="G315" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H315" s="11" t="s">
@@ -15163,7 +15609,7 @@
         <v>752</v>
       </c>
       <c r="J315" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K315" s="8"/>
@@ -15188,7 +15634,7 @@
       <c r="E316" s="10"/>
       <c r="F316" s="10"/>
       <c r="G316" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H316" s="11" t="s">
@@ -15198,7 +15644,7 @@
         <v>752</v>
       </c>
       <c r="J316" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K316" s="8"/>
@@ -15223,7 +15669,7 @@
       <c r="E317" s="10"/>
       <c r="F317" s="10"/>
       <c r="G317" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H317" s="11" t="s">
@@ -15233,7 +15679,7 @@
         <v>752</v>
       </c>
       <c r="J317" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K317" s="8"/>
@@ -15258,7 +15704,7 @@
       <c r="E318" s="10"/>
       <c r="F318" s="10"/>
       <c r="G318" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H318" s="11" t="s">
@@ -15268,7 +15714,7 @@
         <v>752</v>
       </c>
       <c r="J318" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K318" s="8"/>
@@ -15293,7 +15739,7 @@
       <c r="E319" s="10"/>
       <c r="F319" s="10"/>
       <c r="G319" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H319" s="11" t="s">
@@ -15303,7 +15749,7 @@
         <v>752</v>
       </c>
       <c r="J319" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K319" s="8"/>
@@ -15328,7 +15774,7 @@
       <c r="E320" s="10"/>
       <c r="F320" s="10"/>
       <c r="G320" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H320" s="11" t="s">
@@ -15338,7 +15784,7 @@
         <v>752</v>
       </c>
       <c r="J320" s="12" t="str">
-        <f t="shared" ref="J320:J365" si="10">IF(G320&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" ref="J320:J365" si="12">IF(G320&gt;=50,"ناجح","راسب")</f>
         <v>راسب</v>
       </c>
       <c r="K320" s="8"/>
@@ -15363,7 +15809,7 @@
       <c r="E321" s="10"/>
       <c r="F321" s="10"/>
       <c r="G321" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H321" s="11" t="s">
@@ -15373,7 +15819,7 @@
         <v>752</v>
       </c>
       <c r="J321" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K321" s="8"/>
@@ -15398,7 +15844,7 @@
       <c r="E322" s="10"/>
       <c r="F322" s="10"/>
       <c r="G322" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H322" s="11" t="s">
@@ -15408,7 +15854,7 @@
         <v>752</v>
       </c>
       <c r="J322" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K322" s="8"/>
@@ -15433,7 +15879,7 @@
       <c r="E323" s="10"/>
       <c r="F323" s="10"/>
       <c r="G323" s="10">
-        <f t="shared" ref="G323:G365" si="11">F323+E323</f>
+        <f t="shared" ref="G323:G365" si="13">F323+E323</f>
         <v>0</v>
       </c>
       <c r="H323" s="11" t="s">
@@ -15443,7 +15889,7 @@
         <v>752</v>
       </c>
       <c r="J323" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K323" s="8"/>
@@ -15468,7 +15914,7 @@
       <c r="E324" s="10"/>
       <c r="F324" s="10"/>
       <c r="G324" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H324" s="11" t="s">
@@ -15478,7 +15924,7 @@
         <v>752</v>
       </c>
       <c r="J324" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K324" s="8"/>
@@ -15503,7 +15949,7 @@
       <c r="E325" s="10"/>
       <c r="F325" s="10"/>
       <c r="G325" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H325" s="11" t="s">
@@ -15513,7 +15959,7 @@
         <v>752</v>
       </c>
       <c r="J325" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K325" s="8"/>
@@ -15538,7 +15984,7 @@
       <c r="E326" s="10"/>
       <c r="F326" s="10"/>
       <c r="G326" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H326" s="11" t="s">
@@ -15548,7 +15994,7 @@
         <v>752</v>
       </c>
       <c r="J326" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K326" s="8"/>
@@ -15573,7 +16019,7 @@
       <c r="E327" s="10"/>
       <c r="F327" s="10"/>
       <c r="G327" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H327" s="11" t="s">
@@ -15583,7 +16029,7 @@
         <v>752</v>
       </c>
       <c r="J327" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K327" s="8"/>
@@ -15608,7 +16054,7 @@
       <c r="E328" s="10"/>
       <c r="F328" s="10"/>
       <c r="G328" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H328" s="11" t="s">
@@ -15618,7 +16064,7 @@
         <v>752</v>
       </c>
       <c r="J328" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K328" s="8"/>
@@ -15640,11 +16086,15 @@
       <c r="D329" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E329" s="10"/>
-      <c r="F329" s="10"/>
+      <c r="E329" s="10">
+        <v>25</v>
+      </c>
+      <c r="F329" s="10">
+        <v>8</v>
+      </c>
       <c r="G329" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>33</v>
       </c>
       <c r="H329" s="11" t="s">
         <v>387</v>
@@ -15653,7 +16103,7 @@
         <v>752</v>
       </c>
       <c r="J329" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K329" s="8"/>
@@ -15678,7 +16128,7 @@
       <c r="E330" s="10"/>
       <c r="F330" s="10"/>
       <c r="G330" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H330" s="11" t="s">
@@ -15688,7 +16138,7 @@
         <v>752</v>
       </c>
       <c r="J330" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K330" s="8"/>
@@ -15713,7 +16163,7 @@
       <c r="E331" s="10"/>
       <c r="F331" s="10"/>
       <c r="G331" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H331" s="11" t="s">
@@ -15723,7 +16173,7 @@
         <v>752</v>
       </c>
       <c r="J331" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K331" s="8"/>
@@ -15748,7 +16198,7 @@
       <c r="E332" s="10"/>
       <c r="F332" s="10"/>
       <c r="G332" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H332" s="11" t="s">
@@ -15758,7 +16208,7 @@
         <v>752</v>
       </c>
       <c r="J332" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K332" s="8"/>
@@ -15783,7 +16233,7 @@
       <c r="E333" s="10"/>
       <c r="F333" s="10"/>
       <c r="G333" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H333" s="11" t="s">
@@ -15793,7 +16243,7 @@
         <v>752</v>
       </c>
       <c r="J333" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K333" s="8"/>
@@ -15818,7 +16268,7 @@
       <c r="E334" s="10"/>
       <c r="F334" s="10"/>
       <c r="G334" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H334" s="11" t="s">
@@ -15828,7 +16278,7 @@
         <v>752</v>
       </c>
       <c r="J334" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K334" s="8"/>
@@ -15853,7 +16303,7 @@
       <c r="E335" s="10"/>
       <c r="F335" s="10"/>
       <c r="G335" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H335" s="11" t="s">
@@ -15863,7 +16313,7 @@
         <v>752</v>
       </c>
       <c r="J335" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K335" s="8"/>
@@ -15888,7 +16338,7 @@
       <c r="E336" s="10"/>
       <c r="F336" s="10"/>
       <c r="G336" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H336" s="11" t="s">
@@ -15898,7 +16348,7 @@
         <v>752</v>
       </c>
       <c r="J336" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K336" s="8"/>
@@ -15923,7 +16373,7 @@
       <c r="E337" s="10"/>
       <c r="F337" s="10"/>
       <c r="G337" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H337" s="11" t="s">
@@ -15933,7 +16383,7 @@
         <v>752</v>
       </c>
       <c r="J337" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K337" s="8"/>
@@ -15958,7 +16408,7 @@
       <c r="E338" s="10"/>
       <c r="F338" s="10"/>
       <c r="G338" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H338" s="11" t="s">
@@ -15968,7 +16418,7 @@
         <v>752</v>
       </c>
       <c r="J338" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K338" s="8"/>
@@ -15993,7 +16443,7 @@
       <c r="E339" s="10"/>
       <c r="F339" s="10"/>
       <c r="G339" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H339" s="11" t="s">
@@ -16003,7 +16453,7 @@
         <v>752</v>
       </c>
       <c r="J339" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K339" s="8"/>
@@ -16028,7 +16478,7 @@
       <c r="E340" s="10"/>
       <c r="F340" s="10"/>
       <c r="G340" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H340" s="11" t="s">
@@ -16038,7 +16488,7 @@
         <v>752</v>
       </c>
       <c r="J340" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K340" s="8"/>
@@ -16063,7 +16513,7 @@
       <c r="E341" s="10"/>
       <c r="F341" s="10"/>
       <c r="G341" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H341" s="11" t="s">
@@ -16073,7 +16523,7 @@
         <v>752</v>
       </c>
       <c r="J341" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K341" s="8"/>
@@ -16098,7 +16548,7 @@
       <c r="E342" s="10"/>
       <c r="F342" s="10"/>
       <c r="G342" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H342" s="11" t="s">
@@ -16108,7 +16558,7 @@
         <v>752</v>
       </c>
       <c r="J342" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K342" s="8"/>
@@ -16133,7 +16583,7 @@
       <c r="E343" s="10"/>
       <c r="F343" s="10"/>
       <c r="G343" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H343" s="11" t="s">
@@ -16143,7 +16593,7 @@
         <v>752</v>
       </c>
       <c r="J343" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K343" s="8"/>
@@ -16168,7 +16618,7 @@
       <c r="E344" s="10"/>
       <c r="F344" s="10"/>
       <c r="G344" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H344" s="11" t="s">
@@ -16178,7 +16628,7 @@
         <v>752</v>
       </c>
       <c r="J344" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K344" s="8"/>
@@ -16203,7 +16653,7 @@
       <c r="E345" s="10"/>
       <c r="F345" s="10"/>
       <c r="G345" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H345" s="11" t="s">
@@ -16213,7 +16663,7 @@
         <v>752</v>
       </c>
       <c r="J345" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K345" s="8"/>
@@ -16238,7 +16688,7 @@
       <c r="E346" s="10"/>
       <c r="F346" s="10"/>
       <c r="G346" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H346" s="11" t="s">
@@ -16248,7 +16698,7 @@
         <v>752</v>
       </c>
       <c r="J346" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K346" s="8"/>
@@ -16273,7 +16723,7 @@
       <c r="E347" s="10"/>
       <c r="F347" s="10"/>
       <c r="G347" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H347" s="11" t="s">
@@ -16283,7 +16733,7 @@
         <v>752</v>
       </c>
       <c r="J347" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K347" s="8"/>
@@ -16308,7 +16758,7 @@
       <c r="E348" s="10"/>
       <c r="F348" s="10"/>
       <c r="G348" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H348" s="11" t="s">
@@ -16318,7 +16768,7 @@
         <v>752</v>
       </c>
       <c r="J348" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K348" s="8"/>
@@ -16343,7 +16793,7 @@
       <c r="E349" s="10"/>
       <c r="F349" s="10"/>
       <c r="G349" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H349" s="11" t="s">
@@ -16353,7 +16803,7 @@
         <v>752</v>
       </c>
       <c r="J349" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K349" s="8"/>
@@ -16378,7 +16828,7 @@
       <c r="E350" s="10"/>
       <c r="F350" s="10"/>
       <c r="G350" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H350" s="11" t="s">
@@ -16388,7 +16838,7 @@
         <v>752</v>
       </c>
       <c r="J350" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K350" s="8"/>
@@ -16413,7 +16863,7 @@
       <c r="E351" s="10"/>
       <c r="F351" s="10"/>
       <c r="G351" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H351" s="11" t="s">
@@ -16423,7 +16873,7 @@
         <v>752</v>
       </c>
       <c r="J351" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K351" s="8"/>
@@ -16448,7 +16898,7 @@
       <c r="E352" s="10"/>
       <c r="F352" s="10"/>
       <c r="G352" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H352" s="11" t="s">
@@ -16458,7 +16908,7 @@
         <v>752</v>
       </c>
       <c r="J352" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K352" s="8"/>
@@ -16483,7 +16933,7 @@
       <c r="E353" s="10"/>
       <c r="F353" s="10"/>
       <c r="G353" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H353" s="11" t="s">
@@ -16493,7 +16943,7 @@
         <v>752</v>
       </c>
       <c r="J353" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K353" s="8"/>
@@ -16518,7 +16968,7 @@
       <c r="E354" s="10"/>
       <c r="F354" s="10"/>
       <c r="G354" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H354" s="11" t="s">
@@ -16528,7 +16978,7 @@
         <v>752</v>
       </c>
       <c r="J354" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K354" s="8"/>
@@ -16553,7 +17003,7 @@
       <c r="E355" s="10"/>
       <c r="F355" s="10"/>
       <c r="G355" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H355" s="11" t="s">
@@ -16563,7 +17013,7 @@
         <v>752</v>
       </c>
       <c r="J355" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K355" s="8"/>
@@ -16588,7 +17038,7 @@
       <c r="E356" s="10"/>
       <c r="F356" s="10"/>
       <c r="G356" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H356" s="11" t="s">
@@ -16598,7 +17048,7 @@
         <v>752</v>
       </c>
       <c r="J356" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K356" s="8"/>
@@ -16623,7 +17073,7 @@
       <c r="E357" s="10"/>
       <c r="F357" s="10"/>
       <c r="G357" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H357" s="11" t="s">
@@ -16633,7 +17083,7 @@
         <v>752</v>
       </c>
       <c r="J357" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K357" s="8"/>
@@ -16658,7 +17108,7 @@
       <c r="E358" s="10"/>
       <c r="F358" s="10"/>
       <c r="G358" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H358" s="11" t="s">
@@ -16668,7 +17118,7 @@
         <v>752</v>
       </c>
       <c r="J358" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K358" s="8"/>
@@ -16693,7 +17143,7 @@
       <c r="E359" s="10"/>
       <c r="F359" s="10"/>
       <c r="G359" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H359" s="11" t="s">
@@ -16703,7 +17153,7 @@
         <v>752</v>
       </c>
       <c r="J359" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K359" s="8"/>
@@ -16728,7 +17178,7 @@
       <c r="E360" s="10"/>
       <c r="F360" s="10"/>
       <c r="G360" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H360" s="11" t="s">
@@ -16738,7 +17188,7 @@
         <v>752</v>
       </c>
       <c r="J360" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K360" s="8"/>
@@ -16763,7 +17213,7 @@
       <c r="E361" s="10"/>
       <c r="F361" s="10"/>
       <c r="G361" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H361" s="11" t="s">
@@ -16773,7 +17223,7 @@
         <v>752</v>
       </c>
       <c r="J361" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K361" s="8"/>
@@ -16798,7 +17248,7 @@
       <c r="E362" s="10"/>
       <c r="F362" s="10"/>
       <c r="G362" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H362" s="11" t="s">
@@ -16808,7 +17258,7 @@
         <v>752</v>
       </c>
       <c r="J362" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K362" s="8"/>
@@ -16833,7 +17283,7 @@
       <c r="E363" s="10"/>
       <c r="F363" s="10"/>
       <c r="G363" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H363" s="11" t="s">
@@ -16843,7 +17293,7 @@
         <v>752</v>
       </c>
       <c r="J363" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K363" s="8"/>
@@ -16868,7 +17318,7 @@
       <c r="E364" s="10"/>
       <c r="F364" s="10"/>
       <c r="G364" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H364" s="11" t="s">
@@ -16878,7 +17328,7 @@
         <v>752</v>
       </c>
       <c r="J364" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K364" s="8"/>
@@ -16903,7 +17353,7 @@
       <c r="E365" s="10"/>
       <c r="F365" s="10"/>
       <c r="G365" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H365" s="11" t="s">
@@ -16913,7 +17363,7 @@
         <v>752</v>
       </c>
       <c r="J365" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K365" s="8"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\امتحانات الكورس الثاني\امتحانات كورس اول 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C10FF8D-CB78-4541-8E86-52B3C062E2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532C581F-D055-4E1D-A002-8A197DB01056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{64B607E4-2FA6-4167-B52D-26625A4C85A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64B607E4-2FA6-4167-B52D-26625A4C85A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="753">
   <si>
     <t>الاسم الكامل</t>
   </si>
@@ -2883,8 +2883,8 @@
   </sheetPr>
   <dimension ref="A1:O365"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A130" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8573,11 +8573,15 @@
       <c r="D132" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
+      <c r="E132" s="10">
+        <v>27</v>
+      </c>
+      <c r="F132" s="10">
+        <v>16</v>
+      </c>
       <c r="G132" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="H132" s="11" t="s">
         <v>387</v>
@@ -8591,9 +8595,15 @@
       </c>
       <c r="K132" s="8"/>
       <c r="L132" s="8"/>
-      <c r="M132" s="8"/>
-      <c r="N132" s="8"/>
-      <c r="O132" s="13"/>
+      <c r="M132" s="8">
+        <v>2</v>
+      </c>
+      <c r="N132" s="8">
+        <v>59</v>
+      </c>
+      <c r="O132" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="133" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="7">
@@ -8608,11 +8618,15 @@
       <c r="D133" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10"/>
+      <c r="E133" s="10">
+        <v>27</v>
+      </c>
+      <c r="F133" s="10">
+        <v>0</v>
+      </c>
       <c r="G133" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H133" s="11" t="s">
         <v>387</v>
@@ -8626,9 +8640,15 @@
       </c>
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
-      <c r="M133" s="8"/>
-      <c r="N133" s="8"/>
-      <c r="O133" s="13"/>
+      <c r="M133" s="8">
+        <v>2</v>
+      </c>
+      <c r="N133" s="8">
+        <v>59</v>
+      </c>
+      <c r="O133" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="134" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="7">
@@ -8643,8 +8663,12 @@
       <c r="D134" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10"/>
+      <c r="E134" s="10">
+        <v>0</v>
+      </c>
+      <c r="F134" s="10">
+        <v>0</v>
+      </c>
       <c r="G134" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -8661,9 +8685,15 @@
       </c>
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
-      <c r="M134" s="8"/>
-      <c r="N134" s="8"/>
-      <c r="O134" s="13"/>
+      <c r="M134" s="8">
+        <v>2</v>
+      </c>
+      <c r="N134" s="8">
+        <v>59</v>
+      </c>
+      <c r="O134" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="135" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="7">
@@ -8678,11 +8708,15 @@
       <c r="D135" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
+      <c r="E135" s="10">
+        <v>36</v>
+      </c>
+      <c r="F135" s="10">
+        <v>7</v>
+      </c>
       <c r="G135" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="H135" s="11" t="s">
         <v>387</v>
@@ -8696,9 +8730,15 @@
       </c>
       <c r="K135" s="8"/>
       <c r="L135" s="8"/>
-      <c r="M135" s="8"/>
-      <c r="N135" s="8"/>
-      <c r="O135" s="13"/>
+      <c r="M135" s="8">
+        <v>2</v>
+      </c>
+      <c r="N135" s="8">
+        <v>59</v>
+      </c>
+      <c r="O135" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="136" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="7">
@@ -8713,11 +8753,15 @@
       <c r="D136" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
+      <c r="E136" s="10">
+        <v>24</v>
+      </c>
+      <c r="F136" s="10">
+        <v>2</v>
+      </c>
       <c r="G136" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H136" s="11" t="s">
         <v>387</v>
@@ -8731,9 +8775,15 @@
       </c>
       <c r="K136" s="8"/>
       <c r="L136" s="8"/>
-      <c r="M136" s="8"/>
-      <c r="N136" s="8"/>
-      <c r="O136" s="13"/>
+      <c r="M136" s="8">
+        <v>2</v>
+      </c>
+      <c r="N136" s="8">
+        <v>59</v>
+      </c>
+      <c r="O136" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="137" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="7">
@@ -8748,8 +8798,12 @@
       <c r="D137" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
+      <c r="E137" s="10">
+        <v>0</v>
+      </c>
+      <c r="F137" s="10">
+        <v>0</v>
+      </c>
       <c r="G137" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -8766,9 +8820,15 @@
       </c>
       <c r="K137" s="8"/>
       <c r="L137" s="8"/>
-      <c r="M137" s="8"/>
-      <c r="N137" s="8"/>
-      <c r="O137" s="13"/>
+      <c r="M137" s="8">
+        <v>2</v>
+      </c>
+      <c r="N137" s="8">
+        <v>59</v>
+      </c>
+      <c r="O137" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="138" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="7">
@@ -8783,11 +8843,15 @@
       <c r="D138" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10"/>
+      <c r="E138" s="10">
+        <v>28</v>
+      </c>
+      <c r="F138" s="10">
+        <v>6</v>
+      </c>
       <c r="G138" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H138" s="11" t="s">
         <v>387</v>
@@ -8801,9 +8865,15 @@
       </c>
       <c r="K138" s="8"/>
       <c r="L138" s="8"/>
-      <c r="M138" s="8"/>
-      <c r="N138" s="8"/>
-      <c r="O138" s="13"/>
+      <c r="M138" s="8">
+        <v>2</v>
+      </c>
+      <c r="N138" s="8">
+        <v>59</v>
+      </c>
+      <c r="O138" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="139" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="7">
@@ -8818,8 +8888,12 @@
       <c r="D139" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10"/>
+      <c r="E139" s="10">
+        <v>0</v>
+      </c>
+      <c r="F139" s="10">
+        <v>0</v>
+      </c>
       <c r="G139" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -8836,9 +8910,15 @@
       </c>
       <c r="K139" s="8"/>
       <c r="L139" s="8"/>
-      <c r="M139" s="8"/>
-      <c r="N139" s="8"/>
-      <c r="O139" s="13"/>
+      <c r="M139" s="8">
+        <v>2</v>
+      </c>
+      <c r="N139" s="8">
+        <v>59</v>
+      </c>
+      <c r="O139" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="140" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="7">
@@ -8853,11 +8933,15 @@
       <c r="D140" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10"/>
+      <c r="E140" s="10">
+        <v>23</v>
+      </c>
+      <c r="F140" s="10">
+        <v>6</v>
+      </c>
       <c r="G140" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H140" s="11" t="s">
         <v>387</v>
@@ -8871,9 +8955,15 @@
       </c>
       <c r="K140" s="8"/>
       <c r="L140" s="8"/>
-      <c r="M140" s="8"/>
-      <c r="N140" s="8"/>
-      <c r="O140" s="13"/>
+      <c r="M140" s="8">
+        <v>2</v>
+      </c>
+      <c r="N140" s="8">
+        <v>59</v>
+      </c>
+      <c r="O140" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="141" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="7">
@@ -8888,8 +8978,12 @@
       <c r="D141" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
+      <c r="E141" s="10">
+        <v>0</v>
+      </c>
+      <c r="F141" s="10">
+        <v>0</v>
+      </c>
       <c r="G141" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -8906,9 +9000,15 @@
       </c>
       <c r="K141" s="8"/>
       <c r="L141" s="8"/>
-      <c r="M141" s="8"/>
-      <c r="N141" s="8"/>
-      <c r="O141" s="13"/>
+      <c r="M141" s="8">
+        <v>2</v>
+      </c>
+      <c r="N141" s="8">
+        <v>59</v>
+      </c>
+      <c r="O141" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="142" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="7">
@@ -8923,11 +9023,15 @@
       <c r="D142" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
+      <c r="E142" s="10">
+        <v>29</v>
+      </c>
+      <c r="F142" s="10">
+        <v>7</v>
+      </c>
       <c r="G142" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H142" s="11" t="s">
         <v>387</v>
@@ -8941,9 +9045,15 @@
       </c>
       <c r="K142" s="8"/>
       <c r="L142" s="8"/>
-      <c r="M142" s="8"/>
-      <c r="N142" s="8"/>
-      <c r="O142" s="13"/>
+      <c r="M142" s="8">
+        <v>2</v>
+      </c>
+      <c r="N142" s="8">
+        <v>59</v>
+      </c>
+      <c r="O142" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="143" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="7">
@@ -8958,8 +9068,12 @@
       <c r="D143" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10"/>
+      <c r="E143" s="10">
+        <v>0</v>
+      </c>
+      <c r="F143" s="10">
+        <v>0</v>
+      </c>
       <c r="G143" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -8976,9 +9090,15 @@
       </c>
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
-      <c r="M143" s="8"/>
-      <c r="N143" s="8"/>
-      <c r="O143" s="13"/>
+      <c r="M143" s="8">
+        <v>2</v>
+      </c>
+      <c r="N143" s="8">
+        <v>59</v>
+      </c>
+      <c r="O143" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="144" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="7">
@@ -8993,11 +9113,15 @@
       <c r="D144" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
+      <c r="E144" s="10">
+        <v>25</v>
+      </c>
+      <c r="F144" s="10">
+        <v>6</v>
+      </c>
       <c r="G144" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H144" s="11" t="s">
         <v>387</v>
@@ -9011,9 +9135,15 @@
       </c>
       <c r="K144" s="8"/>
       <c r="L144" s="8"/>
-      <c r="M144" s="8"/>
-      <c r="N144" s="8"/>
-      <c r="O144" s="13"/>
+      <c r="M144" s="8">
+        <v>2</v>
+      </c>
+      <c r="N144" s="8">
+        <v>59</v>
+      </c>
+      <c r="O144" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="145" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="7">
@@ -9028,11 +9158,15 @@
       <c r="D145" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
+      <c r="E145" s="10">
+        <v>41</v>
+      </c>
+      <c r="F145" s="10">
+        <v>5</v>
+      </c>
       <c r="G145" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H145" s="11" t="s">
         <v>387</v>
@@ -9046,9 +9180,15 @@
       </c>
       <c r="K145" s="8"/>
       <c r="L145" s="8"/>
-      <c r="M145" s="8"/>
-      <c r="N145" s="8"/>
-      <c r="O145" s="13"/>
+      <c r="M145" s="8">
+        <v>2</v>
+      </c>
+      <c r="N145" s="8">
+        <v>59</v>
+      </c>
+      <c r="O145" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="146" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="7">
@@ -9063,8 +9203,12 @@
       <c r="D146" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
+      <c r="E146" s="10">
+        <v>0</v>
+      </c>
+      <c r="F146" s="10">
+        <v>0</v>
+      </c>
       <c r="G146" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -9081,9 +9225,15 @@
       </c>
       <c r="K146" s="8"/>
       <c r="L146" s="8"/>
-      <c r="M146" s="8"/>
-      <c r="N146" s="8"/>
-      <c r="O146" s="13"/>
+      <c r="M146" s="8">
+        <v>2</v>
+      </c>
+      <c r="N146" s="8">
+        <v>59</v>
+      </c>
+      <c r="O146" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="147" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="7">
@@ -9098,11 +9248,15 @@
       <c r="D147" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10"/>
+      <c r="E147" s="10">
+        <v>32</v>
+      </c>
+      <c r="F147" s="10">
+        <v>0</v>
+      </c>
       <c r="G147" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H147" s="11" t="s">
         <v>387</v>
@@ -9116,9 +9270,15 @@
       </c>
       <c r="K147" s="8"/>
       <c r="L147" s="8"/>
-      <c r="M147" s="8"/>
-      <c r="N147" s="8"/>
-      <c r="O147" s="13"/>
+      <c r="M147" s="8">
+        <v>2</v>
+      </c>
+      <c r="N147" s="8">
+        <v>59</v>
+      </c>
+      <c r="O147" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="148" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="7">
@@ -9133,8 +9293,12 @@
       <c r="D148" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10"/>
+      <c r="E148" s="10">
+        <v>0</v>
+      </c>
+      <c r="F148" s="10">
+        <v>0</v>
+      </c>
       <c r="G148" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -9151,9 +9315,15 @@
       </c>
       <c r="K148" s="8"/>
       <c r="L148" s="8"/>
-      <c r="M148" s="8"/>
-      <c r="N148" s="8"/>
-      <c r="O148" s="13"/>
+      <c r="M148" s="8">
+        <v>2</v>
+      </c>
+      <c r="N148" s="8">
+        <v>59</v>
+      </c>
+      <c r="O148" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="149" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="7">
@@ -9168,11 +9338,15 @@
       <c r="D149" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10"/>
+      <c r="E149" s="10">
+        <v>28</v>
+      </c>
+      <c r="F149" s="10">
+        <v>8</v>
+      </c>
       <c r="G149" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H149" s="11" t="s">
         <v>387</v>
@@ -9186,9 +9360,15 @@
       </c>
       <c r="K149" s="8"/>
       <c r="L149" s="8"/>
-      <c r="M149" s="8"/>
-      <c r="N149" s="8"/>
-      <c r="O149" s="13"/>
+      <c r="M149" s="8">
+        <v>2</v>
+      </c>
+      <c r="N149" s="8">
+        <v>59</v>
+      </c>
+      <c r="O149" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="150" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="7">
@@ -9203,8 +9383,12 @@
       <c r="D150" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E150" s="10"/>
-      <c r="F150" s="10"/>
+      <c r="E150" s="10">
+        <v>0</v>
+      </c>
+      <c r="F150" s="10">
+        <v>0</v>
+      </c>
       <c r="G150" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -9221,9 +9405,15 @@
       </c>
       <c r="K150" s="8"/>
       <c r="L150" s="8"/>
-      <c r="M150" s="8"/>
-      <c r="N150" s="8"/>
-      <c r="O150" s="13"/>
+      <c r="M150" s="8">
+        <v>2</v>
+      </c>
+      <c r="N150" s="8">
+        <v>59</v>
+      </c>
+      <c r="O150" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="151" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="7">
@@ -9238,8 +9428,12 @@
       <c r="D151" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10"/>
+      <c r="E151" s="10">
+        <v>0</v>
+      </c>
+      <c r="F151" s="10">
+        <v>0</v>
+      </c>
       <c r="G151" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -9256,9 +9450,15 @@
       </c>
       <c r="K151" s="8"/>
       <c r="L151" s="8"/>
-      <c r="M151" s="8"/>
-      <c r="N151" s="8"/>
-      <c r="O151" s="13"/>
+      <c r="M151" s="8">
+        <v>2</v>
+      </c>
+      <c r="N151" s="8">
+        <v>59</v>
+      </c>
+      <c r="O151" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="152" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="7">
@@ -9273,11 +9473,15 @@
       <c r="D152" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10"/>
+      <c r="E152" s="10">
+        <v>21</v>
+      </c>
+      <c r="F152" s="10">
+        <v>1</v>
+      </c>
       <c r="G152" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H152" s="11" t="s">
         <v>387</v>
@@ -9291,9 +9495,15 @@
       </c>
       <c r="K152" s="8"/>
       <c r="L152" s="8"/>
-      <c r="M152" s="8"/>
-      <c r="N152" s="8"/>
-      <c r="O152" s="13"/>
+      <c r="M152" s="8">
+        <v>2</v>
+      </c>
+      <c r="N152" s="8">
+        <v>59</v>
+      </c>
+      <c r="O152" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="153" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="7">
@@ -9308,8 +9518,12 @@
       <c r="D153" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E153" s="10"/>
-      <c r="F153" s="10"/>
+      <c r="E153" s="10">
+        <v>0</v>
+      </c>
+      <c r="F153" s="10">
+        <v>0</v>
+      </c>
       <c r="G153" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -9326,9 +9540,15 @@
       </c>
       <c r="K153" s="8"/>
       <c r="L153" s="8"/>
-      <c r="M153" s="8"/>
-      <c r="N153" s="8"/>
-      <c r="O153" s="13"/>
+      <c r="M153" s="8">
+        <v>2</v>
+      </c>
+      <c r="N153" s="8">
+        <v>59</v>
+      </c>
+      <c r="O153" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="154" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="7">
@@ -9343,11 +9563,15 @@
       <c r="D154" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10"/>
+      <c r="E154" s="10">
+        <v>27</v>
+      </c>
+      <c r="F154" s="10">
+        <v>3</v>
+      </c>
       <c r="G154" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H154" s="11" t="s">
         <v>387</v>
@@ -9361,9 +9585,15 @@
       </c>
       <c r="K154" s="8"/>
       <c r="L154" s="8"/>
-      <c r="M154" s="8"/>
-      <c r="N154" s="8"/>
-      <c r="O154" s="13"/>
+      <c r="M154" s="8">
+        <v>2</v>
+      </c>
+      <c r="N154" s="8">
+        <v>59</v>
+      </c>
+      <c r="O154" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="155" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="7">
@@ -9378,11 +9608,15 @@
       <c r="D155" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10"/>
+      <c r="E155" s="10">
+        <v>27</v>
+      </c>
+      <c r="F155" s="10">
+        <v>25</v>
+      </c>
       <c r="G155" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="H155" s="11" t="s">
         <v>387</v>
@@ -9392,13 +9626,23 @@
       </c>
       <c r="J155" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>راسب</v>
-      </c>
-      <c r="K155" s="8"/>
-      <c r="L155" s="8"/>
-      <c r="M155" s="8"/>
-      <c r="N155" s="8"/>
-      <c r="O155" s="13"/>
+        <v>ناجح</v>
+      </c>
+      <c r="K155" s="8">
+        <v>1</v>
+      </c>
+      <c r="L155" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M155" s="8">
+        <v>2</v>
+      </c>
+      <c r="N155" s="8">
+        <v>59</v>
+      </c>
+      <c r="O155" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="156" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="7">
@@ -9413,11 +9657,15 @@
       <c r="D156" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E156" s="10"/>
-      <c r="F156" s="10"/>
+      <c r="E156" s="10">
+        <v>35</v>
+      </c>
+      <c r="F156" s="10">
+        <v>11</v>
+      </c>
       <c r="G156" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H156" s="11" t="s">
         <v>387</v>
@@ -9431,9 +9679,15 @@
       </c>
       <c r="K156" s="8"/>
       <c r="L156" s="8"/>
-      <c r="M156" s="8"/>
-      <c r="N156" s="8"/>
-      <c r="O156" s="13"/>
+      <c r="M156" s="8">
+        <v>2</v>
+      </c>
+      <c r="N156" s="8">
+        <v>59</v>
+      </c>
+      <c r="O156" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="157" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="7">
@@ -9448,11 +9702,15 @@
       <c r="D157" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E157" s="10"/>
-      <c r="F157" s="10"/>
+      <c r="E157" s="10">
+        <v>27</v>
+      </c>
+      <c r="F157" s="10">
+        <v>0</v>
+      </c>
       <c r="G157" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H157" s="11" t="s">
         <v>387</v>
@@ -9466,9 +9724,15 @@
       </c>
       <c r="K157" s="8"/>
       <c r="L157" s="8"/>
-      <c r="M157" s="8"/>
-      <c r="N157" s="8"/>
-      <c r="O157" s="13"/>
+      <c r="M157" s="8">
+        <v>2</v>
+      </c>
+      <c r="N157" s="8">
+        <v>59</v>
+      </c>
+      <c r="O157" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="158" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="7">
@@ -9483,11 +9747,15 @@
       <c r="D158" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E158" s="10"/>
-      <c r="F158" s="10"/>
+      <c r="E158" s="10">
+        <v>25</v>
+      </c>
+      <c r="F158" s="10">
+        <v>1</v>
+      </c>
       <c r="G158" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H158" s="11" t="s">
         <v>387</v>
@@ -9501,9 +9769,15 @@
       </c>
       <c r="K158" s="8"/>
       <c r="L158" s="8"/>
-      <c r="M158" s="8"/>
-      <c r="N158" s="8"/>
-      <c r="O158" s="13"/>
+      <c r="M158" s="8">
+        <v>2</v>
+      </c>
+      <c r="N158" s="8">
+        <v>59</v>
+      </c>
+      <c r="O158" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="159" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="7">
@@ -9518,11 +9792,15 @@
       <c r="D159" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10"/>
+      <c r="E159" s="10">
+        <v>31</v>
+      </c>
+      <c r="F159" s="10">
+        <v>11</v>
+      </c>
       <c r="G159" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H159" s="11" t="s">
         <v>387</v>
@@ -9536,9 +9814,15 @@
       </c>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
-      <c r="M159" s="8"/>
-      <c r="N159" s="8"/>
-      <c r="O159" s="13"/>
+      <c r="M159" s="8">
+        <v>2</v>
+      </c>
+      <c r="N159" s="8">
+        <v>59</v>
+      </c>
+      <c r="O159" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="160" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="7">
@@ -9553,11 +9837,15 @@
       <c r="D160" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E160" s="10"/>
-      <c r="F160" s="10"/>
+      <c r="E160" s="10">
+        <v>32</v>
+      </c>
+      <c r="F160" s="10">
+        <v>7</v>
+      </c>
       <c r="G160" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="H160" s="11" t="s">
         <v>387</v>
@@ -9571,9 +9859,15 @@
       </c>
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
-      <c r="M160" s="8"/>
-      <c r="N160" s="8"/>
-      <c r="O160" s="13"/>
+      <c r="M160" s="8">
+        <v>2</v>
+      </c>
+      <c r="N160" s="8">
+        <v>59</v>
+      </c>
+      <c r="O160" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="161" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="7">
@@ -9588,8 +9882,12 @@
       <c r="D161" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E161" s="10"/>
-      <c r="F161" s="10"/>
+      <c r="E161" s="10">
+        <v>0</v>
+      </c>
+      <c r="F161" s="10">
+        <v>0</v>
+      </c>
       <c r="G161" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -9606,9 +9904,15 @@
       </c>
       <c r="K161" s="8"/>
       <c r="L161" s="8"/>
-      <c r="M161" s="8"/>
-      <c r="N161" s="8"/>
-      <c r="O161" s="13"/>
+      <c r="M161" s="8">
+        <v>2</v>
+      </c>
+      <c r="N161" s="8">
+        <v>59</v>
+      </c>
+      <c r="O161" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="162" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="7">
@@ -9623,11 +9927,15 @@
       <c r="D162" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E162" s="10"/>
-      <c r="F162" s="10"/>
+      <c r="E162" s="10">
+        <v>24</v>
+      </c>
+      <c r="F162" s="10">
+        <v>4</v>
+      </c>
       <c r="G162" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H162" s="11" t="s">
         <v>387</v>
@@ -9641,9 +9949,15 @@
       </c>
       <c r="K162" s="8"/>
       <c r="L162" s="8"/>
-      <c r="M162" s="8"/>
-      <c r="N162" s="8"/>
-      <c r="O162" s="13"/>
+      <c r="M162" s="8">
+        <v>2</v>
+      </c>
+      <c r="N162" s="8">
+        <v>59</v>
+      </c>
+      <c r="O162" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="163" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="7">
@@ -9658,11 +9972,15 @@
       <c r="D163" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E163" s="10"/>
-      <c r="F163" s="10"/>
+      <c r="E163" s="10">
+        <v>28</v>
+      </c>
+      <c r="F163" s="10">
+        <v>13</v>
+      </c>
       <c r="G163" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H163" s="11" t="s">
         <v>387</v>
@@ -9676,9 +9994,15 @@
       </c>
       <c r="K163" s="8"/>
       <c r="L163" s="8"/>
-      <c r="M163" s="8"/>
-      <c r="N163" s="8"/>
-      <c r="O163" s="13"/>
+      <c r="M163" s="8">
+        <v>2</v>
+      </c>
+      <c r="N163" s="8">
+        <v>59</v>
+      </c>
+      <c r="O163" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="164" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="7">
@@ -9693,11 +10017,15 @@
       <c r="D164" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E164" s="10"/>
-      <c r="F164" s="10"/>
+      <c r="E164" s="10">
+        <v>24</v>
+      </c>
+      <c r="F164" s="10">
+        <v>8</v>
+      </c>
       <c r="G164" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H164" s="11" t="s">
         <v>387</v>
@@ -9711,9 +10039,15 @@
       </c>
       <c r="K164" s="8"/>
       <c r="L164" s="8"/>
-      <c r="M164" s="8"/>
-      <c r="N164" s="8"/>
-      <c r="O164" s="13"/>
+      <c r="M164" s="8">
+        <v>2</v>
+      </c>
+      <c r="N164" s="8">
+        <v>59</v>
+      </c>
+      <c r="O164" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="165" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="7">
@@ -9728,8 +10062,12 @@
       <c r="D165" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E165" s="10"/>
-      <c r="F165" s="10"/>
+      <c r="E165" s="10">
+        <v>0</v>
+      </c>
+      <c r="F165" s="10">
+        <v>0</v>
+      </c>
       <c r="G165" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -9746,9 +10084,15 @@
       </c>
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
-      <c r="M165" s="8"/>
-      <c r="N165" s="8"/>
-      <c r="O165" s="13"/>
+      <c r="M165" s="8">
+        <v>2</v>
+      </c>
+      <c r="N165" s="8">
+        <v>59</v>
+      </c>
+      <c r="O165" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="166" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="7">
@@ -9763,8 +10107,12 @@
       <c r="D166" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E166" s="10"/>
-      <c r="F166" s="10"/>
+      <c r="E166" s="10">
+        <v>0</v>
+      </c>
+      <c r="F166" s="10">
+        <v>0</v>
+      </c>
       <c r="G166" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -9781,9 +10129,15 @@
       </c>
       <c r="K166" s="8"/>
       <c r="L166" s="8"/>
-      <c r="M166" s="8"/>
-      <c r="N166" s="8"/>
-      <c r="O166" s="13"/>
+      <c r="M166" s="8">
+        <v>2</v>
+      </c>
+      <c r="N166" s="8">
+        <v>59</v>
+      </c>
+      <c r="O166" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="167" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="7">
@@ -9798,8 +10152,12 @@
       <c r="D167" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E167" s="10"/>
-      <c r="F167" s="10"/>
+      <c r="E167" s="10">
+        <v>0</v>
+      </c>
+      <c r="F167" s="10">
+        <v>0</v>
+      </c>
       <c r="G167" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -9816,9 +10174,15 @@
       </c>
       <c r="K167" s="8"/>
       <c r="L167" s="8"/>
-      <c r="M167" s="8"/>
-      <c r="N167" s="8"/>
-      <c r="O167" s="13"/>
+      <c r="M167" s="8">
+        <v>2</v>
+      </c>
+      <c r="N167" s="8">
+        <v>59</v>
+      </c>
+      <c r="O167" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="168" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="7">
@@ -9833,8 +10197,12 @@
       <c r="D168" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E168" s="10"/>
-      <c r="F168" s="10"/>
+      <c r="E168" s="10">
+        <v>0</v>
+      </c>
+      <c r="F168" s="10">
+        <v>0</v>
+      </c>
       <c r="G168" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -9851,9 +10219,15 @@
       </c>
       <c r="K168" s="8"/>
       <c r="L168" s="8"/>
-      <c r="M168" s="8"/>
-      <c r="N168" s="8"/>
-      <c r="O168" s="13"/>
+      <c r="M168" s="8">
+        <v>2</v>
+      </c>
+      <c r="N168" s="8">
+        <v>59</v>
+      </c>
+      <c r="O168" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="169" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="7">
@@ -9868,8 +10242,12 @@
       <c r="D169" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E169" s="10"/>
-      <c r="F169" s="10"/>
+      <c r="E169" s="10">
+        <v>0</v>
+      </c>
+      <c r="F169" s="10">
+        <v>0</v>
+      </c>
       <c r="G169" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -9886,9 +10264,15 @@
       </c>
       <c r="K169" s="8"/>
       <c r="L169" s="8"/>
-      <c r="M169" s="8"/>
-      <c r="N169" s="8"/>
-      <c r="O169" s="13"/>
+      <c r="M169" s="8">
+        <v>2</v>
+      </c>
+      <c r="N169" s="8">
+        <v>59</v>
+      </c>
+      <c r="O169" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="170" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="7">
@@ -9903,11 +10287,15 @@
       <c r="D170" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E170" s="10"/>
-      <c r="F170" s="10"/>
+      <c r="E170" s="10">
+        <v>28</v>
+      </c>
+      <c r="F170" s="10">
+        <v>8</v>
+      </c>
       <c r="G170" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H170" s="11" t="s">
         <v>387</v>
@@ -9921,9 +10309,15 @@
       </c>
       <c r="K170" s="8"/>
       <c r="L170" s="8"/>
-      <c r="M170" s="8"/>
-      <c r="N170" s="8"/>
-      <c r="O170" s="13"/>
+      <c r="M170" s="8">
+        <v>2</v>
+      </c>
+      <c r="N170" s="8">
+        <v>59</v>
+      </c>
+      <c r="O170" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="171" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="7">
@@ -9938,11 +10332,15 @@
       <c r="D171" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E171" s="10"/>
-      <c r="F171" s="10"/>
+      <c r="E171" s="10">
+        <v>36</v>
+      </c>
+      <c r="F171" s="10">
+        <v>9</v>
+      </c>
       <c r="G171" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H171" s="11" t="s">
         <v>387</v>
@@ -9956,9 +10354,15 @@
       </c>
       <c r="K171" s="8"/>
       <c r="L171" s="8"/>
-      <c r="M171" s="8"/>
-      <c r="N171" s="8"/>
-      <c r="O171" s="13"/>
+      <c r="M171" s="8">
+        <v>2</v>
+      </c>
+      <c r="N171" s="8">
+        <v>59</v>
+      </c>
+      <c r="O171" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="172" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="7">
@@ -9973,11 +10377,15 @@
       <c r="D172" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E172" s="10"/>
-      <c r="F172" s="10"/>
+      <c r="E172" s="10">
+        <v>32</v>
+      </c>
+      <c r="F172" s="10">
+        <v>15</v>
+      </c>
       <c r="G172" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H172" s="11" t="s">
         <v>387</v>
@@ -9991,9 +10399,15 @@
       </c>
       <c r="K172" s="8"/>
       <c r="L172" s="8"/>
-      <c r="M172" s="8"/>
-      <c r="N172" s="8"/>
-      <c r="O172" s="13"/>
+      <c r="M172" s="8">
+        <v>2</v>
+      </c>
+      <c r="N172" s="8">
+        <v>59</v>
+      </c>
+      <c r="O172" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="173" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="7">
@@ -10008,8 +10422,12 @@
       <c r="D173" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E173" s="10"/>
-      <c r="F173" s="10"/>
+      <c r="E173" s="10">
+        <v>0</v>
+      </c>
+      <c r="F173" s="10">
+        <v>0</v>
+      </c>
       <c r="G173" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -10026,9 +10444,15 @@
       </c>
       <c r="K173" s="8"/>
       <c r="L173" s="8"/>
-      <c r="M173" s="8"/>
-      <c r="N173" s="8"/>
-      <c r="O173" s="13"/>
+      <c r="M173" s="8">
+        <v>2</v>
+      </c>
+      <c r="N173" s="8">
+        <v>59</v>
+      </c>
+      <c r="O173" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="174" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="7">
@@ -10043,11 +10467,15 @@
       <c r="D174" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E174" s="10"/>
-      <c r="F174" s="10"/>
+      <c r="E174" s="10">
+        <v>28</v>
+      </c>
+      <c r="F174" s="10">
+        <v>7</v>
+      </c>
       <c r="G174" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H174" s="11" t="s">
         <v>387</v>
@@ -10061,9 +10489,15 @@
       </c>
       <c r="K174" s="8"/>
       <c r="L174" s="8"/>
-      <c r="M174" s="8"/>
-      <c r="N174" s="8"/>
-      <c r="O174" s="13"/>
+      <c r="M174" s="8">
+        <v>2</v>
+      </c>
+      <c r="N174" s="8">
+        <v>59</v>
+      </c>
+      <c r="O174" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="175" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="7">
@@ -10078,8 +10512,12 @@
       <c r="D175" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E175" s="10"/>
-      <c r="F175" s="10"/>
+      <c r="E175" s="10">
+        <v>0</v>
+      </c>
+      <c r="F175" s="10">
+        <v>0</v>
+      </c>
       <c r="G175" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -10096,9 +10534,15 @@
       </c>
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
-      <c r="M175" s="8"/>
-      <c r="N175" s="8"/>
-      <c r="O175" s="13"/>
+      <c r="M175" s="8">
+        <v>2</v>
+      </c>
+      <c r="N175" s="8">
+        <v>59</v>
+      </c>
+      <c r="O175" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="176" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="7">
@@ -10113,11 +10557,15 @@
       <c r="D176" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E176" s="10"/>
-      <c r="F176" s="10"/>
+      <c r="E176" s="10">
+        <v>35</v>
+      </c>
+      <c r="F176" s="10">
+        <v>12</v>
+      </c>
       <c r="G176" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H176" s="11" t="s">
         <v>387</v>
@@ -10131,9 +10579,15 @@
       </c>
       <c r="K176" s="8"/>
       <c r="L176" s="8"/>
-      <c r="M176" s="8"/>
-      <c r="N176" s="8"/>
-      <c r="O176" s="13"/>
+      <c r="M176" s="8">
+        <v>2</v>
+      </c>
+      <c r="N176" s="8">
+        <v>59</v>
+      </c>
+      <c r="O176" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="177" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="7">
@@ -10148,8 +10602,12 @@
       <c r="D177" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E177" s="10"/>
-      <c r="F177" s="10"/>
+      <c r="E177" s="10">
+        <v>0</v>
+      </c>
+      <c r="F177" s="10">
+        <v>0</v>
+      </c>
       <c r="G177" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -10166,9 +10624,15 @@
       </c>
       <c r="K177" s="8"/>
       <c r="L177" s="8"/>
-      <c r="M177" s="8"/>
-      <c r="N177" s="8"/>
-      <c r="O177" s="13"/>
+      <c r="M177" s="8">
+        <v>2</v>
+      </c>
+      <c r="N177" s="8">
+        <v>59</v>
+      </c>
+      <c r="O177" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="178" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="7">
@@ -10183,11 +10647,15 @@
       <c r="D178" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E178" s="10"/>
-      <c r="F178" s="10"/>
+      <c r="E178" s="10">
+        <v>25</v>
+      </c>
+      <c r="F178" s="10">
+        <v>5</v>
+      </c>
       <c r="G178" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H178" s="11" t="s">
         <v>387</v>
@@ -10201,9 +10669,15 @@
       </c>
       <c r="K178" s="8"/>
       <c r="L178" s="8"/>
-      <c r="M178" s="8"/>
-      <c r="N178" s="8"/>
-      <c r="O178" s="13"/>
+      <c r="M178" s="8">
+        <v>2</v>
+      </c>
+      <c r="N178" s="8">
+        <v>59</v>
+      </c>
+      <c r="O178" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="179" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="7">
@@ -10218,11 +10692,15 @@
       <c r="D179" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E179" s="10"/>
-      <c r="F179" s="10"/>
+      <c r="E179" s="10">
+        <v>21</v>
+      </c>
+      <c r="F179" s="10">
+        <v>7</v>
+      </c>
       <c r="G179" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H179" s="11" t="s">
         <v>387</v>
@@ -10236,9 +10714,15 @@
       </c>
       <c r="K179" s="8"/>
       <c r="L179" s="8"/>
-      <c r="M179" s="8"/>
-      <c r="N179" s="8"/>
-      <c r="O179" s="13"/>
+      <c r="M179" s="8">
+        <v>2</v>
+      </c>
+      <c r="N179" s="8">
+        <v>59</v>
+      </c>
+      <c r="O179" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="180" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="7">
@@ -10253,8 +10737,12 @@
       <c r="D180" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E180" s="10"/>
-      <c r="F180" s="10"/>
+      <c r="E180" s="10">
+        <v>0</v>
+      </c>
+      <c r="F180" s="10">
+        <v>0</v>
+      </c>
       <c r="G180" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -10271,9 +10759,15 @@
       </c>
       <c r="K180" s="8"/>
       <c r="L180" s="8"/>
-      <c r="M180" s="8"/>
-      <c r="N180" s="8"/>
-      <c r="O180" s="13"/>
+      <c r="M180" s="8">
+        <v>2</v>
+      </c>
+      <c r="N180" s="8">
+        <v>59</v>
+      </c>
+      <c r="O180" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="181" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="7">
@@ -10288,11 +10782,15 @@
       <c r="D181" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E181" s="10"/>
-      <c r="F181" s="10"/>
+      <c r="E181" s="10">
+        <v>31</v>
+      </c>
+      <c r="F181" s="10">
+        <v>0</v>
+      </c>
       <c r="G181" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H181" s="11" t="s">
         <v>387</v>
@@ -10306,9 +10804,15 @@
       </c>
       <c r="K181" s="8"/>
       <c r="L181" s="8"/>
-      <c r="M181" s="8"/>
-      <c r="N181" s="8"/>
-      <c r="O181" s="13"/>
+      <c r="M181" s="8">
+        <v>2</v>
+      </c>
+      <c r="N181" s="8">
+        <v>59</v>
+      </c>
+      <c r="O181" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="182" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="7">
@@ -10323,8 +10827,12 @@
       <c r="D182" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E182" s="10"/>
-      <c r="F182" s="10"/>
+      <c r="E182" s="10">
+        <v>0</v>
+      </c>
+      <c r="F182" s="10">
+        <v>0</v>
+      </c>
       <c r="G182" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -10341,9 +10849,15 @@
       </c>
       <c r="K182" s="8"/>
       <c r="L182" s="8"/>
-      <c r="M182" s="8"/>
-      <c r="N182" s="8"/>
-      <c r="O182" s="13"/>
+      <c r="M182" s="8">
+        <v>2</v>
+      </c>
+      <c r="N182" s="8">
+        <v>59</v>
+      </c>
+      <c r="O182" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="183" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="7">
@@ -10358,8 +10872,12 @@
       <c r="D183" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E183" s="10"/>
-      <c r="F183" s="10"/>
+      <c r="E183" s="10">
+        <v>0</v>
+      </c>
+      <c r="F183" s="10">
+        <v>0</v>
+      </c>
       <c r="G183" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -10376,9 +10894,15 @@
       </c>
       <c r="K183" s="8"/>
       <c r="L183" s="8"/>
-      <c r="M183" s="8"/>
-      <c r="N183" s="8"/>
-      <c r="O183" s="13"/>
+      <c r="M183" s="8">
+        <v>2</v>
+      </c>
+      <c r="N183" s="8">
+        <v>59</v>
+      </c>
+      <c r="O183" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="184" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="7">
@@ -10393,11 +10917,15 @@
       <c r="D184" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E184" s="10"/>
-      <c r="F184" s="10"/>
+      <c r="E184" s="10">
+        <v>40</v>
+      </c>
+      <c r="F184" s="10">
+        <v>10</v>
+      </c>
       <c r="G184" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H184" s="11" t="s">
         <v>387</v>
@@ -10407,13 +10935,23 @@
       </c>
       <c r="J184" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>راسب</v>
-      </c>
-      <c r="K184" s="8"/>
-      <c r="L184" s="8"/>
-      <c r="M184" s="8"/>
-      <c r="N184" s="8"/>
-      <c r="O184" s="13"/>
+        <v>ناجح</v>
+      </c>
+      <c r="K184" s="8">
+        <v>2</v>
+      </c>
+      <c r="L184" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M184" s="8">
+        <v>2</v>
+      </c>
+      <c r="N184" s="8">
+        <v>59</v>
+      </c>
+      <c r="O184" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="185" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="7">
@@ -10428,11 +10966,15 @@
       <c r="D185" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E185" s="10"/>
-      <c r="F185" s="10"/>
+      <c r="E185" s="10">
+        <v>33</v>
+      </c>
+      <c r="F185" s="10">
+        <v>7</v>
+      </c>
       <c r="G185" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H185" s="11" t="s">
         <v>387</v>
@@ -10446,9 +10988,15 @@
       </c>
       <c r="K185" s="8"/>
       <c r="L185" s="8"/>
-      <c r="M185" s="8"/>
-      <c r="N185" s="8"/>
-      <c r="O185" s="13"/>
+      <c r="M185" s="8">
+        <v>2</v>
+      </c>
+      <c r="N185" s="8">
+        <v>59</v>
+      </c>
+      <c r="O185" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="186" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="7">
@@ -10463,11 +11011,15 @@
       <c r="D186" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E186" s="10"/>
-      <c r="F186" s="10"/>
+      <c r="E186" s="10">
+        <v>29</v>
+      </c>
+      <c r="F186" s="10">
+        <v>11</v>
+      </c>
       <c r="G186" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H186" s="11" t="s">
         <v>387</v>
@@ -10481,9 +11033,15 @@
       </c>
       <c r="K186" s="8"/>
       <c r="L186" s="8"/>
-      <c r="M186" s="8"/>
-      <c r="N186" s="8"/>
-      <c r="O186" s="13"/>
+      <c r="M186" s="8">
+        <v>2</v>
+      </c>
+      <c r="N186" s="8">
+        <v>59</v>
+      </c>
+      <c r="O186" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="187" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="7">
@@ -10498,8 +11056,12 @@
       <c r="D187" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E187" s="10"/>
-      <c r="F187" s="10"/>
+      <c r="E187" s="10">
+        <v>0</v>
+      </c>
+      <c r="F187" s="10">
+        <v>0</v>
+      </c>
       <c r="G187" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -10516,9 +11078,15 @@
       </c>
       <c r="K187" s="8"/>
       <c r="L187" s="8"/>
-      <c r="M187" s="8"/>
-      <c r="N187" s="8"/>
-      <c r="O187" s="13"/>
+      <c r="M187" s="8">
+        <v>2</v>
+      </c>
+      <c r="N187" s="8">
+        <v>59</v>
+      </c>
+      <c r="O187" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="188" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="7">
@@ -10533,11 +11101,15 @@
       <c r="D188" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E188" s="10"/>
-      <c r="F188" s="10"/>
+      <c r="E188" s="10">
+        <v>31</v>
+      </c>
+      <c r="F188" s="10">
+        <v>0</v>
+      </c>
       <c r="G188" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H188" s="11" t="s">
         <v>387</v>
@@ -10551,9 +11123,15 @@
       </c>
       <c r="K188" s="8"/>
       <c r="L188" s="8"/>
-      <c r="M188" s="8"/>
-      <c r="N188" s="8"/>
-      <c r="O188" s="13"/>
+      <c r="M188" s="8">
+        <v>2</v>
+      </c>
+      <c r="N188" s="8">
+        <v>59</v>
+      </c>
+      <c r="O188" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="189" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="7">
@@ -10568,11 +11146,15 @@
       <c r="D189" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E189" s="10"/>
-      <c r="F189" s="10"/>
+      <c r="E189" s="10">
+        <v>28</v>
+      </c>
+      <c r="F189" s="10">
+        <v>10</v>
+      </c>
       <c r="G189" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H189" s="11" t="s">
         <v>387</v>
@@ -10586,9 +11168,15 @@
       </c>
       <c r="K189" s="8"/>
       <c r="L189" s="8"/>
-      <c r="M189" s="8"/>
-      <c r="N189" s="8"/>
-      <c r="O189" s="13"/>
+      <c r="M189" s="8">
+        <v>2</v>
+      </c>
+      <c r="N189" s="8">
+        <v>59</v>
+      </c>
+      <c r="O189" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="190" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="7">
@@ -10603,11 +11191,15 @@
       <c r="D190" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E190" s="10"/>
-      <c r="F190" s="10"/>
+      <c r="E190" s="10">
+        <v>37</v>
+      </c>
+      <c r="F190" s="10">
+        <v>8</v>
+      </c>
       <c r="G190" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H190" s="11" t="s">
         <v>387</v>
@@ -10621,9 +11213,15 @@
       </c>
       <c r="K190" s="8"/>
       <c r="L190" s="8"/>
-      <c r="M190" s="8"/>
-      <c r="N190" s="8"/>
-      <c r="O190" s="13"/>
+      <c r="M190" s="8">
+        <v>2</v>
+      </c>
+      <c r="N190" s="8">
+        <v>59</v>
+      </c>
+      <c r="O190" s="13">
+        <v>3.39E-2</v>
+      </c>
     </row>
     <row r="191" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="7">

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\امتحانات الكورس الثاني\امتحانات كورس اول 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532C581F-D055-4E1D-A002-8A197DB01056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE75C9AB-5CE6-4AEC-8A98-9AC42052847A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64B607E4-2FA6-4167-B52D-26625A4C85A0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{64B607E4-2FA6-4167-B52D-26625A4C85A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="753">
   <si>
     <t>الاسم الكامل</t>
   </si>
@@ -2883,8 +2883,8 @@
   </sheetPr>
   <dimension ref="A1:O365"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A130" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D155" sqref="D155"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A346" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q177" sqref="Q177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2967,8 +2967,12 @@
       <c r="D2" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
       <c r="G2" s="10">
         <f>F2+E2</f>
         <v>0</v>
@@ -2985,9 +2989,15 @@
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="13"/>
+      <c r="M2" s="8">
+        <v>3</v>
+      </c>
+      <c r="N2" s="8">
+        <v>28</v>
+      </c>
+      <c r="O2" s="13">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="3" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
@@ -3002,11 +3012,15 @@
       <c r="D3" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="E3" s="10">
+        <v>27</v>
+      </c>
+      <c r="F3" s="10">
+        <v>6</v>
+      </c>
       <c r="G3" s="10">
         <f t="shared" ref="G3:G66" si="0">F3+E3</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>386</v>
@@ -3020,9 +3034,15 @@
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="13"/>
+      <c r="M3" s="8">
+        <v>3</v>
+      </c>
+      <c r="N3" s="8">
+        <v>28</v>
+      </c>
+      <c r="O3" s="13">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="4" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
@@ -3037,11 +3057,15 @@
       <c r="D4" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="E4" s="10">
+        <v>41</v>
+      </c>
+      <c r="F4" s="10">
+        <v>15</v>
+      </c>
       <c r="G4" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>386</v>
@@ -3051,13 +3075,23 @@
       </c>
       <c r="J4" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>راسب</v>
-      </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="13"/>
+        <v>ناجح</v>
+      </c>
+      <c r="K4" s="8">
+        <v>2</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="8">
+        <v>3</v>
+      </c>
+      <c r="N4" s="8">
+        <v>28</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
@@ -3072,11 +3106,15 @@
       <c r="D5" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="E5" s="10">
+        <v>31</v>
+      </c>
+      <c r="F5" s="10">
+        <v>4</v>
+      </c>
       <c r="G5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>386</v>
@@ -3090,9 +3128,15 @@
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="13"/>
+      <c r="M5" s="8">
+        <v>3</v>
+      </c>
+      <c r="N5" s="8">
+        <v>28</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
@@ -3107,8 +3151,12 @@
       <c r="D6" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
       <c r="G6" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3125,9 +3173,15 @@
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="13"/>
+      <c r="M6" s="8">
+        <v>3</v>
+      </c>
+      <c r="N6" s="8">
+        <v>28</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
@@ -3142,11 +3196,15 @@
       <c r="D7" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="E7" s="10">
+        <v>32</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
       <c r="G7" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>386</v>
@@ -3160,9 +3218,15 @@
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="13"/>
+      <c r="M7" s="8">
+        <v>3</v>
+      </c>
+      <c r="N7" s="8">
+        <v>28</v>
+      </c>
+      <c r="O7" s="13">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
@@ -3177,11 +3241,15 @@
       <c r="D8" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="E8" s="10">
+        <v>40</v>
+      </c>
+      <c r="F8" s="10">
+        <v>19</v>
+      </c>
       <c r="G8" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>386</v>
@@ -3191,13 +3259,23 @@
       </c>
       <c r="J8" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>راسب</v>
-      </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="13"/>
+        <v>ناجح</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="8">
+        <v>3</v>
+      </c>
+      <c r="N8" s="8">
+        <v>28</v>
+      </c>
+      <c r="O8" s="13">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
@@ -3212,8 +3290,12 @@
       <c r="D9" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
       <c r="G9" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3230,9 +3312,15 @@
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="13"/>
+      <c r="M9" s="8">
+        <v>3</v>
+      </c>
+      <c r="N9" s="8">
+        <v>28</v>
+      </c>
+      <c r="O9" s="13">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="10" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
@@ -3247,11 +3335,15 @@
       <c r="D10" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="E10" s="10">
+        <v>36</v>
+      </c>
+      <c r="F10" s="10">
+        <v>7</v>
+      </c>
       <c r="G10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>386</v>
@@ -3265,9 +3357,15 @@
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="13"/>
+      <c r="M10" s="8">
+        <v>3</v>
+      </c>
+      <c r="N10" s="8">
+        <v>28</v>
+      </c>
+      <c r="O10" s="13">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="11" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
@@ -3282,11 +3380,15 @@
       <c r="D11" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="E11" s="10">
+        <v>29</v>
+      </c>
+      <c r="F11" s="10">
+        <v>11</v>
+      </c>
       <c r="G11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>386</v>
@@ -3300,9 +3402,15 @@
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="13"/>
+      <c r="M11" s="8">
+        <v>3</v>
+      </c>
+      <c r="N11" s="8">
+        <v>28</v>
+      </c>
+      <c r="O11" s="13">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
@@ -3317,11 +3425,15 @@
       <c r="D12" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="E12" s="10">
+        <v>35</v>
+      </c>
+      <c r="F12" s="10">
+        <v>7</v>
+      </c>
       <c r="G12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>386</v>
@@ -3335,9 +3447,15 @@
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="13"/>
+      <c r="M12" s="8">
+        <v>3</v>
+      </c>
+      <c r="N12" s="8">
+        <v>28</v>
+      </c>
+      <c r="O12" s="13">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
@@ -3352,11 +3470,15 @@
       <c r="D13" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="E13" s="10">
+        <v>29</v>
+      </c>
+      <c r="F13" s="10">
+        <v>9</v>
+      </c>
       <c r="G13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>386</v>
@@ -3370,9 +3492,15 @@
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="13"/>
+      <c r="M13" s="8">
+        <v>3</v>
+      </c>
+      <c r="N13" s="8">
+        <v>28</v>
+      </c>
+      <c r="O13" s="13">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
@@ -3387,11 +3515,15 @@
       <c r="D14" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="E14" s="10">
+        <v>36</v>
+      </c>
+      <c r="F14" s="10">
+        <v>6</v>
+      </c>
       <c r="G14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>386</v>
@@ -3405,9 +3537,15 @@
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="13"/>
+      <c r="M14" s="8">
+        <v>3</v>
+      </c>
+      <c r="N14" s="8">
+        <v>28</v>
+      </c>
+      <c r="O14" s="13">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
@@ -3422,11 +3560,15 @@
       <c r="D15" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="E15" s="10">
+        <v>21</v>
+      </c>
+      <c r="F15" s="10">
+        <v>3</v>
+      </c>
       <c r="G15" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>386</v>
@@ -3440,9 +3582,15 @@
       </c>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="13"/>
+      <c r="M15" s="8">
+        <v>3</v>
+      </c>
+      <c r="N15" s="8">
+        <v>28</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
@@ -3457,11 +3605,15 @@
       <c r="D16" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="E16" s="10">
+        <v>35</v>
+      </c>
+      <c r="F16" s="10">
+        <v>7</v>
+      </c>
       <c r="G16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>386</v>
@@ -3475,9 +3627,15 @@
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="13"/>
+      <c r="M16" s="8">
+        <v>3</v>
+      </c>
+      <c r="N16" s="8">
+        <v>28</v>
+      </c>
+      <c r="O16" s="13">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="17" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
@@ -3492,11 +3650,15 @@
       <c r="D17" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="E17" s="10">
+        <v>27</v>
+      </c>
+      <c r="F17" s="10">
+        <v>14</v>
+      </c>
       <c r="G17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>386</v>
@@ -3510,9 +3672,15 @@
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="13"/>
+      <c r="M17" s="8">
+        <v>3</v>
+      </c>
+      <c r="N17" s="8">
+        <v>28</v>
+      </c>
+      <c r="O17" s="13">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="18" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
@@ -3527,11 +3695,15 @@
       <c r="D18" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="E18" s="10">
+        <v>35</v>
+      </c>
+      <c r="F18" s="10">
+        <v>6</v>
+      </c>
       <c r="G18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>386</v>
@@ -3545,9 +3717,15 @@
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="13"/>
+      <c r="M18" s="8">
+        <v>3</v>
+      </c>
+      <c r="N18" s="8">
+        <v>28</v>
+      </c>
+      <c r="O18" s="13">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="19" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
@@ -3562,11 +3740,15 @@
       <c r="D19" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="E19" s="10">
+        <v>49</v>
+      </c>
+      <c r="F19" s="10">
+        <v>6</v>
+      </c>
       <c r="G19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>386</v>
@@ -3576,13 +3758,23 @@
       </c>
       <c r="J19" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>راسب</v>
-      </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="13"/>
+        <v>ناجح</v>
+      </c>
+      <c r="K19" s="8">
+        <v>3</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="8">
+        <v>3</v>
+      </c>
+      <c r="N19" s="8">
+        <v>28</v>
+      </c>
+      <c r="O19" s="13">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="20" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
@@ -3597,11 +3789,15 @@
       <c r="D20" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="E20" s="10">
+        <v>40</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
       <c r="G20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>386</v>
@@ -3615,9 +3811,15 @@
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="13"/>
+      <c r="M20" s="8">
+        <v>3</v>
+      </c>
+      <c r="N20" s="8">
+        <v>28</v>
+      </c>
+      <c r="O20" s="13">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="21" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
@@ -3632,8 +3834,12 @@
       <c r="D21" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
       <c r="G21" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3650,9 +3856,15 @@
       </c>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="13"/>
+      <c r="M21" s="8">
+        <v>3</v>
+      </c>
+      <c r="N21" s="8">
+        <v>28</v>
+      </c>
+      <c r="O21" s="13">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="22" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
@@ -3667,8 +3879,12 @@
       <c r="D22" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
       <c r="G22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3685,9 +3901,15 @@
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="13"/>
+      <c r="M22" s="8">
+        <v>3</v>
+      </c>
+      <c r="N22" s="8">
+        <v>28</v>
+      </c>
+      <c r="O22" s="13">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="23" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
@@ -3702,11 +3924,15 @@
       <c r="D23" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="E23" s="10">
+        <v>36</v>
+      </c>
+      <c r="F23" s="10">
+        <v>8</v>
+      </c>
       <c r="G23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>386</v>
@@ -3720,9 +3946,15 @@
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="13"/>
+      <c r="M23" s="8">
+        <v>3</v>
+      </c>
+      <c r="N23" s="8">
+        <v>28</v>
+      </c>
+      <c r="O23" s="13">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="24" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
@@ -3737,11 +3969,15 @@
       <c r="D24" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="E24" s="10">
+        <v>33</v>
+      </c>
+      <c r="F24" s="10">
+        <v>9</v>
+      </c>
       <c r="G24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>386</v>
@@ -3755,9 +3991,15 @@
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="13"/>
+      <c r="M24" s="8">
+        <v>3</v>
+      </c>
+      <c r="N24" s="8">
+        <v>28</v>
+      </c>
+      <c r="O24" s="13">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="25" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
@@ -3772,11 +4014,15 @@
       <c r="D25" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="E25" s="10">
+        <v>31</v>
+      </c>
+      <c r="F25" s="10">
+        <v>14</v>
+      </c>
       <c r="G25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>386</v>
@@ -3790,9 +4036,15 @@
       </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="13"/>
+      <c r="M25" s="8">
+        <v>3</v>
+      </c>
+      <c r="N25" s="8">
+        <v>28</v>
+      </c>
+      <c r="O25" s="13">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="26" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
@@ -3807,11 +4059,15 @@
       <c r="D26" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="E26" s="10">
+        <v>31</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
       <c r="G26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H26" s="11" t="s">
         <v>386</v>
@@ -3825,9 +4081,15 @@
       </c>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="13"/>
+      <c r="M26" s="8">
+        <v>3</v>
+      </c>
+      <c r="N26" s="8">
+        <v>28</v>
+      </c>
+      <c r="O26" s="13">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="27" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
@@ -3842,11 +4104,15 @@
       <c r="D27" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="E27" s="10">
+        <v>29</v>
+      </c>
+      <c r="F27" s="10">
+        <v>2</v>
+      </c>
       <c r="G27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H27" s="11" t="s">
         <v>386</v>
@@ -3860,9 +4126,15 @@
       </c>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="13"/>
+      <c r="M27" s="8">
+        <v>3</v>
+      </c>
+      <c r="N27" s="8">
+        <v>28</v>
+      </c>
+      <c r="O27" s="13">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="28" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
@@ -3877,8 +4149,12 @@
       <c r="D28" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="E28" s="10">
+        <v>0</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
       <c r="G28" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3895,9 +4171,15 @@
       </c>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="13"/>
+      <c r="M28" s="8">
+        <v>3</v>
+      </c>
+      <c r="N28" s="8">
+        <v>28</v>
+      </c>
+      <c r="O28" s="13">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="29" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
@@ -3912,11 +4194,15 @@
       <c r="D29" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="E29" s="10">
+        <v>35</v>
+      </c>
+      <c r="F29" s="10">
+        <v>11</v>
+      </c>
       <c r="G29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>386</v>
@@ -3930,9 +4216,15 @@
       </c>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="13"/>
+      <c r="M29" s="8">
+        <v>3</v>
+      </c>
+      <c r="N29" s="8">
+        <v>28</v>
+      </c>
+      <c r="O29" s="13">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="30" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
@@ -4545,14 +4837,14 @@
         <v>171</v>
       </c>
       <c r="E43" s="10">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F43" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G43" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H43" s="11" t="s">
         <v>386</v>
@@ -4860,14 +5152,14 @@
         <v>171</v>
       </c>
       <c r="E50" s="10">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F50" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G50" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="H50" s="11" t="s">
         <v>386</v>
@@ -6267,14 +6559,14 @@
         <v>128</v>
       </c>
       <c r="E81" s="10">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F81" s="10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G81" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H81" s="11" t="s">
         <v>387</v>
@@ -6357,14 +6649,14 @@
         <v>128</v>
       </c>
       <c r="E83" s="10">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F83" s="10">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G83" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H83" s="11" t="s">
         <v>387</v>
@@ -6492,14 +6784,14 @@
         <v>128</v>
       </c>
       <c r="E86" s="10">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F86" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G86" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H86" s="11" t="s">
         <v>387</v>
@@ -6901,14 +7193,14 @@
         <v>128</v>
       </c>
       <c r="E95" s="10">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F95" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G95" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H95" s="11" t="s">
         <v>387</v>
@@ -7400,14 +7692,14 @@
         <v>128</v>
       </c>
       <c r="E106" s="10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F106" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G106" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H106" s="11" t="s">
         <v>387</v>
@@ -7760,14 +8052,14 @@
         <v>128</v>
       </c>
       <c r="E114" s="10">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F114" s="10">
         <v>0</v>
       </c>
       <c r="G114" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H114" s="11" t="s">
         <v>387</v>
@@ -8124,14 +8416,14 @@
         <v>128</v>
       </c>
       <c r="E122" s="10">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F122" s="10">
         <v>0</v>
       </c>
       <c r="G122" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H122" s="11" t="s">
         <v>387</v>
@@ -8596,13 +8888,13 @@
       <c r="K132" s="8"/>
       <c r="L132" s="8"/>
       <c r="M132" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N132" s="8">
         <v>59</v>
       </c>
       <c r="O132" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="133" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8641,13 +8933,13 @@
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
       <c r="M133" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N133" s="8">
         <v>59</v>
       </c>
       <c r="O133" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="134" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8686,13 +8978,13 @@
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
       <c r="M134" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N134" s="8">
         <v>59</v>
       </c>
       <c r="O134" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="135" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8731,13 +9023,13 @@
       <c r="K135" s="8"/>
       <c r="L135" s="8"/>
       <c r="M135" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N135" s="8">
         <v>59</v>
       </c>
       <c r="O135" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="136" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8776,13 +9068,13 @@
       <c r="K136" s="8"/>
       <c r="L136" s="8"/>
       <c r="M136" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N136" s="8">
         <v>59</v>
       </c>
       <c r="O136" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="137" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8799,14 +9091,14 @@
         <v>222</v>
       </c>
       <c r="E137" s="10">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F137" s="10">
         <v>0</v>
       </c>
       <c r="G137" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H137" s="11" t="s">
         <v>387</v>
@@ -8821,13 +9113,13 @@
       <c r="K137" s="8"/>
       <c r="L137" s="8"/>
       <c r="M137" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N137" s="8">
         <v>59</v>
       </c>
       <c r="O137" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="138" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8866,13 +9158,13 @@
       <c r="K138" s="8"/>
       <c r="L138" s="8"/>
       <c r="M138" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N138" s="8">
         <v>59</v>
       </c>
       <c r="O138" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="139" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8911,13 +9203,13 @@
       <c r="K139" s="8"/>
       <c r="L139" s="8"/>
       <c r="M139" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N139" s="8">
         <v>59</v>
       </c>
       <c r="O139" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="140" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8956,13 +9248,13 @@
       <c r="K140" s="8"/>
       <c r="L140" s="8"/>
       <c r="M140" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N140" s="8">
         <v>59</v>
       </c>
       <c r="O140" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="141" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9001,13 +9293,13 @@
       <c r="K141" s="8"/>
       <c r="L141" s="8"/>
       <c r="M141" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N141" s="8">
         <v>59</v>
       </c>
       <c r="O141" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="142" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9046,13 +9338,13 @@
       <c r="K142" s="8"/>
       <c r="L142" s="8"/>
       <c r="M142" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N142" s="8">
         <v>59</v>
       </c>
       <c r="O142" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="143" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9069,14 +9361,14 @@
         <v>222</v>
       </c>
       <c r="E143" s="10">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F143" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G143" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H143" s="11" t="s">
         <v>387</v>
@@ -9091,13 +9383,13 @@
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
       <c r="M143" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N143" s="8">
         <v>59</v>
       </c>
       <c r="O143" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="144" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9136,13 +9428,13 @@
       <c r="K144" s="8"/>
       <c r="L144" s="8"/>
       <c r="M144" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N144" s="8">
         <v>59</v>
       </c>
       <c r="O144" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="145" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9181,13 +9473,13 @@
       <c r="K145" s="8"/>
       <c r="L145" s="8"/>
       <c r="M145" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N145" s="8">
         <v>59</v>
       </c>
       <c r="O145" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="146" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9204,14 +9496,14 @@
         <v>222</v>
       </c>
       <c r="E146" s="10">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F146" s="10">
         <v>0</v>
       </c>
       <c r="G146" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H146" s="11" t="s">
         <v>387</v>
@@ -9226,13 +9518,13 @@
       <c r="K146" s="8"/>
       <c r="L146" s="8"/>
       <c r="M146" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N146" s="8">
         <v>59</v>
       </c>
       <c r="O146" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="147" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9271,13 +9563,13 @@
       <c r="K147" s="8"/>
       <c r="L147" s="8"/>
       <c r="M147" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N147" s="8">
         <v>59</v>
       </c>
       <c r="O147" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="148" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9294,14 +9586,14 @@
         <v>222</v>
       </c>
       <c r="E148" s="10">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F148" s="10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G148" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H148" s="11" t="s">
         <v>387</v>
@@ -9316,13 +9608,13 @@
       <c r="K148" s="8"/>
       <c r="L148" s="8"/>
       <c r="M148" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N148" s="8">
         <v>59</v>
       </c>
       <c r="O148" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="149" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9361,13 +9653,13 @@
       <c r="K149" s="8"/>
       <c r="L149" s="8"/>
       <c r="M149" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N149" s="8">
         <v>59</v>
       </c>
       <c r="O149" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="150" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9384,14 +9676,14 @@
         <v>222</v>
       </c>
       <c r="E150" s="10">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F150" s="10">
         <v>0</v>
       </c>
       <c r="G150" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H150" s="11" t="s">
         <v>387</v>
@@ -9406,13 +9698,13 @@
       <c r="K150" s="8"/>
       <c r="L150" s="8"/>
       <c r="M150" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N150" s="8">
         <v>59</v>
       </c>
       <c r="O150" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="151" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9451,13 +9743,13 @@
       <c r="K151" s="8"/>
       <c r="L151" s="8"/>
       <c r="M151" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N151" s="8">
         <v>59</v>
       </c>
       <c r="O151" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="152" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9496,13 +9788,13 @@
       <c r="K152" s="8"/>
       <c r="L152" s="8"/>
       <c r="M152" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N152" s="8">
         <v>59</v>
       </c>
       <c r="O152" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="153" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9519,14 +9811,14 @@
         <v>222</v>
       </c>
       <c r="E153" s="10">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F153" s="10">
         <v>0</v>
       </c>
       <c r="G153" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H153" s="11" t="s">
         <v>387</v>
@@ -9541,13 +9833,13 @@
       <c r="K153" s="8"/>
       <c r="L153" s="8"/>
       <c r="M153" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N153" s="8">
         <v>59</v>
       </c>
       <c r="O153" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="154" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9586,13 +9878,13 @@
       <c r="K154" s="8"/>
       <c r="L154" s="8"/>
       <c r="M154" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N154" s="8">
         <v>59</v>
       </c>
       <c r="O154" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="155" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9635,13 +9927,13 @@
         <v>7</v>
       </c>
       <c r="M155" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N155" s="8">
         <v>59</v>
       </c>
       <c r="O155" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="156" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9680,13 +9972,13 @@
       <c r="K156" s="8"/>
       <c r="L156" s="8"/>
       <c r="M156" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N156" s="8">
         <v>59</v>
       </c>
       <c r="O156" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="157" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9725,13 +10017,13 @@
       <c r="K157" s="8"/>
       <c r="L157" s="8"/>
       <c r="M157" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N157" s="8">
         <v>59</v>
       </c>
       <c r="O157" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="158" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9770,13 +10062,13 @@
       <c r="K158" s="8"/>
       <c r="L158" s="8"/>
       <c r="M158" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N158" s="8">
         <v>59</v>
       </c>
       <c r="O158" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="159" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9815,13 +10107,13 @@
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
       <c r="M159" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N159" s="8">
         <v>59</v>
       </c>
       <c r="O159" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="160" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9860,13 +10152,13 @@
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
       <c r="M160" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N160" s="8">
         <v>59</v>
       </c>
       <c r="O160" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="161" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9905,13 +10197,13 @@
       <c r="K161" s="8"/>
       <c r="L161" s="8"/>
       <c r="M161" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N161" s="8">
         <v>59</v>
       </c>
       <c r="O161" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="162" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9950,13 +10242,13 @@
       <c r="K162" s="8"/>
       <c r="L162" s="8"/>
       <c r="M162" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N162" s="8">
         <v>59</v>
       </c>
       <c r="O162" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="163" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9995,13 +10287,13 @@
       <c r="K163" s="8"/>
       <c r="L163" s="8"/>
       <c r="M163" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N163" s="8">
         <v>59</v>
       </c>
       <c r="O163" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="164" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10040,13 +10332,13 @@
       <c r="K164" s="8"/>
       <c r="L164" s="8"/>
       <c r="M164" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N164" s="8">
         <v>59</v>
       </c>
       <c r="O164" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="165" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10085,13 +10377,13 @@
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
       <c r="M165" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N165" s="8">
         <v>59</v>
       </c>
       <c r="O165" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="166" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10130,13 +10422,13 @@
       <c r="K166" s="8"/>
       <c r="L166" s="8"/>
       <c r="M166" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N166" s="8">
         <v>59</v>
       </c>
       <c r="O166" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="167" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10175,13 +10467,13 @@
       <c r="K167" s="8"/>
       <c r="L167" s="8"/>
       <c r="M167" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N167" s="8">
         <v>59</v>
       </c>
       <c r="O167" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="168" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10198,14 +10490,14 @@
         <v>222</v>
       </c>
       <c r="E168" s="10">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F168" s="10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G168" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="H168" s="11" t="s">
         <v>387</v>
@@ -10215,18 +10507,22 @@
       </c>
       <c r="J168" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>راسب</v>
-      </c>
-      <c r="K168" s="8"/>
-      <c r="L168" s="8"/>
+        <v>ناجح</v>
+      </c>
+      <c r="K168" s="8">
+        <v>1</v>
+      </c>
+      <c r="L168" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="M168" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N168" s="8">
         <v>59</v>
       </c>
       <c r="O168" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="169" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10243,14 +10539,14 @@
         <v>222</v>
       </c>
       <c r="E169" s="10">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F169" s="10">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G169" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="H169" s="11" t="s">
         <v>387</v>
@@ -10265,13 +10561,13 @@
       <c r="K169" s="8"/>
       <c r="L169" s="8"/>
       <c r="M169" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N169" s="8">
         <v>59</v>
       </c>
       <c r="O169" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="170" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10310,13 +10606,13 @@
       <c r="K170" s="8"/>
       <c r="L170" s="8"/>
       <c r="M170" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N170" s="8">
         <v>59</v>
       </c>
       <c r="O170" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="171" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10355,13 +10651,13 @@
       <c r="K171" s="8"/>
       <c r="L171" s="8"/>
       <c r="M171" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N171" s="8">
         <v>59</v>
       </c>
       <c r="O171" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="172" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10400,13 +10696,13 @@
       <c r="K172" s="8"/>
       <c r="L172" s="8"/>
       <c r="M172" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N172" s="8">
         <v>59</v>
       </c>
       <c r="O172" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="173" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10423,14 +10719,14 @@
         <v>222</v>
       </c>
       <c r="E173" s="10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F173" s="10">
         <v>0</v>
       </c>
       <c r="G173" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H173" s="11" t="s">
         <v>387</v>
@@ -10445,13 +10741,13 @@
       <c r="K173" s="8"/>
       <c r="L173" s="8"/>
       <c r="M173" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N173" s="8">
         <v>59</v>
       </c>
       <c r="O173" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="174" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10490,13 +10786,13 @@
       <c r="K174" s="8"/>
       <c r="L174" s="8"/>
       <c r="M174" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N174" s="8">
         <v>59</v>
       </c>
       <c r="O174" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="175" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10535,13 +10831,13 @@
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
       <c r="M175" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N175" s="8">
         <v>59</v>
       </c>
       <c r="O175" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="176" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10580,13 +10876,13 @@
       <c r="K176" s="8"/>
       <c r="L176" s="8"/>
       <c r="M176" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N176" s="8">
         <v>59</v>
       </c>
       <c r="O176" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="177" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10603,14 +10899,14 @@
         <v>222</v>
       </c>
       <c r="E177" s="10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F177" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G177" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H177" s="11" t="s">
         <v>387</v>
@@ -10625,13 +10921,13 @@
       <c r="K177" s="8"/>
       <c r="L177" s="8"/>
       <c r="M177" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N177" s="8">
         <v>59</v>
       </c>
       <c r="O177" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="178" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10670,13 +10966,13 @@
       <c r="K178" s="8"/>
       <c r="L178" s="8"/>
       <c r="M178" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N178" s="8">
         <v>59</v>
       </c>
       <c r="O178" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="179" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10715,13 +11011,13 @@
       <c r="K179" s="8"/>
       <c r="L179" s="8"/>
       <c r="M179" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N179" s="8">
         <v>59</v>
       </c>
       <c r="O179" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="180" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10760,13 +11056,13 @@
       <c r="K180" s="8"/>
       <c r="L180" s="8"/>
       <c r="M180" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N180" s="8">
         <v>59</v>
       </c>
       <c r="O180" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="181" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10805,13 +11101,13 @@
       <c r="K181" s="8"/>
       <c r="L181" s="8"/>
       <c r="M181" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N181" s="8">
         <v>59</v>
       </c>
       <c r="O181" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="182" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10850,13 +11146,13 @@
       <c r="K182" s="8"/>
       <c r="L182" s="8"/>
       <c r="M182" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N182" s="8">
         <v>59</v>
       </c>
       <c r="O182" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="183" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10895,13 +11191,13 @@
       <c r="K183" s="8"/>
       <c r="L183" s="8"/>
       <c r="M183" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N183" s="8">
         <v>59</v>
       </c>
       <c r="O183" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="184" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10944,13 +11240,13 @@
         <v>7</v>
       </c>
       <c r="M184" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N184" s="8">
         <v>59</v>
       </c>
       <c r="O184" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="185" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10989,13 +11285,13 @@
       <c r="K185" s="8"/>
       <c r="L185" s="8"/>
       <c r="M185" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N185" s="8">
         <v>59</v>
       </c>
       <c r="O185" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="186" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11034,13 +11330,13 @@
       <c r="K186" s="8"/>
       <c r="L186" s="8"/>
       <c r="M186" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N186" s="8">
         <v>59</v>
       </c>
       <c r="O186" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="187" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11057,14 +11353,14 @@
         <v>222</v>
       </c>
       <c r="E187" s="10">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F187" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G187" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H187" s="11" t="s">
         <v>387</v>
@@ -11079,13 +11375,13 @@
       <c r="K187" s="8"/>
       <c r="L187" s="8"/>
       <c r="M187" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N187" s="8">
         <v>59</v>
       </c>
       <c r="O187" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="188" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11124,13 +11420,13 @@
       <c r="K188" s="8"/>
       <c r="L188" s="8"/>
       <c r="M188" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N188" s="8">
         <v>59</v>
       </c>
       <c r="O188" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="189" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11169,13 +11465,13 @@
       <c r="K189" s="8"/>
       <c r="L189" s="8"/>
       <c r="M189" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N189" s="8">
         <v>59</v>
       </c>
       <c r="O189" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="190" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11214,13 +11510,13 @@
       <c r="K190" s="8"/>
       <c r="L190" s="8"/>
       <c r="M190" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N190" s="8">
         <v>59</v>
       </c>
       <c r="O190" s="13">
-        <v>3.39E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="191" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11298,7 +11594,7 @@
         <v>752</v>
       </c>
       <c r="J192" s="12" t="str">
-        <f t="shared" ref="J192:J255" si="8">IF(G192&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" ref="J192:J251" si="8">IF(G192&gt;=50,"ناجح","راسب")</f>
         <v>راسب</v>
       </c>
       <c r="K192" s="8"/>
@@ -11417,14 +11713,14 @@
         <v>76</v>
       </c>
       <c r="E195" s="10">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F195" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G195" s="10">
-        <f t="shared" ref="G195:G258" si="9">F195+E195</f>
-        <v>0</v>
+        <f t="shared" ref="G195:G251" si="9">F195+E195</f>
+        <v>39</v>
       </c>
       <c r="H195" s="11" t="s">
         <v>387</v>
@@ -11777,14 +12073,14 @@
         <v>76</v>
       </c>
       <c r="E203" s="10">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F203" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G203" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H203" s="11" t="s">
         <v>387</v>
@@ -11867,14 +12163,14 @@
         <v>76</v>
       </c>
       <c r="E205" s="10">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F205" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G205" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H205" s="11" t="s">
         <v>387</v>
@@ -12002,14 +12298,14 @@
         <v>76</v>
       </c>
       <c r="E208" s="10">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F208" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G208" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H208" s="11" t="s">
         <v>387</v>
@@ -12047,14 +12343,14 @@
         <v>76</v>
       </c>
       <c r="E209" s="10">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F209" s="10">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G209" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H209" s="11" t="s">
         <v>387</v>
@@ -12182,14 +12478,14 @@
         <v>76</v>
       </c>
       <c r="E212" s="10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F212" s="10">
         <v>0</v>
       </c>
       <c r="G212" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H212" s="11" t="s">
         <v>387</v>
@@ -12317,14 +12613,14 @@
         <v>76</v>
       </c>
       <c r="E215" s="10">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F215" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G215" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H215" s="11" t="s">
         <v>387</v>
@@ -12497,14 +12793,14 @@
         <v>76</v>
       </c>
       <c r="E219" s="10">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F219" s="10">
         <v>0</v>
       </c>
       <c r="G219" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H219" s="11" t="s">
         <v>387</v>
@@ -12632,14 +12928,14 @@
         <v>76</v>
       </c>
       <c r="E222" s="10">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F222" s="10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G222" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="H222" s="11" t="s">
         <v>387</v>
@@ -12947,14 +13243,14 @@
         <v>76</v>
       </c>
       <c r="E229" s="10">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F229" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G229" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H229" s="11" t="s">
         <v>387</v>
@@ -13082,14 +13378,14 @@
         <v>76</v>
       </c>
       <c r="E232" s="10">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F232" s="10">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G232" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H232" s="11" t="s">
         <v>387</v>
@@ -13172,14 +13468,14 @@
         <v>76</v>
       </c>
       <c r="E234" s="10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F234" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G234" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H234" s="11" t="s">
         <v>387</v>
@@ -13217,14 +13513,14 @@
         <v>76</v>
       </c>
       <c r="E235" s="10">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F235" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G235" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H235" s="11" t="s">
         <v>387</v>
@@ -13581,14 +13877,14 @@
         <v>76</v>
       </c>
       <c r="E243" s="10">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F243" s="10">
         <v>0</v>
       </c>
       <c r="G243" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H243" s="11" t="s">
         <v>387</v>
@@ -13945,14 +14241,14 @@
         <v>76</v>
       </c>
       <c r="E251" s="10">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F251" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G251" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H251" s="11" t="s">
         <v>387</v>
@@ -13989,11 +14285,15 @@
       <c r="D252" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E252" s="10"/>
-      <c r="F252" s="10"/>
+      <c r="E252" s="10">
+        <v>35</v>
+      </c>
+      <c r="F252" s="10">
+        <v>17</v>
+      </c>
       <c r="G252" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" ref="G252:G283" si="10">F252+E252</f>
+        <v>52</v>
       </c>
       <c r="H252" s="11" t="s">
         <v>387</v>
@@ -14002,14 +14302,24 @@
         <v>752</v>
       </c>
       <c r="J252" s="12" t="str">
-        <f t="shared" si="8"/>
-        <v>راسب</v>
-      </c>
-      <c r="K252" s="8"/>
-      <c r="L252" s="8"/>
-      <c r="M252" s="8"/>
-      <c r="N252" s="8"/>
-      <c r="O252" s="13"/>
+        <f t="shared" ref="J252:J283" si="11">IF(G252&gt;=50,"ناجح","راسب")</f>
+        <v>ناجح</v>
+      </c>
+      <c r="K252" s="8">
+        <v>4</v>
+      </c>
+      <c r="L252" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M252" s="8">
+        <v>5</v>
+      </c>
+      <c r="N252" s="8">
+        <v>53</v>
+      </c>
+      <c r="O252" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="253" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="7">
@@ -14024,11 +14334,15 @@
       <c r="D253" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E253" s="10"/>
-      <c r="F253" s="10"/>
+      <c r="E253" s="10">
+        <v>27</v>
+      </c>
+      <c r="F253" s="10">
+        <v>3</v>
+      </c>
       <c r="G253" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>30</v>
       </c>
       <c r="H253" s="11" t="s">
         <v>387</v>
@@ -14037,14 +14351,20 @@
         <v>752</v>
       </c>
       <c r="J253" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>راسب</v>
       </c>
       <c r="K253" s="8"/>
       <c r="L253" s="8"/>
-      <c r="M253" s="8"/>
-      <c r="N253" s="8"/>
-      <c r="O253" s="13"/>
+      <c r="M253" s="8">
+        <v>5</v>
+      </c>
+      <c r="N253" s="8">
+        <v>53</v>
+      </c>
+      <c r="O253" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="254" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="7">
@@ -14059,11 +14379,15 @@
       <c r="D254" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E254" s="10"/>
-      <c r="F254" s="10"/>
+      <c r="E254" s="10">
+        <v>27</v>
+      </c>
+      <c r="F254" s="10">
+        <v>0</v>
+      </c>
       <c r="G254" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>27</v>
       </c>
       <c r="H254" s="11" t="s">
         <v>387</v>
@@ -14072,14 +14396,20 @@
         <v>752</v>
       </c>
       <c r="J254" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>راسب</v>
       </c>
       <c r="K254" s="8"/>
       <c r="L254" s="8"/>
-      <c r="M254" s="8"/>
-      <c r="N254" s="8"/>
-      <c r="O254" s="13"/>
+      <c r="M254" s="8">
+        <v>5</v>
+      </c>
+      <c r="N254" s="8">
+        <v>53</v>
+      </c>
+      <c r="O254" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="255" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="7">
@@ -14094,11 +14424,15 @@
       <c r="D255" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E255" s="10"/>
-      <c r="F255" s="10"/>
+      <c r="E255" s="10">
+        <v>25</v>
+      </c>
+      <c r="F255" s="10">
+        <v>3</v>
+      </c>
       <c r="G255" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>28</v>
       </c>
       <c r="H255" s="11" t="s">
         <v>387</v>
@@ -14107,14 +14441,20 @@
         <v>752</v>
       </c>
       <c r="J255" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>راسب</v>
       </c>
       <c r="K255" s="8"/>
       <c r="L255" s="8"/>
-      <c r="M255" s="8"/>
-      <c r="N255" s="8"/>
-      <c r="O255" s="13"/>
+      <c r="M255" s="8">
+        <v>5</v>
+      </c>
+      <c r="N255" s="8">
+        <v>53</v>
+      </c>
+      <c r="O255" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="256" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="7">
@@ -14129,11 +14469,15 @@
       <c r="D256" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E256" s="10"/>
-      <c r="F256" s="10"/>
+      <c r="E256" s="10">
+        <v>20</v>
+      </c>
+      <c r="F256" s="10">
+        <v>0</v>
+      </c>
       <c r="G256" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>20</v>
       </c>
       <c r="H256" s="11" t="s">
         <v>387</v>
@@ -14142,14 +14486,20 @@
         <v>752</v>
       </c>
       <c r="J256" s="12" t="str">
-        <f t="shared" ref="J256:J319" si="10">IF(G256&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="11"/>
         <v>راسب</v>
       </c>
       <c r="K256" s="8"/>
       <c r="L256" s="8"/>
-      <c r="M256" s="8"/>
-      <c r="N256" s="8"/>
-      <c r="O256" s="13"/>
+      <c r="M256" s="8">
+        <v>5</v>
+      </c>
+      <c r="N256" s="8">
+        <v>53</v>
+      </c>
+      <c r="O256" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="257" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="7">
@@ -14164,11 +14514,15 @@
       <c r="D257" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E257" s="10"/>
-      <c r="F257" s="10"/>
+      <c r="E257" s="10">
+        <v>37</v>
+      </c>
+      <c r="F257" s="10">
+        <v>13</v>
+      </c>
       <c r="G257" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>50</v>
       </c>
       <c r="H257" s="11" t="s">
         <v>387</v>
@@ -14177,14 +14531,24 @@
         <v>752</v>
       </c>
       <c r="J257" s="12" t="str">
-        <f t="shared" si="10"/>
-        <v>راسب</v>
-      </c>
-      <c r="K257" s="8"/>
-      <c r="L257" s="8"/>
-      <c r="M257" s="8"/>
-      <c r="N257" s="8"/>
-      <c r="O257" s="13"/>
+        <f t="shared" si="11"/>
+        <v>ناجح</v>
+      </c>
+      <c r="K257" s="8">
+        <v>5</v>
+      </c>
+      <c r="L257" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M257" s="8">
+        <v>5</v>
+      </c>
+      <c r="N257" s="8">
+        <v>53</v>
+      </c>
+      <c r="O257" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="258" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="7">
@@ -14199,10 +14563,14 @@
       <c r="D258" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E258" s="10"/>
-      <c r="F258" s="10"/>
+      <c r="E258" s="10">
+        <v>0</v>
+      </c>
+      <c r="F258" s="10">
+        <v>0</v>
+      </c>
       <c r="G258" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H258" s="11" t="s">
@@ -14212,14 +14580,20 @@
         <v>752</v>
       </c>
       <c r="J258" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>راسب</v>
       </c>
       <c r="K258" s="8"/>
       <c r="L258" s="8"/>
-      <c r="M258" s="8"/>
-      <c r="N258" s="8"/>
-      <c r="O258" s="13"/>
+      <c r="M258" s="8">
+        <v>5</v>
+      </c>
+      <c r="N258" s="8">
+        <v>53</v>
+      </c>
+      <c r="O258" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="259" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="7">
@@ -14234,11 +14608,15 @@
       <c r="D259" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E259" s="10"/>
-      <c r="F259" s="10"/>
+      <c r="E259" s="10">
+        <v>44</v>
+      </c>
+      <c r="F259" s="10">
+        <v>3</v>
+      </c>
       <c r="G259" s="10">
-        <f t="shared" ref="G259:G322" si="11">F259+E259</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>47</v>
       </c>
       <c r="H259" s="11" t="s">
         <v>387</v>
@@ -14247,14 +14625,20 @@
         <v>752</v>
       </c>
       <c r="J259" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>راسب</v>
       </c>
       <c r="K259" s="8"/>
       <c r="L259" s="8"/>
-      <c r="M259" s="8"/>
-      <c r="N259" s="8"/>
-      <c r="O259" s="13"/>
+      <c r="M259" s="8">
+        <v>5</v>
+      </c>
+      <c r="N259" s="8">
+        <v>53</v>
+      </c>
+      <c r="O259" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="260" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="7">
@@ -14269,27 +14653,37 @@
       <c r="D260" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E260" s="10"/>
-      <c r="F260" s="10"/>
+      <c r="E260" s="10">
+        <v>25</v>
+      </c>
+      <c r="F260" s="10">
+        <v>0</v>
+      </c>
       <c r="G260" s="10">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="H260" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I260" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="J260" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H260" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="I260" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="J260" s="12" t="str">
-        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K260" s="8"/>
       <c r="L260" s="8"/>
-      <c r="M260" s="8"/>
-      <c r="N260" s="8"/>
-      <c r="O260" s="13"/>
+      <c r="M260" s="8">
+        <v>5</v>
+      </c>
+      <c r="N260" s="8">
+        <v>53</v>
+      </c>
+      <c r="O260" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="261" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="7">
@@ -14304,27 +14698,37 @@
       <c r="D261" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E261" s="10"/>
-      <c r="F261" s="10"/>
+      <c r="E261" s="10">
+        <v>20</v>
+      </c>
+      <c r="F261" s="10">
+        <v>2</v>
+      </c>
       <c r="G261" s="10">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="H261" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I261" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="J261" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H261" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="I261" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="J261" s="12" t="str">
-        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K261" s="8"/>
       <c r="L261" s="8"/>
-      <c r="M261" s="8"/>
-      <c r="N261" s="8"/>
-      <c r="O261" s="13"/>
+      <c r="M261" s="8">
+        <v>5</v>
+      </c>
+      <c r="N261" s="8">
+        <v>53</v>
+      </c>
+      <c r="O261" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="262" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="7">
@@ -14339,27 +14743,37 @@
       <c r="D262" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E262" s="10"/>
-      <c r="F262" s="10"/>
+      <c r="E262" s="10">
+        <v>31</v>
+      </c>
+      <c r="F262" s="10">
+        <v>3</v>
+      </c>
       <c r="G262" s="10">
+        <f t="shared" si="10"/>
+        <v>34</v>
+      </c>
+      <c r="H262" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I262" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="J262" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H262" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="I262" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="J262" s="12" t="str">
-        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K262" s="8"/>
       <c r="L262" s="8"/>
-      <c r="M262" s="8"/>
-      <c r="N262" s="8"/>
-      <c r="O262" s="13"/>
+      <c r="M262" s="8">
+        <v>5</v>
+      </c>
+      <c r="N262" s="8">
+        <v>53</v>
+      </c>
+      <c r="O262" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="263" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="7">
@@ -14374,27 +14788,37 @@
       <c r="D263" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E263" s="10"/>
-      <c r="F263" s="10"/>
+      <c r="E263" s="10">
+        <v>33</v>
+      </c>
+      <c r="F263" s="10">
+        <v>5</v>
+      </c>
       <c r="G263" s="10">
+        <f t="shared" si="10"/>
+        <v>38</v>
+      </c>
+      <c r="H263" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I263" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="J263" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H263" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="I263" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="J263" s="12" t="str">
-        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K263" s="8"/>
       <c r="L263" s="8"/>
-      <c r="M263" s="8"/>
-      <c r="N263" s="8"/>
-      <c r="O263" s="13"/>
+      <c r="M263" s="8">
+        <v>5</v>
+      </c>
+      <c r="N263" s="8">
+        <v>53</v>
+      </c>
+      <c r="O263" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="264" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="7">
@@ -14409,27 +14833,37 @@
       <c r="D264" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E264" s="10"/>
-      <c r="F264" s="10"/>
+      <c r="E264" s="10">
+        <v>28</v>
+      </c>
+      <c r="F264" s="10">
+        <v>5</v>
+      </c>
       <c r="G264" s="10">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="H264" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I264" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="J264" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H264" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="I264" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="J264" s="12" t="str">
-        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K264" s="8"/>
       <c r="L264" s="8"/>
-      <c r="M264" s="8"/>
-      <c r="N264" s="8"/>
-      <c r="O264" s="13"/>
+      <c r="M264" s="8">
+        <v>5</v>
+      </c>
+      <c r="N264" s="8">
+        <v>53</v>
+      </c>
+      <c r="O264" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="265" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="7">
@@ -14444,27 +14878,37 @@
       <c r="D265" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E265" s="10"/>
-      <c r="F265" s="10"/>
+      <c r="E265" s="10">
+        <v>0</v>
+      </c>
+      <c r="F265" s="10">
+        <v>0</v>
+      </c>
       <c r="G265" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H265" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I265" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="J265" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H265" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="I265" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="J265" s="12" t="str">
-        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K265" s="8"/>
       <c r="L265" s="8"/>
-      <c r="M265" s="8"/>
-      <c r="N265" s="8"/>
-      <c r="O265" s="13"/>
+      <c r="M265" s="8">
+        <v>5</v>
+      </c>
+      <c r="N265" s="8">
+        <v>53</v>
+      </c>
+      <c r="O265" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="266" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="7">
@@ -14479,27 +14923,37 @@
       <c r="D266" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E266" s="10"/>
-      <c r="F266" s="10"/>
+      <c r="E266" s="10">
+        <v>37</v>
+      </c>
+      <c r="F266" s="10">
+        <v>5</v>
+      </c>
       <c r="G266" s="10">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+      <c r="H266" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I266" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="J266" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H266" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="I266" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="J266" s="12" t="str">
-        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K266" s="8"/>
       <c r="L266" s="8"/>
-      <c r="M266" s="8"/>
-      <c r="N266" s="8"/>
-      <c r="O266" s="13"/>
+      <c r="M266" s="8">
+        <v>5</v>
+      </c>
+      <c r="N266" s="8">
+        <v>53</v>
+      </c>
+      <c r="O266" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="267" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="7">
@@ -14514,27 +14968,37 @@
       <c r="D267" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E267" s="10"/>
-      <c r="F267" s="10"/>
+      <c r="E267" s="10">
+        <v>29</v>
+      </c>
+      <c r="F267" s="10">
+        <v>7</v>
+      </c>
       <c r="G267" s="10">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="H267" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I267" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="J267" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H267" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="I267" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="J267" s="12" t="str">
-        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K267" s="8"/>
       <c r="L267" s="8"/>
-      <c r="M267" s="8"/>
-      <c r="N267" s="8"/>
-      <c r="O267" s="13"/>
+      <c r="M267" s="8">
+        <v>5</v>
+      </c>
+      <c r="N267" s="8">
+        <v>53</v>
+      </c>
+      <c r="O267" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="268" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="7">
@@ -14549,27 +15013,41 @@
       <c r="D268" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E268" s="10"/>
-      <c r="F268" s="10"/>
+      <c r="E268" s="10">
+        <v>49</v>
+      </c>
+      <c r="F268" s="10">
+        <v>14</v>
+      </c>
       <c r="G268" s="10">
+        <f t="shared" si="10"/>
+        <v>63</v>
+      </c>
+      <c r="H268" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I268" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="J268" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H268" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="I268" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="J268" s="12" t="str">
-        <f t="shared" si="10"/>
-        <v>راسب</v>
-      </c>
-      <c r="K268" s="8"/>
-      <c r="L268" s="8"/>
-      <c r="M268" s="8"/>
-      <c r="N268" s="8"/>
-      <c r="O268" s="13"/>
+        <v>ناجح</v>
+      </c>
+      <c r="K268" s="8">
+        <v>1</v>
+      </c>
+      <c r="L268" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M268" s="8">
+        <v>5</v>
+      </c>
+      <c r="N268" s="8">
+        <v>53</v>
+      </c>
+      <c r="O268" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="269" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="7">
@@ -14584,27 +15062,37 @@
       <c r="D269" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E269" s="10"/>
-      <c r="F269" s="10"/>
+      <c r="E269" s="10">
+        <v>36</v>
+      </c>
+      <c r="F269" s="10">
+        <v>4</v>
+      </c>
       <c r="G269" s="10">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="H269" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I269" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="J269" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H269" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="I269" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="J269" s="12" t="str">
-        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K269" s="8"/>
       <c r="L269" s="8"/>
-      <c r="M269" s="8"/>
-      <c r="N269" s="8"/>
-      <c r="O269" s="13"/>
+      <c r="M269" s="8">
+        <v>5</v>
+      </c>
+      <c r="N269" s="8">
+        <v>53</v>
+      </c>
+      <c r="O269" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="270" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="7">
@@ -14619,27 +15107,37 @@
       <c r="D270" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E270" s="10"/>
-      <c r="F270" s="10"/>
+      <c r="E270" s="10">
+        <v>28</v>
+      </c>
+      <c r="F270" s="10">
+        <v>6</v>
+      </c>
       <c r="G270" s="10">
+        <f t="shared" si="10"/>
+        <v>34</v>
+      </c>
+      <c r="H270" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I270" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="J270" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H270" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="I270" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="J270" s="12" t="str">
-        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K270" s="8"/>
       <c r="L270" s="8"/>
-      <c r="M270" s="8"/>
-      <c r="N270" s="8"/>
-      <c r="O270" s="13"/>
+      <c r="M270" s="8">
+        <v>5</v>
+      </c>
+      <c r="N270" s="8">
+        <v>53</v>
+      </c>
+      <c r="O270" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="271" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="7">
@@ -14654,27 +15152,37 @@
       <c r="D271" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E271" s="10"/>
-      <c r="F271" s="10"/>
+      <c r="E271" s="10">
+        <v>17</v>
+      </c>
+      <c r="F271" s="10">
+        <v>2</v>
+      </c>
       <c r="G271" s="10">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="H271" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I271" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="J271" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H271" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="I271" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="J271" s="12" t="str">
-        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K271" s="8"/>
       <c r="L271" s="8"/>
-      <c r="M271" s="8"/>
-      <c r="N271" s="8"/>
-      <c r="O271" s="13"/>
+      <c r="M271" s="8">
+        <v>5</v>
+      </c>
+      <c r="N271" s="8">
+        <v>53</v>
+      </c>
+      <c r="O271" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="272" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="7">
@@ -14689,27 +15197,37 @@
       <c r="D272" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E272" s="10"/>
-      <c r="F272" s="10"/>
+      <c r="E272" s="10">
+        <v>33</v>
+      </c>
+      <c r="F272" s="10">
+        <v>8</v>
+      </c>
       <c r="G272" s="10">
+        <f t="shared" si="10"/>
+        <v>41</v>
+      </c>
+      <c r="H272" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I272" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="J272" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H272" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="I272" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="J272" s="12" t="str">
-        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K272" s="8"/>
       <c r="L272" s="8"/>
-      <c r="M272" s="8"/>
-      <c r="N272" s="8"/>
-      <c r="O272" s="13"/>
+      <c r="M272" s="8">
+        <v>5</v>
+      </c>
+      <c r="N272" s="8">
+        <v>53</v>
+      </c>
+      <c r="O272" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="273" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="7">
@@ -14724,27 +15242,37 @@
       <c r="D273" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E273" s="10"/>
-      <c r="F273" s="10"/>
+      <c r="E273" s="10">
+        <v>29</v>
+      </c>
+      <c r="F273" s="10">
+        <v>14</v>
+      </c>
       <c r="G273" s="10">
+        <f t="shared" si="10"/>
+        <v>43</v>
+      </c>
+      <c r="H273" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I273" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="J273" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H273" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="I273" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="J273" s="12" t="str">
-        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K273" s="8"/>
       <c r="L273" s="8"/>
-      <c r="M273" s="8"/>
-      <c r="N273" s="8"/>
-      <c r="O273" s="13"/>
+      <c r="M273" s="8">
+        <v>5</v>
+      </c>
+      <c r="N273" s="8">
+        <v>53</v>
+      </c>
+      <c r="O273" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="274" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="7">
@@ -14759,27 +15287,37 @@
       <c r="D274" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E274" s="10"/>
-      <c r="F274" s="10"/>
+      <c r="E274" s="10">
+        <v>25</v>
+      </c>
+      <c r="F274" s="10">
+        <v>8</v>
+      </c>
       <c r="G274" s="10">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="H274" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I274" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="J274" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H274" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="I274" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="J274" s="12" t="str">
-        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K274" s="8"/>
       <c r="L274" s="8"/>
-      <c r="M274" s="8"/>
-      <c r="N274" s="8"/>
-      <c r="O274" s="13"/>
+      <c r="M274" s="8">
+        <v>5</v>
+      </c>
+      <c r="N274" s="8">
+        <v>53</v>
+      </c>
+      <c r="O274" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="275" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="7">
@@ -14794,27 +15332,37 @@
       <c r="D275" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E275" s="10"/>
-      <c r="F275" s="10"/>
+      <c r="E275" s="10">
+        <v>27</v>
+      </c>
+      <c r="F275" s="10">
+        <v>4</v>
+      </c>
       <c r="G275" s="10">
+        <f t="shared" si="10"/>
+        <v>31</v>
+      </c>
+      <c r="H275" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I275" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="J275" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H275" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="I275" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="J275" s="12" t="str">
-        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K275" s="8"/>
       <c r="L275" s="8"/>
-      <c r="M275" s="8"/>
-      <c r="N275" s="8"/>
-      <c r="O275" s="13"/>
+      <c r="M275" s="8">
+        <v>5</v>
+      </c>
+      <c r="N275" s="8">
+        <v>53</v>
+      </c>
+      <c r="O275" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="276" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="7">
@@ -14829,27 +15377,37 @@
       <c r="D276" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E276" s="10"/>
-      <c r="F276" s="10"/>
+      <c r="E276" s="10">
+        <v>29</v>
+      </c>
+      <c r="F276" s="10">
+        <v>0</v>
+      </c>
       <c r="G276" s="10">
+        <f t="shared" si="10"/>
+        <v>29</v>
+      </c>
+      <c r="H276" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I276" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="J276" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H276" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="I276" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="J276" s="12" t="str">
-        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K276" s="8"/>
       <c r="L276" s="8"/>
-      <c r="M276" s="8"/>
-      <c r="N276" s="8"/>
-      <c r="O276" s="13"/>
+      <c r="M276" s="8">
+        <v>5</v>
+      </c>
+      <c r="N276" s="8">
+        <v>53</v>
+      </c>
+      <c r="O276" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="277" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="7">
@@ -14864,27 +15422,37 @@
       <c r="D277" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E277" s="10"/>
-      <c r="F277" s="10"/>
+      <c r="E277" s="10">
+        <v>23</v>
+      </c>
+      <c r="F277" s="10">
+        <v>0</v>
+      </c>
       <c r="G277" s="10">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="H277" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I277" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="J277" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H277" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="I277" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="J277" s="12" t="str">
-        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K277" s="8"/>
       <c r="L277" s="8"/>
-      <c r="M277" s="8"/>
-      <c r="N277" s="8"/>
-      <c r="O277" s="13"/>
+      <c r="M277" s="8">
+        <v>5</v>
+      </c>
+      <c r="N277" s="8">
+        <v>53</v>
+      </c>
+      <c r="O277" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="278" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="7">
@@ -14899,27 +15467,37 @@
       <c r="D278" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E278" s="10"/>
-      <c r="F278" s="10"/>
+      <c r="E278" s="10">
+        <v>19</v>
+      </c>
+      <c r="F278" s="10">
+        <v>3</v>
+      </c>
       <c r="G278" s="10">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="H278" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I278" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="J278" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H278" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="I278" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="J278" s="12" t="str">
-        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K278" s="8"/>
       <c r="L278" s="8"/>
-      <c r="M278" s="8"/>
-      <c r="N278" s="8"/>
-      <c r="O278" s="13"/>
+      <c r="M278" s="8">
+        <v>5</v>
+      </c>
+      <c r="N278" s="8">
+        <v>53</v>
+      </c>
+      <c r="O278" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="279" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="7">
@@ -14934,27 +15512,37 @@
       <c r="D279" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E279" s="10"/>
-      <c r="F279" s="10"/>
+      <c r="E279" s="10">
+        <v>29</v>
+      </c>
+      <c r="F279" s="10">
+        <v>2</v>
+      </c>
       <c r="G279" s="10">
+        <f t="shared" si="10"/>
+        <v>31</v>
+      </c>
+      <c r="H279" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I279" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="J279" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H279" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="I279" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="J279" s="12" t="str">
-        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K279" s="8"/>
       <c r="L279" s="8"/>
-      <c r="M279" s="8"/>
-      <c r="N279" s="8"/>
-      <c r="O279" s="13"/>
+      <c r="M279" s="8">
+        <v>5</v>
+      </c>
+      <c r="N279" s="8">
+        <v>53</v>
+      </c>
+      <c r="O279" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="280" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="7">
@@ -14969,27 +15557,37 @@
       <c r="D280" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E280" s="10"/>
-      <c r="F280" s="10"/>
+      <c r="E280" s="10">
+        <v>28</v>
+      </c>
+      <c r="F280" s="10">
+        <v>18</v>
+      </c>
       <c r="G280" s="10">
+        <f t="shared" si="10"/>
+        <v>46</v>
+      </c>
+      <c r="H280" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I280" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="J280" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H280" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="I280" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="J280" s="12" t="str">
-        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K280" s="8"/>
       <c r="L280" s="8"/>
-      <c r="M280" s="8"/>
-      <c r="N280" s="8"/>
-      <c r="O280" s="13"/>
+      <c r="M280" s="8">
+        <v>5</v>
+      </c>
+      <c r="N280" s="8">
+        <v>53</v>
+      </c>
+      <c r="O280" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="281" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="7">
@@ -15004,27 +15602,37 @@
       <c r="D281" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E281" s="10"/>
-      <c r="F281" s="10"/>
+      <c r="E281" s="10">
+        <v>25</v>
+      </c>
+      <c r="F281" s="10">
+        <v>3</v>
+      </c>
       <c r="G281" s="10">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="H281" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I281" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="J281" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H281" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="I281" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="J281" s="12" t="str">
-        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K281" s="8"/>
       <c r="L281" s="8"/>
-      <c r="M281" s="8"/>
-      <c r="N281" s="8"/>
-      <c r="O281" s="13"/>
+      <c r="M281" s="8">
+        <v>5</v>
+      </c>
+      <c r="N281" s="8">
+        <v>53</v>
+      </c>
+      <c r="O281" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="282" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="7">
@@ -15039,27 +15647,37 @@
       <c r="D282" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E282" s="10"/>
-      <c r="F282" s="10"/>
+      <c r="E282" s="10">
+        <v>29</v>
+      </c>
+      <c r="F282" s="10">
+        <v>6</v>
+      </c>
       <c r="G282" s="10">
+        <f t="shared" si="10"/>
+        <v>35</v>
+      </c>
+      <c r="H282" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I282" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="J282" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H282" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="I282" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="J282" s="12" t="str">
-        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K282" s="8"/>
       <c r="L282" s="8"/>
-      <c r="M282" s="8"/>
-      <c r="N282" s="8"/>
-      <c r="O282" s="13"/>
+      <c r="M282" s="8">
+        <v>5</v>
+      </c>
+      <c r="N282" s="8">
+        <v>53</v>
+      </c>
+      <c r="O282" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="283" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="7">
@@ -15074,27 +15692,37 @@
       <c r="D283" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E283" s="10"/>
-      <c r="F283" s="10"/>
+      <c r="E283" s="10">
+        <v>36</v>
+      </c>
+      <c r="F283" s="10">
+        <v>5</v>
+      </c>
       <c r="G283" s="10">
+        <f t="shared" si="10"/>
+        <v>41</v>
+      </c>
+      <c r="H283" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I283" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="J283" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H283" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="I283" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="J283" s="12" t="str">
-        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K283" s="8"/>
       <c r="L283" s="8"/>
-      <c r="M283" s="8"/>
-      <c r="N283" s="8"/>
-      <c r="O283" s="13"/>
+      <c r="M283" s="8">
+        <v>5</v>
+      </c>
+      <c r="N283" s="8">
+        <v>53</v>
+      </c>
+      <c r="O283" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="284" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="7">
@@ -15109,11 +15737,15 @@
       <c r="D284" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E284" s="10"/>
-      <c r="F284" s="10"/>
+      <c r="E284" s="10">
+        <v>31</v>
+      </c>
+      <c r="F284" s="10">
+        <v>13</v>
+      </c>
       <c r="G284" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" ref="G284:G315" si="12">F284+E284</f>
+        <v>44</v>
       </c>
       <c r="H284" s="11" t="s">
         <v>387</v>
@@ -15122,14 +15754,20 @@
         <v>752</v>
       </c>
       <c r="J284" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="J284:J300" si="13">IF(G284&gt;=50,"ناجح","راسب")</f>
         <v>راسب</v>
       </c>
       <c r="K284" s="8"/>
       <c r="L284" s="8"/>
-      <c r="M284" s="8"/>
-      <c r="N284" s="8"/>
-      <c r="O284" s="13"/>
+      <c r="M284" s="8">
+        <v>5</v>
+      </c>
+      <c r="N284" s="8">
+        <v>53</v>
+      </c>
+      <c r="O284" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="285" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="7">
@@ -15144,11 +15782,15 @@
       <c r="D285" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E285" s="10"/>
-      <c r="F285" s="10"/>
+      <c r="E285" s="10">
+        <v>21</v>
+      </c>
+      <c r="F285" s="10">
+        <v>2</v>
+      </c>
       <c r="G285" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>23</v>
       </c>
       <c r="H285" s="11" t="s">
         <v>387</v>
@@ -15157,14 +15799,20 @@
         <v>752</v>
       </c>
       <c r="J285" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>راسب</v>
       </c>
       <c r="K285" s="8"/>
       <c r="L285" s="8"/>
-      <c r="M285" s="8"/>
-      <c r="N285" s="8"/>
-      <c r="O285" s="13"/>
+      <c r="M285" s="8">
+        <v>5</v>
+      </c>
+      <c r="N285" s="8">
+        <v>53</v>
+      </c>
+      <c r="O285" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="286" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="7">
@@ -15179,11 +15827,15 @@
       <c r="D286" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E286" s="10"/>
-      <c r="F286" s="10"/>
+      <c r="E286" s="10">
+        <v>45</v>
+      </c>
+      <c r="F286" s="10">
+        <v>10</v>
+      </c>
       <c r="G286" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>55</v>
       </c>
       <c r="H286" s="11" t="s">
         <v>387</v>
@@ -15192,14 +15844,24 @@
         <v>752</v>
       </c>
       <c r="J286" s="12" t="str">
-        <f t="shared" si="10"/>
-        <v>راسب</v>
-      </c>
-      <c r="K286" s="8"/>
-      <c r="L286" s="8"/>
-      <c r="M286" s="8"/>
-      <c r="N286" s="8"/>
-      <c r="O286" s="13"/>
+        <f t="shared" si="13"/>
+        <v>ناجح</v>
+      </c>
+      <c r="K286" s="8">
+        <v>3</v>
+      </c>
+      <c r="L286" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M286" s="8">
+        <v>5</v>
+      </c>
+      <c r="N286" s="8">
+        <v>53</v>
+      </c>
+      <c r="O286" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="287" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="7">
@@ -15214,11 +15876,15 @@
       <c r="D287" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E287" s="10"/>
-      <c r="F287" s="10"/>
+      <c r="E287" s="10">
+        <v>37</v>
+      </c>
+      <c r="F287" s="10">
+        <v>2</v>
+      </c>
       <c r="G287" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>39</v>
       </c>
       <c r="H287" s="11" t="s">
         <v>387</v>
@@ -15227,14 +15893,20 @@
         <v>752</v>
       </c>
       <c r="J287" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>راسب</v>
       </c>
       <c r="K287" s="8"/>
       <c r="L287" s="8"/>
-      <c r="M287" s="8"/>
-      <c r="N287" s="8"/>
-      <c r="O287" s="13"/>
+      <c r="M287" s="8">
+        <v>5</v>
+      </c>
+      <c r="N287" s="8">
+        <v>53</v>
+      </c>
+      <c r="O287" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="288" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="7">
@@ -15249,11 +15921,15 @@
       <c r="D288" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E288" s="10"/>
-      <c r="F288" s="10"/>
+      <c r="E288" s="10">
+        <v>31</v>
+      </c>
+      <c r="F288" s="10">
+        <v>14</v>
+      </c>
       <c r="G288" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>45</v>
       </c>
       <c r="H288" s="11" t="s">
         <v>387</v>
@@ -15262,14 +15938,20 @@
         <v>752</v>
       </c>
       <c r="J288" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>راسب</v>
       </c>
       <c r="K288" s="8"/>
       <c r="L288" s="8"/>
-      <c r="M288" s="8"/>
-      <c r="N288" s="8"/>
-      <c r="O288" s="13"/>
+      <c r="M288" s="8">
+        <v>5</v>
+      </c>
+      <c r="N288" s="8">
+        <v>53</v>
+      </c>
+      <c r="O288" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="289" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="7">
@@ -15284,11 +15966,15 @@
       <c r="D289" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E289" s="10"/>
-      <c r="F289" s="10"/>
+      <c r="E289" s="10">
+        <v>21</v>
+      </c>
+      <c r="F289" s="10">
+        <v>2</v>
+      </c>
       <c r="G289" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>23</v>
       </c>
       <c r="H289" s="11" t="s">
         <v>387</v>
@@ -15297,14 +15983,20 @@
         <v>752</v>
       </c>
       <c r="J289" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>راسب</v>
       </c>
       <c r="K289" s="8"/>
       <c r="L289" s="8"/>
-      <c r="M289" s="8"/>
-      <c r="N289" s="8"/>
-      <c r="O289" s="13"/>
+      <c r="M289" s="8">
+        <v>5</v>
+      </c>
+      <c r="N289" s="8">
+        <v>53</v>
+      </c>
+      <c r="O289" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="290" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="7">
@@ -15319,11 +16011,15 @@
       <c r="D290" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E290" s="10"/>
-      <c r="F290" s="10"/>
+      <c r="E290" s="10">
+        <v>25</v>
+      </c>
+      <c r="F290" s="10">
+        <v>6</v>
+      </c>
       <c r="G290" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>31</v>
       </c>
       <c r="H290" s="11" t="s">
         <v>387</v>
@@ -15332,14 +16028,20 @@
         <v>752</v>
       </c>
       <c r="J290" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>راسب</v>
       </c>
       <c r="K290" s="8"/>
       <c r="L290" s="8"/>
-      <c r="M290" s="8"/>
-      <c r="N290" s="8"/>
-      <c r="O290" s="13"/>
+      <c r="M290" s="8">
+        <v>5</v>
+      </c>
+      <c r="N290" s="8">
+        <v>53</v>
+      </c>
+      <c r="O290" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="291" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="7">
@@ -15354,11 +16056,15 @@
       <c r="D291" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E291" s="10"/>
-      <c r="F291" s="10"/>
+      <c r="E291" s="10">
+        <v>36</v>
+      </c>
+      <c r="F291" s="10">
+        <v>7</v>
+      </c>
       <c r="G291" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>43</v>
       </c>
       <c r="H291" s="11" t="s">
         <v>387</v>
@@ -15367,14 +16073,20 @@
         <v>752</v>
       </c>
       <c r="J291" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>راسب</v>
       </c>
       <c r="K291" s="8"/>
       <c r="L291" s="8"/>
-      <c r="M291" s="8"/>
-      <c r="N291" s="8"/>
-      <c r="O291" s="13"/>
+      <c r="M291" s="8">
+        <v>5</v>
+      </c>
+      <c r="N291" s="8">
+        <v>53</v>
+      </c>
+      <c r="O291" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="292" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="7">
@@ -15389,11 +16101,15 @@
       <c r="D292" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E292" s="10"/>
-      <c r="F292" s="10"/>
+      <c r="E292" s="10">
+        <v>28</v>
+      </c>
+      <c r="F292" s="10">
+        <v>4</v>
+      </c>
       <c r="G292" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>32</v>
       </c>
       <c r="H292" s="11" t="s">
         <v>387</v>
@@ -15402,14 +16118,20 @@
         <v>752</v>
       </c>
       <c r="J292" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>راسب</v>
       </c>
       <c r="K292" s="8"/>
       <c r="L292" s="8"/>
-      <c r="M292" s="8"/>
-      <c r="N292" s="8"/>
-      <c r="O292" s="13"/>
+      <c r="M292" s="8">
+        <v>5</v>
+      </c>
+      <c r="N292" s="8">
+        <v>53</v>
+      </c>
+      <c r="O292" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="293" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="7">
@@ -15424,11 +16146,15 @@
       <c r="D293" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E293" s="10"/>
-      <c r="F293" s="10"/>
+      <c r="E293" s="10">
+        <v>28</v>
+      </c>
+      <c r="F293" s="10">
+        <v>4</v>
+      </c>
       <c r="G293" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>32</v>
       </c>
       <c r="H293" s="11" t="s">
         <v>387</v>
@@ -15437,14 +16163,20 @@
         <v>752</v>
       </c>
       <c r="J293" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>راسب</v>
       </c>
       <c r="K293" s="8"/>
       <c r="L293" s="8"/>
-      <c r="M293" s="8"/>
-      <c r="N293" s="8"/>
-      <c r="O293" s="13"/>
+      <c r="M293" s="8">
+        <v>5</v>
+      </c>
+      <c r="N293" s="8">
+        <v>53</v>
+      </c>
+      <c r="O293" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="294" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="7">
@@ -15459,11 +16191,15 @@
       <c r="D294" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E294" s="10"/>
-      <c r="F294" s="10"/>
+      <c r="E294" s="10">
+        <v>21</v>
+      </c>
+      <c r="F294" s="10">
+        <v>3</v>
+      </c>
       <c r="G294" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>24</v>
       </c>
       <c r="H294" s="11" t="s">
         <v>387</v>
@@ -15472,14 +16208,20 @@
         <v>752</v>
       </c>
       <c r="J294" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>راسب</v>
       </c>
       <c r="K294" s="8"/>
       <c r="L294" s="8"/>
-      <c r="M294" s="8"/>
-      <c r="N294" s="8"/>
-      <c r="O294" s="13"/>
+      <c r="M294" s="8">
+        <v>5</v>
+      </c>
+      <c r="N294" s="8">
+        <v>53</v>
+      </c>
+      <c r="O294" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="295" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="7">
@@ -15494,11 +16236,15 @@
       <c r="D295" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E295" s="10"/>
-      <c r="F295" s="10"/>
+      <c r="E295" s="10">
+        <v>36</v>
+      </c>
+      <c r="F295" s="10">
+        <v>3</v>
+      </c>
       <c r="G295" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>39</v>
       </c>
       <c r="H295" s="11" t="s">
         <v>387</v>
@@ -15507,14 +16253,20 @@
         <v>752</v>
       </c>
       <c r="J295" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>راسب</v>
       </c>
       <c r="K295" s="8"/>
       <c r="L295" s="8"/>
-      <c r="M295" s="8"/>
-      <c r="N295" s="8"/>
-      <c r="O295" s="13"/>
+      <c r="M295" s="8">
+        <v>5</v>
+      </c>
+      <c r="N295" s="8">
+        <v>53</v>
+      </c>
+      <c r="O295" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="296" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="7">
@@ -15529,10 +16281,14 @@
       <c r="D296" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E296" s="10"/>
-      <c r="F296" s="10"/>
+      <c r="E296" s="10">
+        <v>0</v>
+      </c>
+      <c r="F296" s="10">
+        <v>0</v>
+      </c>
       <c r="G296" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H296" s="11" t="s">
@@ -15542,14 +16298,20 @@
         <v>752</v>
       </c>
       <c r="J296" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>راسب</v>
       </c>
       <c r="K296" s="8"/>
       <c r="L296" s="8"/>
-      <c r="M296" s="8"/>
-      <c r="N296" s="8"/>
-      <c r="O296" s="13"/>
+      <c r="M296" s="8">
+        <v>5</v>
+      </c>
+      <c r="N296" s="8">
+        <v>53</v>
+      </c>
+      <c r="O296" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="297" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="7">
@@ -15564,11 +16326,15 @@
       <c r="D297" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E297" s="10"/>
-      <c r="F297" s="10"/>
+      <c r="E297" s="10">
+        <v>21</v>
+      </c>
+      <c r="F297" s="10">
+        <v>3</v>
+      </c>
       <c r="G297" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>24</v>
       </c>
       <c r="H297" s="11" t="s">
         <v>387</v>
@@ -15577,14 +16343,20 @@
         <v>752</v>
       </c>
       <c r="J297" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>راسب</v>
       </c>
       <c r="K297" s="8"/>
       <c r="L297" s="8"/>
-      <c r="M297" s="8"/>
-      <c r="N297" s="8"/>
-      <c r="O297" s="13"/>
+      <c r="M297" s="8">
+        <v>5</v>
+      </c>
+      <c r="N297" s="8">
+        <v>53</v>
+      </c>
+      <c r="O297" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="298" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="7">
@@ -15599,11 +16371,15 @@
       <c r="D298" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E298" s="10"/>
-      <c r="F298" s="10"/>
+      <c r="E298" s="10">
+        <v>28</v>
+      </c>
+      <c r="F298" s="10">
+        <v>4</v>
+      </c>
       <c r="G298" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>32</v>
       </c>
       <c r="H298" s="11" t="s">
         <v>387</v>
@@ -15612,14 +16388,20 @@
         <v>752</v>
       </c>
       <c r="J298" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>راسب</v>
       </c>
       <c r="K298" s="8"/>
       <c r="L298" s="8"/>
-      <c r="M298" s="8"/>
-      <c r="N298" s="8"/>
-      <c r="O298" s="13"/>
+      <c r="M298" s="8">
+        <v>5</v>
+      </c>
+      <c r="N298" s="8">
+        <v>53</v>
+      </c>
+      <c r="O298" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="299" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="7">
@@ -15634,11 +16416,15 @@
       <c r="D299" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E299" s="10"/>
-      <c r="F299" s="10"/>
+      <c r="E299" s="10">
+        <v>33</v>
+      </c>
+      <c r="F299" s="10">
+        <v>5</v>
+      </c>
       <c r="G299" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>38</v>
       </c>
       <c r="H299" s="11" t="s">
         <v>387</v>
@@ -15647,14 +16433,20 @@
         <v>752</v>
       </c>
       <c r="J299" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>راسب</v>
       </c>
       <c r="K299" s="8"/>
       <c r="L299" s="8"/>
-      <c r="M299" s="8"/>
-      <c r="N299" s="8"/>
-      <c r="O299" s="13"/>
+      <c r="M299" s="8">
+        <v>5</v>
+      </c>
+      <c r="N299" s="8">
+        <v>53</v>
+      </c>
+      <c r="O299" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="300" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="7">
@@ -15669,11 +16461,15 @@
       <c r="D300" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E300" s="10"/>
-      <c r="F300" s="10"/>
+      <c r="E300" s="10">
+        <v>39</v>
+      </c>
+      <c r="F300" s="10">
+        <v>21</v>
+      </c>
       <c r="G300" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>60</v>
       </c>
       <c r="H300" s="11" t="s">
         <v>387</v>
@@ -15682,14 +16478,24 @@
         <v>752</v>
       </c>
       <c r="J300" s="12" t="str">
-        <f t="shared" si="10"/>
-        <v>راسب</v>
-      </c>
-      <c r="K300" s="8"/>
-      <c r="L300" s="8"/>
-      <c r="M300" s="8"/>
-      <c r="N300" s="8"/>
-      <c r="O300" s="13"/>
+        <f t="shared" si="13"/>
+        <v>ناجح</v>
+      </c>
+      <c r="K300" s="8">
+        <v>2</v>
+      </c>
+      <c r="L300" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M300" s="8">
+        <v>5</v>
+      </c>
+      <c r="N300" s="8">
+        <v>53</v>
+      </c>
+      <c r="O300" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="301" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="7">
@@ -15704,11 +16510,15 @@
       <c r="D301" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E301" s="10"/>
-      <c r="F301" s="10"/>
+      <c r="E301" s="10">
+        <v>41</v>
+      </c>
+      <c r="F301" s="10">
+        <v>3</v>
+      </c>
       <c r="G301" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" ref="G301:G322" si="14">F301+E301</f>
+        <v>44</v>
       </c>
       <c r="H301" s="11" t="s">
         <v>387</v>
@@ -15717,14 +16527,20 @@
         <v>752</v>
       </c>
       <c r="J301" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="J301:J319" si="15">IF(G301&gt;=50,"ناجح","راسب")</f>
         <v>راسب</v>
       </c>
       <c r="K301" s="8"/>
       <c r="L301" s="8"/>
-      <c r="M301" s="8"/>
-      <c r="N301" s="8"/>
-      <c r="O301" s="13"/>
+      <c r="M301" s="8">
+        <v>5</v>
+      </c>
+      <c r="N301" s="8">
+        <v>53</v>
+      </c>
+      <c r="O301" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="302" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="7">
@@ -15739,11 +16555,15 @@
       <c r="D302" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E302" s="10"/>
-      <c r="F302" s="10"/>
+      <c r="E302" s="10">
+        <v>33</v>
+      </c>
+      <c r="F302" s="10">
+        <v>6</v>
+      </c>
       <c r="G302" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>39</v>
       </c>
       <c r="H302" s="11" t="s">
         <v>387</v>
@@ -15752,14 +16572,20 @@
         <v>752</v>
       </c>
       <c r="J302" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>راسب</v>
       </c>
       <c r="K302" s="8"/>
       <c r="L302" s="8"/>
-      <c r="M302" s="8"/>
-      <c r="N302" s="8"/>
-      <c r="O302" s="13"/>
+      <c r="M302" s="8">
+        <v>5</v>
+      </c>
+      <c r="N302" s="8">
+        <v>53</v>
+      </c>
+      <c r="O302" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="303" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="7">
@@ -15774,11 +16600,15 @@
       <c r="D303" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E303" s="10"/>
-      <c r="F303" s="10"/>
+      <c r="E303" s="10">
+        <v>16</v>
+      </c>
+      <c r="F303" s="10">
+        <v>0</v>
+      </c>
       <c r="G303" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>16</v>
       </c>
       <c r="H303" s="11" t="s">
         <v>387</v>
@@ -15787,14 +16617,20 @@
         <v>752</v>
       </c>
       <c r="J303" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>راسب</v>
       </c>
       <c r="K303" s="8"/>
       <c r="L303" s="8"/>
-      <c r="M303" s="8"/>
-      <c r="N303" s="8"/>
-      <c r="O303" s="13"/>
+      <c r="M303" s="8">
+        <v>5</v>
+      </c>
+      <c r="N303" s="8">
+        <v>53</v>
+      </c>
+      <c r="O303" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="304" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="7">
@@ -15809,10 +16645,14 @@
       <c r="D304" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E304" s="10"/>
-      <c r="F304" s="10"/>
+      <c r="E304" s="10">
+        <v>0</v>
+      </c>
+      <c r="F304" s="10">
+        <v>0</v>
+      </c>
       <c r="G304" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H304" s="11" t="s">
@@ -15822,14 +16662,20 @@
         <v>752</v>
       </c>
       <c r="J304" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>راسب</v>
       </c>
       <c r="K304" s="8"/>
       <c r="L304" s="8"/>
-      <c r="M304" s="8"/>
-      <c r="N304" s="8"/>
-      <c r="O304" s="13"/>
+      <c r="M304" s="8">
+        <v>5</v>
+      </c>
+      <c r="N304" s="8">
+        <v>53</v>
+      </c>
+      <c r="O304" s="13">
+        <v>9.4299999999999995E-2</v>
+      </c>
     </row>
     <row r="305" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="7">
@@ -15844,11 +16690,15 @@
       <c r="D305" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E305" s="10"/>
-      <c r="F305" s="10"/>
+      <c r="E305" s="10">
+        <v>23</v>
+      </c>
+      <c r="F305" s="10">
+        <v>0</v>
+      </c>
       <c r="G305" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>23</v>
       </c>
       <c r="H305" s="11" t="s">
         <v>387</v>
@@ -15857,14 +16707,20 @@
         <v>752</v>
       </c>
       <c r="J305" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>راسب</v>
       </c>
       <c r="K305" s="8"/>
       <c r="L305" s="8"/>
-      <c r="M305" s="8"/>
-      <c r="N305" s="8"/>
-      <c r="O305" s="13"/>
+      <c r="M305" s="8">
+        <v>4</v>
+      </c>
+      <c r="N305" s="8">
+        <v>61</v>
+      </c>
+      <c r="O305" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="306" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="7">
@@ -15879,11 +16735,15 @@
       <c r="D306" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E306" s="10"/>
-      <c r="F306" s="10"/>
+      <c r="E306" s="10">
+        <v>33</v>
+      </c>
+      <c r="F306" s="10">
+        <v>2</v>
+      </c>
       <c r="G306" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>35</v>
       </c>
       <c r="H306" s="11" t="s">
         <v>387</v>
@@ -15892,14 +16752,20 @@
         <v>752</v>
       </c>
       <c r="J306" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>راسب</v>
       </c>
       <c r="K306" s="8"/>
       <c r="L306" s="8"/>
-      <c r="M306" s="8"/>
-      <c r="N306" s="8"/>
-      <c r="O306" s="13"/>
+      <c r="M306" s="8">
+        <v>4</v>
+      </c>
+      <c r="N306" s="8">
+        <v>61</v>
+      </c>
+      <c r="O306" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="307" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="7">
@@ -15914,11 +16780,15 @@
       <c r="D307" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E307" s="10"/>
-      <c r="F307" s="10"/>
+      <c r="E307" s="10">
+        <v>35</v>
+      </c>
+      <c r="F307" s="10">
+        <v>4</v>
+      </c>
       <c r="G307" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>39</v>
       </c>
       <c r="H307" s="11" t="s">
         <v>387</v>
@@ -15927,14 +16797,20 @@
         <v>752</v>
       </c>
       <c r="J307" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>راسب</v>
       </c>
       <c r="K307" s="8"/>
       <c r="L307" s="8"/>
-      <c r="M307" s="8"/>
-      <c r="N307" s="8"/>
-      <c r="O307" s="13"/>
+      <c r="M307" s="8">
+        <v>4</v>
+      </c>
+      <c r="N307" s="8">
+        <v>61</v>
+      </c>
+      <c r="O307" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="308" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="7">
@@ -15949,10 +16825,14 @@
       <c r="D308" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E308" s="10"/>
-      <c r="F308" s="10"/>
+      <c r="E308" s="10">
+        <v>0</v>
+      </c>
+      <c r="F308" s="10">
+        <v>0</v>
+      </c>
       <c r="G308" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H308" s="11" t="s">
@@ -15962,14 +16842,20 @@
         <v>752</v>
       </c>
       <c r="J308" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>راسب</v>
       </c>
       <c r="K308" s="8"/>
       <c r="L308" s="8"/>
-      <c r="M308" s="8"/>
-      <c r="N308" s="8"/>
-      <c r="O308" s="13"/>
+      <c r="M308" s="8">
+        <v>4</v>
+      </c>
+      <c r="N308" s="8">
+        <v>61</v>
+      </c>
+      <c r="O308" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="309" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="7">
@@ -15984,11 +16870,15 @@
       <c r="D309" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E309" s="10"/>
-      <c r="F309" s="10"/>
+      <c r="E309" s="10">
+        <v>31</v>
+      </c>
+      <c r="F309" s="10">
+        <v>2</v>
+      </c>
       <c r="G309" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>33</v>
       </c>
       <c r="H309" s="11" t="s">
         <v>387</v>
@@ -15997,14 +16887,20 @@
         <v>752</v>
       </c>
       <c r="J309" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>راسب</v>
       </c>
       <c r="K309" s="8"/>
       <c r="L309" s="8"/>
-      <c r="M309" s="8"/>
-      <c r="N309" s="8"/>
-      <c r="O309" s="13"/>
+      <c r="M309" s="8">
+        <v>4</v>
+      </c>
+      <c r="N309" s="8">
+        <v>61</v>
+      </c>
+      <c r="O309" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="310" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="7">
@@ -16019,10 +16915,14 @@
       <c r="D310" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E310" s="10"/>
-      <c r="F310" s="10"/>
+      <c r="E310" s="10">
+        <v>0</v>
+      </c>
+      <c r="F310" s="10">
+        <v>0</v>
+      </c>
       <c r="G310" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H310" s="11" t="s">
@@ -16032,14 +16932,20 @@
         <v>752</v>
       </c>
       <c r="J310" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>راسب</v>
       </c>
       <c r="K310" s="8"/>
       <c r="L310" s="8"/>
-      <c r="M310" s="8"/>
-      <c r="N310" s="8"/>
-      <c r="O310" s="13"/>
+      <c r="M310" s="8">
+        <v>4</v>
+      </c>
+      <c r="N310" s="8">
+        <v>61</v>
+      </c>
+      <c r="O310" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="311" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="7">
@@ -16054,11 +16960,15 @@
       <c r="D311" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E311" s="10"/>
-      <c r="F311" s="10"/>
+      <c r="E311" s="10">
+        <v>31</v>
+      </c>
+      <c r="F311" s="10">
+        <v>4</v>
+      </c>
       <c r="G311" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>35</v>
       </c>
       <c r="H311" s="11" t="s">
         <v>387</v>
@@ -16067,14 +16977,20 @@
         <v>752</v>
       </c>
       <c r="J311" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>راسب</v>
       </c>
       <c r="K311" s="8"/>
       <c r="L311" s="8"/>
-      <c r="M311" s="8"/>
-      <c r="N311" s="8"/>
-      <c r="O311" s="13"/>
+      <c r="M311" s="8">
+        <v>4</v>
+      </c>
+      <c r="N311" s="8">
+        <v>61</v>
+      </c>
+      <c r="O311" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="312" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="7">
@@ -16089,11 +17005,15 @@
       <c r="D312" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E312" s="10"/>
-      <c r="F312" s="10"/>
+      <c r="E312" s="10">
+        <v>28</v>
+      </c>
+      <c r="F312" s="10">
+        <v>6</v>
+      </c>
       <c r="G312" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>34</v>
       </c>
       <c r="H312" s="11" t="s">
         <v>387</v>
@@ -16102,14 +17022,20 @@
         <v>752</v>
       </c>
       <c r="J312" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>راسب</v>
       </c>
       <c r="K312" s="8"/>
       <c r="L312" s="8"/>
-      <c r="M312" s="8"/>
-      <c r="N312" s="8"/>
-      <c r="O312" s="13"/>
+      <c r="M312" s="8">
+        <v>4</v>
+      </c>
+      <c r="N312" s="8">
+        <v>61</v>
+      </c>
+      <c r="O312" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="313" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="7">
@@ -16124,11 +17050,15 @@
       <c r="D313" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E313" s="10"/>
-      <c r="F313" s="10"/>
+      <c r="E313" s="10">
+        <v>29</v>
+      </c>
+      <c r="F313" s="10">
+        <v>9</v>
+      </c>
       <c r="G313" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>38</v>
       </c>
       <c r="H313" s="11" t="s">
         <v>387</v>
@@ -16137,14 +17067,20 @@
         <v>752</v>
       </c>
       <c r="J313" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>راسب</v>
       </c>
       <c r="K313" s="8"/>
       <c r="L313" s="8"/>
-      <c r="M313" s="8"/>
-      <c r="N313" s="8"/>
-      <c r="O313" s="13"/>
+      <c r="M313" s="8">
+        <v>4</v>
+      </c>
+      <c r="N313" s="8">
+        <v>61</v>
+      </c>
+      <c r="O313" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="314" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="7">
@@ -16159,11 +17095,15 @@
       <c r="D314" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E314" s="10"/>
-      <c r="F314" s="10"/>
+      <c r="E314" s="10">
+        <v>37</v>
+      </c>
+      <c r="F314" s="10">
+        <v>7</v>
+      </c>
       <c r="G314" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>44</v>
       </c>
       <c r="H314" s="11" t="s">
         <v>387</v>
@@ -16172,14 +17112,20 @@
         <v>752</v>
       </c>
       <c r="J314" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>راسب</v>
       </c>
       <c r="K314" s="8"/>
       <c r="L314" s="8"/>
-      <c r="M314" s="8"/>
-      <c r="N314" s="8"/>
-      <c r="O314" s="13"/>
+      <c r="M314" s="8">
+        <v>4</v>
+      </c>
+      <c r="N314" s="8">
+        <v>61</v>
+      </c>
+      <c r="O314" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="315" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="7">
@@ -16194,11 +17140,15 @@
       <c r="D315" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E315" s="10"/>
-      <c r="F315" s="10"/>
+      <c r="E315" s="10">
+        <v>25</v>
+      </c>
+      <c r="F315" s="10">
+        <v>8</v>
+      </c>
       <c r="G315" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>33</v>
       </c>
       <c r="H315" s="11" t="s">
         <v>387</v>
@@ -16207,14 +17157,20 @@
         <v>752</v>
       </c>
       <c r="J315" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>راسب</v>
       </c>
       <c r="K315" s="8"/>
       <c r="L315" s="8"/>
-      <c r="M315" s="8"/>
-      <c r="N315" s="8"/>
-      <c r="O315" s="13"/>
+      <c r="M315" s="8">
+        <v>4</v>
+      </c>
+      <c r="N315" s="8">
+        <v>61</v>
+      </c>
+      <c r="O315" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="316" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="7">
@@ -16229,10 +17185,14 @@
       <c r="D316" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E316" s="10"/>
-      <c r="F316" s="10"/>
+      <c r="E316" s="10">
+        <v>0</v>
+      </c>
+      <c r="F316" s="10">
+        <v>0</v>
+      </c>
       <c r="G316" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H316" s="11" t="s">
@@ -16242,14 +17202,20 @@
         <v>752</v>
       </c>
       <c r="J316" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>راسب</v>
       </c>
       <c r="K316" s="8"/>
       <c r="L316" s="8"/>
-      <c r="M316" s="8"/>
-      <c r="N316" s="8"/>
-      <c r="O316" s="13"/>
+      <c r="M316" s="8">
+        <v>4</v>
+      </c>
+      <c r="N316" s="8">
+        <v>61</v>
+      </c>
+      <c r="O316" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="317" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="7">
@@ -16264,11 +17230,15 @@
       <c r="D317" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E317" s="10"/>
-      <c r="F317" s="10"/>
+      <c r="E317" s="10">
+        <v>27</v>
+      </c>
+      <c r="F317" s="10">
+        <v>6</v>
+      </c>
       <c r="G317" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>33</v>
       </c>
       <c r="H317" s="11" t="s">
         <v>387</v>
@@ -16277,14 +17247,20 @@
         <v>752</v>
       </c>
       <c r="J317" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>راسب</v>
       </c>
       <c r="K317" s="8"/>
       <c r="L317" s="8"/>
-      <c r="M317" s="8"/>
-      <c r="N317" s="8"/>
-      <c r="O317" s="13"/>
+      <c r="M317" s="8">
+        <v>4</v>
+      </c>
+      <c r="N317" s="8">
+        <v>61</v>
+      </c>
+      <c r="O317" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="318" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="7">
@@ -16299,11 +17275,15 @@
       <c r="D318" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E318" s="10"/>
-      <c r="F318" s="10"/>
+      <c r="E318" s="10">
+        <v>48</v>
+      </c>
+      <c r="F318" s="10">
+        <v>27</v>
+      </c>
       <c r="G318" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>75</v>
       </c>
       <c r="H318" s="11" t="s">
         <v>387</v>
@@ -16312,14 +17292,24 @@
         <v>752</v>
       </c>
       <c r="J318" s="12" t="str">
-        <f t="shared" si="10"/>
-        <v>راسب</v>
-      </c>
-      <c r="K318" s="8"/>
-      <c r="L318" s="8"/>
-      <c r="M318" s="8"/>
-      <c r="N318" s="8"/>
-      <c r="O318" s="13"/>
+        <f t="shared" si="15"/>
+        <v>ناجح</v>
+      </c>
+      <c r="K318" s="8">
+        <v>1</v>
+      </c>
+      <c r="L318" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M318" s="8">
+        <v>4</v>
+      </c>
+      <c r="N318" s="8">
+        <v>61</v>
+      </c>
+      <c r="O318" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="319" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="7">
@@ -16334,11 +17324,15 @@
       <c r="D319" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E319" s="10"/>
-      <c r="F319" s="10"/>
+      <c r="E319" s="10">
+        <v>39</v>
+      </c>
+      <c r="F319" s="10">
+        <v>8</v>
+      </c>
       <c r="G319" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>47</v>
       </c>
       <c r="H319" s="11" t="s">
         <v>387</v>
@@ -16347,14 +17341,20 @@
         <v>752</v>
       </c>
       <c r="J319" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>راسب</v>
       </c>
       <c r="K319" s="8"/>
       <c r="L319" s="8"/>
-      <c r="M319" s="8"/>
-      <c r="N319" s="8"/>
-      <c r="O319" s="13"/>
+      <c r="M319" s="8">
+        <v>4</v>
+      </c>
+      <c r="N319" s="8">
+        <v>61</v>
+      </c>
+      <c r="O319" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="320" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="7">
@@ -16369,11 +17369,15 @@
       <c r="D320" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E320" s="10"/>
-      <c r="F320" s="10"/>
+      <c r="E320" s="10">
+        <v>29</v>
+      </c>
+      <c r="F320" s="10">
+        <v>8</v>
+      </c>
       <c r="G320" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>37</v>
       </c>
       <c r="H320" s="11" t="s">
         <v>387</v>
@@ -16382,14 +17386,20 @@
         <v>752</v>
       </c>
       <c r="J320" s="12" t="str">
-        <f t="shared" ref="J320:J365" si="12">IF(G320&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" ref="J320:J365" si="16">IF(G320&gt;=50,"ناجح","راسب")</f>
         <v>راسب</v>
       </c>
       <c r="K320" s="8"/>
       <c r="L320" s="8"/>
-      <c r="M320" s="8"/>
-      <c r="N320" s="8"/>
-      <c r="O320" s="13"/>
+      <c r="M320" s="8">
+        <v>4</v>
+      </c>
+      <c r="N320" s="8">
+        <v>61</v>
+      </c>
+      <c r="O320" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="321" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="7">
@@ -16404,11 +17414,15 @@
       <c r="D321" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E321" s="10"/>
-      <c r="F321" s="10"/>
+      <c r="E321" s="10">
+        <v>28</v>
+      </c>
+      <c r="F321" s="10">
+        <v>3</v>
+      </c>
       <c r="G321" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>31</v>
       </c>
       <c r="H321" s="11" t="s">
         <v>387</v>
@@ -16417,14 +17431,20 @@
         <v>752</v>
       </c>
       <c r="J321" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K321" s="8"/>
       <c r="L321" s="8"/>
-      <c r="M321" s="8"/>
-      <c r="N321" s="8"/>
-      <c r="O321" s="13"/>
+      <c r="M321" s="8">
+        <v>4</v>
+      </c>
+      <c r="N321" s="8">
+        <v>61</v>
+      </c>
+      <c r="O321" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="322" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="7">
@@ -16439,11 +17459,15 @@
       <c r="D322" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E322" s="10"/>
-      <c r="F322" s="10"/>
+      <c r="E322" s="10">
+        <v>32</v>
+      </c>
+      <c r="F322" s="10">
+        <v>6</v>
+      </c>
       <c r="G322" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>38</v>
       </c>
       <c r="H322" s="11" t="s">
         <v>387</v>
@@ -16452,14 +17476,20 @@
         <v>752</v>
       </c>
       <c r="J322" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K322" s="8"/>
       <c r="L322" s="8"/>
-      <c r="M322" s="8"/>
-      <c r="N322" s="8"/>
-      <c r="O322" s="13"/>
+      <c r="M322" s="8">
+        <v>4</v>
+      </c>
+      <c r="N322" s="8">
+        <v>61</v>
+      </c>
+      <c r="O322" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="323" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="7">
@@ -16474,11 +17504,15 @@
       <c r="D323" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E323" s="10"/>
-      <c r="F323" s="10"/>
+      <c r="E323" s="10">
+        <v>21</v>
+      </c>
+      <c r="F323" s="10">
+        <v>11</v>
+      </c>
       <c r="G323" s="10">
-        <f t="shared" ref="G323:G365" si="13">F323+E323</f>
-        <v>0</v>
+        <f t="shared" ref="G323:G365" si="17">F323+E323</f>
+        <v>32</v>
       </c>
       <c r="H323" s="11" t="s">
         <v>387</v>
@@ -16487,14 +17521,20 @@
         <v>752</v>
       </c>
       <c r="J323" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K323" s="8"/>
       <c r="L323" s="8"/>
-      <c r="M323" s="8"/>
-      <c r="N323" s="8"/>
-      <c r="O323" s="13"/>
+      <c r="M323" s="8">
+        <v>4</v>
+      </c>
+      <c r="N323" s="8">
+        <v>61</v>
+      </c>
+      <c r="O323" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="324" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="7">
@@ -16509,10 +17549,14 @@
       <c r="D324" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E324" s="10"/>
-      <c r="F324" s="10"/>
+      <c r="E324" s="10">
+        <v>0</v>
+      </c>
+      <c r="F324" s="10">
+        <v>0</v>
+      </c>
       <c r="G324" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H324" s="11" t="s">
@@ -16522,14 +17566,20 @@
         <v>752</v>
       </c>
       <c r="J324" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K324" s="8"/>
       <c r="L324" s="8"/>
-      <c r="M324" s="8"/>
-      <c r="N324" s="8"/>
-      <c r="O324" s="13"/>
+      <c r="M324" s="8">
+        <v>4</v>
+      </c>
+      <c r="N324" s="8">
+        <v>61</v>
+      </c>
+      <c r="O324" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="325" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="7">
@@ -16544,10 +17594,14 @@
       <c r="D325" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E325" s="10"/>
-      <c r="F325" s="10"/>
+      <c r="E325" s="10">
+        <v>0</v>
+      </c>
+      <c r="F325" s="10">
+        <v>0</v>
+      </c>
       <c r="G325" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H325" s="11" t="s">
@@ -16557,14 +17611,20 @@
         <v>752</v>
       </c>
       <c r="J325" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K325" s="8"/>
       <c r="L325" s="8"/>
-      <c r="M325" s="8"/>
-      <c r="N325" s="8"/>
-      <c r="O325" s="13"/>
+      <c r="M325" s="8">
+        <v>4</v>
+      </c>
+      <c r="N325" s="8">
+        <v>61</v>
+      </c>
+      <c r="O325" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="326" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="7">
@@ -16579,11 +17639,15 @@
       <c r="D326" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E326" s="10"/>
-      <c r="F326" s="10"/>
+      <c r="E326" s="10">
+        <v>36</v>
+      </c>
+      <c r="F326" s="10">
+        <v>3</v>
+      </c>
       <c r="G326" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>39</v>
       </c>
       <c r="H326" s="11" t="s">
         <v>387</v>
@@ -16592,14 +17656,20 @@
         <v>752</v>
       </c>
       <c r="J326" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K326" s="8"/>
       <c r="L326" s="8"/>
-      <c r="M326" s="8"/>
-      <c r="N326" s="8"/>
-      <c r="O326" s="13"/>
+      <c r="M326" s="8">
+        <v>4</v>
+      </c>
+      <c r="N326" s="8">
+        <v>61</v>
+      </c>
+      <c r="O326" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="327" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="7">
@@ -16614,11 +17684,15 @@
       <c r="D327" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E327" s="10"/>
-      <c r="F327" s="10"/>
+      <c r="E327" s="10">
+        <v>37</v>
+      </c>
+      <c r="F327" s="10">
+        <v>3</v>
+      </c>
       <c r="G327" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>40</v>
       </c>
       <c r="H327" s="11" t="s">
         <v>387</v>
@@ -16627,14 +17701,20 @@
         <v>752</v>
       </c>
       <c r="J327" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K327" s="8"/>
       <c r="L327" s="8"/>
-      <c r="M327" s="8"/>
-      <c r="N327" s="8"/>
-      <c r="O327" s="13"/>
+      <c r="M327" s="8">
+        <v>4</v>
+      </c>
+      <c r="N327" s="8">
+        <v>61</v>
+      </c>
+      <c r="O327" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="328" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="7">
@@ -16649,11 +17729,15 @@
       <c r="D328" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E328" s="10"/>
-      <c r="F328" s="10"/>
+      <c r="E328" s="10">
+        <v>32</v>
+      </c>
+      <c r="F328" s="10">
+        <v>0</v>
+      </c>
       <c r="G328" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>32</v>
       </c>
       <c r="H328" s="11" t="s">
         <v>387</v>
@@ -16662,14 +17746,20 @@
         <v>752</v>
       </c>
       <c r="J328" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K328" s="8"/>
       <c r="L328" s="8"/>
-      <c r="M328" s="8"/>
-      <c r="N328" s="8"/>
-      <c r="O328" s="13"/>
+      <c r="M328" s="8">
+        <v>4</v>
+      </c>
+      <c r="N328" s="8">
+        <v>61</v>
+      </c>
+      <c r="O328" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="329" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="7">
@@ -16691,7 +17781,7 @@
         <v>8</v>
       </c>
       <c r="G329" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>33</v>
       </c>
       <c r="H329" s="11" t="s">
@@ -16701,14 +17791,20 @@
         <v>752</v>
       </c>
       <c r="J329" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K329" s="8"/>
       <c r="L329" s="8"/>
-      <c r="M329" s="8"/>
-      <c r="N329" s="8"/>
-      <c r="O329" s="13"/>
+      <c r="M329" s="8">
+        <v>4</v>
+      </c>
+      <c r="N329" s="8">
+        <v>61</v>
+      </c>
+      <c r="O329" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="330" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="7">
@@ -16723,11 +17819,15 @@
       <c r="D330" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E330" s="10"/>
-      <c r="F330" s="10"/>
+      <c r="E330" s="10">
+        <v>28</v>
+      </c>
+      <c r="F330" s="10">
+        <v>9</v>
+      </c>
       <c r="G330" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>37</v>
       </c>
       <c r="H330" s="11" t="s">
         <v>387</v>
@@ -16736,14 +17836,20 @@
         <v>752</v>
       </c>
       <c r="J330" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K330" s="8"/>
       <c r="L330" s="8"/>
-      <c r="M330" s="8"/>
-      <c r="N330" s="8"/>
-      <c r="O330" s="13"/>
+      <c r="M330" s="8">
+        <v>4</v>
+      </c>
+      <c r="N330" s="8">
+        <v>61</v>
+      </c>
+      <c r="O330" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="331" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="7">
@@ -16758,11 +17864,15 @@
       <c r="D331" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E331" s="10"/>
-      <c r="F331" s="10"/>
+      <c r="E331" s="10">
+        <v>33</v>
+      </c>
+      <c r="F331" s="10">
+        <v>6</v>
+      </c>
       <c r="G331" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>39</v>
       </c>
       <c r="H331" s="11" t="s">
         <v>387</v>
@@ -16771,14 +17881,20 @@
         <v>752</v>
       </c>
       <c r="J331" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K331" s="8"/>
       <c r="L331" s="8"/>
-      <c r="M331" s="8"/>
-      <c r="N331" s="8"/>
-      <c r="O331" s="13"/>
+      <c r="M331" s="8">
+        <v>4</v>
+      </c>
+      <c r="N331" s="8">
+        <v>61</v>
+      </c>
+      <c r="O331" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="332" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="7">
@@ -16793,10 +17909,14 @@
       <c r="D332" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E332" s="10"/>
-      <c r="F332" s="10"/>
+      <c r="E332" s="10">
+        <v>0</v>
+      </c>
+      <c r="F332" s="10">
+        <v>0</v>
+      </c>
       <c r="G332" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H332" s="11" t="s">
@@ -16806,14 +17926,20 @@
         <v>752</v>
       </c>
       <c r="J332" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K332" s="8"/>
       <c r="L332" s="8"/>
-      <c r="M332" s="8"/>
-      <c r="N332" s="8"/>
-      <c r="O332" s="13"/>
+      <c r="M332" s="8">
+        <v>4</v>
+      </c>
+      <c r="N332" s="8">
+        <v>61</v>
+      </c>
+      <c r="O332" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="333" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="7">
@@ -16828,10 +17954,14 @@
       <c r="D333" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E333" s="10"/>
-      <c r="F333" s="10"/>
+      <c r="E333" s="10">
+        <v>0</v>
+      </c>
+      <c r="F333" s="10">
+        <v>0</v>
+      </c>
       <c r="G333" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H333" s="11" t="s">
@@ -16841,14 +17971,20 @@
         <v>752</v>
       </c>
       <c r="J333" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K333" s="8"/>
       <c r="L333" s="8"/>
-      <c r="M333" s="8"/>
-      <c r="N333" s="8"/>
-      <c r="O333" s="13"/>
+      <c r="M333" s="8">
+        <v>4</v>
+      </c>
+      <c r="N333" s="8">
+        <v>61</v>
+      </c>
+      <c r="O333" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="334" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="7">
@@ -16863,11 +17999,15 @@
       <c r="D334" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E334" s="10"/>
-      <c r="F334" s="10"/>
+      <c r="E334" s="10">
+        <v>24</v>
+      </c>
+      <c r="F334" s="10">
+        <v>2</v>
+      </c>
       <c r="G334" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>26</v>
       </c>
       <c r="H334" s="11" t="s">
         <v>387</v>
@@ -16876,14 +18016,20 @@
         <v>752</v>
       </c>
       <c r="J334" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K334" s="8"/>
       <c r="L334" s="8"/>
-      <c r="M334" s="8"/>
-      <c r="N334" s="8"/>
-      <c r="O334" s="13"/>
+      <c r="M334" s="8">
+        <v>4</v>
+      </c>
+      <c r="N334" s="8">
+        <v>61</v>
+      </c>
+      <c r="O334" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="335" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="7">
@@ -16898,10 +18044,14 @@
       <c r="D335" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E335" s="10"/>
-      <c r="F335" s="10"/>
+      <c r="E335" s="10">
+        <v>0</v>
+      </c>
+      <c r="F335" s="10">
+        <v>0</v>
+      </c>
       <c r="G335" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H335" s="11" t="s">
@@ -16911,14 +18061,20 @@
         <v>752</v>
       </c>
       <c r="J335" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K335" s="8"/>
       <c r="L335" s="8"/>
-      <c r="M335" s="8"/>
-      <c r="N335" s="8"/>
-      <c r="O335" s="13"/>
+      <c r="M335" s="8">
+        <v>4</v>
+      </c>
+      <c r="N335" s="8">
+        <v>61</v>
+      </c>
+      <c r="O335" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="336" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="7">
@@ -16933,11 +18089,15 @@
       <c r="D336" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E336" s="10"/>
-      <c r="F336" s="10"/>
+      <c r="E336" s="10">
+        <v>16</v>
+      </c>
+      <c r="F336" s="10">
+        <v>0</v>
+      </c>
       <c r="G336" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>16</v>
       </c>
       <c r="H336" s="11" t="s">
         <v>387</v>
@@ -16946,14 +18106,20 @@
         <v>752</v>
       </c>
       <c r="J336" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K336" s="8"/>
       <c r="L336" s="8"/>
-      <c r="M336" s="8"/>
-      <c r="N336" s="8"/>
-      <c r="O336" s="13"/>
+      <c r="M336" s="8">
+        <v>4</v>
+      </c>
+      <c r="N336" s="8">
+        <v>61</v>
+      </c>
+      <c r="O336" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="337" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="7">
@@ -16968,11 +18134,15 @@
       <c r="D337" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E337" s="10"/>
-      <c r="F337" s="10"/>
+      <c r="E337" s="10">
+        <v>37</v>
+      </c>
+      <c r="F337" s="10">
+        <v>5</v>
+      </c>
       <c r="G337" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>42</v>
       </c>
       <c r="H337" s="11" t="s">
         <v>387</v>
@@ -16981,14 +18151,20 @@
         <v>752</v>
       </c>
       <c r="J337" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K337" s="8"/>
       <c r="L337" s="8"/>
-      <c r="M337" s="8"/>
-      <c r="N337" s="8"/>
-      <c r="O337" s="13"/>
+      <c r="M337" s="8">
+        <v>4</v>
+      </c>
+      <c r="N337" s="8">
+        <v>61</v>
+      </c>
+      <c r="O337" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="338" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="7">
@@ -17003,11 +18179,15 @@
       <c r="D338" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E338" s="10"/>
-      <c r="F338" s="10"/>
+      <c r="E338" s="10">
+        <v>29</v>
+      </c>
+      <c r="F338" s="10">
+        <v>3</v>
+      </c>
       <c r="G338" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>32</v>
       </c>
       <c r="H338" s="11" t="s">
         <v>387</v>
@@ -17016,14 +18196,20 @@
         <v>752</v>
       </c>
       <c r="J338" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K338" s="8"/>
       <c r="L338" s="8"/>
-      <c r="M338" s="8"/>
-      <c r="N338" s="8"/>
-      <c r="O338" s="13"/>
+      <c r="M338" s="8">
+        <v>4</v>
+      </c>
+      <c r="N338" s="8">
+        <v>61</v>
+      </c>
+      <c r="O338" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="339" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="7">
@@ -17038,11 +18224,15 @@
       <c r="D339" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E339" s="10"/>
-      <c r="F339" s="10"/>
+      <c r="E339" s="10">
+        <v>23</v>
+      </c>
+      <c r="F339" s="10">
+        <v>0</v>
+      </c>
       <c r="G339" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>23</v>
       </c>
       <c r="H339" s="11" t="s">
         <v>387</v>
@@ -17051,14 +18241,20 @@
         <v>752</v>
       </c>
       <c r="J339" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K339" s="8"/>
       <c r="L339" s="8"/>
-      <c r="M339" s="8"/>
-      <c r="N339" s="8"/>
-      <c r="O339" s="13"/>
+      <c r="M339" s="8">
+        <v>4</v>
+      </c>
+      <c r="N339" s="8">
+        <v>61</v>
+      </c>
+      <c r="O339" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="340" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="7">
@@ -17073,11 +18269,15 @@
       <c r="D340" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E340" s="10"/>
-      <c r="F340" s="10"/>
+      <c r="E340" s="10">
+        <v>36</v>
+      </c>
+      <c r="F340" s="10">
+        <v>3</v>
+      </c>
       <c r="G340" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>39</v>
       </c>
       <c r="H340" s="11" t="s">
         <v>387</v>
@@ -17086,14 +18286,20 @@
         <v>752</v>
       </c>
       <c r="J340" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K340" s="8"/>
       <c r="L340" s="8"/>
-      <c r="M340" s="8"/>
-      <c r="N340" s="8"/>
-      <c r="O340" s="13"/>
+      <c r="M340" s="8">
+        <v>4</v>
+      </c>
+      <c r="N340" s="8">
+        <v>61</v>
+      </c>
+      <c r="O340" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="341" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="7">
@@ -17108,11 +18314,15 @@
       <c r="D341" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E341" s="10"/>
-      <c r="F341" s="10"/>
+      <c r="E341" s="10">
+        <v>35</v>
+      </c>
+      <c r="F341" s="10">
+        <v>15</v>
+      </c>
       <c r="G341" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>50</v>
       </c>
       <c r="H341" s="11" t="s">
         <v>387</v>
@@ -17121,14 +18331,24 @@
         <v>752</v>
       </c>
       <c r="J341" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>راسب</v>
-      </c>
-      <c r="K341" s="8"/>
-      <c r="L341" s="8"/>
-      <c r="M341" s="8"/>
-      <c r="N341" s="8"/>
-      <c r="O341" s="13"/>
+        <f t="shared" si="16"/>
+        <v>ناجح</v>
+      </c>
+      <c r="K341" s="8">
+        <v>4</v>
+      </c>
+      <c r="L341" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M341" s="8">
+        <v>4</v>
+      </c>
+      <c r="N341" s="8">
+        <v>61</v>
+      </c>
+      <c r="O341" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="342" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="7">
@@ -17143,11 +18363,15 @@
       <c r="D342" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E342" s="10"/>
-      <c r="F342" s="10"/>
+      <c r="E342" s="10">
+        <v>21</v>
+      </c>
+      <c r="F342" s="10">
+        <v>0</v>
+      </c>
       <c r="G342" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>21</v>
       </c>
       <c r="H342" s="11" t="s">
         <v>387</v>
@@ -17156,14 +18380,20 @@
         <v>752</v>
       </c>
       <c r="J342" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K342" s="8"/>
       <c r="L342" s="8"/>
-      <c r="M342" s="8"/>
-      <c r="N342" s="8"/>
-      <c r="O342" s="13"/>
+      <c r="M342" s="8">
+        <v>4</v>
+      </c>
+      <c r="N342" s="8">
+        <v>61</v>
+      </c>
+      <c r="O342" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="343" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="7">
@@ -17178,11 +18408,15 @@
       <c r="D343" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E343" s="10"/>
-      <c r="F343" s="10"/>
+      <c r="E343" s="10">
+        <v>32</v>
+      </c>
+      <c r="F343" s="10">
+        <v>3</v>
+      </c>
       <c r="G343" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>35</v>
       </c>
       <c r="H343" s="11" t="s">
         <v>387</v>
@@ -17191,14 +18425,20 @@
         <v>752</v>
       </c>
       <c r="J343" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K343" s="8"/>
       <c r="L343" s="8"/>
-      <c r="M343" s="8"/>
-      <c r="N343" s="8"/>
-      <c r="O343" s="13"/>
+      <c r="M343" s="8">
+        <v>4</v>
+      </c>
+      <c r="N343" s="8">
+        <v>61</v>
+      </c>
+      <c r="O343" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="344" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="7">
@@ -17213,10 +18453,14 @@
       <c r="D344" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E344" s="10"/>
-      <c r="F344" s="10"/>
+      <c r="E344" s="10">
+        <v>0</v>
+      </c>
+      <c r="F344" s="10">
+        <v>0</v>
+      </c>
       <c r="G344" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H344" s="11" t="s">
@@ -17226,14 +18470,20 @@
         <v>752</v>
       </c>
       <c r="J344" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K344" s="8"/>
       <c r="L344" s="8"/>
-      <c r="M344" s="8"/>
-      <c r="N344" s="8"/>
-      <c r="O344" s="13"/>
+      <c r="M344" s="8">
+        <v>4</v>
+      </c>
+      <c r="N344" s="8">
+        <v>61</v>
+      </c>
+      <c r="O344" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="345" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="7">
@@ -17248,11 +18498,15 @@
       <c r="D345" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E345" s="10"/>
-      <c r="F345" s="10"/>
+      <c r="E345" s="10">
+        <v>32</v>
+      </c>
+      <c r="F345" s="10">
+        <v>1</v>
+      </c>
       <c r="G345" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>33</v>
       </c>
       <c r="H345" s="11" t="s">
         <v>387</v>
@@ -17261,14 +18515,20 @@
         <v>752</v>
       </c>
       <c r="J345" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K345" s="8"/>
       <c r="L345" s="8"/>
-      <c r="M345" s="8"/>
-      <c r="N345" s="8"/>
-      <c r="O345" s="13"/>
+      <c r="M345" s="8">
+        <v>4</v>
+      </c>
+      <c r="N345" s="8">
+        <v>61</v>
+      </c>
+      <c r="O345" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="346" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="7">
@@ -17283,10 +18543,14 @@
       <c r="D346" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E346" s="10"/>
-      <c r="F346" s="10"/>
+      <c r="E346" s="10">
+        <v>0</v>
+      </c>
+      <c r="F346" s="10">
+        <v>0</v>
+      </c>
       <c r="G346" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H346" s="11" t="s">
@@ -17296,14 +18560,20 @@
         <v>752</v>
       </c>
       <c r="J346" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K346" s="8"/>
       <c r="L346" s="8"/>
-      <c r="M346" s="8"/>
-      <c r="N346" s="8"/>
-      <c r="O346" s="13"/>
+      <c r="M346" s="8">
+        <v>4</v>
+      </c>
+      <c r="N346" s="8">
+        <v>61</v>
+      </c>
+      <c r="O346" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="347" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="7">
@@ -17318,11 +18588,15 @@
       <c r="D347" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E347" s="10"/>
-      <c r="F347" s="10"/>
+      <c r="E347" s="10">
+        <v>27</v>
+      </c>
+      <c r="F347" s="10">
+        <v>8</v>
+      </c>
       <c r="G347" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>35</v>
       </c>
       <c r="H347" s="11" t="s">
         <v>387</v>
@@ -17331,14 +18605,20 @@
         <v>752</v>
       </c>
       <c r="J347" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K347" s="8"/>
       <c r="L347" s="8"/>
-      <c r="M347" s="8"/>
-      <c r="N347" s="8"/>
-      <c r="O347" s="13"/>
+      <c r="M347" s="8">
+        <v>4</v>
+      </c>
+      <c r="N347" s="8">
+        <v>61</v>
+      </c>
+      <c r="O347" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="348" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="7">
@@ -17353,11 +18633,15 @@
       <c r="D348" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E348" s="10"/>
-      <c r="F348" s="10"/>
+      <c r="E348" s="10">
+        <v>37</v>
+      </c>
+      <c r="F348" s="10">
+        <v>0</v>
+      </c>
       <c r="G348" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>37</v>
       </c>
       <c r="H348" s="11" t="s">
         <v>387</v>
@@ -17366,14 +18650,20 @@
         <v>752</v>
       </c>
       <c r="J348" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K348" s="8"/>
       <c r="L348" s="8"/>
-      <c r="M348" s="8"/>
-      <c r="N348" s="8"/>
-      <c r="O348" s="13"/>
+      <c r="M348" s="8">
+        <v>4</v>
+      </c>
+      <c r="N348" s="8">
+        <v>61</v>
+      </c>
+      <c r="O348" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="349" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="7">
@@ -17388,11 +18678,15 @@
       <c r="D349" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E349" s="10"/>
-      <c r="F349" s="10"/>
+      <c r="E349" s="10">
+        <v>37</v>
+      </c>
+      <c r="F349" s="10">
+        <v>17</v>
+      </c>
       <c r="G349" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>54</v>
       </c>
       <c r="H349" s="11" t="s">
         <v>387</v>
@@ -17401,14 +18695,24 @@
         <v>752</v>
       </c>
       <c r="J349" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>راسب</v>
-      </c>
-      <c r="K349" s="8"/>
-      <c r="L349" s="8"/>
-      <c r="M349" s="8"/>
-      <c r="N349" s="8"/>
-      <c r="O349" s="13"/>
+        <f t="shared" si="16"/>
+        <v>ناجح</v>
+      </c>
+      <c r="K349" s="8">
+        <v>3</v>
+      </c>
+      <c r="L349" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M349" s="8">
+        <v>4</v>
+      </c>
+      <c r="N349" s="8">
+        <v>61</v>
+      </c>
+      <c r="O349" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="350" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="7">
@@ -17423,11 +18727,15 @@
       <c r="D350" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E350" s="10"/>
-      <c r="F350" s="10"/>
+      <c r="E350" s="10">
+        <v>36</v>
+      </c>
+      <c r="F350" s="10">
+        <v>3</v>
+      </c>
       <c r="G350" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>39</v>
       </c>
       <c r="H350" s="11" t="s">
         <v>387</v>
@@ -17436,14 +18744,20 @@
         <v>752</v>
       </c>
       <c r="J350" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K350" s="8"/>
       <c r="L350" s="8"/>
-      <c r="M350" s="8"/>
-      <c r="N350" s="8"/>
-      <c r="O350" s="13"/>
+      <c r="M350" s="8">
+        <v>4</v>
+      </c>
+      <c r="N350" s="8">
+        <v>61</v>
+      </c>
+      <c r="O350" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="351" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="7">
@@ -17458,11 +18772,15 @@
       <c r="D351" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E351" s="10"/>
-      <c r="F351" s="10"/>
+      <c r="E351" s="10">
+        <v>35</v>
+      </c>
+      <c r="F351" s="10">
+        <v>6</v>
+      </c>
       <c r="G351" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>41</v>
       </c>
       <c r="H351" s="11" t="s">
         <v>387</v>
@@ -17471,14 +18789,20 @@
         <v>752</v>
       </c>
       <c r="J351" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K351" s="8"/>
       <c r="L351" s="8"/>
-      <c r="M351" s="8"/>
-      <c r="N351" s="8"/>
-      <c r="O351" s="13"/>
+      <c r="M351" s="8">
+        <v>4</v>
+      </c>
+      <c r="N351" s="8">
+        <v>61</v>
+      </c>
+      <c r="O351" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="352" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="7">
@@ -17493,11 +18817,15 @@
       <c r="D352" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E352" s="10"/>
-      <c r="F352" s="10"/>
+      <c r="E352" s="10">
+        <v>37</v>
+      </c>
+      <c r="F352" s="10">
+        <v>18</v>
+      </c>
       <c r="G352" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>55</v>
       </c>
       <c r="H352" s="11" t="s">
         <v>387</v>
@@ -17506,14 +18834,24 @@
         <v>752</v>
       </c>
       <c r="J352" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>راسب</v>
-      </c>
-      <c r="K352" s="8"/>
-      <c r="L352" s="8"/>
-      <c r="M352" s="8"/>
-      <c r="N352" s="8"/>
-      <c r="O352" s="13"/>
+        <f t="shared" si="16"/>
+        <v>ناجح</v>
+      </c>
+      <c r="K352" s="8">
+        <v>2</v>
+      </c>
+      <c r="L352" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M352" s="8">
+        <v>4</v>
+      </c>
+      <c r="N352" s="8">
+        <v>61</v>
+      </c>
+      <c r="O352" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="353" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="7">
@@ -17528,11 +18866,15 @@
       <c r="D353" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E353" s="10"/>
-      <c r="F353" s="10"/>
+      <c r="E353" s="10">
+        <v>23</v>
+      </c>
+      <c r="F353" s="10">
+        <v>0</v>
+      </c>
       <c r="G353" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>23</v>
       </c>
       <c r="H353" s="11" t="s">
         <v>387</v>
@@ -17541,14 +18883,20 @@
         <v>752</v>
       </c>
       <c r="J353" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K353" s="8"/>
       <c r="L353" s="8"/>
-      <c r="M353" s="8"/>
-      <c r="N353" s="8"/>
-      <c r="O353" s="13"/>
+      <c r="M353" s="8">
+        <v>4</v>
+      </c>
+      <c r="N353" s="8">
+        <v>61</v>
+      </c>
+      <c r="O353" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="354" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="7">
@@ -17563,11 +18911,15 @@
       <c r="D354" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E354" s="10"/>
-      <c r="F354" s="10"/>
+      <c r="E354" s="10">
+        <v>20</v>
+      </c>
+      <c r="F354" s="10">
+        <v>7</v>
+      </c>
       <c r="G354" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>27</v>
       </c>
       <c r="H354" s="11" t="s">
         <v>387</v>
@@ -17576,14 +18928,20 @@
         <v>752</v>
       </c>
       <c r="J354" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K354" s="8"/>
       <c r="L354" s="8"/>
-      <c r="M354" s="8"/>
-      <c r="N354" s="8"/>
-      <c r="O354" s="13"/>
+      <c r="M354" s="8">
+        <v>4</v>
+      </c>
+      <c r="N354" s="8">
+        <v>61</v>
+      </c>
+      <c r="O354" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="355" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="7">
@@ -17598,10 +18956,14 @@
       <c r="D355" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E355" s="10"/>
-      <c r="F355" s="10"/>
+      <c r="E355" s="10">
+        <v>0</v>
+      </c>
+      <c r="F355" s="10">
+        <v>0</v>
+      </c>
       <c r="G355" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H355" s="11" t="s">
@@ -17611,14 +18973,20 @@
         <v>752</v>
       </c>
       <c r="J355" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K355" s="8"/>
       <c r="L355" s="8"/>
-      <c r="M355" s="8"/>
-      <c r="N355" s="8"/>
-      <c r="O355" s="13"/>
+      <c r="M355" s="8">
+        <v>4</v>
+      </c>
+      <c r="N355" s="8">
+        <v>61</v>
+      </c>
+      <c r="O355" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="356" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="7">
@@ -17633,11 +19001,15 @@
       <c r="D356" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E356" s="10"/>
-      <c r="F356" s="10"/>
+      <c r="E356" s="10">
+        <v>32</v>
+      </c>
+      <c r="F356" s="10">
+        <v>9</v>
+      </c>
       <c r="G356" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>41</v>
       </c>
       <c r="H356" s="11" t="s">
         <v>387</v>
@@ -17646,14 +19018,20 @@
         <v>752</v>
       </c>
       <c r="J356" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K356" s="8"/>
       <c r="L356" s="8"/>
-      <c r="M356" s="8"/>
-      <c r="N356" s="8"/>
-      <c r="O356" s="13"/>
+      <c r="M356" s="8">
+        <v>4</v>
+      </c>
+      <c r="N356" s="8">
+        <v>61</v>
+      </c>
+      <c r="O356" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="357" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="7">
@@ -17668,10 +19046,14 @@
       <c r="D357" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E357" s="10"/>
-      <c r="F357" s="10"/>
+      <c r="E357" s="10">
+        <v>0</v>
+      </c>
+      <c r="F357" s="10">
+        <v>0</v>
+      </c>
       <c r="G357" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H357" s="11" t="s">
@@ -17681,14 +19063,20 @@
         <v>752</v>
       </c>
       <c r="J357" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K357" s="8"/>
       <c r="L357" s="8"/>
-      <c r="M357" s="8"/>
-      <c r="N357" s="8"/>
-      <c r="O357" s="13"/>
+      <c r="M357" s="8">
+        <v>4</v>
+      </c>
+      <c r="N357" s="8">
+        <v>61</v>
+      </c>
+      <c r="O357" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="358" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="7">
@@ -17703,11 +19091,15 @@
       <c r="D358" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E358" s="10"/>
-      <c r="F358" s="10"/>
+      <c r="E358" s="10">
+        <v>27</v>
+      </c>
+      <c r="F358" s="10">
+        <v>7</v>
+      </c>
       <c r="G358" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>34</v>
       </c>
       <c r="H358" s="11" t="s">
         <v>387</v>
@@ -17716,14 +19108,20 @@
         <v>752</v>
       </c>
       <c r="J358" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K358" s="8"/>
       <c r="L358" s="8"/>
-      <c r="M358" s="8"/>
-      <c r="N358" s="8"/>
-      <c r="O358" s="13"/>
+      <c r="M358" s="8">
+        <v>4</v>
+      </c>
+      <c r="N358" s="8">
+        <v>61</v>
+      </c>
+      <c r="O358" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="359" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="7">
@@ -17738,11 +19136,15 @@
       <c r="D359" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E359" s="10"/>
-      <c r="F359" s="10"/>
+      <c r="E359" s="10">
+        <v>24</v>
+      </c>
+      <c r="F359" s="10">
+        <v>4</v>
+      </c>
       <c r="G359" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>28</v>
       </c>
       <c r="H359" s="11" t="s">
         <v>387</v>
@@ -17751,14 +19153,20 @@
         <v>752</v>
       </c>
       <c r="J359" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K359" s="8"/>
       <c r="L359" s="8"/>
-      <c r="M359" s="8"/>
-      <c r="N359" s="8"/>
-      <c r="O359" s="13"/>
+      <c r="M359" s="8">
+        <v>4</v>
+      </c>
+      <c r="N359" s="8">
+        <v>61</v>
+      </c>
+      <c r="O359" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="360" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="7">
@@ -17773,11 +19181,15 @@
       <c r="D360" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E360" s="10"/>
-      <c r="F360" s="10"/>
+      <c r="E360" s="10">
+        <v>27</v>
+      </c>
+      <c r="F360" s="10">
+        <v>5</v>
+      </c>
       <c r="G360" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>32</v>
       </c>
       <c r="H360" s="11" t="s">
         <v>387</v>
@@ -17786,14 +19198,20 @@
         <v>752</v>
       </c>
       <c r="J360" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K360" s="8"/>
       <c r="L360" s="8"/>
-      <c r="M360" s="8"/>
-      <c r="N360" s="8"/>
-      <c r="O360" s="13"/>
+      <c r="M360" s="8">
+        <v>4</v>
+      </c>
+      <c r="N360" s="8">
+        <v>61</v>
+      </c>
+      <c r="O360" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="361" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="7">
@@ -17808,11 +19226,15 @@
       <c r="D361" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E361" s="10"/>
-      <c r="F361" s="10"/>
+      <c r="E361" s="10">
+        <v>32</v>
+      </c>
+      <c r="F361" s="10">
+        <v>2</v>
+      </c>
       <c r="G361" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>34</v>
       </c>
       <c r="H361" s="11" t="s">
         <v>387</v>
@@ -17821,14 +19243,20 @@
         <v>752</v>
       </c>
       <c r="J361" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K361" s="8"/>
       <c r="L361" s="8"/>
-      <c r="M361" s="8"/>
-      <c r="N361" s="8"/>
-      <c r="O361" s="13"/>
+      <c r="M361" s="8">
+        <v>4</v>
+      </c>
+      <c r="N361" s="8">
+        <v>61</v>
+      </c>
+      <c r="O361" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="362" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="7">
@@ -17843,11 +19271,15 @@
       <c r="D362" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E362" s="10"/>
-      <c r="F362" s="10"/>
+      <c r="E362" s="10">
+        <v>25</v>
+      </c>
+      <c r="F362" s="10">
+        <v>4</v>
+      </c>
       <c r="G362" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>29</v>
       </c>
       <c r="H362" s="11" t="s">
         <v>387</v>
@@ -17856,14 +19288,20 @@
         <v>752</v>
       </c>
       <c r="J362" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K362" s="8"/>
       <c r="L362" s="8"/>
-      <c r="M362" s="8"/>
-      <c r="N362" s="8"/>
-      <c r="O362" s="13"/>
+      <c r="M362" s="8">
+        <v>4</v>
+      </c>
+      <c r="N362" s="8">
+        <v>61</v>
+      </c>
+      <c r="O362" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="363" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="7">
@@ -17878,11 +19316,15 @@
       <c r="D363" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E363" s="10"/>
-      <c r="F363" s="10"/>
+      <c r="E363" s="10">
+        <v>24</v>
+      </c>
+      <c r="F363" s="10">
+        <v>5</v>
+      </c>
       <c r="G363" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>29</v>
       </c>
       <c r="H363" s="11" t="s">
         <v>387</v>
@@ -17891,14 +19333,20 @@
         <v>752</v>
       </c>
       <c r="J363" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K363" s="8"/>
       <c r="L363" s="8"/>
-      <c r="M363" s="8"/>
-      <c r="N363" s="8"/>
-      <c r="O363" s="13"/>
+      <c r="M363" s="8">
+        <v>4</v>
+      </c>
+      <c r="N363" s="8">
+        <v>61</v>
+      </c>
+      <c r="O363" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="364" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="7">
@@ -17913,11 +19361,15 @@
       <c r="D364" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E364" s="10"/>
-      <c r="F364" s="10"/>
+      <c r="E364" s="10">
+        <v>35</v>
+      </c>
+      <c r="F364" s="10">
+        <v>9</v>
+      </c>
       <c r="G364" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>44</v>
       </c>
       <c r="H364" s="11" t="s">
         <v>387</v>
@@ -17926,14 +19378,20 @@
         <v>752</v>
       </c>
       <c r="J364" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K364" s="8"/>
       <c r="L364" s="8"/>
-      <c r="M364" s="8"/>
-      <c r="N364" s="8"/>
-      <c r="O364" s="13"/>
+      <c r="M364" s="8">
+        <v>4</v>
+      </c>
+      <c r="N364" s="8">
+        <v>61</v>
+      </c>
+      <c r="O364" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
     <row r="365" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="7">
@@ -17948,11 +19406,15 @@
       <c r="D365" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E365" s="10"/>
-      <c r="F365" s="10"/>
+      <c r="E365" s="10">
+        <v>23</v>
+      </c>
+      <c r="F365" s="10">
+        <v>0</v>
+      </c>
       <c r="G365" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>23</v>
       </c>
       <c r="H365" s="11" t="s">
         <v>387</v>
@@ -17961,18 +19423,24 @@
         <v>752</v>
       </c>
       <c r="J365" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>راسب</v>
       </c>
       <c r="K365" s="8"/>
       <c r="L365" s="8"/>
-      <c r="M365" s="8"/>
-      <c r="N365" s="8"/>
-      <c r="O365" s="13"/>
+      <c r="M365" s="8">
+        <v>4</v>
+      </c>
+      <c r="N365" s="8">
+        <v>61</v>
+      </c>
+      <c r="O365" s="13">
+        <v>6.5600000000000006E-2</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A75:O118">
-    <sortCondition descending="1" ref="G2:G118"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A252:O300">
+    <sortCondition ref="B2:B300"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
